--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="445">
   <si>
     <t>id|</t>
   </si>
@@ -1792,35 +1792,6 @@
   <si>
     <t>钻石宝箱（V8-V10）</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_jrth_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_jrth_2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_jrth_3</t>
-  </si>
-  <si>
-    <t>prop_jrth_4</t>
-  </si>
-  <si>
-    <t>prop_jrth_5</t>
-  </si>
-  <si>
-    <t>prop_jrth_6</t>
-  </si>
-  <si>
-    <t>prop_jrth_7</t>
-  </si>
-  <si>
-    <t>prop_jrth_8</t>
-  </si>
-  <si>
-    <t>prop_jrth_9</t>
   </si>
   <si>
     <r>
@@ -3747,8 +3718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="J27:K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4086,7 +4057,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>388</v>
+        <v>293</v>
       </c>
       <c r="D24" s="23">
         <v>1</v>
@@ -4100,7 +4071,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>389</v>
+        <v>294</v>
       </c>
       <c r="D25" s="26">
         <v>1</v>
@@ -4114,7 +4085,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>390</v>
+        <v>295</v>
       </c>
       <c r="D26" s="26">
         <v>1</v>
@@ -4128,7 +4099,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>391</v>
+        <v>296</v>
       </c>
       <c r="D27" s="23">
         <v>1</v>
@@ -4142,7 +4113,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>392</v>
+        <v>297</v>
       </c>
       <c r="D28" s="23">
         <v>1</v>
@@ -4156,7 +4127,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>393</v>
+        <v>298</v>
       </c>
       <c r="D29" s="23">
         <v>1</v>
@@ -4170,7 +4141,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>394</v>
+        <v>299</v>
       </c>
       <c r="D30" s="23">
         <v>1</v>
@@ -4184,7 +4155,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>395</v>
+        <v>300</v>
       </c>
       <c r="D31" s="23">
         <v>1</v>
@@ -4198,7 +4169,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>396</v>
+        <v>301</v>
       </c>
       <c r="D32" s="23">
         <v>1</v>
@@ -4264,7 +4235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8856,13 +8827,13 @@
         <v>11601</v>
       </c>
       <c r="D221" s="24" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E221" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F221" s="27" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G221" s="23">
         <v>32</v>
@@ -8879,13 +8850,13 @@
         <v>11602</v>
       </c>
       <c r="D222" s="24" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E222" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="G222" s="23">
         <v>32</v>
@@ -8902,13 +8873,13 @@
         <v>11603</v>
       </c>
       <c r="D223" s="24" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E223" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G223" s="23">
         <v>32</v>
@@ -8925,13 +8896,13 @@
         <v>11604</v>
       </c>
       <c r="D224" s="24" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E224" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="G224" s="23">
         <v>4</v>
@@ -8948,13 +8919,13 @@
         <v>11611</v>
       </c>
       <c r="D225" s="24" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E225" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G225" s="23">
         <v>32</v>
@@ -8971,13 +8942,13 @@
         <v>11612</v>
       </c>
       <c r="D226" s="24" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E226" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="G226" s="23">
         <v>32</v>
@@ -8994,13 +8965,13 @@
         <v>11613</v>
       </c>
       <c r="D227" s="24" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E227" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="G227" s="23">
         <v>32</v>
@@ -9017,13 +8988,13 @@
         <v>11614</v>
       </c>
       <c r="D228" s="24" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E228" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="G228" s="23">
         <v>4</v>
@@ -9040,13 +9011,13 @@
         <v>11621</v>
       </c>
       <c r="D229" s="24" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E229" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G229" s="23">
         <v>32</v>
@@ -9063,13 +9034,13 @@
         <v>11622</v>
       </c>
       <c r="D230" s="24" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="E230" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G230" s="23">
         <v>32</v>
@@ -9086,13 +9057,13 @@
         <v>11623</v>
       </c>
       <c r="D231" s="24" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E231" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G231" s="23">
         <v>32</v>
@@ -9109,13 +9080,13 @@
         <v>11624</v>
       </c>
       <c r="D232" s="24" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E232" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="G232" s="23">
         <v>4</v>
@@ -9132,13 +9103,13 @@
         <v>11631</v>
       </c>
       <c r="D233" s="24" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E233" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G233" s="23">
         <v>32</v>
@@ -9155,13 +9126,13 @@
         <v>11632</v>
       </c>
       <c r="D234" s="24" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E234" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="G234" s="23">
         <v>32</v>
@@ -9178,13 +9149,13 @@
         <v>11633</v>
       </c>
       <c r="D235" s="24" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="E235" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G235" s="23">
         <v>32</v>
@@ -9201,13 +9172,13 @@
         <v>11634</v>
       </c>
       <c r="D236" s="24" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E236" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="G236" s="23">
         <v>4</v>
@@ -9224,13 +9195,13 @@
         <v>11641</v>
       </c>
       <c r="D237" s="24" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E237" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G237" s="23">
         <v>32</v>
@@ -9247,13 +9218,13 @@
         <v>11642</v>
       </c>
       <c r="D238" s="24" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="E238" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="G238" s="23">
         <v>32</v>
@@ -9270,13 +9241,13 @@
         <v>11643</v>
       </c>
       <c r="D239" s="24" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E239" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G239" s="23">
         <v>32</v>
@@ -9293,13 +9264,13 @@
         <v>11644</v>
       </c>
       <c r="D240" s="24" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="E240" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="G240" s="23">
         <v>4</v>
@@ -9316,13 +9287,13 @@
         <v>11651</v>
       </c>
       <c r="D241" s="24" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E241" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G241" s="23">
         <v>32</v>
@@ -9339,13 +9310,13 @@
         <v>11652</v>
       </c>
       <c r="D242" s="24" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E242" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G242" s="23">
         <v>32</v>
@@ -9362,13 +9333,13 @@
         <v>11653</v>
       </c>
       <c r="D243" s="24" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E243" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G243" s="23">
         <v>32</v>
@@ -9385,13 +9356,13 @@
         <v>11654</v>
       </c>
       <c r="D244" s="24" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="E244" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="G244" s="23">
         <v>4</v>
@@ -9408,13 +9379,13 @@
         <v>11661</v>
       </c>
       <c r="D245" s="24" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E245" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G245" s="23">
         <v>32</v>
@@ -9431,13 +9402,13 @@
         <v>11662</v>
       </c>
       <c r="D246" s="24" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="E246" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="G246" s="23">
         <v>32</v>
@@ -9454,13 +9425,13 @@
         <v>11663</v>
       </c>
       <c r="D247" s="24" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E247" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G247" s="23">
         <v>32</v>
@@ -9477,13 +9448,13 @@
         <v>11664</v>
       </c>
       <c r="D248" s="24" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="E248" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="G248" s="23">
         <v>4</v>
@@ -9500,13 +9471,13 @@
         <v>11671</v>
       </c>
       <c r="D249" s="24" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E249" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G249" s="23">
         <v>32</v>
@@ -9523,13 +9494,13 @@
         <v>11672</v>
       </c>
       <c r="D250" s="24" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E250" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G250" s="23">
         <v>32</v>
@@ -9546,13 +9517,13 @@
         <v>11673</v>
       </c>
       <c r="D251" s="24" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E251" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G251" s="23">
         <v>32</v>
@@ -9569,13 +9540,13 @@
         <v>11674</v>
       </c>
       <c r="D252" s="24" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="E252" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F252" s="27" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="G252" s="23">
         <v>4</v>
@@ -9592,13 +9563,13 @@
         <v>11681</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E253" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F253" s="27" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G253" s="23">
         <v>32</v>
@@ -9615,13 +9586,13 @@
         <v>11682</v>
       </c>
       <c r="D254" s="24" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="E254" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="G254" s="23">
         <v>32</v>
@@ -9638,13 +9609,13 @@
         <v>11683</v>
       </c>
       <c r="D255" s="24" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E255" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G255" s="23">
         <v>32</v>
@@ -9661,13 +9632,13 @@
         <v>11684</v>
       </c>
       <c r="D256" s="24" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E256" s="24" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="G256" s="23">
         <v>4</v>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2556,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3718,8 +3718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4239,7 +4239,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H233" sqref="H233"/>
+      <selection pane="bottomRight" activeCell="B257" sqref="B257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8821,7 +8821,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="23">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C221" s="23">
         <v>11601</v>
@@ -8844,7 +8844,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="23">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C222" s="23">
         <v>11602</v>
@@ -8867,7 +8867,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="23">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C223" s="23">
         <v>11603</v>
@@ -8890,7 +8890,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="23">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C224" s="23">
         <v>11604</v>
@@ -8913,7 +8913,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="23">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C225" s="23">
         <v>11611</v>
@@ -8936,7 +8936,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="23">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C226" s="23">
         <v>11612</v>
@@ -8959,7 +8959,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="23">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C227" s="23">
         <v>11613</v>
@@ -8982,7 +8982,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="23">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C228" s="23">
         <v>11614</v>
@@ -9005,7 +9005,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="23">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C229" s="23">
         <v>11621</v>
@@ -9028,7 +9028,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="23">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C230" s="23">
         <v>11622</v>
@@ -9051,7 +9051,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="23">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C231" s="23">
         <v>11623</v>
@@ -9074,7 +9074,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="23">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C232" s="23">
         <v>11624</v>
@@ -9097,7 +9097,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="23">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C233" s="23">
         <v>11631</v>
@@ -9120,7 +9120,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="23">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C234" s="23">
         <v>11632</v>
@@ -9143,7 +9143,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="23">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C235" s="23">
         <v>11633</v>
@@ -9166,7 +9166,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="23">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C236" s="23">
         <v>11634</v>
@@ -9189,7 +9189,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="23">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C237" s="23">
         <v>11641</v>
@@ -9212,7 +9212,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="23">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C238" s="23">
         <v>11642</v>
@@ -9235,7 +9235,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="23">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C239" s="23">
         <v>11643</v>
@@ -9258,7 +9258,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="23">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C240" s="23">
         <v>11644</v>
@@ -9281,7 +9281,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="23">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C241" s="23">
         <v>11651</v>
@@ -9304,7 +9304,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="23">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C242" s="23">
         <v>11652</v>
@@ -9327,7 +9327,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="23">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C243" s="23">
         <v>11653</v>
@@ -9350,7 +9350,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="23">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C244" s="23">
         <v>11654</v>
@@ -9373,7 +9373,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="23">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C245" s="23">
         <v>11661</v>
@@ -9396,7 +9396,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="23">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C246" s="23">
         <v>11662</v>
@@ -9419,7 +9419,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="23">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C247" s="23">
         <v>11663</v>
@@ -9442,7 +9442,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="23">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C248" s="23">
         <v>11664</v>
@@ -9465,7 +9465,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="23">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C249" s="23">
         <v>11671</v>
@@ -9488,7 +9488,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="23">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C250" s="23">
         <v>11672</v>
@@ -9511,7 +9511,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="23">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C251" s="23">
         <v>11673</v>
@@ -9534,7 +9534,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="23">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C252" s="23">
         <v>11674</v>
@@ -9557,7 +9557,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="23">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C253" s="23">
         <v>11681</v>
@@ -9580,7 +9580,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="23">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C254" s="23">
         <v>11682</v>
@@ -9603,7 +9603,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="23">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C255" s="23">
         <v>11683</v>
@@ -9626,7 +9626,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="23">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C256" s="23">
         <v>11684</v>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_0818\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="506">
   <si>
     <t>id|</t>
   </si>
@@ -1795,6 +1795,339 @@
   </si>
   <si>
     <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0万鲸币</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>190万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5280万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>680000,680000</t>
+  </si>
+  <si>
+    <t>700000,700000</t>
+  </si>
+  <si>
+    <t>800000,800000</t>
+  </si>
+  <si>
+    <t>1250000,1250000</t>
+  </si>
+  <si>
+    <t>1300000,1300000</t>
+  </si>
+  <si>
+    <t>1350000,1350000</t>
+  </si>
+  <si>
+    <t>1400000,1400000</t>
+  </si>
+  <si>
+    <t>1900000,1900000</t>
+  </si>
+  <si>
+    <t>1950000,1950000</t>
+  </si>
+  <si>
+    <t>2000000,2000000</t>
+  </si>
+  <si>
+    <t>2200000,2200000</t>
+  </si>
+  <si>
+    <t>5000000,5000000</t>
+  </si>
+  <si>
+    <t>5100000,5100000</t>
+  </si>
+  <si>
+    <t>5200000,5200000</t>
+  </si>
+  <si>
+    <t>5300000,5300000</t>
+  </si>
+  <si>
+    <t>10200000,10200000</t>
+  </si>
+  <si>
+    <t>10300000,10300000</t>
+  </si>
+  <si>
+    <t>10400000,10400000</t>
+  </si>
+  <si>
+    <t>10600000,10600000</t>
+  </si>
+  <si>
+    <t>20500000,20500000</t>
+  </si>
+  <si>
+    <t>20800000,20800000</t>
+  </si>
+  <si>
+    <t>21000000,21000000</t>
+  </si>
+  <si>
+    <t>21500000,21500000</t>
+  </si>
+  <si>
+    <t>51800000,51800000</t>
+  </si>
+  <si>
+    <t>52500000,52500000</t>
+  </si>
+  <si>
+    <t>52800000,52800000</t>
+  </si>
+  <si>
+    <t>53800000,53800000</t>
+  </si>
+  <si>
+    <t>新人抽大奖-青铜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人抽大奖-白银</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人抽大奖-黄金</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrcdj_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrcdj_2</t>
+  </si>
+  <si>
+    <t>prop_xrcdj_3</t>
+  </si>
+  <si>
+    <t>3000金币</t>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ing_bi</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,3000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000金币</t>
+  </si>
+  <si>
+    <t>4000,4000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000金币</t>
+  </si>
+  <si>
+    <t>6000金币</t>
+  </si>
+  <si>
+    <t>6000,6000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000金币</t>
+  </si>
+  <si>
+    <t>7000,7000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000金币</t>
+  </si>
+  <si>
+    <t>8000,8000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000金币</t>
+  </si>
+  <si>
+    <t>9000,9000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000金币</t>
+  </si>
+  <si>
+    <t>10000,10000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>11000金币</t>
+  </si>
+  <si>
+    <t>11000,11000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6福利券</t>
+  </si>
+  <si>
+    <t>6,6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8福利券</t>
+  </si>
+  <si>
+    <t>8,8</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10福利券</t>
+  </si>
+  <si>
+    <t>10,10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000金币</t>
+  </si>
+  <si>
+    <t>20000,20000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30福利券</t>
+  </si>
+  <si>
+    <t>30,30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4万金币</t>
+  </si>
+  <si>
+    <t>40000,40000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50福利券</t>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>60福利券</t>
+  </si>
+  <si>
+    <t>60,60</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>40福利券</t>
+  </si>
+  <si>
+    <t>40,40</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>80福利券</t>
+  </si>
+  <si>
+    <t>80,80</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100福利券</t>
+  </si>
+  <si>
+    <t>100,100</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>120福利券</t>
+  </si>
+  <si>
+    <t>120,120</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>150福利券</t>
+  </si>
+  <si>
+    <t>150,150</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>160福利券</t>
+  </si>
+  <si>
+    <t>160,160</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>170福利券</t>
+  </si>
+  <si>
+    <t>170,170</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>195万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>510万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>530万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2150万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>6</t>
     </r>
     <r>
@@ -1807,6 +2140,23 @@
         <scheme val="minor"/>
       </rPr>
       <t>5万鲸币</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50000,650000</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1828,6 +2178,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>7</t>
     </r>
@@ -1845,20 +2199,67 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0万鲸币</t>
-    </r>
+    <t>130万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>135万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>220万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>500万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>520万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1030万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1060万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2050万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2080万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2150万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5380万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>125万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>140万鲸币</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1866,55 +2267,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>125万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>130万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>135万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>190万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>195万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>140万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>200万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>220万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>500万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>510万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>520万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>530万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1020万鲸币</t>
+    <t>1040万鲸币</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1922,10 +2275,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1040万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>1060万鲸币</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1934,130 +2283,12 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2080万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2100万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2150万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>5180万鲸币</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>5250万鲸币</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5280万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5380万鲸币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50000,650000</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>680000,680000</t>
-  </si>
-  <si>
-    <t>700000,700000</t>
-  </si>
-  <si>
-    <t>800000,800000</t>
-  </si>
-  <si>
-    <t>1250000,1250000</t>
-  </si>
-  <si>
-    <t>1300000,1300000</t>
-  </si>
-  <si>
-    <t>1350000,1350000</t>
-  </si>
-  <si>
-    <t>1400000,1400000</t>
-  </si>
-  <si>
-    <t>1900000,1900000</t>
-  </si>
-  <si>
-    <t>1950000,1950000</t>
-  </si>
-  <si>
-    <t>2000000,2000000</t>
-  </si>
-  <si>
-    <t>2200000,2200000</t>
-  </si>
-  <si>
-    <t>5000000,5000000</t>
-  </si>
-  <si>
-    <t>5100000,5100000</t>
-  </si>
-  <si>
-    <t>5200000,5200000</t>
-  </si>
-  <si>
-    <t>5300000,5300000</t>
-  </si>
-  <si>
-    <t>10200000,10200000</t>
-  </si>
-  <si>
-    <t>10300000,10300000</t>
-  </si>
-  <si>
-    <t>10400000,10400000</t>
-  </si>
-  <si>
-    <t>10600000,10600000</t>
-  </si>
-  <si>
-    <t>20500000,20500000</t>
-  </si>
-  <si>
-    <t>20800000,20800000</t>
-  </si>
-  <si>
-    <t>21000000,21000000</t>
-  </si>
-  <si>
-    <t>21500000,21500000</t>
-  </si>
-  <si>
-    <t>51800000,51800000</t>
-  </si>
-  <si>
-    <t>52500000,52500000</t>
-  </si>
-  <si>
-    <t>52800000,52800000</t>
-  </si>
-  <si>
-    <t>53800000,53800000</t>
   </si>
 </sst>
 </file>
@@ -2138,7 +2369,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2154,6 +2385,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2197,7 +2434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2278,6 +2515,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2554,10 +2801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q37"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3706,6 +3954,90 @@
         <v>1</v>
       </c>
     </row>
+    <row r="38" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="30">
+        <v>37</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="C38" s="32">
+        <v>1592841599</v>
+      </c>
+      <c r="D38" s="32">
+        <v>32503651200</v>
+      </c>
+      <c r="E38" s="33">
+        <v>32</v>
+      </c>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="32">
+        <v>37</v>
+      </c>
+      <c r="L38" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="30">
+        <v>38</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="C39" s="32">
+        <v>1592841599</v>
+      </c>
+      <c r="D39" s="32">
+        <v>32503651200</v>
+      </c>
+      <c r="E39" s="33">
+        <v>33</v>
+      </c>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="32">
+        <v>38</v>
+      </c>
+      <c r="L39" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="30">
+        <v>39</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="C40" s="32">
+        <v>1592841599</v>
+      </c>
+      <c r="D40" s="32">
+        <v>32503651200</v>
+      </c>
+      <c r="E40" s="33">
+        <v>34</v>
+      </c>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="32">
+        <v>39</v>
+      </c>
+      <c r="L40" s="30">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3716,10 +4048,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4175,13 +4508,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="D33" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="33">
+        <v>33</v>
+      </c>
+      <c r="B34" s="33">
+        <v>33</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="D34" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="33">
+        <v>34</v>
+      </c>
+      <c r="B35" s="33">
+        <v>34</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="D35" s="32">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4191,6 +4558,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4233,13 +4601,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H256"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:H283"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B232" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B248" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B257" sqref="B257"/>
+      <selection pane="bottomRight" activeCell="B275" sqref="B275:B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8827,13 +9196,13 @@
         <v>11601</v>
       </c>
       <c r="D221" s="24" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
       <c r="E221" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F221" s="27" t="s">
-        <v>417</v>
+        <v>479</v>
       </c>
       <c r="G221" s="23">
         <v>32</v>
@@ -8850,13 +9219,13 @@
         <v>11602</v>
       </c>
       <c r="D222" s="24" t="s">
-        <v>389</v>
+        <v>480</v>
       </c>
       <c r="E222" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="G222" s="23">
         <v>32</v>
@@ -8873,13 +9242,13 @@
         <v>11603</v>
       </c>
       <c r="D223" s="24" t="s">
-        <v>390</v>
+        <v>482</v>
       </c>
       <c r="E223" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="F223" s="27" t="s">
         <v>392</v>
-      </c>
-      <c r="F223" s="27" t="s">
-        <v>419</v>
       </c>
       <c r="G223" s="23">
         <v>32</v>
@@ -8896,13 +9265,13 @@
         <v>11604</v>
       </c>
       <c r="D224" s="24" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E224" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="G224" s="23">
         <v>4</v>
@@ -8919,13 +9288,13 @@
         <v>11611</v>
       </c>
       <c r="D225" s="24" t="s">
-        <v>393</v>
+        <v>497</v>
       </c>
       <c r="E225" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="G225" s="23">
         <v>32</v>
@@ -8942,13 +9311,13 @@
         <v>11612</v>
       </c>
       <c r="D226" s="24" t="s">
-        <v>394</v>
+        <v>483</v>
       </c>
       <c r="E226" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="G226" s="23">
         <v>32</v>
@@ -8965,13 +9334,13 @@
         <v>11613</v>
       </c>
       <c r="D227" s="24" t="s">
-        <v>395</v>
+        <v>484</v>
       </c>
       <c r="E227" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="G227" s="23">
         <v>32</v>
@@ -8988,13 +9357,13 @@
         <v>11614</v>
       </c>
       <c r="D228" s="24" t="s">
-        <v>398</v>
+        <v>498</v>
       </c>
       <c r="E228" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="G228" s="23">
         <v>4</v>
@@ -9011,13 +9380,13 @@
         <v>11621</v>
       </c>
       <c r="D229" s="24" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E229" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="G229" s="23">
         <v>32</v>
@@ -9034,13 +9403,13 @@
         <v>11622</v>
       </c>
       <c r="D230" s="24" t="s">
-        <v>397</v>
+        <v>474</v>
       </c>
       <c r="E230" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="G230" s="23">
         <v>32</v>
@@ -9057,13 +9426,13 @@
         <v>11623</v>
       </c>
       <c r="D231" s="24" t="s">
-        <v>399</v>
+        <v>485</v>
       </c>
       <c r="E231" s="24" t="s">
-        <v>392</v>
+        <v>499</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="G231" s="23">
         <v>32</v>
@@ -9080,13 +9449,13 @@
         <v>11624</v>
       </c>
       <c r="D232" s="24" t="s">
-        <v>400</v>
+        <v>486</v>
       </c>
       <c r="E232" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="G232" s="23">
         <v>4</v>
@@ -9103,13 +9472,13 @@
         <v>11631</v>
       </c>
       <c r="D233" s="24" t="s">
-        <v>401</v>
+        <v>487</v>
       </c>
       <c r="E233" s="24" t="s">
-        <v>392</v>
+        <v>499</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="G233" s="23">
         <v>32</v>
@@ -9126,13 +9495,13 @@
         <v>11632</v>
       </c>
       <c r="D234" s="24" t="s">
-        <v>402</v>
+        <v>475</v>
       </c>
       <c r="E234" s="24" t="s">
-        <v>392</v>
+        <v>499</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="G234" s="23">
         <v>32</v>
@@ -9149,13 +9518,13 @@
         <v>11633</v>
       </c>
       <c r="D235" s="24" t="s">
-        <v>403</v>
+        <v>488</v>
       </c>
       <c r="E235" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="G235" s="23">
         <v>32</v>
@@ -9172,13 +9541,13 @@
         <v>11634</v>
       </c>
       <c r="D236" s="24" t="s">
-        <v>404</v>
+        <v>476</v>
       </c>
       <c r="E236" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="G236" s="23">
         <v>4</v>
@@ -9195,13 +9564,13 @@
         <v>11641</v>
       </c>
       <c r="D237" s="24" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="E237" s="24" t="s">
-        <v>392</v>
+        <v>155</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="G237" s="23">
         <v>32</v>
@@ -9218,13 +9587,13 @@
         <v>11642</v>
       </c>
       <c r="D238" s="24" t="s">
-        <v>406</v>
+        <v>489</v>
       </c>
       <c r="E238" s="24" t="s">
-        <v>392</v>
+        <v>155</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="G238" s="23">
         <v>32</v>
@@ -9241,13 +9610,13 @@
         <v>11643</v>
       </c>
       <c r="D239" s="24" t="s">
-        <v>407</v>
+        <v>500</v>
       </c>
       <c r="E239" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="G239" s="23">
         <v>32</v>
@@ -9264,13 +9633,13 @@
         <v>11644</v>
       </c>
       <c r="D240" s="24" t="s">
-        <v>408</v>
+        <v>490</v>
       </c>
       <c r="E240" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="G240" s="23">
         <v>4</v>
@@ -9287,13 +9656,13 @@
         <v>11651</v>
       </c>
       <c r="D241" s="24" t="s">
-        <v>409</v>
+        <v>491</v>
       </c>
       <c r="E241" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="G241" s="23">
         <v>32</v>
@@ -9310,13 +9679,13 @@
         <v>11652</v>
       </c>
       <c r="D242" s="24" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
       <c r="E242" s="24" t="s">
-        <v>392</v>
+        <v>499</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="G242" s="23">
         <v>32</v>
@@ -9333,13 +9702,13 @@
         <v>11653</v>
       </c>
       <c r="D243" s="24" t="s">
-        <v>411</v>
+        <v>495</v>
       </c>
       <c r="E243" s="24" t="s">
-        <v>392</v>
+        <v>155</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="G243" s="23">
         <v>32</v>
@@ -9356,13 +9725,13 @@
         <v>11654</v>
       </c>
       <c r="D244" s="24" t="s">
-        <v>412</v>
+        <v>493</v>
       </c>
       <c r="E244" s="24" t="s">
-        <v>392</v>
+        <v>155</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="G244" s="23">
         <v>4</v>
@@ -9379,13 +9748,13 @@
         <v>11661</v>
       </c>
       <c r="D245" s="24" t="s">
-        <v>405</v>
+        <v>494</v>
       </c>
       <c r="E245" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="G245" s="23">
         <v>32</v>
@@ -9402,13 +9771,13 @@
         <v>11662</v>
       </c>
       <c r="D246" s="24" t="s">
-        <v>406</v>
+        <v>501</v>
       </c>
       <c r="E246" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="G246" s="23">
         <v>32</v>
@@ -9425,13 +9794,13 @@
         <v>11663</v>
       </c>
       <c r="D247" s="24" t="s">
-        <v>407</v>
+        <v>500</v>
       </c>
       <c r="E247" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="G247" s="23">
         <v>32</v>
@@ -9448,13 +9817,13 @@
         <v>11664</v>
       </c>
       <c r="D248" s="24" t="s">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="E248" s="24" t="s">
-        <v>392</v>
+        <v>155</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="G248" s="23">
         <v>4</v>
@@ -9471,13 +9840,13 @@
         <v>11671</v>
       </c>
       <c r="D249" s="24" t="s">
-        <v>409</v>
+        <v>503</v>
       </c>
       <c r="E249" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="G249" s="23">
         <v>32</v>
@@ -9494,13 +9863,13 @@
         <v>11672</v>
       </c>
       <c r="D250" s="24" t="s">
-        <v>410</v>
+        <v>492</v>
       </c>
       <c r="E250" s="24" t="s">
-        <v>392</v>
+        <v>155</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="G250" s="23">
         <v>32</v>
@@ -9517,13 +9886,13 @@
         <v>11673</v>
       </c>
       <c r="D251" s="24" t="s">
-        <v>411</v>
+        <v>495</v>
       </c>
       <c r="E251" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="G251" s="23">
         <v>32</v>
@@ -9540,13 +9909,13 @@
         <v>11674</v>
       </c>
       <c r="D252" s="24" t="s">
-        <v>412</v>
+        <v>477</v>
       </c>
       <c r="E252" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F252" s="27" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="G252" s="23">
         <v>4</v>
@@ -9563,13 +9932,13 @@
         <v>11681</v>
       </c>
       <c r="D253" s="24" t="s">
-        <v>413</v>
+        <v>504</v>
       </c>
       <c r="E253" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F253" s="27" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="G253" s="23">
         <v>32</v>
@@ -9586,13 +9955,13 @@
         <v>11682</v>
       </c>
       <c r="D254" s="24" t="s">
-        <v>414</v>
+        <v>505</v>
       </c>
       <c r="E254" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="G254" s="23">
         <v>32</v>
@@ -9609,13 +9978,13 @@
         <v>11683</v>
       </c>
       <c r="D255" s="24" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="E255" s="24" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="G255" s="23">
         <v>32</v>
@@ -9632,16 +10001,637 @@
         <v>11684</v>
       </c>
       <c r="D256" s="24" t="s">
-        <v>416</v>
+        <v>496</v>
       </c>
       <c r="E256" s="24" t="s">
-        <v>392</v>
+        <v>499</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="G256" s="23">
         <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" s="13">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1">
+        <v>37</v>
+      </c>
+      <c r="C257" s="1">
+        <v>11701</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E257" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F257" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="G257" s="1">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258" s="13">
+        <v>257</v>
+      </c>
+      <c r="B258" s="1">
+        <v>37</v>
+      </c>
+      <c r="C258" s="1">
+        <v>11702</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E258" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F258" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="G258" s="1">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259" s="13">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1">
+        <v>37</v>
+      </c>
+      <c r="C259" s="1">
+        <v>11703</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E259" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F259" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G259" s="1">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260" s="13">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1">
+        <v>37</v>
+      </c>
+      <c r="C260" s="1">
+        <v>11704</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E260" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F260" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="G260" s="1">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261" s="13">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1">
+        <v>37</v>
+      </c>
+      <c r="C261" s="1">
+        <v>11705</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E261" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F261" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="G261" s="1">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262" s="13">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1">
+        <v>37</v>
+      </c>
+      <c r="C262" s="1">
+        <v>11706</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E262" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F262" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="G262" s="1">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263" s="13">
+        <v>262</v>
+      </c>
+      <c r="B263" s="1">
+        <v>37</v>
+      </c>
+      <c r="C263" s="1">
+        <v>11707</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E263" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F263" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="G263" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" s="13">
+        <v>263</v>
+      </c>
+      <c r="B264" s="1">
+        <v>37</v>
+      </c>
+      <c r="C264" s="1">
+        <v>11708</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E264" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F264" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="G264" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" s="13">
+        <v>264</v>
+      </c>
+      <c r="B265" s="1">
+        <v>37</v>
+      </c>
+      <c r="C265" s="1">
+        <v>11709</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E265" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F265" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="G265" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" s="13">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1">
+        <v>38</v>
+      </c>
+      <c r="C266" s="1">
+        <v>11710</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E266" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F266" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="G266" s="1">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267" s="13">
+        <v>266</v>
+      </c>
+      <c r="B267" s="1">
+        <v>38</v>
+      </c>
+      <c r="C267" s="1">
+        <v>11711</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E267" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F267" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="G267" s="1">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" s="13">
+        <v>267</v>
+      </c>
+      <c r="B268" s="1">
+        <v>38</v>
+      </c>
+      <c r="C268" s="1">
+        <v>11712</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E268" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F268" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="G268" s="1">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" s="13">
+        <v>268</v>
+      </c>
+      <c r="B269" s="1">
+        <v>38</v>
+      </c>
+      <c r="C269" s="1">
+        <v>11713</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E269" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F269" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="G269" s="1">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" s="13">
+        <v>269</v>
+      </c>
+      <c r="B270" s="1">
+        <v>38</v>
+      </c>
+      <c r="C270" s="1">
+        <v>11714</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E270" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F270" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="G270" s="1">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" s="13">
+        <v>270</v>
+      </c>
+      <c r="B271" s="1">
+        <v>38</v>
+      </c>
+      <c r="C271" s="1">
+        <v>11715</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E271" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F271" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="G271" s="1">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" s="13">
+        <v>271</v>
+      </c>
+      <c r="B272" s="1">
+        <v>38</v>
+      </c>
+      <c r="C272" s="1">
+        <v>11716</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E272" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F272" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="G272" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" s="13">
+        <v>272</v>
+      </c>
+      <c r="B273" s="1">
+        <v>38</v>
+      </c>
+      <c r="C273" s="1">
+        <v>11717</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E273" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="F273" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="G273" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" s="13">
+        <v>273</v>
+      </c>
+      <c r="B274" s="1">
+        <v>38</v>
+      </c>
+      <c r="C274" s="1">
+        <v>11718</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E274" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F274" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="G274" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" s="13">
+        <v>274</v>
+      </c>
+      <c r="B275" s="1">
+        <v>39</v>
+      </c>
+      <c r="C275" s="1">
+        <v>11719</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E275" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F275" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="G275" s="1">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" s="13">
+        <v>275</v>
+      </c>
+      <c r="B276" s="1">
+        <v>39</v>
+      </c>
+      <c r="C276" s="1">
+        <v>11720</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E276" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F276" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="G276" s="1">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" s="13">
+        <v>276</v>
+      </c>
+      <c r="B277" s="1">
+        <v>39</v>
+      </c>
+      <c r="C277" s="1">
+        <v>11721</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E277" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F277" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="G277" s="1">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" s="13">
+        <v>277</v>
+      </c>
+      <c r="B278" s="1">
+        <v>39</v>
+      </c>
+      <c r="C278" s="1">
+        <v>11722</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E278" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F278" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="G278" s="1">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" s="13">
+        <v>278</v>
+      </c>
+      <c r="B279" s="1">
+        <v>39</v>
+      </c>
+      <c r="C279" s="1">
+        <v>11723</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E279" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="F279" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="G279" s="1">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" s="13">
+        <v>279</v>
+      </c>
+      <c r="B280" s="1">
+        <v>39</v>
+      </c>
+      <c r="C280" s="1">
+        <v>11724</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E280" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F280" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="G280" s="1">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" s="13">
+        <v>280</v>
+      </c>
+      <c r="B281" s="1">
+        <v>39</v>
+      </c>
+      <c r="C281" s="1">
+        <v>11725</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E281" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F281" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="G281" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282" s="13">
+        <v>281</v>
+      </c>
+      <c r="B282" s="1">
+        <v>39</v>
+      </c>
+      <c r="C282" s="1">
+        <v>11726</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E282" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F282" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="G282" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283" s="13">
+        <v>282</v>
+      </c>
+      <c r="B283" s="1">
+        <v>39</v>
+      </c>
+      <c r="C283" s="1">
+        <v>11727</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E283" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F283" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="G283" s="1">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -9656,9 +10646,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_0818\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="507">
   <si>
     <t>id|</t>
   </si>
@@ -2288,6 +2288,10 @@
   </si>
   <si>
     <t>5250万鲸币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000,4000</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4608,7 +4612,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B248" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B275" sqref="B275:B283"/>
+      <selection pane="bottomRight" activeCell="F266" sqref="F266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10237,7 +10241,7 @@
         <v>425</v>
       </c>
       <c r="F266" s="21" t="s">
-        <v>426</v>
+        <v>506</v>
       </c>
       <c r="G266" s="1">
         <v>1340</v>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="513">
   <si>
     <t>id|</t>
   </si>
@@ -2292,6 +2292,82 @@
   </si>
   <si>
     <t>4000,4000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_mfcjq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00福利券</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00福利券</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50福利券</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00福利券</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2373,7 +2449,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2389,12 +2465,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2438,7 +2508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2519,16 +2589,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2806,10 +2872,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2818,7 +2885,7 @@
     <col min="2" max="2" width="28.75" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="27.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="23.5" customWidth="1"/>
     <col min="7" max="10" width="25.875" customWidth="1"/>
     <col min="11" max="11" width="25.5" style="6" customWidth="1"/>
@@ -3313,7 +3380,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="19"/>
     </row>
@@ -3342,7 +3409,7 @@
         <v>17</v>
       </c>
       <c r="L18" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -3370,7 +3437,7 @@
         <v>18</v>
       </c>
       <c r="L19" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="19"/>
     </row>
@@ -3670,375 +3737,403 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23">
+    <row r="29" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="13">
         <v>1597707000</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="13">
         <v>1598284799</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="28">
         <v>23</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25">
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17">
         <v>1</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="17">
         <v>0</v>
       </c>
-      <c r="K29" s="23">
+      <c r="K29" s="13">
         <v>28</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L29" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23">
+    <row r="30" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="13">
         <v>1597707000</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="13">
         <v>1598284799</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="28">
         <v>24</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25">
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17">
         <v>1</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="17">
         <v>0</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="13">
         <v>29</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23">
+    <row r="31" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
         <v>30</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="13">
         <v>1597707000</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="13">
         <v>1598284799</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="28">
         <v>25</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25">
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17">
         <v>1</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31" s="17">
         <v>0</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="13">
         <v>30</v>
       </c>
-      <c r="L31" s="26">
+      <c r="L31" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
+    <row r="32" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
         <v>31</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="13">
         <v>1597707000</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="13">
         <v>1598284799</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="28">
         <v>26</v>
       </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25">
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17">
         <v>1</v>
       </c>
-      <c r="J32" s="25">
+      <c r="J32" s="17">
         <v>0</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="13">
         <v>31</v>
       </c>
-      <c r="L32" s="26">
+      <c r="L32" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23">
+    <row r="33" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
         <v>32</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="13">
         <v>1597707000</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="13">
         <v>1598284799</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="28">
         <v>27</v>
       </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25">
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17">
         <v>1</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="17">
         <v>0</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="13">
         <v>32</v>
       </c>
-      <c r="L33" s="26">
+      <c r="L33" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23">
+    <row r="34" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
         <v>33</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="13">
         <v>1597707000</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="13">
         <v>1598284799</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="28">
         <v>28</v>
       </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25">
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17">
         <v>1</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="17">
         <v>0</v>
       </c>
-      <c r="K34" s="23">
+      <c r="K34" s="13">
         <v>33</v>
       </c>
-      <c r="L34" s="26">
+      <c r="L34" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23">
+    <row r="35" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
         <v>34</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="13">
         <v>1597707000</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="13">
         <v>1598284799</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="28">
         <v>29</v>
       </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25">
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17">
         <v>1</v>
       </c>
-      <c r="J35" s="25">
+      <c r="J35" s="17">
         <v>0</v>
       </c>
-      <c r="K35" s="23">
+      <c r="K35" s="13">
         <v>34</v>
       </c>
-      <c r="L35" s="26">
+      <c r="L35" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23">
+    <row r="36" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="13">
         <v>35</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="13">
         <v>1597707000</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="13">
         <v>1598284799</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="28">
         <v>30</v>
       </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25">
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17">
         <v>1</v>
       </c>
-      <c r="J36" s="25">
+      <c r="J36" s="17">
         <v>0</v>
       </c>
-      <c r="K36" s="23">
+      <c r="K36" s="13">
         <v>35</v>
       </c>
-      <c r="L36" s="26">
+      <c r="L36" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23">
+    <row r="37" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
         <v>36</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="13">
         <v>1597707000</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="13">
         <v>1598284799</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="28">
         <v>31</v>
       </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25">
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17">
         <v>1</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="17">
         <v>0</v>
       </c>
-      <c r="K37" s="23">
+      <c r="K37" s="13">
         <v>36</v>
       </c>
-      <c r="L37" s="26">
+      <c r="L37" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30">
+    <row r="38" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="18">
         <v>37</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="13">
         <v>1592841599</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="13">
         <v>32503651200</v>
       </c>
-      <c r="E38" s="33">
+      <c r="E38" s="28">
         <v>32</v>
       </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="32">
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="13">
         <v>37</v>
       </c>
-      <c r="L38" s="30">
+      <c r="L38" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30">
+    <row r="39" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="13">
         <v>1592841599</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="13">
         <v>32503651200</v>
       </c>
-      <c r="E39" s="33">
+      <c r="E39" s="28">
         <v>33</v>
       </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="32">
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="13">
         <v>38</v>
       </c>
-      <c r="L39" s="30">
+      <c r="L39" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30">
+    <row r="40" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="18">
         <v>39</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C40" s="13">
         <v>1592841599</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="13">
         <v>32503651200</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="28">
         <v>34</v>
       </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="32">
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="13">
         <v>39</v>
       </c>
-      <c r="L40" s="30">
+      <c r="L40" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="26">
+        <v>40</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="C41" s="26">
+        <v>1598916600</v>
+      </c>
+      <c r="D41" s="26">
+        <v>1599494399</v>
+      </c>
+      <c r="E41" s="29">
+        <v>35</v>
+      </c>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="26">
+        <v>40</v>
+      </c>
+      <c r="L41" s="26">
         <v>1</v>
       </c>
     </row>
@@ -4053,10 +4148,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4386,171 +4481,185 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
+    <row r="24" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="17">
         <v>23</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="25">
+    <row r="25" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="17">
         <v>24</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
+    <row r="26" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="17">
         <v>25</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
+    <row r="27" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="17">
         <v>26</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
+    <row r="28" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
         <v>27</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="17">
         <v>27</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="25">
+    <row r="29" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17">
         <v>28</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="17">
         <v>28</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="25">
+    <row r="30" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17">
         <v>29</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="17">
         <v>29</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="25">
+    <row r="31" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17">
         <v>30</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="17">
         <v>30</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="25">
+    <row r="32" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="17">
         <v>31</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="17">
         <v>31</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="33">
+    <row r="33" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17">
         <v>32</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="17">
         <v>32</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="33">
+    <row r="34" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="17">
         <v>33</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="17">
         <v>33</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="33">
+    <row r="35" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="17">
         <v>34</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B35" s="17">
         <v>34</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="25">
+        <v>35</v>
+      </c>
+      <c r="B36" s="25">
+        <v>35</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="D36" s="26">
         <v>1</v>
       </c>
     </row>
@@ -4606,13 +4715,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H283"/>
+  <dimension ref="A1:H287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B248" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B254" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F266" sqref="F266"/>
+      <selection pane="bottomRight" activeCell="A284" sqref="A284:G287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10636,6 +10745,98 @@
       </c>
       <c r="G283" s="1">
         <v>166</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284" s="23">
+        <v>283</v>
+      </c>
+      <c r="B284" s="23">
+        <v>40</v>
+      </c>
+      <c r="C284" s="23">
+        <v>11731</v>
+      </c>
+      <c r="D284" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="E284" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F284" s="30">
+        <v>500500</v>
+      </c>
+      <c r="G284" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285" s="23">
+        <v>284</v>
+      </c>
+      <c r="B285" s="23">
+        <v>40</v>
+      </c>
+      <c r="C285" s="23">
+        <v>11732</v>
+      </c>
+      <c r="D285" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="E285" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F285" s="30">
+        <v>300300</v>
+      </c>
+      <c r="G285" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286" s="23">
+        <v>285</v>
+      </c>
+      <c r="B286" s="23">
+        <v>40</v>
+      </c>
+      <c r="C286" s="23">
+        <v>11733</v>
+      </c>
+      <c r="D286" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="E286" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F286" s="30">
+        <v>150150</v>
+      </c>
+      <c r="G286" s="23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287" s="23">
+        <v>286</v>
+      </c>
+      <c r="B287" s="23">
+        <v>40</v>
+      </c>
+      <c r="C287" s="23">
+        <v>11737</v>
+      </c>
+      <c r="D287" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="E287" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F287" s="30">
+        <v>100100</v>
+      </c>
+      <c r="G287" s="23">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="517">
   <si>
     <t>id|</t>
   </si>
@@ -2367,6 +2367,114 @@
         <scheme val="minor"/>
       </rPr>
       <t>00福利券</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2508,7 +2616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2589,11 +2697,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2874,9 +2988,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4113,7 +4227,7 @@
       <c r="A41" s="26">
         <v>40</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="30" t="s">
         <v>507</v>
       </c>
       <c r="C41" s="26">
@@ -4656,7 +4770,7 @@
       <c r="B36" s="25">
         <v>35</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="30" t="s">
         <v>508</v>
       </c>
       <c r="D36" s="26">
@@ -4717,11 +4831,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H287"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B254" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A284" sqref="A284:G287"/>
+      <selection pane="bottomRight" activeCell="F290" sqref="F290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4731,7 +4845,7 @@
     <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="58.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="31.375" style="1" customWidth="1"/>
@@ -4754,7 +4868,7 @@
       <c r="E1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="31" t="s">
         <v>40</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -6751,6 +6865,7 @@
       <c r="D103" s="15" t="s">
         <v>93</v>
       </c>
+      <c r="F103" s="33"/>
       <c r="G103" s="13">
         <v>30</v>
       </c>
@@ -6768,6 +6883,7 @@
       <c r="D104" s="15" t="s">
         <v>98</v>
       </c>
+      <c r="F104" s="33"/>
       <c r="G104" s="13">
         <v>20</v>
       </c>
@@ -6825,6 +6941,7 @@
       <c r="D107" s="15" t="s">
         <v>97</v>
       </c>
+      <c r="F107" s="33"/>
       <c r="G107" s="13">
         <v>10</v>
       </c>
@@ -6842,6 +6959,7 @@
       <c r="D108" s="15" t="s">
         <v>58</v>
       </c>
+      <c r="F108" s="33"/>
       <c r="G108" s="13">
         <v>0</v>
       </c>
@@ -10763,8 +10881,8 @@
       <c r="E284" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F284" s="30">
-        <v>500500</v>
+      <c r="F284" s="27" t="s">
+        <v>513</v>
       </c>
       <c r="G284" s="23">
         <v>1</v>
@@ -10786,8 +10904,8 @@
       <c r="E285" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F285" s="30">
-        <v>300300</v>
+      <c r="F285" s="27" t="s">
+        <v>514</v>
       </c>
       <c r="G285" s="23">
         <v>10</v>
@@ -10809,8 +10927,8 @@
       <c r="E286" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F286" s="30">
-        <v>150150</v>
+      <c r="F286" s="27" t="s">
+        <v>515</v>
       </c>
       <c r="G286" s="23">
         <v>55</v>
@@ -10832,8 +10950,8 @@
       <c r="E287" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F287" s="30">
-        <v>100100</v>
+      <c r="F287" s="27" t="s">
+        <v>516</v>
       </c>
       <c r="G287" s="23">
         <v>34</v>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -2990,7 +2990,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4835,7 +4835,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F290" sqref="F290"/>
+      <selection pane="bottomRight" activeCell="D291" sqref="D291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10942,7 +10942,7 @@
         <v>40</v>
       </c>
       <c r="C287" s="23">
-        <v>11737</v>
+        <v>11734</v>
       </c>
       <c r="D287" s="24" t="s">
         <v>512</v>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="474">
   <si>
     <t>id|</t>
   </si>
@@ -1843,95 +1843,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>6福利券</t>
-  </si>
-  <si>
-    <t>6,6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>8福利券</t>
-  </si>
-  <si>
-    <t>8,8</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10福利券</t>
-  </si>
-  <si>
-    <t>10,10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000金币</t>
-  </si>
-  <si>
-    <t>30福利券</t>
-  </si>
-  <si>
-    <t>30,30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4万金币</t>
-  </si>
-  <si>
-    <t>40000,40000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>50福利券</t>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>60福利券</t>
-  </si>
-  <si>
-    <t>60,60</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>40福利券</t>
-  </si>
-  <si>
-    <t>40,40</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>80福利券</t>
-  </si>
-  <si>
-    <t>100福利券</t>
-  </si>
-  <si>
-    <t>120福利券</t>
-  </si>
-  <si>
-    <t>120,120</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>150福利券</t>
-  </si>
-  <si>
-    <t>160福利券</t>
-  </si>
-  <si>
-    <t>160,160</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>170福利券</t>
-  </si>
-  <si>
-    <t>170,170</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>195万鲸币</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2296,6 +2207,165 @@
   </si>
   <si>
     <t>real_award_id|是否是实物，ID不重复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元话费</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5元话费</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000,6000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,20000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000,30000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000,40000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,50000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,60000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>120000,120000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>160000,160000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>170000,170000</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2389,7 +2459,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2405,6 +2475,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2448,7 +2530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2543,6 +2625,26 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2824,8 +2926,8 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4063,7 +4165,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="C41" s="26">
         <v>1598916600</v>
@@ -4606,7 +4708,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="D36" s="26">
         <v>1</v>
@@ -4666,11 +4768,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B281" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B248" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E296" sqref="E296"/>
+      <selection pane="bottomRight" activeCell="C261" sqref="C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4692,7 +4794,7 @@
         <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>41</v>
@@ -8270,380 +8372,380 @@
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="13">
+      <c r="A257" s="35">
         <v>256</v>
       </c>
-      <c r="B257" s="1">
+      <c r="B257" s="35">
         <v>37</v>
       </c>
-      <c r="C257" s="1">
+      <c r="C257" s="35">
         <v>11701</v>
       </c>
-      <c r="D257" s="1">
+      <c r="D257" s="35">
         <v>1340</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="13">
+      <c r="A258" s="35">
         <v>257</v>
       </c>
-      <c r="B258" s="1">
+      <c r="B258" s="35">
         <v>37</v>
       </c>
-      <c r="C258" s="1">
+      <c r="C258" s="35">
         <v>11702</v>
       </c>
-      <c r="D258" s="1">
+      <c r="D258" s="35">
         <v>1330</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="13">
+      <c r="A259" s="35">
         <v>258</v>
       </c>
-      <c r="B259" s="1">
+      <c r="B259" s="35">
         <v>37</v>
       </c>
-      <c r="C259" s="1">
+      <c r="C259" s="35">
         <v>11703</v>
       </c>
-      <c r="D259" s="1">
+      <c r="D259" s="35">
         <v>1330</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="13">
+      <c r="A260" s="35">
         <v>259</v>
       </c>
-      <c r="B260" s="1">
+      <c r="B260" s="35">
         <v>37</v>
       </c>
-      <c r="C260" s="1">
+      <c r="C260" s="35">
         <v>11704</v>
       </c>
-      <c r="D260" s="1">
+      <c r="D260" s="35">
         <v>1840</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="13">
+      <c r="A261" s="35">
         <v>260</v>
       </c>
-      <c r="B261" s="1">
+      <c r="B261" s="35">
         <v>37</v>
       </c>
-      <c r="C261" s="1">
+      <c r="C261" s="35">
         <v>11705</v>
       </c>
-      <c r="D261" s="1">
+      <c r="D261" s="35">
         <v>1830</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="13">
+      <c r="A262" s="35">
         <v>261</v>
       </c>
-      <c r="B262" s="1">
+      <c r="B262" s="35">
         <v>37</v>
       </c>
-      <c r="C262" s="1">
+      <c r="C262" s="35">
         <v>11706</v>
       </c>
-      <c r="D262" s="1">
+      <c r="D262" s="35">
         <v>1830</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="13">
+      <c r="A263" s="35">
         <v>262</v>
       </c>
-      <c r="B263" s="1">
+      <c r="B263" s="35">
         <v>37</v>
       </c>
-      <c r="C263" s="1">
+      <c r="C263" s="35">
         <v>11707</v>
       </c>
-      <c r="D263" s="1">
+      <c r="D263" s="35">
         <v>167</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="13">
+      <c r="A264" s="35">
         <v>263</v>
       </c>
-      <c r="B264" s="1">
+      <c r="B264" s="35">
         <v>37</v>
       </c>
-      <c r="C264" s="1">
+      <c r="C264" s="35">
         <v>11708</v>
       </c>
-      <c r="D264" s="1">
+      <c r="D264" s="35">
         <v>167</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="13">
+      <c r="A265" s="35">
         <v>264</v>
       </c>
-      <c r="B265" s="1">
+      <c r="B265" s="35">
         <v>37</v>
       </c>
-      <c r="C265" s="1">
+      <c r="C265" s="35">
         <v>11709</v>
       </c>
-      <c r="D265" s="1">
+      <c r="D265" s="35">
         <v>166</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="13">
+      <c r="A266" s="35">
         <v>265</v>
       </c>
-      <c r="B266" s="1">
+      <c r="B266" s="35">
         <v>38</v>
       </c>
-      <c r="C266" s="1">
+      <c r="C266" s="35">
         <v>11710</v>
       </c>
-      <c r="D266" s="1">
+      <c r="D266" s="35">
         <v>1340</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="13">
+      <c r="A267" s="35">
         <v>266</v>
       </c>
-      <c r="B267" s="1">
+      <c r="B267" s="35">
         <v>38</v>
       </c>
-      <c r="C267" s="1">
+      <c r="C267" s="35">
         <v>11711</v>
       </c>
-      <c r="D267" s="1">
+      <c r="D267" s="35">
         <v>1330</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="13">
+      <c r="A268" s="35">
         <v>267</v>
       </c>
-      <c r="B268" s="1">
+      <c r="B268" s="35">
         <v>38</v>
       </c>
-      <c r="C268" s="1">
+      <c r="C268" s="35">
         <v>11712</v>
       </c>
-      <c r="D268" s="1">
+      <c r="D268" s="35">
         <v>1330</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="13">
+      <c r="A269" s="35">
         <v>268</v>
       </c>
-      <c r="B269" s="1">
+      <c r="B269" s="35">
         <v>38</v>
       </c>
-      <c r="C269" s="1">
+      <c r="C269" s="35">
         <v>11713</v>
       </c>
-      <c r="D269" s="1">
+      <c r="D269" s="35">
         <v>1840</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="13">
+      <c r="A270" s="35">
         <v>269</v>
       </c>
-      <c r="B270" s="1">
+      <c r="B270" s="35">
         <v>38</v>
       </c>
-      <c r="C270" s="1">
+      <c r="C270" s="35">
         <v>11714</v>
       </c>
-      <c r="D270" s="1">
+      <c r="D270" s="35">
         <v>1830</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="13">
+      <c r="A271" s="35">
         <v>270</v>
       </c>
-      <c r="B271" s="1">
+      <c r="B271" s="35">
         <v>38</v>
       </c>
-      <c r="C271" s="1">
+      <c r="C271" s="35">
         <v>11715</v>
       </c>
-      <c r="D271" s="1">
+      <c r="D271" s="35">
         <v>1830</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="13">
+      <c r="A272" s="35">
         <v>271</v>
       </c>
-      <c r="B272" s="1">
+      <c r="B272" s="35">
         <v>38</v>
       </c>
-      <c r="C272" s="1">
+      <c r="C272" s="35">
         <v>11716</v>
       </c>
-      <c r="D272" s="1">
+      <c r="D272" s="35">
         <v>167</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="13">
+      <c r="A273" s="35">
         <v>272</v>
       </c>
-      <c r="B273" s="1">
+      <c r="B273" s="35">
         <v>38</v>
       </c>
-      <c r="C273" s="1">
+      <c r="C273" s="35">
         <v>11717</v>
       </c>
-      <c r="D273" s="1">
+      <c r="D273" s="35">
         <v>167</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="13">
+      <c r="A274" s="35">
         <v>273</v>
       </c>
-      <c r="B274" s="1">
+      <c r="B274" s="35">
         <v>38</v>
       </c>
-      <c r="C274" s="1">
+      <c r="C274" s="35">
         <v>11718</v>
       </c>
-      <c r="D274" s="1">
+      <c r="D274" s="35">
         <v>166</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="13">
+      <c r="A275" s="35">
         <v>274</v>
       </c>
-      <c r="B275" s="1">
+      <c r="B275" s="35">
         <v>39</v>
       </c>
-      <c r="C275" s="1">
+      <c r="C275" s="35">
         <v>11719</v>
       </c>
-      <c r="D275" s="1">
+      <c r="D275" s="35">
         <v>1340</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="13">
+      <c r="A276" s="35">
         <v>275</v>
       </c>
-      <c r="B276" s="1">
+      <c r="B276" s="35">
         <v>39</v>
       </c>
-      <c r="C276" s="1">
+      <c r="C276" s="35">
         <v>11720</v>
       </c>
-      <c r="D276" s="1">
+      <c r="D276" s="35">
         <v>1330</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="13">
+      <c r="A277" s="35">
         <v>276</v>
       </c>
-      <c r="B277" s="1">
+      <c r="B277" s="35">
         <v>39</v>
       </c>
-      <c r="C277" s="1">
+      <c r="C277" s="35">
         <v>11721</v>
       </c>
-      <c r="D277" s="1">
+      <c r="D277" s="35">
         <v>1330</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" s="13">
+      <c r="A278" s="35">
         <v>277</v>
       </c>
-      <c r="B278" s="1">
+      <c r="B278" s="35">
         <v>39</v>
       </c>
-      <c r="C278" s="1">
+      <c r="C278" s="35">
         <v>11722</v>
       </c>
-      <c r="D278" s="1">
+      <c r="D278" s="35">
         <v>1840</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="13">
+      <c r="A279" s="35">
         <v>278</v>
       </c>
-      <c r="B279" s="1">
+      <c r="B279" s="35">
         <v>39</v>
       </c>
-      <c r="C279" s="1">
+      <c r="C279" s="35">
         <v>11723</v>
       </c>
-      <c r="D279" s="1">
+      <c r="D279" s="35">
         <v>1830</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="13">
+      <c r="A280" s="35">
         <v>279</v>
       </c>
-      <c r="B280" s="1">
+      <c r="B280" s="35">
         <v>39</v>
       </c>
-      <c r="C280" s="1">
+      <c r="C280" s="35">
         <v>11724</v>
       </c>
-      <c r="D280" s="1">
+      <c r="D280" s="35">
         <v>1830</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="13">
+      <c r="A281" s="35">
         <v>280</v>
       </c>
-      <c r="B281" s="1">
+      <c r="B281" s="35">
         <v>39</v>
       </c>
-      <c r="C281" s="1">
+      <c r="C281" s="35">
         <v>11725</v>
       </c>
-      <c r="D281" s="1">
+      <c r="D281" s="35">
         <v>167</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="13">
+      <c r="A282" s="35">
         <v>281</v>
       </c>
-      <c r="B282" s="1">
+      <c r="B282" s="35">
         <v>39</v>
       </c>
-      <c r="C282" s="1">
+      <c r="C282" s="35">
         <v>11726</v>
       </c>
-      <c r="D282" s="1">
+      <c r="D282" s="35">
         <v>167</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="13">
+      <c r="A283" s="35">
         <v>282</v>
       </c>
-      <c r="B283" s="1">
+      <c r="B283" s="35">
         <v>39</v>
       </c>
-      <c r="C283" s="1">
+      <c r="C283" s="35">
         <v>11727</v>
       </c>
-      <c r="D283" s="1">
+      <c r="D283" s="35">
         <v>166</v>
       </c>
     </row>
@@ -8714,8 +8816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F287"/>
   <sheetViews>
-    <sheetView topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A287"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="E276" sqref="E276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8729,7 +8831,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>37</v>
@@ -12001,13 +12103,13 @@
         <v>11601</v>
       </c>
       <c r="C221" s="24" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="D221" s="24" t="s">
         <v>95</v>
       </c>
       <c r="E221" s="27" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -12018,7 +12120,7 @@
         <v>11602</v>
       </c>
       <c r="C222" s="24" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="D222" s="24" t="s">
         <v>95</v>
@@ -12035,7 +12137,7 @@
         <v>11603</v>
       </c>
       <c r="C223" s="24" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="D223" s="24" t="s">
         <v>95</v>
@@ -12069,7 +12171,7 @@
         <v>11611</v>
       </c>
       <c r="C225" s="24" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="D225" s="24" t="s">
         <v>95</v>
@@ -12086,7 +12188,7 @@
         <v>11612</v>
       </c>
       <c r="C226" s="24" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="D226" s="24" t="s">
         <v>95</v>
@@ -12103,7 +12205,7 @@
         <v>11613</v>
       </c>
       <c r="C227" s="24" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="D227" s="24" t="s">
         <v>95</v>
@@ -12120,7 +12222,7 @@
         <v>11614</v>
       </c>
       <c r="C228" s="24" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="D228" s="24" t="s">
         <v>95</v>
@@ -12154,7 +12256,7 @@
         <v>11622</v>
       </c>
       <c r="C230" s="24" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="D230" s="24" t="s">
         <v>95</v>
@@ -12171,7 +12273,7 @@
         <v>11623</v>
       </c>
       <c r="C231" s="24" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="D231" s="24" t="s">
         <v>95</v>
@@ -12188,7 +12290,7 @@
         <v>11624</v>
       </c>
       <c r="C232" s="24" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="D232" s="24" t="s">
         <v>95</v>
@@ -12205,7 +12307,7 @@
         <v>11631</v>
       </c>
       <c r="C233" s="24" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="D233" s="24" t="s">
         <v>95</v>
@@ -12222,7 +12324,7 @@
         <v>11632</v>
       </c>
       <c r="C234" s="24" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="D234" s="24" t="s">
         <v>95</v>
@@ -12239,7 +12341,7 @@
         <v>11633</v>
       </c>
       <c r="C235" s="24" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="D235" s="24" t="s">
         <v>95</v>
@@ -12256,7 +12358,7 @@
         <v>11634</v>
       </c>
       <c r="C236" s="24" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="D236" s="24" t="s">
         <v>95</v>
@@ -12273,7 +12375,7 @@
         <v>11641</v>
       </c>
       <c r="C237" s="24" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="D237" s="24" t="s">
         <v>95</v>
@@ -12290,7 +12392,7 @@
         <v>11642</v>
       </c>
       <c r="C238" s="24" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="D238" s="24" t="s">
         <v>95</v>
@@ -12307,7 +12409,7 @@
         <v>11643</v>
       </c>
       <c r="C239" s="24" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="D239" s="24" t="s">
         <v>95</v>
@@ -12324,7 +12426,7 @@
         <v>11644</v>
       </c>
       <c r="C240" s="24" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="D240" s="24" t="s">
         <v>95</v>
@@ -12341,7 +12443,7 @@
         <v>11651</v>
       </c>
       <c r="C241" s="24" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="D241" s="24" t="s">
         <v>95</v>
@@ -12358,7 +12460,7 @@
         <v>11652</v>
       </c>
       <c r="C242" s="24" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="D242" s="24" t="s">
         <v>95</v>
@@ -12375,7 +12477,7 @@
         <v>11653</v>
       </c>
       <c r="C243" s="24" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="D243" s="24" t="s">
         <v>95</v>
@@ -12392,7 +12494,7 @@
         <v>11654</v>
       </c>
       <c r="C244" s="24" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="D244" s="24" t="s">
         <v>95</v>
@@ -12409,7 +12511,7 @@
         <v>11661</v>
       </c>
       <c r="C245" s="24" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="D245" s="24" t="s">
         <v>95</v>
@@ -12426,7 +12528,7 @@
         <v>11662</v>
       </c>
       <c r="C246" s="24" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="D246" s="24" t="s">
         <v>95</v>
@@ -12443,7 +12545,7 @@
         <v>11663</v>
       </c>
       <c r="C247" s="24" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="D247" s="24" t="s">
         <v>95</v>
@@ -12460,7 +12562,7 @@
         <v>11664</v>
       </c>
       <c r="C248" s="24" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="D248" s="24" t="s">
         <v>95</v>
@@ -12477,7 +12579,7 @@
         <v>11671</v>
       </c>
       <c r="C249" s="24" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="D249" s="24" t="s">
         <v>95</v>
@@ -12494,7 +12596,7 @@
         <v>11672</v>
       </c>
       <c r="C250" s="24" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="D250" s="24" t="s">
         <v>95</v>
@@ -12511,7 +12613,7 @@
         <v>11673</v>
       </c>
       <c r="C251" s="24" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="D251" s="24" t="s">
         <v>95</v>
@@ -12528,7 +12630,7 @@
         <v>11674</v>
       </c>
       <c r="C252" s="24" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="D252" s="24" t="s">
         <v>95</v>
@@ -12545,7 +12647,7 @@
         <v>11681</v>
       </c>
       <c r="C253" s="24" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="D253" s="24" t="s">
         <v>95</v>
@@ -12562,7 +12664,7 @@
         <v>11682</v>
       </c>
       <c r="C254" s="24" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="D254" s="24" t="s">
         <v>95</v>
@@ -12596,7 +12698,7 @@
         <v>11684</v>
       </c>
       <c r="C256" s="24" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="D256" s="24" t="s">
         <v>95</v>
@@ -12606,462 +12708,462 @@
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A257">
+      <c r="A257" s="36">
         <v>256</v>
       </c>
-      <c r="B257" s="1">
+      <c r="B257" s="35">
         <v>11701</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="C257" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="D257" s="15" t="s">
+      <c r="D257" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E257" s="21" t="s">
+      <c r="E257" s="38" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A258">
+      <c r="A258" s="36">
         <v>257</v>
       </c>
-      <c r="B258" s="1">
+      <c r="B258" s="35">
         <v>11702</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="C258" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="D258" s="15" t="s">
+      <c r="D258" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E258" s="21" t="s">
+      <c r="E258" s="38" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259">
+      <c r="A259" s="36">
         <v>258</v>
       </c>
-      <c r="B259" s="1">
+      <c r="B259" s="35">
         <v>11703</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="C259" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="D259" s="15" t="s">
+      <c r="D259" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E259" s="21" t="s">
+      <c r="E259" s="38" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A260">
+      <c r="A260" s="36">
         <v>259</v>
       </c>
-      <c r="B260" s="1">
+      <c r="B260" s="35">
         <v>11704</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="C260" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="D260" s="15" t="s">
+      <c r="D260" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E260" s="21" t="s">
+      <c r="E260" s="38" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A261">
+      <c r="A261" s="36">
         <v>260</v>
       </c>
-      <c r="B261" s="1">
+      <c r="B261" s="35">
         <v>11705</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C261" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="D261" s="15" t="s">
+      <c r="D261" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E261" s="21" t="s">
+      <c r="E261" s="38" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262">
+      <c r="A262" s="36">
         <v>261</v>
       </c>
-      <c r="B262" s="1">
+      <c r="B262" s="35">
         <v>11706</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="C262" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="D262" s="15" t="s">
+      <c r="D262" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E262" s="21" t="s">
+      <c r="E262" s="38" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263">
+      <c r="A263" s="36">
         <v>262</v>
       </c>
-      <c r="B263" s="1">
+      <c r="B263" s="35">
         <v>11707</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C263" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="D263" s="15" t="s">
+      <c r="D263" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E263" s="21" t="s">
+      <c r="E263" s="38" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264">
+      <c r="A264" s="36">
         <v>263</v>
       </c>
-      <c r="B264" s="1">
+      <c r="B264" s="35">
         <v>11708</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="C264" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="D264" s="15" t="s">
+      <c r="D264" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E264" s="21" t="s">
+      <c r="E264" s="38" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265">
+      <c r="A265" s="36">
         <v>264</v>
       </c>
-      <c r="B265" s="1">
+      <c r="B265" s="35">
         <v>11709</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C265" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="D265" s="15" t="s">
+      <c r="D265" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E265" s="21" t="s">
+      <c r="E265" s="38" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266">
+      <c r="A266" s="39">
         <v>265</v>
       </c>
-      <c r="B266" s="1">
+      <c r="B266" s="40">
         <v>11710</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="41" t="s">
         <v>389</v>
       </c>
-      <c r="D266" s="15" t="s">
+      <c r="D266" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="E266" s="21" t="s">
+      <c r="E266" s="42" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="39">
+        <v>266</v>
+      </c>
+      <c r="B267" s="40">
+        <v>11711</v>
+      </c>
+      <c r="C267" s="41" t="s">
+        <v>446</v>
+      </c>
+      <c r="D267" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="E267" s="42" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="39">
+        <v>267</v>
+      </c>
+      <c r="B268" s="40">
+        <v>11712</v>
+      </c>
+      <c r="C268" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="D268" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="E268" s="42" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="39">
+        <v>268</v>
+      </c>
+      <c r="B269" s="40">
+        <v>11713</v>
+      </c>
+      <c r="C269" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="D269" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="E269" s="42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="39">
+        <v>269</v>
+      </c>
+      <c r="B270" s="40">
+        <v>11714</v>
+      </c>
+      <c r="C270" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="D270" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="E270" s="42" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="39">
+        <v>270</v>
+      </c>
+      <c r="B271" s="40">
+        <v>11715</v>
+      </c>
+      <c r="C271" s="41" t="s">
+        <v>450</v>
+      </c>
+      <c r="D271" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="E271" s="42" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="39">
+        <v>271</v>
+      </c>
+      <c r="B272" s="40">
+        <v>11716</v>
+      </c>
+      <c r="C272" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="D272" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="E272" s="42" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="39">
+        <v>272</v>
+      </c>
+      <c r="B273" s="40">
+        <v>11717</v>
+      </c>
+      <c r="C273" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="D273" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="E273" s="42" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="39">
+        <v>273</v>
+      </c>
+      <c r="B274" s="40">
+        <v>11718</v>
+      </c>
+      <c r="C274" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="D274" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="E274" s="42" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="36">
+        <v>274</v>
+      </c>
+      <c r="B275" s="35">
+        <v>11719</v>
+      </c>
+      <c r="C275" s="37" t="s">
+        <v>454</v>
+      </c>
+      <c r="D275" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="E275" s="38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="36">
+        <v>275</v>
+      </c>
+      <c r="B276" s="35">
+        <v>11720</v>
+      </c>
+      <c r="C276" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="D276" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="E276" s="38" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="36">
+        <v>276</v>
+      </c>
+      <c r="B277" s="35">
+        <v>11721</v>
+      </c>
+      <c r="C277" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="D277" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="E277" s="38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="36">
+        <v>277</v>
+      </c>
+      <c r="B278" s="35">
+        <v>11722</v>
+      </c>
+      <c r="C278" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="D278" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="E278" s="38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="36">
+        <v>278</v>
+      </c>
+      <c r="B279" s="35">
+        <v>11723</v>
+      </c>
+      <c r="C279" s="37" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A267">
-        <v>266</v>
-      </c>
-      <c r="B267" s="1">
-        <v>11711</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D267" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E267" s="21" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A268">
-        <v>267</v>
-      </c>
-      <c r="B268" s="1">
-        <v>11712</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D268" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E268" s="21" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A269">
-        <v>268</v>
-      </c>
-      <c r="B269" s="1">
-        <v>11713</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D269" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E269" s="21" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270">
-        <v>269</v>
-      </c>
-      <c r="B270" s="1">
-        <v>11714</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D270" s="15" t="s">
+      <c r="D279" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="E279" s="38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="36">
+        <v>279</v>
+      </c>
+      <c r="B280" s="35">
+        <v>11724</v>
+      </c>
+      <c r="C280" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="D280" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E270" s="21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271">
-        <v>270</v>
-      </c>
-      <c r="B271" s="1">
-        <v>11715</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D271" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E271" s="21" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272">
-        <v>271</v>
-      </c>
-      <c r="B272" s="1">
-        <v>11716</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D272" s="15" t="s">
+      <c r="E280" s="38" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="36">
+        <v>280</v>
+      </c>
+      <c r="B281" s="35">
+        <v>11725</v>
+      </c>
+      <c r="C281" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="D281" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="E281" s="38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="36">
+        <v>281</v>
+      </c>
+      <c r="B282" s="35">
+        <v>11726</v>
+      </c>
+      <c r="C282" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="D282" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E272" s="21" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A273">
-        <v>272</v>
-      </c>
-      <c r="B273" s="1">
-        <v>11717</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D273" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="E273" s="21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274">
-        <v>273</v>
-      </c>
-      <c r="B274" s="1">
-        <v>11718</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D274" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E274" s="21" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275">
-        <v>274</v>
-      </c>
-      <c r="B275" s="1">
-        <v>11719</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D275" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E275" s="21" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276">
-        <v>275</v>
-      </c>
-      <c r="B276" s="1">
-        <v>11720</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D276" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E276" s="21" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277">
-        <v>276</v>
-      </c>
-      <c r="B277" s="1">
-        <v>11721</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D277" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E277" s="21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278">
-        <v>277</v>
-      </c>
-      <c r="B278" s="1">
-        <v>11722</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D278" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E278" s="21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279">
-        <v>278</v>
-      </c>
-      <c r="B279" s="1">
-        <v>11723</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D279" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="E279" s="21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280">
-        <v>279</v>
-      </c>
-      <c r="B280" s="1">
-        <v>11724</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D280" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E280" s="21" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281">
-        <v>280</v>
-      </c>
-      <c r="B281" s="1">
-        <v>11725</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D281" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E281" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282">
-        <v>281</v>
-      </c>
-      <c r="B282" s="1">
-        <v>11726</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D282" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E282" s="21" t="s">
-        <v>426</v>
+      <c r="E282" s="38" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283">
+      <c r="A283" s="36">
         <v>282</v>
       </c>
-      <c r="B283" s="1">
+      <c r="B283" s="35">
         <v>11727</v>
       </c>
-      <c r="C283" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D283" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E283" s="21" t="s">
-        <v>428</v>
+      <c r="C283" s="37" t="s">
+        <v>463</v>
+      </c>
+      <c r="D283" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="E283" s="38" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -13072,13 +13174,13 @@
         <v>11731</v>
       </c>
       <c r="C284" s="24" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="D284" s="24" t="s">
         <v>132</v>
       </c>
       <c r="E284" s="27" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -13089,13 +13191,13 @@
         <v>11732</v>
       </c>
       <c r="C285" s="24" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="D285" s="24" t="s">
         <v>132</v>
       </c>
       <c r="E285" s="27" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -13106,13 +13208,13 @@
         <v>11733</v>
       </c>
       <c r="C286" s="24" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="D286" s="24" t="s">
         <v>132</v>
       </c>
       <c r="E286" s="27" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -13123,13 +13225,13 @@
         <v>11734</v>
       </c>
       <c r="C287" s="24" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="D287" s="24" t="s">
         <v>132</v>
       </c>
       <c r="E287" s="27" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="485">
   <si>
     <t>id|</t>
   </si>
@@ -2114,6 +2114,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2141,6 +2142,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2168,6 +2170,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2195,6 +2198,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2289,6 +2293,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2305,6 +2310,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2321,6 +2327,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2367,6 +2374,115 @@
   <si>
     <t>170000,170000</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,500</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,200</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50,150</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,100</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5元话费</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2元话费</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5元话费</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元话费</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2449,6 +2565,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2456,6 +2573,7 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2530,7 +2648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2645,6 +2763,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2923,11 +3044,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38:E40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3817,7 +3938,7 @@
         <v>28</v>
       </c>
       <c r="L29" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -3849,7 +3970,7 @@
         <v>29</v>
       </c>
       <c r="L30" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -3881,7 +4002,7 @@
         <v>30</v>
       </c>
       <c r="L31" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -3913,7 +4034,7 @@
         <v>31</v>
       </c>
       <c r="L32" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -3945,7 +4066,7 @@
         <v>32</v>
       </c>
       <c r="L33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -3977,7 +4098,7 @@
         <v>33</v>
       </c>
       <c r="L34" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4009,7 +4130,7 @@
         <v>34</v>
       </c>
       <c r="L35" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4041,7 +4162,7 @@
         <v>35</v>
       </c>
       <c r="L36" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4073,7 +4194,7 @@
         <v>36</v>
       </c>
       <c r="L37" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -4160,31 +4281,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="26">
+    <row r="41" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="43" t="s">
         <v>434</v>
       </c>
-      <c r="C41" s="26">
+      <c r="C41" s="18">
         <v>1598916600</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="18">
         <v>1599494399</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="28">
         <v>35</v>
       </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="26">
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="18">
         <v>40</v>
       </c>
-      <c r="L41" s="26">
+      <c r="L41" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="26">
+        <v>41</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="C42" s="26">
+        <v>1599523200</v>
+      </c>
+      <c r="D42" s="26">
+        <v>1600099199</v>
+      </c>
+      <c r="E42" s="29">
+        <v>36</v>
+      </c>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="26">
+        <v>41</v>
+      </c>
+      <c r="L42" s="26">
         <v>1</v>
       </c>
     </row>
@@ -4199,10 +4348,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="A37" sqref="A37:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4701,16 +4850,30 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="25">
+      <c r="A36" s="17">
         <v>35</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="17">
         <v>35</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="43" t="s">
         <v>435</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="25">
+        <v>36</v>
+      </c>
+      <c r="B37" s="25">
+        <v>36</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D37" s="26">
         <v>1</v>
       </c>
     </row>
@@ -4766,13 +4929,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E287"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B248" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C261" sqref="C261"/>
+      <selection pane="bottomRight" activeCell="A288" sqref="A288:D291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8750,59 +8913,115 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="23">
+      <c r="A284" s="13">
         <v>283</v>
       </c>
-      <c r="B284" s="23">
+      <c r="B284" s="13">
         <v>40</v>
       </c>
-      <c r="C284" s="23">
+      <c r="C284" s="13">
         <v>11731</v>
       </c>
-      <c r="D284" s="23">
+      <c r="D284" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="23">
+      <c r="A285" s="13">
         <v>284</v>
       </c>
-      <c r="B285" s="23">
+      <c r="B285" s="13">
         <v>40</v>
       </c>
-      <c r="C285" s="23">
+      <c r="C285" s="13">
         <v>11732</v>
       </c>
-      <c r="D285" s="23">
+      <c r="D285" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="23">
+      <c r="A286" s="13">
         <v>285</v>
       </c>
-      <c r="B286" s="23">
+      <c r="B286" s="13">
         <v>40</v>
       </c>
-      <c r="C286" s="23">
+      <c r="C286" s="13">
         <v>11733</v>
       </c>
-      <c r="D286" s="23">
+      <c r="D286" s="13">
         <v>55</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="23">
+      <c r="A287" s="13">
         <v>286</v>
       </c>
-      <c r="B287" s="23">
+      <c r="B287" s="13">
         <v>40</v>
       </c>
-      <c r="C287" s="23">
+      <c r="C287" s="13">
         <v>11734</v>
       </c>
-      <c r="D287" s="23">
+      <c r="D287" s="13">
         <v>34</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="23">
+        <v>287</v>
+      </c>
+      <c r="B288" s="23">
+        <v>41</v>
+      </c>
+      <c r="C288" s="23">
+        <v>11741</v>
+      </c>
+      <c r="D288" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="23">
+        <v>288</v>
+      </c>
+      <c r="B289" s="23">
+        <v>41</v>
+      </c>
+      <c r="C289" s="23">
+        <v>11742</v>
+      </c>
+      <c r="D289" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="23">
+        <v>289</v>
+      </c>
+      <c r="B290" s="23">
+        <v>41</v>
+      </c>
+      <c r="C290" s="23">
+        <v>11743</v>
+      </c>
+      <c r="D290" s="23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="23">
+        <v>290</v>
+      </c>
+      <c r="B291" s="23">
+        <v>41</v>
+      </c>
+      <c r="C291" s="23">
+        <v>11744</v>
+      </c>
+      <c r="D291" s="23">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -8814,10 +9033,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F287"/>
+  <dimension ref="A1:F291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="E276" sqref="E276"/>
+    <sheetView topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="B288" sqref="B288:E291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13126,7 +13345,7 @@
         <v>460</v>
       </c>
       <c r="D281" s="37" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="E281" s="38" t="s">
         <v>136</v>
@@ -13170,16 +13389,16 @@
       <c r="A284">
         <v>283</v>
       </c>
-      <c r="B284" s="23">
+      <c r="B284" s="13">
         <v>11731</v>
       </c>
-      <c r="C284" s="24" t="s">
+      <c r="C284" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="D284" s="24" t="s">
+      <c r="D284" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E284" s="27" t="s">
+      <c r="E284" s="21" t="s">
         <v>440</v>
       </c>
     </row>
@@ -13187,16 +13406,16 @@
       <c r="A285">
         <v>284</v>
       </c>
-      <c r="B285" s="23">
+      <c r="B285" s="13">
         <v>11732</v>
       </c>
-      <c r="C285" s="24" t="s">
+      <c r="C285" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="D285" s="24" t="s">
+      <c r="D285" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E285" s="27" t="s">
+      <c r="E285" s="21" t="s">
         <v>441</v>
       </c>
     </row>
@@ -13204,16 +13423,16 @@
       <c r="A286">
         <v>285</v>
       </c>
-      <c r="B286" s="23">
+      <c r="B286" s="13">
         <v>11733</v>
       </c>
-      <c r="C286" s="24" t="s">
+      <c r="C286" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="D286" s="24" t="s">
+      <c r="D286" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E286" s="27" t="s">
+      <c r="E286" s="21" t="s">
         <v>442</v>
       </c>
     </row>
@@ -13221,17 +13440,85 @@
       <c r="A287">
         <v>286</v>
       </c>
-      <c r="B287" s="23">
+      <c r="B287" s="13">
         <v>11734</v>
       </c>
-      <c r="C287" s="24" t="s">
+      <c r="C287" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="D287" s="24" t="s">
+      <c r="D287" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E287" s="27" t="s">
+      <c r="E287" s="21" t="s">
         <v>443</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" s="23">
+        <v>11741</v>
+      </c>
+      <c r="C288" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="D288" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="E288" s="27" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" s="23">
+        <v>11742</v>
+      </c>
+      <c r="C289" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="D289" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="E289" s="27" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" s="23">
+        <v>11743</v>
+      </c>
+      <c r="C290" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="D290" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="E290" s="27" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" s="23">
+        <v>11744</v>
+      </c>
+      <c r="C291" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="D291" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="E291" s="27" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_9.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3162,7 +3162,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4403,10 +4403,10 @@
         <v>434</v>
       </c>
       <c r="C41" s="18">
-        <v>1598916600</v>
+        <v>1602547200</v>
       </c>
       <c r="D41" s="18">
-        <v>1599494399</v>
+        <v>1603123199</v>
       </c>
       <c r="E41" s="28">
         <v>35</v>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_9.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="512">
   <si>
     <t>id|</t>
   </si>
@@ -2592,12 +2592,67 @@
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>初级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_3</t>
+  </si>
+  <si>
+    <t>初级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_1</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_3</t>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2684,6 +2739,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2756,7 +2817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2880,6 +2941,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3158,11 +3222,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41:D41"/>
+      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4474,6 +4538,75 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1592841599</v>
+      </c>
+      <c r="D44" s="13">
+        <v>32503651200</v>
+      </c>
+      <c r="E44" s="4">
+        <v>38</v>
+      </c>
+      <c r="K44" s="6">
+        <v>43</v>
+      </c>
+      <c r="L44" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="C45" s="13">
+        <v>1592841599</v>
+      </c>
+      <c r="D45" s="13">
+        <v>32503651200</v>
+      </c>
+      <c r="E45" s="4">
+        <v>39</v>
+      </c>
+      <c r="K45" s="6">
+        <v>44</v>
+      </c>
+      <c r="L45" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="C46" s="13">
+        <v>1592841599</v>
+      </c>
+      <c r="D46" s="13">
+        <v>32503651200</v>
+      </c>
+      <c r="E46" s="4">
+        <v>40</v>
+      </c>
+      <c r="K46" s="6">
+        <v>45</v>
+      </c>
+      <c r="L46" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4485,15 +4618,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D39" sqref="D39:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="25.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="36.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -5026,6 +5160,48 @@
       </c>
       <c r="D38" s="6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="17">
+        <v>38</v>
+      </c>
+      <c r="B39" s="17">
+        <v>38</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>500</v>
+      </c>
+      <c r="D39" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="17">
+        <v>39</v>
+      </c>
+      <c r="B40" s="17">
+        <v>39</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="D40" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="17">
+        <v>40</v>
+      </c>
+      <c r="B41" s="17">
+        <v>40</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="D41" s="6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5080,13 +5256,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E296"/>
+  <dimension ref="A1:E299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B272" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A297" sqref="A297:XFD297"/>
+      <selection pane="bottomRight" activeCell="C297" sqref="C297:C299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9245,6 +9421,48 @@
         <v>3</v>
       </c>
     </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297" s="1">
+        <v>43</v>
+      </c>
+      <c r="C297" s="1">
+        <v>11761</v>
+      </c>
+      <c r="D297" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" s="1">
+        <v>44</v>
+      </c>
+      <c r="C298" s="1">
+        <v>11762</v>
+      </c>
+      <c r="D298" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299" s="1">
+        <v>45</v>
+      </c>
+      <c r="C299" s="1">
+        <v>11763</v>
+      </c>
+      <c r="D299" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9254,10 +9472,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F296"/>
+  <dimension ref="A1:F299"/>
   <sheetViews>
-    <sheetView topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="E296" sqref="E296"/>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="E299" sqref="E299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9265,7 +9483,7 @@
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.25" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13825,6 +14043,57 @@
       </c>
       <c r="E296" s="45" t="s">
         <v>496</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" s="1">
+        <v>11761</v>
+      </c>
+      <c r="C297" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="D297" s="46" t="s">
+        <v>506</v>
+      </c>
+      <c r="E297" s="45" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" s="1">
+        <v>11762</v>
+      </c>
+      <c r="C298" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="D298" s="46" t="s">
+        <v>507</v>
+      </c>
+      <c r="E298" s="45" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" s="1">
+        <v>11763</v>
+      </c>
+      <c r="C299" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="D299" s="46" t="s">
+        <v>508</v>
+      </c>
+      <c r="E299" s="45" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2028,57 +2028,6 @@
   </si>
   <si>
     <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00福利券</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00福利券</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50福利券</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>1</t>
     </r>
     <r>
@@ -2091,118 +2040,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>00福利券</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>300</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>300</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>150</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>150</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2848,6 +2685,58 @@
       <t>0000</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>500福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>300福利券</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,500</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,300</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3435,9 +3324,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47:XFD47"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4703,7 +4592,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C42" s="26">
         <v>1599523200</v>
@@ -4731,7 +4620,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C43" s="6">
         <v>1600732800</v>
@@ -4754,7 +4643,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C44" s="13">
         <v>1592841599</v>
@@ -4777,7 +4666,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C45" s="13">
         <v>1592841599</v>
@@ -4800,7 +4689,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C46" s="13">
         <v>1592841599</v>
@@ -4823,7 +4712,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="48" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C47" s="47">
         <v>1603152000</v>
@@ -5395,7 +5284,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
@@ -5409,7 +5298,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D39" s="6">
         <v>100</v>
@@ -5423,7 +5312,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D40" s="6">
         <v>100</v>
@@ -5437,7 +5326,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D41" s="6">
         <v>100</v>
@@ -5451,7 +5340,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
@@ -5515,7 +5404,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B272" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C300" sqref="C300:C305"/>
+      <selection pane="bottomRight" activeCell="D287" sqref="D287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5537,7 +5426,7 @@
         <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>41</v>
@@ -9503,7 +9392,7 @@
         <v>11731</v>
       </c>
       <c r="D284" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -9517,7 +9406,7 @@
         <v>11732</v>
       </c>
       <c r="D285" s="13">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -9531,7 +9420,7 @@
         <v>11733</v>
       </c>
       <c r="D286" s="13">
-        <v>55</v>
+        <v>500</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -9545,7 +9434,7 @@
         <v>11734</v>
       </c>
       <c r="D287" s="13">
-        <v>34</v>
+        <v>348</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -9811,9 +9700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F305"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E312" sqref="E312"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E287" sqref="E287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9827,7 +9716,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>37</v>
@@ -13881,13 +13770,13 @@
         <v>11711</v>
       </c>
       <c r="C267" s="41" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D267" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E267" s="42" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -13898,7 +13787,7 @@
         <v>11712</v>
       </c>
       <c r="C268" s="41" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D268" s="41" t="s">
         <v>388</v>
@@ -13915,13 +13804,13 @@
         <v>11713</v>
       </c>
       <c r="C269" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D269" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E269" s="42" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -13932,13 +13821,13 @@
         <v>11714</v>
       </c>
       <c r="C270" s="41" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D270" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E270" s="42" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -13949,13 +13838,13 @@
         <v>11715</v>
       </c>
       <c r="C271" s="41" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D271" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E271" s="42" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -13966,13 +13855,13 @@
         <v>11716</v>
       </c>
       <c r="C272" s="41" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D272" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E272" s="42" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -13983,13 +13872,13 @@
         <v>11717</v>
       </c>
       <c r="C273" s="41" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D273" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E273" s="42" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -14000,13 +13889,13 @@
         <v>11718</v>
       </c>
       <c r="C274" s="41" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D274" s="41" t="s">
         <v>388</v>
       </c>
       <c r="E274" s="42" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -14017,7 +13906,7 @@
         <v>11719</v>
       </c>
       <c r="C275" s="37" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D275" s="37" t="s">
         <v>388</v>
@@ -14034,7 +13923,7 @@
         <v>11720</v>
       </c>
       <c r="C276" s="37" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D276" s="37" t="s">
         <v>388</v>
@@ -14051,7 +13940,7 @@
         <v>11721</v>
       </c>
       <c r="C277" s="37" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D277" s="37" t="s">
         <v>388</v>
@@ -14068,7 +13957,7 @@
         <v>11722</v>
       </c>
       <c r="C278" s="37" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D278" s="37" t="s">
         <v>388</v>
@@ -14085,10 +13974,10 @@
         <v>11723</v>
       </c>
       <c r="C279" s="37" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D279" s="37" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E279" s="38" t="s">
         <v>202</v>
@@ -14102,13 +13991,13 @@
         <v>11724</v>
       </c>
       <c r="C280" s="37" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D280" s="37" t="s">
         <v>388</v>
       </c>
       <c r="E280" s="38" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -14119,10 +14008,10 @@
         <v>11725</v>
       </c>
       <c r="C281" s="37" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D281" s="37" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E281" s="38" t="s">
         <v>136</v>
@@ -14136,13 +14025,13 @@
         <v>11726</v>
       </c>
       <c r="C282" s="37" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D282" s="37" t="s">
         <v>388</v>
       </c>
       <c r="E282" s="38" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -14153,13 +14042,13 @@
         <v>11727</v>
       </c>
       <c r="C283" s="37" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D283" s="37" t="s">
         <v>388</v>
       </c>
       <c r="E283" s="38" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -14170,13 +14059,13 @@
         <v>11731</v>
       </c>
       <c r="C284" s="15" t="s">
-        <v>436</v>
+        <v>520</v>
       </c>
       <c r="D284" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E284" s="21" t="s">
-        <v>440</v>
+        <v>523</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -14187,13 +14076,13 @@
         <v>11732</v>
       </c>
       <c r="C285" s="15" t="s">
-        <v>437</v>
+        <v>521</v>
       </c>
       <c r="D285" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E285" s="21" t="s">
-        <v>441</v>
+        <v>524</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -14204,13 +14093,13 @@
         <v>11733</v>
       </c>
       <c r="C286" s="15" t="s">
-        <v>438</v>
+        <v>522</v>
       </c>
       <c r="D286" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E286" s="21" t="s">
-        <v>442</v>
+        <v>525</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -14221,13 +14110,13 @@
         <v>11734</v>
       </c>
       <c r="C287" s="15" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D287" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E287" s="21" t="s">
-        <v>443</v>
+        <v>526</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -14238,13 +14127,13 @@
         <v>11741</v>
       </c>
       <c r="C288" s="24" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D288" s="24" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E288" s="27" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -14255,13 +14144,13 @@
         <v>11742</v>
       </c>
       <c r="C289" s="24" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D289" s="24" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E289" s="27" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -14272,13 +14161,13 @@
         <v>11743</v>
       </c>
       <c r="C290" s="24" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D290" s="24" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E290" s="27" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -14289,13 +14178,13 @@
         <v>11744</v>
       </c>
       <c r="C291" s="24" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D291" s="24" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E291" s="27" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -14306,13 +14195,13 @@
         <v>11751</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E292" s="45" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -14323,13 +14212,13 @@
         <v>11752</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E293" s="45" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -14340,13 +14229,13 @@
         <v>11753</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E294" s="45" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -14357,13 +14246,13 @@
         <v>11754</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E295" s="45" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -14374,13 +14263,13 @@
         <v>11755</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="E296" s="45" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -14391,13 +14280,13 @@
         <v>11761</v>
       </c>
       <c r="C297" s="24" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D297" s="46" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="E297" s="45" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -14408,13 +14297,13 @@
         <v>11762</v>
       </c>
       <c r="C298" s="24" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D298" s="46" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E298" s="45" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -14425,13 +14314,13 @@
         <v>11763</v>
       </c>
       <c r="C299" s="24" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D299" s="46" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="E299" s="45" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
@@ -14442,13 +14331,13 @@
         <v>11773</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E300" s="45" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -14459,13 +14348,13 @@
         <v>11774</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E301" s="45" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -14476,13 +14365,13 @@
         <v>11775</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E302" s="45" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -14493,13 +14382,13 @@
         <v>11776</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E303" s="45" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -14510,13 +14399,13 @@
         <v>11777</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E304" s="45" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -14527,7 +14416,7 @@
         <v>11778</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2602,91 +2602,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>1000福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2737,6 +2652,26 @@
       <t>100</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000,12000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,20000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,50000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3324,9 +3259,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5400,11 +5335,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B272" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B278" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D287" sqref="D287"/>
+      <selection pane="bottomRight" activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9700,9 +9635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E287" sqref="E287"/>
+      <selection pane="bottomLeft" activeCell="E304" sqref="E304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14059,13 +13994,13 @@
         <v>11731</v>
       </c>
       <c r="C284" s="15" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D284" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E284" s="21" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -14076,13 +14011,13 @@
         <v>11732</v>
       </c>
       <c r="C285" s="15" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D285" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E285" s="21" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -14093,13 +14028,13 @@
         <v>11733</v>
       </c>
       <c r="C286" s="15" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D286" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E286" s="21" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -14116,7 +14051,7 @@
         <v>132</v>
       </c>
       <c r="E287" s="21" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -14337,7 +14272,7 @@
         <v>42</v>
       </c>
       <c r="E300" s="45" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -14354,7 +14289,7 @@
         <v>30</v>
       </c>
       <c r="E301" s="45" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -14371,7 +14306,7 @@
         <v>42</v>
       </c>
       <c r="E302" s="45" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -14388,7 +14323,7 @@
         <v>30</v>
       </c>
       <c r="E303" s="45" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -14405,7 +14340,7 @@
         <v>42</v>
       </c>
       <c r="E304" s="45" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_10.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="581">
   <si>
     <t>id|</t>
   </si>
@@ -2602,6 +2602,91 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>1000福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2654,23 +2739,665 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>12000,12000</t>
+    <t>白银宝箱v1-v3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱v1-v3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石宝箱v1-v3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银宝箱v4-v10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱v4-v10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石宝箱v4-v10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>15,15</t>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5万金币</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>20000,20000</t>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8万金币</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>30,30</t>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0万金币</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>50000,50000</t>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>90万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>95万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>020万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>030万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>040万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>060万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>050万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>080万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>150万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>180万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>250万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>280万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>380万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000万金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1亿金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50000,650000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>680000,680000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,3000000</t>
+  </si>
+  <si>
+    <t>4000000,4000000</t>
+  </si>
+  <si>
+    <t>8000000,8000000</t>
+  </si>
+  <si>
+    <t>10000000,10000000</t>
+  </si>
+  <si>
+    <t>15000000,15000000</t>
+  </si>
+  <si>
+    <t>20000000,20000000</t>
+  </si>
+  <si>
+    <t>30000000,30000000</t>
+  </si>
+  <si>
+    <t>50000000,50000000</t>
+  </si>
+  <si>
+    <t>60000000,60000000</t>
+  </si>
+  <si>
+    <t>100000000,100000000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2772,7 +3499,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2800,6 +3527,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2843,7 +3576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2979,6 +3712,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3257,11 +4003,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4670,6 +5416,198 @@
         <v>1</v>
       </c>
     </row>
+    <row r="48" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="50">
+        <v>47</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="C48" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="D48" s="50">
+        <v>1604332799</v>
+      </c>
+      <c r="E48" s="52">
+        <v>42</v>
+      </c>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53">
+        <v>1</v>
+      </c>
+      <c r="J48" s="53">
+        <v>0</v>
+      </c>
+      <c r="K48" s="50">
+        <v>47</v>
+      </c>
+      <c r="L48" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="50">
+        <v>48</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>528</v>
+      </c>
+      <c r="C49" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="D49" s="50">
+        <v>1604332799</v>
+      </c>
+      <c r="E49" s="52">
+        <v>43</v>
+      </c>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53">
+        <v>1</v>
+      </c>
+      <c r="J49" s="53">
+        <v>0</v>
+      </c>
+      <c r="K49" s="50">
+        <v>48</v>
+      </c>
+      <c r="L49" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>529</v>
+      </c>
+      <c r="C50" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="D50" s="50">
+        <v>1604332799</v>
+      </c>
+      <c r="E50" s="52">
+        <v>44</v>
+      </c>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53">
+        <v>1</v>
+      </c>
+      <c r="J50" s="53">
+        <v>0</v>
+      </c>
+      <c r="K50" s="50">
+        <v>49</v>
+      </c>
+      <c r="L50" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="50">
+        <v>50</v>
+      </c>
+      <c r="B51" s="51" t="s">
+        <v>530</v>
+      </c>
+      <c r="C51" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="D51" s="50">
+        <v>1604332799</v>
+      </c>
+      <c r="E51" s="52">
+        <v>45</v>
+      </c>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53">
+        <v>1</v>
+      </c>
+      <c r="J51" s="53">
+        <v>0</v>
+      </c>
+      <c r="K51" s="50">
+        <v>50</v>
+      </c>
+      <c r="L51" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="50">
+        <v>51</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>531</v>
+      </c>
+      <c r="C52" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="D52" s="50">
+        <v>1604332799</v>
+      </c>
+      <c r="E52" s="52">
+        <v>46</v>
+      </c>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53">
+        <v>1</v>
+      </c>
+      <c r="J52" s="53">
+        <v>0</v>
+      </c>
+      <c r="K52" s="50">
+        <v>51</v>
+      </c>
+      <c r="L52" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="50">
+        <v>52</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>532</v>
+      </c>
+      <c r="C53" s="50">
+        <v>1603756800</v>
+      </c>
+      <c r="D53" s="50">
+        <v>1604332799</v>
+      </c>
+      <c r="E53" s="52">
+        <v>47</v>
+      </c>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53">
+        <v>1</v>
+      </c>
+      <c r="J53" s="53">
+        <v>0</v>
+      </c>
+      <c r="K53" s="50">
+        <v>52</v>
+      </c>
+      <c r="L53" s="50">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4681,10 +5619,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5278,6 +6217,90 @@
         <v>506</v>
       </c>
       <c r="D42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="53">
+        <v>42</v>
+      </c>
+      <c r="B43" s="53">
+        <v>42</v>
+      </c>
+      <c r="C43" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="53">
+        <v>43</v>
+      </c>
+      <c r="B44" s="53">
+        <v>43</v>
+      </c>
+      <c r="C44" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="D44" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="53">
+        <v>44</v>
+      </c>
+      <c r="B45" s="53">
+        <v>44</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="53">
+        <v>45</v>
+      </c>
+      <c r="B46" s="53">
+        <v>45</v>
+      </c>
+      <c r="C46" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="D46" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="53">
+        <v>46</v>
+      </c>
+      <c r="B47" s="53">
+        <v>46</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="D47" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="53">
+        <v>47</v>
+      </c>
+      <c r="B48" s="53">
+        <v>47</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="D48" s="50">
         <v>1</v>
       </c>
     </row>
@@ -5333,13 +6356,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E305"/>
+  <dimension ref="A1:E341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B278" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B314" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D300" sqref="D300"/>
+      <selection pane="bottomRight" activeCell="B328" sqref="B328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9624,6 +10647,510 @@
         <v>0</v>
       </c>
     </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306" s="1">
+        <v>47</v>
+      </c>
+      <c r="C306" s="1">
+        <v>11779</v>
+      </c>
+      <c r="D306" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307" s="1">
+        <v>47</v>
+      </c>
+      <c r="C307" s="1">
+        <v>11780</v>
+      </c>
+      <c r="D307" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308" s="1">
+        <v>47</v>
+      </c>
+      <c r="C308" s="1">
+        <v>11781</v>
+      </c>
+      <c r="D308" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309" s="1">
+        <v>47</v>
+      </c>
+      <c r="C309" s="1">
+        <v>11782</v>
+      </c>
+      <c r="D309" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310" s="1">
+        <v>47</v>
+      </c>
+      <c r="C310" s="1">
+        <v>11783</v>
+      </c>
+      <c r="D310" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311" s="1">
+        <v>47</v>
+      </c>
+      <c r="C311" s="1">
+        <v>11784</v>
+      </c>
+      <c r="D311" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312" s="1">
+        <v>48</v>
+      </c>
+      <c r="C312" s="1">
+        <v>11785</v>
+      </c>
+      <c r="D312" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313" s="1">
+        <v>48</v>
+      </c>
+      <c r="C313" s="1">
+        <v>11786</v>
+      </c>
+      <c r="D313" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314" s="1">
+        <v>48</v>
+      </c>
+      <c r="C314" s="1">
+        <v>11787</v>
+      </c>
+      <c r="D314" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="B315" s="1">
+        <v>48</v>
+      </c>
+      <c r="C315" s="1">
+        <v>11788</v>
+      </c>
+      <c r="D315" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316" s="1">
+        <v>48</v>
+      </c>
+      <c r="C316" s="1">
+        <v>11789</v>
+      </c>
+      <c r="D316" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <v>316</v>
+      </c>
+      <c r="B317" s="1">
+        <v>48</v>
+      </c>
+      <c r="C317" s="1">
+        <v>11790</v>
+      </c>
+      <c r="D317" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+      <c r="B318" s="1">
+        <v>49</v>
+      </c>
+      <c r="C318" s="1">
+        <v>11791</v>
+      </c>
+      <c r="D318" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <v>318</v>
+      </c>
+      <c r="B319" s="1">
+        <v>49</v>
+      </c>
+      <c r="C319" s="1">
+        <v>11792</v>
+      </c>
+      <c r="D319" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+      <c r="B320" s="1">
+        <v>49</v>
+      </c>
+      <c r="C320" s="1">
+        <v>11793</v>
+      </c>
+      <c r="D320" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+      <c r="B321" s="1">
+        <v>49</v>
+      </c>
+      <c r="C321" s="1">
+        <v>11794</v>
+      </c>
+      <c r="D321" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="B322" s="1">
+        <v>49</v>
+      </c>
+      <c r="C322" s="1">
+        <v>11795</v>
+      </c>
+      <c r="D322" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
+      <c r="B323" s="1">
+        <v>49</v>
+      </c>
+      <c r="C323" s="1">
+        <v>11796</v>
+      </c>
+      <c r="D323" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+      <c r="B324" s="1">
+        <v>50</v>
+      </c>
+      <c r="C324" s="1">
+        <v>11797</v>
+      </c>
+      <c r="D324" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
+      <c r="B325" s="1">
+        <v>50</v>
+      </c>
+      <c r="C325" s="1">
+        <v>11798</v>
+      </c>
+      <c r="D325" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+      <c r="B326" s="1">
+        <v>50</v>
+      </c>
+      <c r="C326" s="1">
+        <v>11799</v>
+      </c>
+      <c r="D326" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+      <c r="B327" s="1">
+        <v>50</v>
+      </c>
+      <c r="C327" s="1">
+        <v>11800</v>
+      </c>
+      <c r="D327" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="B328" s="1">
+        <v>50</v>
+      </c>
+      <c r="C328" s="1">
+        <v>11801</v>
+      </c>
+      <c r="D328" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+      <c r="B329" s="1">
+        <v>50</v>
+      </c>
+      <c r="C329" s="1">
+        <v>11802</v>
+      </c>
+      <c r="D329" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="B330" s="1">
+        <v>51</v>
+      </c>
+      <c r="C330" s="1">
+        <v>11803</v>
+      </c>
+      <c r="D330" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331" s="1">
+        <v>51</v>
+      </c>
+      <c r="C331" s="1">
+        <v>11804</v>
+      </c>
+      <c r="D331" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332" s="1">
+        <v>51</v>
+      </c>
+      <c r="C332" s="1">
+        <v>11805</v>
+      </c>
+      <c r="D332" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="B333" s="1">
+        <v>51</v>
+      </c>
+      <c r="C333" s="1">
+        <v>11806</v>
+      </c>
+      <c r="D333" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334" s="1">
+        <v>51</v>
+      </c>
+      <c r="C334" s="1">
+        <v>11807</v>
+      </c>
+      <c r="D334" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+      <c r="B335" s="1">
+        <v>51</v>
+      </c>
+      <c r="C335" s="1">
+        <v>11808</v>
+      </c>
+      <c r="D335" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="B336" s="1">
+        <v>52</v>
+      </c>
+      <c r="C336" s="1">
+        <v>11809</v>
+      </c>
+      <c r="D336" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337" s="1">
+        <v>52</v>
+      </c>
+      <c r="C337" s="1">
+        <v>11810</v>
+      </c>
+      <c r="D337" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338" s="1">
+        <v>52</v>
+      </c>
+      <c r="C338" s="1">
+        <v>11811</v>
+      </c>
+      <c r="D338" s="1">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339" s="1">
+        <v>52</v>
+      </c>
+      <c r="C339" s="1">
+        <v>11812</v>
+      </c>
+      <c r="D339" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340" s="1">
+        <v>52</v>
+      </c>
+      <c r="C340" s="1">
+        <v>11813</v>
+      </c>
+      <c r="D340" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341" s="1">
+        <v>52</v>
+      </c>
+      <c r="C341" s="1">
+        <v>11814</v>
+      </c>
+      <c r="D341" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9633,11 +11160,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F305"/>
+  <dimension ref="A1:F341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E304" sqref="E304"/>
+      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E341" sqref="E341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13994,13 +15521,13 @@
         <v>11731</v>
       </c>
       <c r="C284" s="15" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D284" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E284" s="21" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -14011,13 +15538,13 @@
         <v>11732</v>
       </c>
       <c r="C285" s="15" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="D285" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E285" s="21" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -14028,13 +15555,13 @@
         <v>11733</v>
       </c>
       <c r="C286" s="15" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D286" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E286" s="21" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -14051,7 +15578,7 @@
         <v>132</v>
       </c>
       <c r="E287" s="21" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -14272,7 +15799,7 @@
         <v>42</v>
       </c>
       <c r="E300" s="45" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -14289,7 +15816,7 @@
         <v>30</v>
       </c>
       <c r="E301" s="45" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -14306,7 +15833,7 @@
         <v>42</v>
       </c>
       <c r="E302" s="45" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -14323,7 +15850,7 @@
         <v>30</v>
       </c>
       <c r="E303" s="45" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -14336,14 +15863,14 @@
       <c r="C304" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D304" s="1" t="s">
-        <v>42</v>
+      <c r="D304" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="E304" s="45" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>304</v>
       </c>
@@ -14352,6 +15879,618 @@
       </c>
       <c r="C305" s="3" t="s">
         <v>512</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" s="1">
+        <v>11779</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E306" s="45" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" s="1">
+        <v>11780</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E307" s="45" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" s="1">
+        <v>11781</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E308" s="45" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" s="1">
+        <v>11782</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E309" s="45" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" s="1">
+        <v>11783</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E310" s="45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" s="1">
+        <v>11784</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E311" s="45" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" s="1">
+        <v>11785</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E312" s="45" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" s="1">
+        <v>11786</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E313" s="45" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" s="1">
+        <v>11787</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E314" s="45" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" s="1">
+        <v>11788</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E315" s="45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" s="1">
+        <v>11789</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E316" s="45" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" s="1">
+        <v>11790</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E317" s="45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" s="1">
+        <v>11791</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E318" s="45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" s="1">
+        <v>11792</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E319" s="45" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" s="1">
+        <v>11793</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E320" s="45" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" s="1">
+        <v>11794</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E321" s="45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" s="1">
+        <v>11795</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E322" s="45" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" s="1">
+        <v>11796</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E323" s="45" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" s="1">
+        <v>11797</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E324" s="45" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" s="1">
+        <v>11798</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E325" s="45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" s="1">
+        <v>11799</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E326" s="45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" s="1">
+        <v>11800</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E327" s="45" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" s="1">
+        <v>11801</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E328" s="45" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" s="1">
+        <v>11802</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E329" s="45" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" s="1">
+        <v>11803</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E330" s="45" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" s="1">
+        <v>11804</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E331" s="45" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" s="1">
+        <v>11805</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E332" s="45" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" s="1">
+        <v>11806</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E333" s="45" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" s="1">
+        <v>11807</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E334" s="45" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" s="1">
+        <v>11808</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E335" s="45" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" s="1">
+        <v>11809</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E336" s="45" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" s="1">
+        <v>11810</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E337" s="45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" s="1">
+        <v>11811</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E338" s="45" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" s="1">
+        <v>11812</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E339" s="45" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" s="1">
+        <v>11813</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E340" s="45" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" s="1">
+        <v>11814</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E341" s="45" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -14366,7 +16505,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_10.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -2602,91 +2602,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>1000福利券</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3398,6 +3313,26 @@
   </si>
   <si>
     <t>100000000,100000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,15</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,20000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,50000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000，12000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -5421,7 +5356,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="51" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C48" s="50">
         <v>1603756800</v>
@@ -5453,7 +5388,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="51" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C49" s="50">
         <v>1603756800</v>
@@ -5485,7 +5420,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="51" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C50" s="50">
         <v>1603756800</v>
@@ -5517,7 +5452,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="51" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C51" s="50">
         <v>1603756800</v>
@@ -5549,7 +5484,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="51" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C52" s="50">
         <v>1603756800</v>
@@ -5581,7 +5516,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="51" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C53" s="50">
         <v>1603756800</v>
@@ -6362,7 +6297,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B314" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B328" sqref="B328"/>
+      <selection pane="bottomRight" activeCell="C351" sqref="C351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11162,9 +11097,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F341"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E341" sqref="E341"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E300" sqref="E300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15521,13 +15456,13 @@
         <v>11731</v>
       </c>
       <c r="C284" s="15" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D284" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E284" s="21" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -15538,13 +15473,13 @@
         <v>11732</v>
       </c>
       <c r="C285" s="15" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D285" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E285" s="21" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -15555,13 +15490,13 @@
         <v>11733</v>
       </c>
       <c r="C286" s="15" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D286" s="15" t="s">
         <v>132</v>
       </c>
       <c r="E286" s="21" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -15578,7 +15513,7 @@
         <v>132</v>
       </c>
       <c r="E287" s="21" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -15799,7 +15734,7 @@
         <v>42</v>
       </c>
       <c r="E300" s="45" t="s">
-        <v>515</v>
+        <v>580</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -15816,7 +15751,7 @@
         <v>30</v>
       </c>
       <c r="E301" s="45" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -15833,7 +15768,7 @@
         <v>42</v>
       </c>
       <c r="E302" s="45" t="s">
-        <v>517</v>
+        <v>577</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -15850,7 +15785,7 @@
         <v>30</v>
       </c>
       <c r="E303" s="45" t="s">
-        <v>518</v>
+        <v>578</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -15864,10 +15799,10 @@
         <v>511</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E304" s="45" t="s">
-        <v>519</v>
+        <v>579</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -15889,13 +15824,13 @@
         <v>11779</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E306" s="45" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -15906,13 +15841,13 @@
         <v>11780</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E307" s="45" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -15923,7 +15858,7 @@
         <v>11781</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>42</v>
@@ -15940,7 +15875,7 @@
         <v>11782</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>42</v>
@@ -15957,7 +15892,7 @@
         <v>11783</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>42</v>
@@ -15974,13 +15909,13 @@
         <v>11784</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E311" s="45" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -15991,7 +15926,7 @@
         <v>11785</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>42</v>
@@ -16008,7 +15943,7 @@
         <v>11786</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>42</v>
@@ -16025,7 +15960,7 @@
         <v>11787</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>42</v>
@@ -16042,7 +15977,7 @@
         <v>11788</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>42</v>
@@ -16059,13 +15994,13 @@
         <v>11789</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E316" s="45" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -16076,7 +16011,7 @@
         <v>11790</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>42</v>
@@ -16093,7 +16028,7 @@
         <v>11791</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>42</v>
@@ -16110,7 +16045,7 @@
         <v>11792</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>42</v>
@@ -16127,7 +16062,7 @@
         <v>11793</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>42</v>
@@ -16144,7 +16079,7 @@
         <v>11794</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>42</v>
@@ -16161,13 +16096,13 @@
         <v>11795</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E322" s="45" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
@@ -16178,13 +16113,13 @@
         <v>11796</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E323" s="45" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
@@ -16195,7 +16130,7 @@
         <v>11797</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>42</v>
@@ -16212,7 +16147,7 @@
         <v>11798</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>42</v>
@@ -16229,7 +16164,7 @@
         <v>11799</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>42</v>
@@ -16246,7 +16181,7 @@
         <v>11800</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>42</v>
@@ -16263,13 +16198,13 @@
         <v>11801</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E328" s="45" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
@@ -16280,13 +16215,13 @@
         <v>11802</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E329" s="45" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -16297,7 +16232,7 @@
         <v>11803</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>42</v>
@@ -16314,7 +16249,7 @@
         <v>11804</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>42</v>
@@ -16331,7 +16266,7 @@
         <v>11805</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>42</v>
@@ -16348,7 +16283,7 @@
         <v>11806</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>42</v>
@@ -16365,13 +16300,13 @@
         <v>11807</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E334" s="45" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -16382,13 +16317,13 @@
         <v>11808</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E335" s="45" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
@@ -16399,7 +16334,7 @@
         <v>11809</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>42</v>
@@ -16416,7 +16351,7 @@
         <v>11810</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>42</v>
@@ -16433,7 +16368,7 @@
         <v>11811</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>42</v>
@@ -16450,7 +16385,7 @@
         <v>11812</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>42</v>
@@ -16467,13 +16402,13 @@
         <v>11813</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E340" s="45" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
@@ -16484,13 +16419,13 @@
         <v>11814</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E341" s="45" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -16505,7 +16440,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -3940,9 +3940,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5342,8 +5342,12 @@
       <c r="F47" s="36"/>
       <c r="G47" s="36"/>
       <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
+      <c r="I47" s="36">
+        <v>1</v>
+      </c>
+      <c r="J47" s="36">
+        <v>0</v>
+      </c>
       <c r="K47" s="47">
         <v>46</v>
       </c>
@@ -5558,7 +5562,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11097,8 +11101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E300" sqref="E300"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -3332,7 +3332,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>12000，12000</t>
+    <t>12000,12000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3940,8 +3940,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
@@ -6298,10 +6298,10 @@
   <dimension ref="A1:E341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B314" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B282" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C351" sqref="C351"/>
+      <selection pane="bottomRight" activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11101,9 +11101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F341"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E300" sqref="E300"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G301" sqref="G301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="593">
   <si>
     <t>id|</t>
   </si>
@@ -3333,6 +3333,54 @@
   </si>
   <si>
     <t>12000,12000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手宝箱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级宝箱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>porp_033_xsbx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>porp_033_gjbx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>porp_033_hhbx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,140000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,400000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>650000,850000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-14万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-40万金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>65-85万金币</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -3434,7 +3482,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3468,6 +3516,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3511,7 +3565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3659,6 +3713,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3938,11 +4008,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
+      <selection pane="bottomLeft" activeCell="R56" sqref="R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3962,7 +4032,7 @@
     <col min="18" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5544,6 +5614,102 @@
         <v>52</v>
       </c>
       <c r="L53" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="55">
+        <v>53</v>
+      </c>
+      <c r="B54" s="55" t="s">
+        <v>581</v>
+      </c>
+      <c r="C54" s="55">
+        <v>1603756800</v>
+      </c>
+      <c r="D54" s="55">
+        <v>2552233600</v>
+      </c>
+      <c r="E54" s="56">
+        <v>48</v>
+      </c>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57">
+        <v>1</v>
+      </c>
+      <c r="J54" s="57">
+        <v>0</v>
+      </c>
+      <c r="K54" s="59">
+        <v>53</v>
+      </c>
+      <c r="L54" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="55" t="s">
+        <v>582</v>
+      </c>
+      <c r="C55" s="55">
+        <v>1603756800</v>
+      </c>
+      <c r="D55" s="55">
+        <v>2552233600</v>
+      </c>
+      <c r="E55" s="56">
+        <v>49</v>
+      </c>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57">
+        <v>1</v>
+      </c>
+      <c r="J55" s="57">
+        <v>0</v>
+      </c>
+      <c r="K55" s="59">
+        <v>54</v>
+      </c>
+      <c r="L55" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="55">
+        <v>55</v>
+      </c>
+      <c r="B56" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="C56" s="55">
+        <v>1603756800</v>
+      </c>
+      <c r="D56" s="55">
+        <v>2552233600</v>
+      </c>
+      <c r="E56" s="56">
+        <v>50</v>
+      </c>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57">
+        <v>1</v>
+      </c>
+      <c r="J56" s="57">
+        <v>0</v>
+      </c>
+      <c r="K56" s="59">
+        <v>55</v>
+      </c>
+      <c r="L56" s="55">
         <v>1</v>
       </c>
     </row>
@@ -5558,11 +5724,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6240,6 +6406,48 @@
         <v>261</v>
       </c>
       <c r="D48" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="57" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="57">
+        <v>48</v>
+      </c>
+      <c r="B49" s="57">
+        <v>48</v>
+      </c>
+      <c r="C49" s="58" t="s">
+        <v>584</v>
+      </c>
+      <c r="D49" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="57" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="57">
+        <v>49</v>
+      </c>
+      <c r="B50" s="57">
+        <v>49</v>
+      </c>
+      <c r="C50" s="58" t="s">
+        <v>585</v>
+      </c>
+      <c r="D50" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="57" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="57">
+        <v>50</v>
+      </c>
+      <c r="B51" s="57">
+        <v>50</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>586</v>
+      </c>
+      <c r="D51" s="55">
         <v>1</v>
       </c>
     </row>
@@ -6295,13 +6503,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E341"/>
+  <dimension ref="A1:E344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B282" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B327" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C300" sqref="C300"/>
+      <selection pane="bottomRight" activeCell="D342" sqref="D342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11090,6 +11298,48 @@
         <v>0</v>
       </c>
     </row>
+    <row r="342" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="59">
+        <v>341</v>
+      </c>
+      <c r="B342" s="59">
+        <v>53</v>
+      </c>
+      <c r="C342" s="59">
+        <v>11815</v>
+      </c>
+      <c r="D342" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="59">
+        <v>342</v>
+      </c>
+      <c r="B343" s="59">
+        <v>54</v>
+      </c>
+      <c r="C343" s="59">
+        <v>11816</v>
+      </c>
+      <c r="D343" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="59">
+        <v>343</v>
+      </c>
+      <c r="B344" s="59">
+        <v>55</v>
+      </c>
+      <c r="C344" s="59">
+        <v>11817</v>
+      </c>
+      <c r="D344" s="59">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11099,11 +11349,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F341"/>
+  <dimension ref="A1:F344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G301" sqref="G301"/>
+      <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D342" sqref="D342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16430,6 +16680,57 @@
       </c>
       <c r="E341" s="45" t="s">
         <v>575</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="57">
+        <v>341</v>
+      </c>
+      <c r="B342" s="59">
+        <v>11815</v>
+      </c>
+      <c r="C342" s="59" t="s">
+        <v>590</v>
+      </c>
+      <c r="D342" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E342" s="60" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="57">
+        <v>342</v>
+      </c>
+      <c r="B343" s="59">
+        <v>11816</v>
+      </c>
+      <c r="C343" s="59" t="s">
+        <v>591</v>
+      </c>
+      <c r="D343" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E343" s="60" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="57">
+        <v>343</v>
+      </c>
+      <c r="B344" s="59">
+        <v>11817</v>
+      </c>
+      <c r="C344" s="59" t="s">
+        <v>592</v>
+      </c>
+      <c r="D344" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E344" s="60" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -4010,9 +4010,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R56" sqref="R56"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5636,12 +5636,8 @@
       <c r="F54" s="57"/>
       <c r="G54" s="57"/>
       <c r="H54" s="57"/>
-      <c r="I54" s="57">
-        <v>1</v>
-      </c>
-      <c r="J54" s="57">
-        <v>0</v>
-      </c>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
       <c r="K54" s="59">
         <v>53</v>
       </c>
@@ -5668,12 +5664,8 @@
       <c r="F55" s="57"/>
       <c r="G55" s="57"/>
       <c r="H55" s="57"/>
-      <c r="I55" s="57">
-        <v>1</v>
-      </c>
-      <c r="J55" s="57">
-        <v>0</v>
-      </c>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
       <c r="K55" s="59">
         <v>54</v>
       </c>
@@ -5700,12 +5692,8 @@
       <c r="F56" s="57"/>
       <c r="G56" s="57"/>
       <c r="H56" s="57"/>
-      <c r="I56" s="57">
-        <v>1</v>
-      </c>
-      <c r="J56" s="57">
-        <v>0</v>
-      </c>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
       <c r="K56" s="59">
         <v>55</v>
       </c>
@@ -5728,7 +5716,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6509,7 +6497,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B327" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D342" sqref="D342"/>
+      <selection pane="bottomRight" activeCell="C344" sqref="C344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11351,9 +11339,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D342" sqref="D342"/>
+      <selection pane="bottomLeft" activeCell="E345" sqref="E345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="594">
   <si>
     <t>id|</t>
   </si>
@@ -3348,18 +3348,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>porp_033_xsbx</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>porp_033_gjbx</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>porp_033_hhbx</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>100000,140000</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -3382,6 +3370,33 @@
   <si>
     <t>65-85万金币</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rop_cjlb_1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_11</t>
+  </si>
+  <si>
+    <t>prop_cjlb_10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_12</t>
   </si>
 </sst>
 </file>
@@ -4010,9 +4025,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5714,9 +5729,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6321,7 +6336,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="54" t="s">
-        <v>256</v>
+        <v>590</v>
       </c>
       <c r="D43" s="50">
         <v>1</v>
@@ -6405,7 +6420,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="58" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="D49" s="55">
         <v>1</v>
@@ -6419,7 +6434,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D50" s="55">
         <v>1</v>
@@ -6433,7 +6448,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="D51" s="55">
         <v>1</v>
@@ -16678,13 +16693,13 @@
         <v>11815</v>
       </c>
       <c r="C342" s="59" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D342" s="59" t="s">
         <v>42</v>
       </c>
       <c r="E342" s="60" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="343" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.2">
@@ -16695,13 +16710,13 @@
         <v>11816</v>
       </c>
       <c r="C343" s="59" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D343" s="59" t="s">
         <v>42</v>
       </c>
       <c r="E343" s="60" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="344" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.2">
@@ -16712,13 +16727,13 @@
         <v>11817</v>
       </c>
       <c r="C344" s="59" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D344" s="59" t="s">
         <v>42</v>
       </c>
       <c r="E344" s="60" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="669">
   <si>
     <t>id|</t>
   </si>
@@ -3963,28 +3963,16 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>顶级核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>终极核弹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_4</t>
+    <t>美的空调</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>prop_3d_fish_nuclear_bomb_5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <t>prop_12_12_cjq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二抽奖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4092,7 +4080,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4141,6 +4129,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -4181,7 +4181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4343,6 +4343,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4622,11 +4645,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6427,49 +6450,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="6">
+    <row r="61" spans="1:12" s="61" customFormat="1">
+      <c r="A61" s="61">
         <v>60</v>
       </c>
-      <c r="B61" s="15" t="s">
-        <v>666</v>
-      </c>
-      <c r="C61" s="13">
-        <v>1592841599</v>
-      </c>
-      <c r="D61" s="13">
-        <v>32503651200</v>
-      </c>
-      <c r="E61" s="4">
+      <c r="B61" s="61" t="s">
+        <v>668</v>
+      </c>
+      <c r="C61" s="64">
+        <v>1607385600</v>
+      </c>
+      <c r="D61" s="64">
+        <v>1607961599</v>
+      </c>
+      <c r="E61" s="62">
         <v>55</v>
       </c>
-      <c r="K61" s="6">
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="61">
         <v>60</v>
       </c>
-      <c r="L61" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="6">
-        <v>61</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="C62" s="13">
-        <v>1592841599</v>
-      </c>
-      <c r="D62" s="13">
-        <v>32503651200</v>
-      </c>
-      <c r="E62" s="4">
-        <v>56</v>
-      </c>
-      <c r="K62" s="6">
-        <v>61</v>
-      </c>
-      <c r="L62" s="6">
+      <c r="L61" s="61">
         <v>1</v>
       </c>
     </row>
@@ -6484,11 +6489,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7268,31 +7273,17 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="17">
+      <c r="A56" s="51">
         <v>55</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="51">
         <v>55</v>
       </c>
-      <c r="C56" s="44" t="s">
-        <v>668</v>
+      <c r="C56" s="65" t="s">
+        <v>667</v>
       </c>
       <c r="D56" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="17">
-        <v>56</v>
-      </c>
-      <c r="B57" s="17">
-        <v>56</v>
-      </c>
-      <c r="C57" s="44" t="s">
-        <v>669</v>
-      </c>
-      <c r="D57" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7347,13 +7338,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E379"/>
+  <dimension ref="A1:E383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B347" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B362" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C378" sqref="C378"/>
+      <selection pane="bottomRight" activeCell="D364" sqref="D364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -12646,32 +12637,88 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:4" s="13" customFormat="1">
-      <c r="A378" s="13">
+    <row r="378" spans="1:4" s="64" customFormat="1">
+      <c r="A378" s="64">
         <v>377</v>
       </c>
-      <c r="B378" s="13">
+      <c r="B378" s="64">
         <v>60</v>
       </c>
-      <c r="C378" s="13">
+      <c r="C378" s="64">
         <v>11851</v>
       </c>
-      <c r="D378" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" s="13" customFormat="1">
-      <c r="A379" s="13">
+      <c r="D378" s="64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" s="64" customFormat="1">
+      <c r="A379" s="64">
         <v>378</v>
       </c>
-      <c r="B379" s="13">
-        <v>61</v>
-      </c>
-      <c r="C379" s="13">
+      <c r="B379" s="64">
+        <v>60</v>
+      </c>
+      <c r="C379" s="64">
         <v>11852</v>
       </c>
-      <c r="D379" s="13">
-        <v>1</v>
+      <c r="D379" s="64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" s="64" customFormat="1">
+      <c r="A380" s="64">
+        <v>379</v>
+      </c>
+      <c r="B380" s="64">
+        <v>60</v>
+      </c>
+      <c r="C380" s="64">
+        <v>11853</v>
+      </c>
+      <c r="D380" s="64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" s="64" customFormat="1">
+      <c r="A381" s="64">
+        <v>380</v>
+      </c>
+      <c r="B381" s="64">
+        <v>60</v>
+      </c>
+      <c r="C381" s="64">
+        <v>11854</v>
+      </c>
+      <c r="D381" s="64">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" s="64" customFormat="1">
+      <c r="A382" s="64">
+        <v>381</v>
+      </c>
+      <c r="B382" s="64">
+        <v>60</v>
+      </c>
+      <c r="C382" s="64">
+        <v>11855</v>
+      </c>
+      <c r="D382" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" s="64" customFormat="1">
+      <c r="A383" s="64">
+        <v>382</v>
+      </c>
+      <c r="B383" s="64">
+        <v>60</v>
+      </c>
+      <c r="C383" s="64">
+        <v>11856</v>
+      </c>
+      <c r="D383" s="64">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12683,11 +12730,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F379"/>
+  <dimension ref="A1:F383"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D380" sqref="D380"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D387" sqref="D387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18624,39 +18671,103 @@
         <v>655</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="16.5">
-      <c r="A378">
+    <row r="378" spans="1:5" s="66" customFormat="1">
+      <c r="A378" s="66">
         <v>377</v>
       </c>
-      <c r="B378" s="1">
+      <c r="B378" s="64">
         <v>11851</v>
       </c>
-      <c r="C378" s="15" t="s">
+      <c r="C378" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="D378" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="E378" s="67" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" s="66" customFormat="1">
+      <c r="A379" s="66">
+        <v>378</v>
+      </c>
+      <c r="B379" s="64">
+        <v>11852</v>
+      </c>
+      <c r="C379" s="68" t="s">
+        <v>508</v>
+      </c>
+      <c r="D379" s="68" t="s">
+        <v>601</v>
+      </c>
+      <c r="E379" s="67" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" s="66" customFormat="1">
+      <c r="A380" s="66">
+        <v>379</v>
+      </c>
+      <c r="B380" s="64">
+        <v>11853</v>
+      </c>
+      <c r="C380" s="68" t="s">
+        <v>442</v>
+      </c>
+      <c r="D380" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="E380" s="67" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" s="66" customFormat="1">
+      <c r="A381" s="66">
+        <v>380</v>
+      </c>
+      <c r="B381" s="64">
+        <v>11854</v>
+      </c>
+      <c r="C381" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="D381" s="68" t="s">
+        <v>601</v>
+      </c>
+      <c r="E381" s="67" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" s="66" customFormat="1">
+      <c r="A382" s="66">
+        <v>381</v>
+      </c>
+      <c r="B382" s="64">
+        <v>11855</v>
+      </c>
+      <c r="C382" s="68" t="s">
+        <v>445</v>
+      </c>
+      <c r="D382" s="68" t="s">
+        <v>513</v>
+      </c>
+      <c r="E382" s="67" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" s="66" customFormat="1">
+      <c r="A383" s="66">
+        <v>382</v>
+      </c>
+      <c r="B383" s="64">
+        <v>11856</v>
+      </c>
+      <c r="C383" s="68" t="s">
         <v>666</v>
       </c>
-      <c r="D378" s="46" t="s">
-        <v>670</v>
-      </c>
-      <c r="E378" s="45" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" ht="16.5">
-      <c r="A379">
-        <v>378</v>
-      </c>
-      <c r="B379" s="1">
-        <v>11852</v>
-      </c>
-      <c r="C379" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="D379" s="46" t="s">
-        <v>671</v>
-      </c>
-      <c r="E379" s="45" t="s">
-        <v>502</v>
-      </c>
+      <c r="D383" s="64"/>
+      <c r="E383" s="69"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="678">
   <si>
     <t>id|</t>
   </si>
@@ -3972,6 +3972,42 @@
   </si>
   <si>
     <t>双十二抽奖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级核弹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4645,11 +4681,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6478,6 +6514,53 @@
         <v>1</v>
       </c>
     </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="C62" s="13">
+        <v>1592841599</v>
+      </c>
+      <c r="D62" s="13">
+        <v>32503651200</v>
+      </c>
+      <c r="E62" s="4">
+        <v>56</v>
+      </c>
+      <c r="F62" s="13"/>
+      <c r="K62" s="6">
+        <v>61</v>
+      </c>
+      <c r="L62" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="C63" s="13">
+        <v>1592841599</v>
+      </c>
+      <c r="D63" s="13">
+        <v>32503651200</v>
+      </c>
+      <c r="E63" s="4">
+        <v>57</v>
+      </c>
+      <c r="K63" s="6">
+        <v>62</v>
+      </c>
+      <c r="L63" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6489,11 +6572,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7284,6 +7367,34 @@
       </c>
       <c r="D56" s="6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="17">
+        <v>56</v>
+      </c>
+      <c r="B57" s="17">
+        <v>56</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>672</v>
+      </c>
+      <c r="D57" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="17">
+        <v>57</v>
+      </c>
+      <c r="B58" s="17">
+        <v>57</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>673</v>
+      </c>
+      <c r="D58" s="6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7338,13 +7449,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E383"/>
+  <dimension ref="A1:E385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B362" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D364" sqref="D364"/>
+      <selection pane="bottomRight" activeCell="C384" sqref="C384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -12721,6 +12832,34 @@
         <v>0</v>
       </c>
     </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="13">
+        <v>383</v>
+      </c>
+      <c r="B384" s="13">
+        <v>61</v>
+      </c>
+      <c r="C384" s="64">
+        <v>11857</v>
+      </c>
+      <c r="D384" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="13">
+        <v>384</v>
+      </c>
+      <c r="B385" s="13">
+        <v>62</v>
+      </c>
+      <c r="C385" s="64">
+        <v>11858</v>
+      </c>
+      <c r="D385" s="13">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12730,11 +12869,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F383"/>
+  <dimension ref="A1:F385"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D387" sqref="D387"/>
+      <selection pane="bottomLeft" activeCell="D388" sqref="D388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18768,6 +18907,40 @@
       </c>
       <c r="D383" s="64"/>
       <c r="E383" s="69"/>
+    </row>
+    <row r="384" spans="1:5" ht="16.5">
+      <c r="A384" s="66">
+        <v>383</v>
+      </c>
+      <c r="B384" s="64">
+        <v>11857</v>
+      </c>
+      <c r="C384" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="D384" s="46" t="s">
+        <v>675</v>
+      </c>
+      <c r="E384" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="16.5">
+      <c r="A385" s="66">
+        <v>384</v>
+      </c>
+      <c r="B385" s="64">
+        <v>11858</v>
+      </c>
+      <c r="C385" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="D385" s="46" t="s">
+        <v>676</v>
+      </c>
+      <c r="E385" s="45" t="s">
+        <v>677</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="691">
   <si>
     <t>id|</t>
   </si>
@@ -4009,6 +4009,188 @@
   <si>
     <t>1,1</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包抽奖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_qdlb_cjq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5福利券</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0福利券</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为P40</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4230,7 +4412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4329,7 +4511,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4441,6 +4622,24 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4719,11 +4918,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
+      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4744,7 +4943,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -5960,7 +6159,7 @@
       <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="42" t="s">
         <v>434</v>
       </c>
       <c r="C41" s="18">
@@ -6016,7 +6215,7 @@
       <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="43" t="s">
         <v>479</v>
       </c>
       <c r="C43" s="6">
@@ -6108,7 +6307,7 @@
       <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="42" t="s">
         <v>505</v>
       </c>
       <c r="C47" s="18">
@@ -6140,7 +6339,7 @@
       <c r="A48" s="18">
         <v>47</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="42" t="s">
         <v>521</v>
       </c>
       <c r="C48" s="18">
@@ -6172,7 +6371,7 @@
       <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="42" t="s">
         <v>522</v>
       </c>
       <c r="C49" s="18">
@@ -6204,7 +6403,7 @@
       <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="42" t="s">
         <v>523</v>
       </c>
       <c r="C50" s="18">
@@ -6236,7 +6435,7 @@
       <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="42" t="s">
         <v>524</v>
       </c>
       <c r="C51" s="18">
@@ -6268,7 +6467,7 @@
       <c r="A52" s="18">
         <v>51</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="42" t="s">
         <v>525</v>
       </c>
       <c r="C52" s="18">
@@ -6300,7 +6499,7 @@
       <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="42" t="s">
         <v>526</v>
       </c>
       <c r="C53" s="18">
@@ -6440,115 +6639,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="49" customFormat="1">
+    <row r="58" spans="1:12" s="48" customFormat="1">
       <c r="A58" s="18">
         <v>57</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="48" t="s">
         <v>607</v>
       </c>
-      <c r="C58" s="49">
+      <c r="C58" s="48">
         <v>1606176000</v>
       </c>
-      <c r="D58" s="49">
+      <c r="D58" s="48">
         <v>1606751999</v>
       </c>
-      <c r="E58" s="50">
+      <c r="E58" s="49">
         <v>52</v>
       </c>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="49">
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="48">
         <v>57</v>
       </c>
-      <c r="L58" s="49">
+      <c r="L58" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="49" customFormat="1">
+    <row r="59" spans="1:12" s="48" customFormat="1">
       <c r="A59" s="18">
         <v>58</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="48" t="s">
         <v>608</v>
       </c>
-      <c r="C59" s="49">
+      <c r="C59" s="48">
         <v>1606176000</v>
       </c>
-      <c r="D59" s="49">
+      <c r="D59" s="48">
         <v>1606751999</v>
       </c>
-      <c r="E59" s="50">
+      <c r="E59" s="49">
         <v>53</v>
       </c>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="49">
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="48">
         <v>58</v>
       </c>
-      <c r="L59" s="49">
+      <c r="L59" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="49" customFormat="1">
+    <row r="60" spans="1:12" s="48" customFormat="1">
       <c r="A60" s="18">
         <v>59</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="48" t="s">
         <v>609</v>
       </c>
-      <c r="C60" s="49">
+      <c r="C60" s="48">
         <v>1606176000</v>
       </c>
-      <c r="D60" s="49">
+      <c r="D60" s="48">
         <v>1606751999</v>
       </c>
-      <c r="E60" s="50">
+      <c r="E60" s="49">
         <v>54</v>
       </c>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="49">
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="48">
         <v>59</v>
       </c>
-      <c r="L60" s="49">
+      <c r="L60" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="61" customFormat="1">
+    <row r="61" spans="1:12" s="60" customFormat="1">
       <c r="A61" s="18">
         <v>60</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="60" t="s">
         <v>668</v>
       </c>
-      <c r="C61" s="64">
+      <c r="C61" s="63">
         <v>1607385600</v>
       </c>
-      <c r="D61" s="64">
+      <c r="D61" s="63">
         <v>1607961599</v>
       </c>
-      <c r="E61" s="62">
+      <c r="E61" s="61">
         <v>55</v>
       </c>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="61">
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="60">
         <v>60</v>
       </c>
-      <c r="L61" s="61">
+      <c r="L61" s="60">
         <v>1</v>
       </c>
     </row>
@@ -6603,31 +6802,31 @@
       <c r="A64" s="18">
         <v>63</v>
       </c>
-      <c r="B64" s="73" t="s">
+      <c r="B64" s="72" t="s">
         <v>521</v>
       </c>
-      <c r="C64" s="75">
+      <c r="C64" s="74">
         <v>1609200000</v>
       </c>
-      <c r="D64" s="75">
+      <c r="D64" s="74">
         <v>1609775999</v>
       </c>
-      <c r="E64" s="74">
+      <c r="E64" s="73">
         <v>58</v>
       </c>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="77"/>
-      <c r="I64" s="77">
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76">
         <v>1</v>
       </c>
-      <c r="J64" s="77">
+      <c r="J64" s="76">
         <v>0</v>
       </c>
-      <c r="K64" s="72">
+      <c r="K64" s="71">
         <v>63</v>
       </c>
-      <c r="L64" s="72">
+      <c r="L64" s="71">
         <v>1</v>
       </c>
     </row>
@@ -6635,31 +6834,31 @@
       <c r="A65" s="18">
         <v>64</v>
       </c>
-      <c r="B65" s="73" t="s">
+      <c r="B65" s="72" t="s">
         <v>522</v>
       </c>
-      <c r="C65" s="75">
+      <c r="C65" s="74">
         <v>1609200000</v>
       </c>
-      <c r="D65" s="75">
+      <c r="D65" s="74">
         <v>1609775999</v>
       </c>
-      <c r="E65" s="74">
+      <c r="E65" s="73">
         <v>59</v>
       </c>
-      <c r="F65" s="77"/>
-      <c r="G65" s="77"/>
-      <c r="H65" s="77"/>
-      <c r="I65" s="77">
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76">
         <v>1</v>
       </c>
-      <c r="J65" s="77">
+      <c r="J65" s="76">
         <v>0</v>
       </c>
-      <c r="K65" s="72">
+      <c r="K65" s="71">
         <v>64</v>
       </c>
-      <c r="L65" s="72">
+      <c r="L65" s="71">
         <v>1</v>
       </c>
     </row>
@@ -6667,31 +6866,31 @@
       <c r="A66" s="18">
         <v>65</v>
       </c>
-      <c r="B66" s="73" t="s">
+      <c r="B66" s="72" t="s">
         <v>523</v>
       </c>
-      <c r="C66" s="75">
+      <c r="C66" s="74">
         <v>1609200000</v>
       </c>
-      <c r="D66" s="75">
+      <c r="D66" s="74">
         <v>1609775999</v>
       </c>
-      <c r="E66" s="74">
+      <c r="E66" s="73">
         <v>60</v>
       </c>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="77">
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="76">
         <v>1</v>
       </c>
-      <c r="J66" s="77">
+      <c r="J66" s="76">
         <v>0</v>
       </c>
-      <c r="K66" s="72">
+      <c r="K66" s="71">
         <v>65</v>
       </c>
-      <c r="L66" s="72">
+      <c r="L66" s="71">
         <v>1</v>
       </c>
     </row>
@@ -6699,31 +6898,31 @@
       <c r="A67" s="18">
         <v>66</v>
       </c>
-      <c r="B67" s="73" t="s">
+      <c r="B67" s="72" t="s">
         <v>524</v>
       </c>
-      <c r="C67" s="75">
+      <c r="C67" s="74">
         <v>1609200000</v>
       </c>
-      <c r="D67" s="75">
+      <c r="D67" s="74">
         <v>1609775999</v>
       </c>
-      <c r="E67" s="74">
+      <c r="E67" s="73">
         <v>61</v>
       </c>
-      <c r="F67" s="77"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="77"/>
-      <c r="I67" s="77">
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="76"/>
+      <c r="I67" s="76">
         <v>1</v>
       </c>
-      <c r="J67" s="77">
+      <c r="J67" s="76">
         <v>0</v>
       </c>
-      <c r="K67" s="72">
+      <c r="K67" s="71">
         <v>66</v>
       </c>
-      <c r="L67" s="72">
+      <c r="L67" s="71">
         <v>1</v>
       </c>
     </row>
@@ -6731,31 +6930,31 @@
       <c r="A68" s="18">
         <v>67</v>
       </c>
-      <c r="B68" s="73" t="s">
+      <c r="B68" s="72" t="s">
         <v>525</v>
       </c>
-      <c r="C68" s="75">
+      <c r="C68" s="74">
         <v>1609200000</v>
       </c>
-      <c r="D68" s="75">
+      <c r="D68" s="74">
         <v>1609775999</v>
       </c>
-      <c r="E68" s="74">
+      <c r="E68" s="73">
         <v>62</v>
       </c>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77">
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="76">
         <v>1</v>
       </c>
-      <c r="J68" s="77">
+      <c r="J68" s="76">
         <v>0</v>
       </c>
-      <c r="K68" s="72">
+      <c r="K68" s="71">
         <v>67</v>
       </c>
-      <c r="L68" s="72">
+      <c r="L68" s="71">
         <v>1</v>
       </c>
     </row>
@@ -6763,31 +6962,59 @@
       <c r="A69" s="18">
         <v>68</v>
       </c>
-      <c r="B69" s="73" t="s">
+      <c r="B69" s="72" t="s">
         <v>526</v>
       </c>
-      <c r="C69" s="75">
+      <c r="C69" s="74">
         <v>1609200000</v>
       </c>
-      <c r="D69" s="75">
+      <c r="D69" s="74">
         <v>1609775999</v>
       </c>
-      <c r="E69" s="74">
+      <c r="E69" s="73">
         <v>63</v>
       </c>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
-      <c r="I69" s="77">
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="76">
         <v>1</v>
       </c>
-      <c r="J69" s="77">
+      <c r="J69" s="76">
         <v>0</v>
       </c>
-      <c r="K69" s="72">
+      <c r="K69" s="71">
         <v>68</v>
       </c>
-      <c r="L69" s="72">
+      <c r="L69" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="18" customFormat="1">
+      <c r="A70" s="18">
+        <v>69</v>
+      </c>
+      <c r="B70" s="78" t="s">
+        <v>678</v>
+      </c>
+      <c r="C70" s="79">
+        <v>1609804800</v>
+      </c>
+      <c r="D70" s="79">
+        <v>1610380799</v>
+      </c>
+      <c r="E70" s="80">
+        <v>64</v>
+      </c>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="81">
+        <v>69</v>
+      </c>
+      <c r="L70" s="81">
         <v>1</v>
       </c>
     </row>
@@ -6802,11 +7029,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7312,7 +7539,7 @@
       <c r="B36" s="17">
         <v>35</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="42" t="s">
         <v>435</v>
       </c>
       <c r="D36" s="18">
@@ -7340,7 +7567,7 @@
       <c r="B38" s="17">
         <v>37</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="43" t="s">
         <v>478</v>
       </c>
       <c r="D38" s="6">
@@ -7354,7 +7581,7 @@
       <c r="B39" s="17">
         <v>38</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="43" t="s">
         <v>493</v>
       </c>
       <c r="D39" s="6">
@@ -7368,7 +7595,7 @@
       <c r="B40" s="17">
         <v>39</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="43" t="s">
         <v>494</v>
       </c>
       <c r="D40" s="6">
@@ -7382,7 +7609,7 @@
       <c r="B41" s="17">
         <v>40</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="43" t="s">
         <v>495</v>
       </c>
       <c r="D41" s="6">
@@ -7494,7 +7721,7 @@
       <c r="B49" s="17">
         <v>48</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C49" s="51" t="s">
         <v>591</v>
       </c>
       <c r="D49" s="18">
@@ -7508,7 +7735,7 @@
       <c r="B50" s="17">
         <v>49</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C50" s="51" t="s">
         <v>590</v>
       </c>
       <c r="D50" s="18">
@@ -7522,7 +7749,7 @@
       <c r="B51" s="17">
         <v>50</v>
       </c>
-      <c r="C51" s="52" t="s">
+      <c r="C51" s="51" t="s">
         <v>592</v>
       </c>
       <c r="D51" s="18">
@@ -7543,56 +7770,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="51" customFormat="1">
-      <c r="A53" s="51">
+    <row r="53" spans="1:4" s="50" customFormat="1">
+      <c r="A53" s="50">
         <v>52</v>
       </c>
-      <c r="B53" s="51">
+      <c r="B53" s="50">
         <v>52</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="48" t="s">
         <v>610</v>
       </c>
-      <c r="D53" s="49">
+      <c r="D53" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="51" customFormat="1">
-      <c r="A54" s="51">
+    <row r="54" spans="1:4" s="50" customFormat="1">
+      <c r="A54" s="50">
         <v>53</v>
       </c>
-      <c r="B54" s="51">
+      <c r="B54" s="50">
         <v>53</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="48" t="s">
         <v>611</v>
       </c>
-      <c r="D54" s="49">
+      <c r="D54" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="51" customFormat="1">
-      <c r="A55" s="51">
+    <row r="55" spans="1:4" s="50" customFormat="1">
+      <c r="A55" s="50">
         <v>54</v>
       </c>
-      <c r="B55" s="51">
+      <c r="B55" s="50">
         <v>54</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="48" t="s">
         <v>612</v>
       </c>
-      <c r="D55" s="49">
+      <c r="D55" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="51">
+      <c r="A56" s="50">
         <v>55</v>
       </c>
-      <c r="B56" s="51">
+      <c r="B56" s="50">
         <v>55</v>
       </c>
-      <c r="C56" s="65" t="s">
+      <c r="C56" s="64" t="s">
         <v>667</v>
       </c>
       <c r="D56" s="6">
@@ -7606,7 +7833,7 @@
       <c r="B57" s="17">
         <v>56</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="43" t="s">
         <v>672</v>
       </c>
       <c r="D57" s="6">
@@ -7620,7 +7847,7 @@
       <c r="B58" s="17">
         <v>57</v>
       </c>
-      <c r="C58" s="44" t="s">
+      <c r="C58" s="43" t="s">
         <v>673</v>
       </c>
       <c r="D58" s="6">
@@ -7634,10 +7861,10 @@
       <c r="B59" s="17">
         <v>58</v>
       </c>
-      <c r="C59" s="71" t="s">
+      <c r="C59" s="70" t="s">
         <v>589</v>
       </c>
-      <c r="D59" s="72">
+      <c r="D59" s="71">
         <v>1</v>
       </c>
     </row>
@@ -7648,10 +7875,10 @@
       <c r="B60" s="17">
         <v>59</v>
       </c>
-      <c r="C60" s="71" t="s">
+      <c r="C60" s="70" t="s">
         <v>257</v>
       </c>
-      <c r="D60" s="72">
+      <c r="D60" s="71">
         <v>1</v>
       </c>
     </row>
@@ -7662,10 +7889,10 @@
       <c r="B61" s="17">
         <v>60</v>
       </c>
-      <c r="C61" s="71" t="s">
+      <c r="C61" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="D61" s="72">
+      <c r="D61" s="71">
         <v>1</v>
       </c>
     </row>
@@ -7676,10 +7903,10 @@
       <c r="B62" s="17">
         <v>61</v>
       </c>
-      <c r="C62" s="71" t="s">
+      <c r="C62" s="70" t="s">
         <v>259</v>
       </c>
-      <c r="D62" s="72">
+      <c r="D62" s="71">
         <v>1</v>
       </c>
     </row>
@@ -7690,10 +7917,10 @@
       <c r="B63" s="17">
         <v>62</v>
       </c>
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="70" t="s">
         <v>260</v>
       </c>
-      <c r="D63" s="72">
+      <c r="D63" s="71">
         <v>1</v>
       </c>
     </row>
@@ -7704,10 +7931,24 @@
       <c r="B64" s="17">
         <v>63</v>
       </c>
-      <c r="C64" s="71" t="s">
+      <c r="C64" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="D64" s="72">
+      <c r="D64" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="17">
+        <v>64</v>
+      </c>
+      <c r="B65" s="17">
+        <v>64</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>679</v>
+      </c>
+      <c r="D65" s="40">
         <v>1</v>
       </c>
     </row>
@@ -7763,13 +8004,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E421"/>
+  <dimension ref="A1:E427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B382" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B403" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D416" sqref="D416"/>
+      <selection pane="bottomRight" activeCell="C422" sqref="C422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -12684,465 +12925,465 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" s="59" customFormat="1">
-      <c r="A351" s="59">
+    <row r="351" spans="1:4" s="58" customFormat="1">
+      <c r="A351" s="58">
         <v>350</v>
       </c>
-      <c r="B351" s="59">
+      <c r="B351" s="58">
         <v>57</v>
       </c>
-      <c r="C351" s="59">
+      <c r="C351" s="58">
         <v>11824</v>
       </c>
-      <c r="D351" s="59">
+      <c r="D351" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:4" s="59" customFormat="1">
-      <c r="A352" s="59">
+    <row r="352" spans="1:4" s="58" customFormat="1">
+      <c r="A352" s="58">
         <v>351</v>
       </c>
-      <c r="B352" s="59">
+      <c r="B352" s="58">
         <v>57</v>
       </c>
-      <c r="C352" s="59">
+      <c r="C352" s="58">
         <v>11825</v>
       </c>
-      <c r="D352" s="59">
+      <c r="D352" s="58">
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:4" s="59" customFormat="1">
-      <c r="A353" s="59">
+    <row r="353" spans="1:4" s="58" customFormat="1">
+      <c r="A353" s="58">
         <v>352</v>
       </c>
-      <c r="B353" s="59">
+      <c r="B353" s="58">
         <v>57</v>
       </c>
-      <c r="C353" s="59">
+      <c r="C353" s="58">
         <v>11826</v>
       </c>
-      <c r="D353" s="59">
+      <c r="D353" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:4" s="59" customFormat="1">
-      <c r="A354" s="59">
+    <row r="354" spans="1:4" s="58" customFormat="1">
+      <c r="A354" s="58">
         <v>353</v>
       </c>
-      <c r="B354" s="59">
+      <c r="B354" s="58">
         <v>57</v>
       </c>
-      <c r="C354" s="59">
+      <c r="C354" s="58">
         <v>11827</v>
       </c>
-      <c r="D354" s="59">
+      <c r="D354" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:4" s="59" customFormat="1">
-      <c r="A355" s="59">
+    <row r="355" spans="1:4" s="58" customFormat="1">
+      <c r="A355" s="58">
         <v>354</v>
       </c>
-      <c r="B355" s="59">
+      <c r="B355" s="58">
         <v>57</v>
       </c>
-      <c r="C355" s="59">
+      <c r="C355" s="58">
         <v>11828</v>
       </c>
-      <c r="D355" s="59">
+      <c r="D355" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="59" customFormat="1">
-      <c r="A356" s="59">
+    <row r="356" spans="1:4" s="58" customFormat="1">
+      <c r="A356" s="58">
         <v>355</v>
       </c>
-      <c r="B356" s="59">
+      <c r="B356" s="58">
         <v>57</v>
       </c>
-      <c r="C356" s="59">
+      <c r="C356" s="58">
         <v>11829</v>
       </c>
-      <c r="D356" s="59">
+      <c r="D356" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" s="59" customFormat="1">
-      <c r="A357" s="59">
+    <row r="357" spans="1:4" s="58" customFormat="1">
+      <c r="A357" s="58">
         <v>356</v>
       </c>
-      <c r="B357" s="59">
+      <c r="B357" s="58">
         <v>57</v>
       </c>
-      <c r="C357" s="59">
+      <c r="C357" s="58">
         <v>11830</v>
       </c>
-      <c r="D357" s="59">
+      <c r="D357" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:4" s="59" customFormat="1">
-      <c r="A358" s="59">
+    <row r="358" spans="1:4" s="58" customFormat="1">
+      <c r="A358" s="58">
         <v>357</v>
       </c>
-      <c r="B358" s="59">
+      <c r="B358" s="58">
         <v>57</v>
       </c>
-      <c r="C358" s="59">
+      <c r="C358" s="58">
         <v>11831</v>
       </c>
-      <c r="D358" s="59">
+      <c r="D358" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:4" s="59" customFormat="1">
-      <c r="A359" s="59">
+    <row r="359" spans="1:4" s="58" customFormat="1">
+      <c r="A359" s="58">
         <v>358</v>
       </c>
-      <c r="B359" s="59">
+      <c r="B359" s="58">
         <v>57</v>
       </c>
-      <c r="C359" s="59">
+      <c r="C359" s="58">
         <v>11832</v>
       </c>
-      <c r="D359" s="59">
+      <c r="D359" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:4" s="54" customFormat="1">
-      <c r="A360" s="54">
+    <row r="360" spans="1:4" s="53" customFormat="1">
+      <c r="A360" s="53">
         <v>359</v>
       </c>
-      <c r="B360" s="60">
+      <c r="B360" s="59">
         <v>58</v>
       </c>
-      <c r="C360" s="54">
+      <c r="C360" s="53">
         <v>11833</v>
       </c>
-      <c r="D360" s="60">
+      <c r="D360" s="59">
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:4" s="54" customFormat="1">
-      <c r="A361" s="54">
+    <row r="361" spans="1:4" s="53" customFormat="1">
+      <c r="A361" s="53">
         <v>360</v>
       </c>
-      <c r="B361" s="60">
+      <c r="B361" s="59">
         <v>58</v>
       </c>
-      <c r="C361" s="54">
+      <c r="C361" s="53">
         <v>11834</v>
       </c>
-      <c r="D361" s="60">
+      <c r="D361" s="59">
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="1:4" s="54" customFormat="1">
-      <c r="A362" s="54">
+    <row r="362" spans="1:4" s="53" customFormat="1">
+      <c r="A362" s="53">
         <v>361</v>
       </c>
-      <c r="B362" s="60">
+      <c r="B362" s="59">
         <v>58</v>
       </c>
-      <c r="C362" s="54">
+      <c r="C362" s="53">
         <v>11835</v>
       </c>
-      <c r="D362" s="60">
+      <c r="D362" s="59">
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:4" s="54" customFormat="1">
-      <c r="A363" s="54">
+    <row r="363" spans="1:4" s="53" customFormat="1">
+      <c r="A363" s="53">
         <v>362</v>
       </c>
-      <c r="B363" s="60">
+      <c r="B363" s="59">
         <v>58</v>
       </c>
-      <c r="C363" s="54">
+      <c r="C363" s="53">
         <v>11836</v>
       </c>
-      <c r="D363" s="60">
+      <c r="D363" s="59">
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:4" s="54" customFormat="1">
-      <c r="A364" s="54">
+    <row r="364" spans="1:4" s="53" customFormat="1">
+      <c r="A364" s="53">
         <v>363</v>
       </c>
-      <c r="B364" s="60">
+      <c r="B364" s="59">
         <v>58</v>
       </c>
-      <c r="C364" s="54">
+      <c r="C364" s="53">
         <v>11837</v>
       </c>
-      <c r="D364" s="60">
+      <c r="D364" s="59">
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:4" s="54" customFormat="1">
-      <c r="A365" s="54">
+    <row r="365" spans="1:4" s="53" customFormat="1">
+      <c r="A365" s="53">
         <v>364</v>
       </c>
-      <c r="B365" s="60">
+      <c r="B365" s="59">
         <v>58</v>
       </c>
-      <c r="C365" s="54">
+      <c r="C365" s="53">
         <v>11838</v>
       </c>
-      <c r="D365" s="60">
+      <c r="D365" s="59">
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:4" s="54" customFormat="1">
-      <c r="A366" s="54">
+    <row r="366" spans="1:4" s="53" customFormat="1">
+      <c r="A366" s="53">
         <v>365</v>
       </c>
-      <c r="B366" s="60">
+      <c r="B366" s="59">
         <v>58</v>
       </c>
-      <c r="C366" s="54">
+      <c r="C366" s="53">
         <v>11839</v>
       </c>
-      <c r="D366" s="60">
+      <c r="D366" s="59">
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:4" s="54" customFormat="1">
-      <c r="A367" s="54">
+    <row r="367" spans="1:4" s="53" customFormat="1">
+      <c r="A367" s="53">
         <v>366</v>
       </c>
-      <c r="B367" s="60">
+      <c r="B367" s="59">
         <v>58</v>
       </c>
-      <c r="C367" s="54">
+      <c r="C367" s="53">
         <v>11840</v>
       </c>
-      <c r="D367" s="60">
+      <c r="D367" s="59">
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:4" s="54" customFormat="1">
-      <c r="A368" s="54">
+    <row r="368" spans="1:4" s="53" customFormat="1">
+      <c r="A368" s="53">
         <v>367</v>
       </c>
-      <c r="B368" s="60">
+      <c r="B368" s="59">
         <v>58</v>
       </c>
-      <c r="C368" s="54">
+      <c r="C368" s="53">
         <v>11841</v>
       </c>
-      <c r="D368" s="60">
+      <c r="D368" s="59">
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:4" s="48" customFormat="1">
-      <c r="A369" s="48">
+    <row r="369" spans="1:4" s="47" customFormat="1">
+      <c r="A369" s="47">
         <v>368</v>
       </c>
-      <c r="B369" s="59">
+      <c r="B369" s="58">
         <v>59</v>
       </c>
-      <c r="C369" s="48">
+      <c r="C369" s="47">
         <v>11842</v>
       </c>
-      <c r="D369" s="59">
+      <c r="D369" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:4" s="48" customFormat="1">
-      <c r="A370" s="48">
+    <row r="370" spans="1:4" s="47" customFormat="1">
+      <c r="A370" s="47">
         <v>369</v>
       </c>
-      <c r="B370" s="59">
+      <c r="B370" s="58">
         <v>59</v>
       </c>
-      <c r="C370" s="48">
+      <c r="C370" s="47">
         <v>11843</v>
       </c>
-      <c r="D370" s="59">
+      <c r="D370" s="58">
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:4" s="48" customFormat="1">
-      <c r="A371" s="48">
+    <row r="371" spans="1:4" s="47" customFormat="1">
+      <c r="A371" s="47">
         <v>370</v>
       </c>
-      <c r="B371" s="59">
+      <c r="B371" s="58">
         <v>59</v>
       </c>
-      <c r="C371" s="48">
+      <c r="C371" s="47">
         <v>11844</v>
       </c>
-      <c r="D371" s="59">
+      <c r="D371" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:4" s="48" customFormat="1">
-      <c r="A372" s="48">
+    <row r="372" spans="1:4" s="47" customFormat="1">
+      <c r="A372" s="47">
         <v>371</v>
       </c>
-      <c r="B372" s="59">
+      <c r="B372" s="58">
         <v>59</v>
       </c>
-      <c r="C372" s="48">
+      <c r="C372" s="47">
         <v>11845</v>
       </c>
-      <c r="D372" s="59">
+      <c r="D372" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:4" s="48" customFormat="1">
-      <c r="A373" s="48">
+    <row r="373" spans="1:4" s="47" customFormat="1">
+      <c r="A373" s="47">
         <v>372</v>
       </c>
-      <c r="B373" s="59">
+      <c r="B373" s="58">
         <v>59</v>
       </c>
-      <c r="C373" s="48">
+      <c r="C373" s="47">
         <v>11846</v>
       </c>
-      <c r="D373" s="59">
+      <c r="D373" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:4" s="48" customFormat="1">
-      <c r="A374" s="48">
+    <row r="374" spans="1:4" s="47" customFormat="1">
+      <c r="A374" s="47">
         <v>373</v>
       </c>
-      <c r="B374" s="59">
+      <c r="B374" s="58">
         <v>59</v>
       </c>
-      <c r="C374" s="48">
+      <c r="C374" s="47">
         <v>11847</v>
       </c>
-      <c r="D374" s="59">
+      <c r="D374" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:4" s="48" customFormat="1">
-      <c r="A375" s="48">
+    <row r="375" spans="1:4" s="47" customFormat="1">
+      <c r="A375" s="47">
         <v>374</v>
       </c>
-      <c r="B375" s="59">
+      <c r="B375" s="58">
         <v>59</v>
       </c>
-      <c r="C375" s="48">
+      <c r="C375" s="47">
         <v>11848</v>
       </c>
-      <c r="D375" s="59">
+      <c r="D375" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:4" s="48" customFormat="1">
-      <c r="A376" s="48">
+    <row r="376" spans="1:4" s="47" customFormat="1">
+      <c r="A376" s="47">
         <v>375</v>
       </c>
-      <c r="B376" s="59">
+      <c r="B376" s="58">
         <v>59</v>
       </c>
-      <c r="C376" s="48">
+      <c r="C376" s="47">
         <v>11849</v>
       </c>
-      <c r="D376" s="59">
+      <c r="D376" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:4" s="48" customFormat="1">
-      <c r="A377" s="48">
+    <row r="377" spans="1:4" s="47" customFormat="1">
+      <c r="A377" s="47">
         <v>376</v>
       </c>
-      <c r="B377" s="59">
+      <c r="B377" s="58">
         <v>59</v>
       </c>
-      <c r="C377" s="48">
+      <c r="C377" s="47">
         <v>11850</v>
       </c>
-      <c r="D377" s="59">
+      <c r="D377" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:4" s="64" customFormat="1">
-      <c r="A378" s="64">
+    <row r="378" spans="1:4" s="63" customFormat="1">
+      <c r="A378" s="63">
         <v>377</v>
       </c>
-      <c r="B378" s="64">
+      <c r="B378" s="63">
         <v>60</v>
       </c>
-      <c r="C378" s="64">
+      <c r="C378" s="63">
         <v>11851</v>
       </c>
-      <c r="D378" s="64">
+      <c r="D378" s="63">
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:4" s="64" customFormat="1">
-      <c r="A379" s="64">
+    <row r="379" spans="1:4" s="63" customFormat="1">
+      <c r="A379" s="63">
         <v>378</v>
       </c>
-      <c r="B379" s="64">
+      <c r="B379" s="63">
         <v>60</v>
       </c>
-      <c r="C379" s="64">
+      <c r="C379" s="63">
         <v>11852</v>
       </c>
-      <c r="D379" s="64">
+      <c r="D379" s="63">
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:4" s="64" customFormat="1">
-      <c r="A380" s="64">
+    <row r="380" spans="1:4" s="63" customFormat="1">
+      <c r="A380" s="63">
         <v>379</v>
       </c>
-      <c r="B380" s="64">
+      <c r="B380" s="63">
         <v>60</v>
       </c>
-      <c r="C380" s="64">
+      <c r="C380" s="63">
         <v>11853</v>
       </c>
-      <c r="D380" s="64">
+      <c r="D380" s="63">
         <v>25</v>
       </c>
     </row>
-    <row r="381" spans="1:4" s="64" customFormat="1">
-      <c r="A381" s="64">
+    <row r="381" spans="1:4" s="63" customFormat="1">
+      <c r="A381" s="63">
         <v>380</v>
       </c>
-      <c r="B381" s="64">
+      <c r="B381" s="63">
         <v>60</v>
       </c>
-      <c r="C381" s="64">
+      <c r="C381" s="63">
         <v>11854</v>
       </c>
-      <c r="D381" s="64">
+      <c r="D381" s="63">
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:4" s="64" customFormat="1">
-      <c r="A382" s="64">
+    <row r="382" spans="1:4" s="63" customFormat="1">
+      <c r="A382" s="63">
         <v>381</v>
       </c>
-      <c r="B382" s="64">
+      <c r="B382" s="63">
         <v>60</v>
       </c>
-      <c r="C382" s="64">
+      <c r="C382" s="63">
         <v>11855</v>
       </c>
-      <c r="D382" s="64">
+      <c r="D382" s="63">
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:4" s="64" customFormat="1">
-      <c r="A383" s="64">
+    <row r="383" spans="1:4" s="63" customFormat="1">
+      <c r="A383" s="63">
         <v>382</v>
       </c>
-      <c r="B383" s="64">
+      <c r="B383" s="63">
         <v>60</v>
       </c>
-      <c r="C383" s="64">
+      <c r="C383" s="63">
         <v>11856</v>
       </c>
-      <c r="D383" s="64">
+      <c r="D383" s="63">
         <v>0</v>
       </c>
     </row>
@@ -13153,7 +13394,7 @@
       <c r="B384" s="13">
         <v>61</v>
       </c>
-      <c r="C384" s="64">
+      <c r="C384" s="63">
         <v>11857</v>
       </c>
       <c r="D384" s="13">
@@ -13167,7 +13408,7 @@
       <c r="B385" s="13">
         <v>62</v>
       </c>
-      <c r="C385" s="64">
+      <c r="C385" s="63">
         <v>11858</v>
       </c>
       <c r="D385" s="13">
@@ -13178,13 +13419,13 @@
       <c r="A386" s="13">
         <v>385</v>
       </c>
-      <c r="B386" s="76">
+      <c r="B386" s="75">
         <v>63</v>
       </c>
-      <c r="C386" s="76">
+      <c r="C386" s="75">
         <v>11859</v>
       </c>
-      <c r="D386" s="76">
+      <c r="D386" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13192,13 +13433,13 @@
       <c r="A387" s="13">
         <v>386</v>
       </c>
-      <c r="B387" s="76">
+      <c r="B387" s="75">
         <v>63</v>
       </c>
-      <c r="C387" s="76">
+      <c r="C387" s="75">
         <v>11860</v>
       </c>
-      <c r="D387" s="76">
+      <c r="D387" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13206,13 +13447,13 @@
       <c r="A388" s="13">
         <v>387</v>
       </c>
-      <c r="B388" s="76">
+      <c r="B388" s="75">
         <v>63</v>
       </c>
-      <c r="C388" s="76">
+      <c r="C388" s="75">
         <v>11861</v>
       </c>
-      <c r="D388" s="76">
+      <c r="D388" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13220,13 +13461,13 @@
       <c r="A389" s="13">
         <v>388</v>
       </c>
-      <c r="B389" s="76">
+      <c r="B389" s="75">
         <v>63</v>
       </c>
-      <c r="C389" s="76">
+      <c r="C389" s="75">
         <v>11862</v>
       </c>
-      <c r="D389" s="76">
+      <c r="D389" s="75">
         <v>400</v>
       </c>
     </row>
@@ -13234,13 +13475,13 @@
       <c r="A390" s="13">
         <v>389</v>
       </c>
-      <c r="B390" s="76">
+      <c r="B390" s="75">
         <v>63</v>
       </c>
-      <c r="C390" s="76">
+      <c r="C390" s="75">
         <v>11863</v>
       </c>
-      <c r="D390" s="76">
+      <c r="D390" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13248,13 +13489,13 @@
       <c r="A391" s="13">
         <v>390</v>
       </c>
-      <c r="B391" s="76">
+      <c r="B391" s="75">
         <v>63</v>
       </c>
-      <c r="C391" s="76">
+      <c r="C391" s="75">
         <v>11864</v>
       </c>
-      <c r="D391" s="76">
+      <c r="D391" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13262,13 +13503,13 @@
       <c r="A392" s="13">
         <v>391</v>
       </c>
-      <c r="B392" s="76">
+      <c r="B392" s="75">
         <v>64</v>
       </c>
-      <c r="C392" s="76">
+      <c r="C392" s="75">
         <v>11865</v>
       </c>
-      <c r="D392" s="76">
+      <c r="D392" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13276,13 +13517,13 @@
       <c r="A393" s="13">
         <v>392</v>
       </c>
-      <c r="B393" s="76">
+      <c r="B393" s="75">
         <v>64</v>
       </c>
-      <c r="C393" s="76">
+      <c r="C393" s="75">
         <v>11866</v>
       </c>
-      <c r="D393" s="76">
+      <c r="D393" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13290,13 +13531,13 @@
       <c r="A394" s="13">
         <v>393</v>
       </c>
-      <c r="B394" s="76">
+      <c r="B394" s="75">
         <v>64</v>
       </c>
-      <c r="C394" s="76">
+      <c r="C394" s="75">
         <v>11867</v>
       </c>
-      <c r="D394" s="76">
+      <c r="D394" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13304,13 +13545,13 @@
       <c r="A395" s="13">
         <v>394</v>
       </c>
-      <c r="B395" s="76">
+      <c r="B395" s="75">
         <v>64</v>
       </c>
-      <c r="C395" s="76">
+      <c r="C395" s="75">
         <v>11868</v>
       </c>
-      <c r="D395" s="76">
+      <c r="D395" s="75">
         <v>400</v>
       </c>
     </row>
@@ -13318,13 +13559,13 @@
       <c r="A396" s="13">
         <v>395</v>
       </c>
-      <c r="B396" s="76">
+      <c r="B396" s="75">
         <v>64</v>
       </c>
-      <c r="C396" s="76">
+      <c r="C396" s="75">
         <v>11869</v>
       </c>
-      <c r="D396" s="76">
+      <c r="D396" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13332,13 +13573,13 @@
       <c r="A397" s="13">
         <v>396</v>
       </c>
-      <c r="B397" s="76">
+      <c r="B397" s="75">
         <v>64</v>
       </c>
-      <c r="C397" s="76">
+      <c r="C397" s="75">
         <v>11870</v>
       </c>
-      <c r="D397" s="76">
+      <c r="D397" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13346,13 +13587,13 @@
       <c r="A398" s="13">
         <v>397</v>
       </c>
-      <c r="B398" s="76">
+      <c r="B398" s="75">
         <v>65</v>
       </c>
-      <c r="C398" s="76">
+      <c r="C398" s="75">
         <v>11871</v>
       </c>
-      <c r="D398" s="76">
+      <c r="D398" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13360,13 +13601,13 @@
       <c r="A399" s="13">
         <v>398</v>
       </c>
-      <c r="B399" s="76">
+      <c r="B399" s="75">
         <v>65</v>
       </c>
-      <c r="C399" s="76">
+      <c r="C399" s="75">
         <v>11872</v>
       </c>
-      <c r="D399" s="76">
+      <c r="D399" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13374,13 +13615,13 @@
       <c r="A400" s="13">
         <v>399</v>
       </c>
-      <c r="B400" s="76">
+      <c r="B400" s="75">
         <v>65</v>
       </c>
-      <c r="C400" s="76">
+      <c r="C400" s="75">
         <v>11873</v>
       </c>
-      <c r="D400" s="76">
+      <c r="D400" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13388,13 +13629,13 @@
       <c r="A401" s="13">
         <v>400</v>
       </c>
-      <c r="B401" s="76">
+      <c r="B401" s="75">
         <v>65</v>
       </c>
-      <c r="C401" s="76">
+      <c r="C401" s="75">
         <v>11874</v>
       </c>
-      <c r="D401" s="76">
+      <c r="D401" s="75">
         <v>400</v>
       </c>
     </row>
@@ -13402,13 +13643,13 @@
       <c r="A402" s="13">
         <v>401</v>
       </c>
-      <c r="B402" s="76">
+      <c r="B402" s="75">
         <v>65</v>
       </c>
-      <c r="C402" s="76">
+      <c r="C402" s="75">
         <v>11875</v>
       </c>
-      <c r="D402" s="76">
+      <c r="D402" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13416,13 +13657,13 @@
       <c r="A403" s="13">
         <v>402</v>
       </c>
-      <c r="B403" s="76">
+      <c r="B403" s="75">
         <v>65</v>
       </c>
-      <c r="C403" s="76">
+      <c r="C403" s="75">
         <v>11876</v>
       </c>
-      <c r="D403" s="76">
+      <c r="D403" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13430,13 +13671,13 @@
       <c r="A404" s="13">
         <v>403</v>
       </c>
-      <c r="B404" s="76">
+      <c r="B404" s="75">
         <v>66</v>
       </c>
-      <c r="C404" s="76">
+      <c r="C404" s="75">
         <v>11877</v>
       </c>
-      <c r="D404" s="76">
+      <c r="D404" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13444,13 +13685,13 @@
       <c r="A405" s="13">
         <v>404</v>
       </c>
-      <c r="B405" s="76">
+      <c r="B405" s="75">
         <v>66</v>
       </c>
-      <c r="C405" s="76">
+      <c r="C405" s="75">
         <v>11878</v>
       </c>
-      <c r="D405" s="76">
+      <c r="D405" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13458,13 +13699,13 @@
       <c r="A406" s="13">
         <v>405</v>
       </c>
-      <c r="B406" s="76">
+      <c r="B406" s="75">
         <v>66</v>
       </c>
-      <c r="C406" s="76">
+      <c r="C406" s="75">
         <v>11879</v>
       </c>
-      <c r="D406" s="76">
+      <c r="D406" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13472,13 +13713,13 @@
       <c r="A407" s="13">
         <v>406</v>
       </c>
-      <c r="B407" s="76">
+      <c r="B407" s="75">
         <v>66</v>
       </c>
-      <c r="C407" s="76">
+      <c r="C407" s="75">
         <v>11880</v>
       </c>
-      <c r="D407" s="76">
+      <c r="D407" s="75">
         <v>400</v>
       </c>
     </row>
@@ -13486,13 +13727,13 @@
       <c r="A408" s="13">
         <v>407</v>
       </c>
-      <c r="B408" s="76">
+      <c r="B408" s="75">
         <v>66</v>
       </c>
-      <c r="C408" s="76">
+      <c r="C408" s="75">
         <v>11881</v>
       </c>
-      <c r="D408" s="76">
+      <c r="D408" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13500,13 +13741,13 @@
       <c r="A409" s="13">
         <v>408</v>
       </c>
-      <c r="B409" s="76">
+      <c r="B409" s="75">
         <v>66</v>
       </c>
-      <c r="C409" s="76">
+      <c r="C409" s="75">
         <v>11882</v>
       </c>
-      <c r="D409" s="76">
+      <c r="D409" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13514,13 +13755,13 @@
       <c r="A410" s="13">
         <v>409</v>
       </c>
-      <c r="B410" s="76">
+      <c r="B410" s="75">
         <v>67</v>
       </c>
-      <c r="C410" s="76">
+      <c r="C410" s="75">
         <v>11883</v>
       </c>
-      <c r="D410" s="76">
+      <c r="D410" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13528,13 +13769,13 @@
       <c r="A411" s="13">
         <v>410</v>
       </c>
-      <c r="B411" s="76">
+      <c r="B411" s="75">
         <v>67</v>
       </c>
-      <c r="C411" s="76">
+      <c r="C411" s="75">
         <v>11884</v>
       </c>
-      <c r="D411" s="76">
+      <c r="D411" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13542,13 +13783,13 @@
       <c r="A412" s="13">
         <v>411</v>
       </c>
-      <c r="B412" s="76">
+      <c r="B412" s="75">
         <v>67</v>
       </c>
-      <c r="C412" s="76">
+      <c r="C412" s="75">
         <v>11885</v>
       </c>
-      <c r="D412" s="76">
+      <c r="D412" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13556,13 +13797,13 @@
       <c r="A413" s="13">
         <v>412</v>
       </c>
-      <c r="B413" s="76">
+      <c r="B413" s="75">
         <v>67</v>
       </c>
-      <c r="C413" s="76">
+      <c r="C413" s="75">
         <v>11886</v>
       </c>
-      <c r="D413" s="76">
+      <c r="D413" s="75">
         <v>400</v>
       </c>
     </row>
@@ -13570,13 +13811,13 @@
       <c r="A414" s="13">
         <v>413</v>
       </c>
-      <c r="B414" s="76">
+      <c r="B414" s="75">
         <v>67</v>
       </c>
-      <c r="C414" s="76">
+      <c r="C414" s="75">
         <v>11887</v>
       </c>
-      <c r="D414" s="76">
+      <c r="D414" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13584,13 +13825,13 @@
       <c r="A415" s="13">
         <v>414</v>
       </c>
-      <c r="B415" s="76">
+      <c r="B415" s="75">
         <v>67</v>
       </c>
-      <c r="C415" s="76">
+      <c r="C415" s="75">
         <v>11888</v>
       </c>
-      <c r="D415" s="76">
+      <c r="D415" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13598,13 +13839,13 @@
       <c r="A416" s="13">
         <v>415</v>
       </c>
-      <c r="B416" s="76">
+      <c r="B416" s="75">
         <v>68</v>
       </c>
-      <c r="C416" s="76">
+      <c r="C416" s="75">
         <v>11889</v>
       </c>
-      <c r="D416" s="76">
+      <c r="D416" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13612,13 +13853,13 @@
       <c r="A417" s="13">
         <v>416</v>
       </c>
-      <c r="B417" s="76">
+      <c r="B417" s="75">
         <v>68</v>
       </c>
-      <c r="C417" s="76">
+      <c r="C417" s="75">
         <v>11890</v>
       </c>
-      <c r="D417" s="76">
+      <c r="D417" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13626,13 +13867,13 @@
       <c r="A418" s="13">
         <v>417</v>
       </c>
-      <c r="B418" s="76">
+      <c r="B418" s="75">
         <v>68</v>
       </c>
-      <c r="C418" s="76">
+      <c r="C418" s="75">
         <v>11891</v>
       </c>
-      <c r="D418" s="76">
+      <c r="D418" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13640,13 +13881,13 @@
       <c r="A419" s="13">
         <v>418</v>
       </c>
-      <c r="B419" s="76">
+      <c r="B419" s="75">
         <v>68</v>
       </c>
-      <c r="C419" s="76">
+      <c r="C419" s="75">
         <v>11892</v>
       </c>
-      <c r="D419" s="76">
+      <c r="D419" s="75">
         <v>400</v>
       </c>
     </row>
@@ -13654,13 +13895,13 @@
       <c r="A420" s="13">
         <v>419</v>
       </c>
-      <c r="B420" s="76">
+      <c r="B420" s="75">
         <v>68</v>
       </c>
-      <c r="C420" s="76">
+      <c r="C420" s="75">
         <v>11893</v>
       </c>
-      <c r="D420" s="76">
+      <c r="D420" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13668,13 +13909,97 @@
       <c r="A421" s="13">
         <v>420</v>
       </c>
-      <c r="B421" s="76">
+      <c r="B421" s="75">
         <v>68</v>
       </c>
-      <c r="C421" s="76">
+      <c r="C421" s="75">
         <v>11894</v>
       </c>
-      <c r="D421" s="76">
+      <c r="D421" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="13">
+        <v>421</v>
+      </c>
+      <c r="B422" s="39">
+        <v>69</v>
+      </c>
+      <c r="C422" s="39">
+        <v>11895</v>
+      </c>
+      <c r="D422" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="13">
+        <v>422</v>
+      </c>
+      <c r="B423" s="39">
+        <v>69</v>
+      </c>
+      <c r="C423" s="39">
+        <v>11896</v>
+      </c>
+      <c r="D423" s="39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="13">
+        <v>423</v>
+      </c>
+      <c r="B424" s="39">
+        <v>69</v>
+      </c>
+      <c r="C424" s="39">
+        <v>11897</v>
+      </c>
+      <c r="D424" s="39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="13">
+        <v>424</v>
+      </c>
+      <c r="B425" s="39">
+        <v>69</v>
+      </c>
+      <c r="C425" s="39">
+        <v>11898</v>
+      </c>
+      <c r="D425" s="39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="13">
+        <v>425</v>
+      </c>
+      <c r="B426" s="39">
+        <v>69</v>
+      </c>
+      <c r="C426" s="39">
+        <v>11899</v>
+      </c>
+      <c r="D426" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="13">
+        <v>426</v>
+      </c>
+      <c r="B427" s="39">
+        <v>69</v>
+      </c>
+      <c r="C427" s="39">
+        <v>11900</v>
+      </c>
+      <c r="D427" s="39">
         <v>0</v>
       </c>
     </row>
@@ -13687,27 +14012,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F421"/>
+  <dimension ref="A1:F427"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C400" sqref="C400"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F422" sqref="F422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="17" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="13" customWidth="1"/>
     <col min="3" max="3" width="23.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.25" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="83" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="69" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -13722,10 +14047,10 @@
       <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="13">
         <v>1001</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -13736,10 +14061,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="13">
         <v>1002</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -13750,10 +14075,10 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="13">
         <v>1003</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -13764,10 +14089,10 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="13">
         <v>1004</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -13778,10 +14103,10 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="13">
         <v>1005</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -13792,10 +14117,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="13">
         <v>1006</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -13806,10 +14131,10 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="13">
         <v>1007</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -13820,10 +14145,10 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="13">
         <v>2001</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -13834,10 +14159,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="13">
         <v>2002</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -13848,10 +14173,10 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="13">
         <v>2003</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -13862,10 +14187,10 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="13">
         <v>2004</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -13876,10 +14201,10 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="13">
         <v>2005</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -13890,10 +14215,10 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="13">
         <v>2006</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -13902,10 +14227,10 @@
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="13">
         <v>2007</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -13914,10 +14239,10 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="13">
         <v>2008</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -13925,10 +14250,10 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="13">
         <v>2009</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -13936,10 +14261,10 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="13">
         <v>2010</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -13947,10 +14272,10 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="13">
         <v>3001</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -13964,10 +14289,10 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="13">
         <v>3002</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -13981,10 +14306,10 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="13">
         <v>3003</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -13998,10 +14323,10 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="13">
         <v>3004</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -14015,10 +14340,10 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="13">
         <v>3005</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -14032,10 +14357,10 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="13">
         <v>3006</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -14049,10 +14374,10 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="13">
         <v>3007</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -14066,10 +14391,10 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="13">
         <v>3008</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -14077,10 +14402,10 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27">
+      <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="13">
         <v>3009</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -14088,10 +14413,10 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28">
+      <c r="A28" s="17">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="13">
         <v>3010</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -14099,10 +14424,10 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="A29" s="17">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="13">
         <v>3011</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -14110,10 +14435,10 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30">
+      <c r="A30" s="17">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="13">
         <v>3012</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -14121,10 +14446,10 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="A31" s="17">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="13">
         <v>3013</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -14132,10 +14457,10 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32">
+      <c r="A32" s="17">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="13">
         <v>3014</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -14143,10 +14468,10 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33">
+      <c r="A33" s="17">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="13">
         <v>3015</v>
       </c>
       <c r="C33" s="11" t="s">
@@ -14154,10 +14479,10 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34">
+      <c r="A34" s="17">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="13">
         <v>3016</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -14165,10 +14490,10 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35">
+      <c r="A35" s="17">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="13">
         <v>4001</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -14179,10 +14504,10 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36">
+      <c r="A36" s="17">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="13">
         <v>4002</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -14193,10 +14518,10 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37">
+      <c r="A37" s="17">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="13">
         <v>4003</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -14207,10 +14532,10 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38">
+      <c r="A38" s="17">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="13">
         <v>5001</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -14221,10 +14546,10 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39">
+      <c r="A39" s="17">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="13">
         <v>5002</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -14235,10 +14560,10 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40">
+      <c r="A40" s="17">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="13">
         <v>5003</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -14249,10 +14574,10 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41">
+      <c r="A41" s="17">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="13">
         <v>6001</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -14263,10 +14588,10 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42">
+      <c r="A42" s="17">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="13">
         <v>6002</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -14277,10 +14602,10 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43">
+      <c r="A43" s="17">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="13">
         <v>6003</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -14291,10 +14616,10 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44">
+      <c r="A44" s="17">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="13">
         <v>6004</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -14305,10 +14630,10 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45">
+      <c r="A45" s="17">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="13">
         <v>6005</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -14319,10 +14644,10 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46">
+      <c r="A46" s="17">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="13">
         <v>6006</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -14333,10 +14658,10 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47">
+      <c r="A47" s="17">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="13">
         <v>6007</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -14347,10 +14672,10 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48">
+      <c r="A48" s="17">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="13">
         <v>6008</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -14361,10 +14686,10 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49">
+      <c r="A49" s="17">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="13">
         <v>6009</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -14375,10 +14700,10 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50">
+      <c r="A50" s="17">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="13">
         <v>7001</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -14389,10 +14714,10 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51">
+      <c r="A51" s="17">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="13">
         <v>7002</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -14403,10 +14728,10 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52">
+      <c r="A52" s="17">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="13">
         <v>7003</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -14417,10 +14742,10 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53">
+      <c r="A53" s="17">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="13">
         <v>7004</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -14431,10 +14756,10 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54">
+      <c r="A54" s="17">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="13">
         <v>7005</v>
       </c>
       <c r="D54" s="11" t="s">
@@ -14445,10 +14770,10 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55">
+      <c r="A55" s="17">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="13">
         <v>7006</v>
       </c>
       <c r="D55" s="11" t="s">
@@ -14459,10 +14784,10 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56">
+      <c r="A56" s="17">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="13">
         <v>7007</v>
       </c>
       <c r="D56" s="11" t="s">
@@ -14473,10 +14798,10 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57">
+      <c r="A57" s="17">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="13">
         <v>7008</v>
       </c>
       <c r="C57" s="11" t="s">
@@ -14484,10 +14809,10 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58">
+      <c r="A58" s="17">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="13">
         <v>7009</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -14495,10 +14820,10 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59">
+      <c r="A59" s="17">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="13">
         <v>7010</v>
       </c>
       <c r="C59" s="11" t="s">
@@ -14506,10 +14831,10 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60">
+      <c r="A60" s="17">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="13">
         <v>7001</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -14520,10 +14845,10 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61">
+      <c r="A61" s="17">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="13">
         <v>7002</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -14534,10 +14859,10 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62">
+      <c r="A62" s="17">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="13">
         <v>7003</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -14548,10 +14873,10 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63">
+      <c r="A63" s="17">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="13">
         <v>7004</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -14562,10 +14887,10 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64">
+      <c r="A64" s="17">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="13">
         <v>7005</v>
       </c>
       <c r="D64" s="11" t="s">
@@ -14576,10 +14901,10 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65">
+      <c r="A65" s="17">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="13">
         <v>7006</v>
       </c>
       <c r="D65" s="11" t="s">
@@ -14590,10 +14915,10 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66">
+      <c r="A66" s="17">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="13">
         <v>7007</v>
       </c>
       <c r="D66" s="11" t="s">
@@ -14604,10 +14929,10 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67">
+      <c r="A67" s="17">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="13">
         <v>7008</v>
       </c>
       <c r="C67" s="11" t="s">
@@ -14615,10 +14940,10 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68">
+      <c r="A68" s="17">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="13">
         <v>7009</v>
       </c>
       <c r="C68" s="11" t="s">
@@ -14626,10 +14951,10 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69">
+      <c r="A69" s="17">
         <v>68</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="13">
         <v>7010</v>
       </c>
       <c r="C69" s="11" t="s">
@@ -14637,10 +14962,10 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70">
+      <c r="A70" s="17">
         <v>69</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="13">
         <v>7001</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -14651,10 +14976,10 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71">
+      <c r="A71" s="17">
         <v>70</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="13">
         <v>7002</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -14665,10 +14990,10 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72">
+      <c r="A72" s="17">
         <v>71</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="13">
         <v>7003</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -14679,10 +15004,10 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73">
+      <c r="A73" s="17">
         <v>72</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="13">
         <v>7004</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -14693,10 +15018,10 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74">
+      <c r="A74" s="17">
         <v>73</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="13">
         <v>7005</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -14707,10 +15032,10 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75">
+      <c r="A75" s="17">
         <v>74</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="13">
         <v>7006</v>
       </c>
       <c r="D75" s="11" t="s">
@@ -14721,10 +15046,10 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76">
+      <c r="A76" s="17">
         <v>75</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="13">
         <v>7007</v>
       </c>
       <c r="D76" s="11" t="s">
@@ -14735,10 +15060,10 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77">
+      <c r="A77" s="17">
         <v>76</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="13">
         <v>7008</v>
       </c>
       <c r="C77" s="11" t="s">
@@ -14746,10 +15071,10 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78">
+      <c r="A78" s="17">
         <v>77</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="13">
         <v>7009</v>
       </c>
       <c r="C78" s="11" t="s">
@@ -14757,10 +15082,10 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79">
+      <c r="A79" s="17">
         <v>78</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="13">
         <v>7010</v>
       </c>
       <c r="C79" s="11" t="s">
@@ -14768,10 +15093,10 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80">
+      <c r="A80" s="17">
         <v>79</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="13">
         <v>7001</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -14782,10 +15107,10 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81">
+      <c r="A81" s="17">
         <v>80</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="13">
         <v>7002</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -14796,10 +15121,10 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82">
+      <c r="A82" s="17">
         <v>81</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="13">
         <v>7003</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -14810,10 +15135,10 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83">
+      <c r="A83" s="17">
         <v>82</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="13">
         <v>7004</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -14824,10 +15149,10 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84">
+      <c r="A84" s="17">
         <v>83</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="13">
         <v>7005</v>
       </c>
       <c r="D84" s="11" t="s">
@@ -14838,10 +15163,10 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85">
+      <c r="A85" s="17">
         <v>84</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="13">
         <v>7006</v>
       </c>
       <c r="D85" s="11" t="s">
@@ -14852,10 +15177,10 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86">
+      <c r="A86" s="17">
         <v>85</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="13">
         <v>7007</v>
       </c>
       <c r="D86" s="11" t="s">
@@ -14866,10 +15191,10 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87">
+      <c r="A87" s="17">
         <v>86</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="13">
         <v>7008</v>
       </c>
       <c r="C87" s="11" t="s">
@@ -14877,10 +15202,10 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88">
+      <c r="A88" s="17">
         <v>87</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="13">
         <v>7009</v>
       </c>
       <c r="C88" s="11" t="s">
@@ -14888,10 +15213,10 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89">
+      <c r="A89" s="17">
         <v>88</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="13">
         <v>7010</v>
       </c>
       <c r="C89" s="11" t="s">
@@ -14899,7 +15224,7 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90">
+      <c r="A90" s="17">
         <v>89</v>
       </c>
       <c r="B90" s="13">
@@ -14914,7 +15239,7 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91">
+      <c r="A91" s="17">
         <v>90</v>
       </c>
       <c r="B91" s="13">
@@ -14929,7 +15254,7 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92">
+      <c r="A92" s="17">
         <v>91</v>
       </c>
       <c r="B92" s="13">
@@ -14944,7 +15269,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93">
+      <c r="A93" s="17">
         <v>92</v>
       </c>
       <c r="B93" s="13">
@@ -14959,7 +15284,7 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94">
+      <c r="A94" s="17">
         <v>93</v>
       </c>
       <c r="B94" s="13">
@@ -14974,7 +15299,7 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95">
+      <c r="A95" s="17">
         <v>94</v>
       </c>
       <c r="B95" s="13">
@@ -14989,7 +15314,7 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96">
+      <c r="A96" s="17">
         <v>95</v>
       </c>
       <c r="B96" s="13">
@@ -15004,7 +15329,7 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97">
+      <c r="A97" s="17">
         <v>96</v>
       </c>
       <c r="B97" s="13">
@@ -15019,7 +15344,7 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98">
+      <c r="A98" s="17">
         <v>97</v>
       </c>
       <c r="B98" s="13">
@@ -15034,7 +15359,7 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99">
+      <c r="A99" s="17">
         <v>98</v>
       </c>
       <c r="B99" s="13">
@@ -15049,7 +15374,7 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100">
+      <c r="A100" s="17">
         <v>99</v>
       </c>
       <c r="B100" s="13">
@@ -15064,7 +15389,7 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101">
+      <c r="A101" s="17">
         <v>100</v>
       </c>
       <c r="B101" s="13">
@@ -15079,7 +15404,7 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102">
+      <c r="A102" s="17">
         <v>101</v>
       </c>
       <c r="B102" s="13">
@@ -15094,7 +15419,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103">
+      <c r="A103" s="17">
         <v>102</v>
       </c>
       <c r="B103" s="13">
@@ -15107,7 +15432,7 @@
       <c r="E103" s="33"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104">
+      <c r="A104" s="17">
         <v>103</v>
       </c>
       <c r="B104" s="13">
@@ -15120,7 +15445,7 @@
       <c r="E104" s="33"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105">
+      <c r="A105" s="17">
         <v>104</v>
       </c>
       <c r="B105" s="13">
@@ -15135,7 +15460,7 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106">
+      <c r="A106" s="17">
         <v>105</v>
       </c>
       <c r="B106" s="13">
@@ -15150,7 +15475,7 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107">
+      <c r="A107" s="17">
         <v>106</v>
       </c>
       <c r="B107" s="13">
@@ -15163,7 +15488,7 @@
       <c r="E107" s="33"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108">
+      <c r="A108" s="17">
         <v>107</v>
       </c>
       <c r="B108" s="13">
@@ -15176,10 +15501,10 @@
       <c r="E108" s="33"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109">
+      <c r="A109" s="17">
         <v>108</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="13">
         <v>9001</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -15190,10 +15515,10 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110">
+      <c r="A110" s="17">
         <v>109</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="13">
         <v>9002</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -15204,10 +15529,10 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111">
+      <c r="A111" s="17">
         <v>110</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="13">
         <v>9003</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -15218,10 +15543,10 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112">
+      <c r="A112" s="17">
         <v>111</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="13">
         <v>9004</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -15232,10 +15557,10 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113">
+      <c r="A113" s="17">
         <v>112</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="13">
         <v>9005</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -15246,10 +15571,10 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114">
+      <c r="A114" s="17">
         <v>113</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="13">
         <v>9006</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -15260,10 +15585,10 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115">
+      <c r="A115" s="17">
         <v>114</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="13">
         <v>9007</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -15274,10 +15599,10 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116">
+      <c r="A116" s="17">
         <v>115</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="13">
         <v>9008</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -15288,10 +15613,10 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117">
+      <c r="A117" s="17">
         <v>116</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="13">
         <v>9009</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -15302,10 +15627,10 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118">
+      <c r="A118" s="17">
         <v>117</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="13">
         <v>9010</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -15316,10 +15641,10 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119">
+      <c r="A119" s="17">
         <v>118</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="13">
         <v>9011</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -15330,10 +15655,10 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120">
+      <c r="A120" s="17">
         <v>119</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="13">
         <v>9012</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -15344,7 +15669,7 @@
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121">
+      <c r="A121" s="17">
         <v>120</v>
       </c>
       <c r="B121" s="13">
@@ -15359,7 +15684,7 @@
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122">
+      <c r="A122" s="17">
         <v>121</v>
       </c>
       <c r="B122" s="13">
@@ -15374,7 +15699,7 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123">
+      <c r="A123" s="17">
         <v>122</v>
       </c>
       <c r="B123" s="13">
@@ -15389,7 +15714,7 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124">
+      <c r="A124" s="17">
         <v>123</v>
       </c>
       <c r="B124" s="13">
@@ -15404,7 +15729,7 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125">
+      <c r="A125" s="17">
         <v>124</v>
       </c>
       <c r="B125" s="13">
@@ -15419,7 +15744,7 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126">
+      <c r="A126" s="17">
         <v>125</v>
       </c>
       <c r="B126" s="13">
@@ -15434,7 +15759,7 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127">
+      <c r="A127" s="17">
         <v>126</v>
       </c>
       <c r="B127" s="13">
@@ -15449,7 +15774,7 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128">
+      <c r="A128" s="17">
         <v>127</v>
       </c>
       <c r="B128" s="13">
@@ -15462,7 +15787,7 @@
       <c r="E128" s="16"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129">
+      <c r="A129" s="17">
         <v>128</v>
       </c>
       <c r="B129" s="13">
@@ -15475,7 +15800,7 @@
       <c r="E129" s="16"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130">
+      <c r="A130" s="17">
         <v>129</v>
       </c>
       <c r="B130" s="13">
@@ -15488,7 +15813,7 @@
       <c r="E130" s="16"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131">
+      <c r="A131" s="17">
         <v>130</v>
       </c>
       <c r="B131" s="13">
@@ -15505,7 +15830,7 @@
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132">
+      <c r="A132" s="17">
         <v>131</v>
       </c>
       <c r="B132" s="13">
@@ -15522,7 +15847,7 @@
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133">
+      <c r="A133" s="17">
         <v>132</v>
       </c>
       <c r="B133" s="13">
@@ -15539,7 +15864,7 @@
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134">
+      <c r="A134" s="17">
         <v>133</v>
       </c>
       <c r="B134" s="13">
@@ -15556,7 +15881,7 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135">
+      <c r="A135" s="17">
         <v>134</v>
       </c>
       <c r="B135" s="13">
@@ -15573,7 +15898,7 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136">
+      <c r="A136" s="17">
         <v>135</v>
       </c>
       <c r="B136" s="13">
@@ -15590,7 +15915,7 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137">
+      <c r="A137" s="17">
         <v>136</v>
       </c>
       <c r="B137" s="13">
@@ -15607,7 +15932,7 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138">
+      <c r="A138" s="17">
         <v>137</v>
       </c>
       <c r="B138" s="13">
@@ -15624,7 +15949,7 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139">
+      <c r="A139" s="17">
         <v>138</v>
       </c>
       <c r="B139" s="13">
@@ -15637,7 +15962,7 @@
       <c r="E139" s="21"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140">
+      <c r="A140" s="17">
         <v>139</v>
       </c>
       <c r="B140" s="13">
@@ -15650,7 +15975,7 @@
       <c r="E140" s="21"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141">
+      <c r="A141" s="17">
         <v>140</v>
       </c>
       <c r="B141" s="13">
@@ -15667,7 +15992,7 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142">
+      <c r="A142" s="17">
         <v>141</v>
       </c>
       <c r="B142" s="13">
@@ -15684,7 +16009,7 @@
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143">
+      <c r="A143" s="17">
         <v>142</v>
       </c>
       <c r="B143" s="13">
@@ -15697,7 +16022,7 @@
       <c r="E143" s="21"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144">
+      <c r="A144" s="17">
         <v>143</v>
       </c>
       <c r="B144" s="13">
@@ -15710,7 +16035,7 @@
       <c r="E144" s="21"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145">
+      <c r="A145" s="17">
         <v>144</v>
       </c>
       <c r="B145" s="13">
@@ -15723,7 +16048,7 @@
       <c r="E145" s="21"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146">
+      <c r="A146" s="17">
         <v>145</v>
       </c>
       <c r="B146" s="13">
@@ -15740,7 +16065,7 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147">
+      <c r="A147" s="17">
         <v>146</v>
       </c>
       <c r="B147" s="13">
@@ -15757,7 +16082,7 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148">
+      <c r="A148" s="17">
         <v>147</v>
       </c>
       <c r="B148" s="13">
@@ -15774,7 +16099,7 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149">
+      <c r="A149" s="17">
         <v>148</v>
       </c>
       <c r="B149" s="13">
@@ -15791,7 +16116,7 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150">
+      <c r="A150" s="17">
         <v>149</v>
       </c>
       <c r="B150" s="13">
@@ -15808,7 +16133,7 @@
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151">
+      <c r="A151" s="17">
         <v>150</v>
       </c>
       <c r="B151" s="13">
@@ -15825,7 +16150,7 @@
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152">
+      <c r="A152" s="17">
         <v>151</v>
       </c>
       <c r="B152" s="13">
@@ -15842,7 +16167,7 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153">
+      <c r="A153" s="17">
         <v>152</v>
       </c>
       <c r="B153" s="13">
@@ -15859,7 +16184,7 @@
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154">
+      <c r="A154" s="17">
         <v>153</v>
       </c>
       <c r="B154" s="13">
@@ -15872,7 +16197,7 @@
       <c r="E154" s="21"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155">
+      <c r="A155" s="17">
         <v>154</v>
       </c>
       <c r="B155" s="13">
@@ -15889,7 +16214,7 @@
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156">
+      <c r="A156" s="17">
         <v>155</v>
       </c>
       <c r="B156" s="13">
@@ -15906,7 +16231,7 @@
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157">
+      <c r="A157" s="17">
         <v>156</v>
       </c>
       <c r="B157" s="13">
@@ -15923,7 +16248,7 @@
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158">
+      <c r="A158" s="17">
         <v>157</v>
       </c>
       <c r="B158" s="13">
@@ -15940,7 +16265,7 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159">
+      <c r="A159" s="17">
         <v>158</v>
       </c>
       <c r="B159" s="13">
@@ -15957,7 +16282,7 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160">
+      <c r="A160" s="17">
         <v>159</v>
       </c>
       <c r="B160" s="13">
@@ -15974,7 +16299,7 @@
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161">
+      <c r="A161" s="17">
         <v>160</v>
       </c>
       <c r="B161" s="13">
@@ -15987,7 +16312,7 @@
       <c r="E161" s="21"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162">
+      <c r="A162" s="17">
         <v>161</v>
       </c>
       <c r="B162" s="13">
@@ -16000,7 +16325,7 @@
       <c r="E162" s="21"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163">
+      <c r="A163" s="17">
         <v>162</v>
       </c>
       <c r="B163" s="13">
@@ -16017,7 +16342,7 @@
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164">
+      <c r="A164" s="17">
         <v>163</v>
       </c>
       <c r="B164" s="13">
@@ -16030,7 +16355,7 @@
       <c r="E164" s="21"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165">
+      <c r="A165" s="17">
         <v>164</v>
       </c>
       <c r="B165" s="13">
@@ -16043,7 +16368,7 @@
       <c r="E165" s="21"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166">
+      <c r="A166" s="17">
         <v>165</v>
       </c>
       <c r="B166" s="13">
@@ -16056,7 +16381,7 @@
       <c r="E166" s="21"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167">
+      <c r="A167" s="17">
         <v>166</v>
       </c>
       <c r="B167" s="13">
@@ -16073,7 +16398,7 @@
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168">
+      <c r="A168" s="17">
         <v>167</v>
       </c>
       <c r="B168" s="13">
@@ -16086,7 +16411,7 @@
       <c r="E168" s="21"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169">
+      <c r="A169" s="17">
         <v>168</v>
       </c>
       <c r="B169" s="13">
@@ -16103,7 +16428,7 @@
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170">
+      <c r="A170" s="17">
         <v>169</v>
       </c>
       <c r="B170" s="13">
@@ -16120,7 +16445,7 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171">
+      <c r="A171" s="17">
         <v>170</v>
       </c>
       <c r="B171" s="13">
@@ -16137,7 +16462,7 @@
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172">
+      <c r="A172" s="17">
         <v>171</v>
       </c>
       <c r="B172" s="13">
@@ -16154,7 +16479,7 @@
       </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173">
+      <c r="A173" s="17">
         <v>172</v>
       </c>
       <c r="B173" s="13">
@@ -16171,7 +16496,7 @@
       </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174">
+      <c r="A174" s="17">
         <v>173</v>
       </c>
       <c r="B174" s="13">
@@ -16188,7 +16513,7 @@
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175">
+      <c r="A175" s="17">
         <v>174</v>
       </c>
       <c r="B175" s="13">
@@ -16205,7 +16530,7 @@
       </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176">
+      <c r="A176" s="17">
         <v>175</v>
       </c>
       <c r="B176" s="13">
@@ -16222,7 +16547,7 @@
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177">
+      <c r="A177" s="17">
         <v>176</v>
       </c>
       <c r="B177" s="13">
@@ -16239,7 +16564,7 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178">
+      <c r="A178" s="17">
         <v>177</v>
       </c>
       <c r="B178" s="13">
@@ -16256,7 +16581,7 @@
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179">
+      <c r="A179" s="17">
         <v>178</v>
       </c>
       <c r="B179" s="13">
@@ -16273,7 +16598,7 @@
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180">
+      <c r="A180" s="17">
         <v>179</v>
       </c>
       <c r="B180" s="13">
@@ -16290,7 +16615,7 @@
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181">
+      <c r="A181" s="17">
         <v>180</v>
       </c>
       <c r="B181" s="13">
@@ -16307,7 +16632,7 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182">
+      <c r="A182" s="17">
         <v>181</v>
       </c>
       <c r="B182" s="13">
@@ -16324,7 +16649,7 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183">
+      <c r="A183" s="17">
         <v>182</v>
       </c>
       <c r="B183" s="13">
@@ -16341,7 +16666,7 @@
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184">
+      <c r="A184" s="17">
         <v>183</v>
       </c>
       <c r="B184" s="13">
@@ -16358,7 +16683,7 @@
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185">
+      <c r="A185" s="17">
         <v>184</v>
       </c>
       <c r="B185" s="13">
@@ -16375,7 +16700,7 @@
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186">
+      <c r="A186" s="17">
         <v>185</v>
       </c>
       <c r="B186" s="13">
@@ -16392,7 +16717,7 @@
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187">
+      <c r="A187" s="17">
         <v>186</v>
       </c>
       <c r="B187" s="13">
@@ -16409,7 +16734,7 @@
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188">
+      <c r="A188" s="17">
         <v>187</v>
       </c>
       <c r="B188" s="13">
@@ -16426,7 +16751,7 @@
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189">
+      <c r="A189" s="17">
         <v>188</v>
       </c>
       <c r="B189" s="13">
@@ -16443,7 +16768,7 @@
       </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190">
+      <c r="A190" s="17">
         <v>189</v>
       </c>
       <c r="B190" s="13">
@@ -16460,7 +16785,7 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191">
+      <c r="A191" s="17">
         <v>190</v>
       </c>
       <c r="B191" s="13">
@@ -16477,7 +16802,7 @@
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192">
+      <c r="A192" s="17">
         <v>191</v>
       </c>
       <c r="B192" s="13">
@@ -16494,7 +16819,7 @@
       </c>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193">
+      <c r="A193" s="17">
         <v>192</v>
       </c>
       <c r="B193" s="13">
@@ -16511,7 +16836,7 @@
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194">
+      <c r="A194" s="17">
         <v>193</v>
       </c>
       <c r="B194" s="13">
@@ -16528,7 +16853,7 @@
       </c>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195">
+      <c r="A195" s="17">
         <v>194</v>
       </c>
       <c r="B195" s="13">
@@ -16545,7 +16870,7 @@
       </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196">
+      <c r="A196" s="17">
         <v>195</v>
       </c>
       <c r="B196" s="13">
@@ -16562,7 +16887,7 @@
       </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197">
+      <c r="A197" s="17">
         <v>196</v>
       </c>
       <c r="B197" s="13">
@@ -16579,7 +16904,7 @@
       </c>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198">
+      <c r="A198" s="17">
         <v>197</v>
       </c>
       <c r="B198" s="13">
@@ -16596,7 +16921,7 @@
       </c>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199">
+      <c r="A199" s="17">
         <v>198</v>
       </c>
       <c r="B199" s="13">
@@ -16613,7 +16938,7 @@
       </c>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200">
+      <c r="A200" s="17">
         <v>199</v>
       </c>
       <c r="B200" s="13">
@@ -16630,7 +16955,7 @@
       </c>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201">
+      <c r="A201" s="17">
         <v>200</v>
       </c>
       <c r="B201" s="13">
@@ -16647,7 +16972,7 @@
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202">
+      <c r="A202" s="17">
         <v>201</v>
       </c>
       <c r="B202" s="13">
@@ -16664,7 +16989,7 @@
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203">
+      <c r="A203" s="17">
         <v>202</v>
       </c>
       <c r="B203" s="13">
@@ -16681,7 +17006,7 @@
       </c>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204">
+      <c r="A204" s="17">
         <v>203</v>
       </c>
       <c r="B204" s="13">
@@ -16698,7 +17023,7 @@
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205">
+      <c r="A205" s="17">
         <v>204</v>
       </c>
       <c r="B205" s="13">
@@ -16715,7 +17040,7 @@
       </c>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206">
+      <c r="A206" s="17">
         <v>205</v>
       </c>
       <c r="B206" s="13">
@@ -16732,7 +17057,7 @@
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207">
+      <c r="A207" s="17">
         <v>206</v>
       </c>
       <c r="B207" s="13">
@@ -16749,7 +17074,7 @@
       </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208">
+      <c r="A208" s="17">
         <v>207</v>
       </c>
       <c r="B208" s="13">
@@ -16766,7 +17091,7 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209">
+      <c r="A209" s="17">
         <v>208</v>
       </c>
       <c r="B209" s="13">
@@ -16783,7 +17108,7 @@
       </c>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210">
+      <c r="A210" s="17">
         <v>209</v>
       </c>
       <c r="B210" s="13">
@@ -16800,7 +17125,7 @@
       </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211">
+      <c r="A211" s="17">
         <v>210</v>
       </c>
       <c r="B211" s="13">
@@ -16817,7 +17142,7 @@
       </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212">
+      <c r="A212" s="17">
         <v>211</v>
       </c>
       <c r="B212" s="13">
@@ -16834,7 +17159,7 @@
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213">
+      <c r="A213" s="17">
         <v>212</v>
       </c>
       <c r="B213" s="13">
@@ -16851,7 +17176,7 @@
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214">
+      <c r="A214" s="17">
         <v>213</v>
       </c>
       <c r="B214" s="13">
@@ -16868,7 +17193,7 @@
       </c>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215">
+      <c r="A215" s="17">
         <v>214</v>
       </c>
       <c r="B215" s="13">
@@ -16885,7 +17210,7 @@
       </c>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216">
+      <c r="A216" s="17">
         <v>215</v>
       </c>
       <c r="B216" s="13">
@@ -16902,7 +17227,7 @@
       </c>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217">
+      <c r="A217" s="17">
         <v>216</v>
       </c>
       <c r="B217" s="13">
@@ -16919,7 +17244,7 @@
       </c>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218">
+      <c r="A218" s="17">
         <v>217</v>
       </c>
       <c r="B218" s="13">
@@ -16936,7 +17261,7 @@
       </c>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219">
+      <c r="A219" s="17">
         <v>218</v>
       </c>
       <c r="B219" s="13">
@@ -16953,7 +17278,7 @@
       </c>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220">
+      <c r="A220" s="17">
         <v>219</v>
       </c>
       <c r="B220" s="13">
@@ -16970,10 +17295,10 @@
       </c>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221">
+      <c r="A221" s="17">
         <v>220</v>
       </c>
-      <c r="B221" s="23">
+      <c r="B221" s="13">
         <v>11601</v>
       </c>
       <c r="C221" s="24" t="s">
@@ -16987,10 +17312,10 @@
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222">
+      <c r="A222" s="17">
         <v>221</v>
       </c>
-      <c r="B222" s="23">
+      <c r="B222" s="13">
         <v>11602</v>
       </c>
       <c r="C222" s="24" t="s">
@@ -17004,10 +17329,10 @@
       </c>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223">
+      <c r="A223" s="17">
         <v>222</v>
       </c>
-      <c r="B223" s="23">
+      <c r="B223" s="13">
         <v>11603</v>
       </c>
       <c r="C223" s="24" t="s">
@@ -17021,10 +17346,10 @@
       </c>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224">
+      <c r="A224" s="17">
         <v>223</v>
       </c>
-      <c r="B224" s="23">
+      <c r="B224" s="13">
         <v>11604</v>
       </c>
       <c r="C224" s="24" t="s">
@@ -17038,10 +17363,10 @@
       </c>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225">
+      <c r="A225" s="17">
         <v>224</v>
       </c>
-      <c r="B225" s="23">
+      <c r="B225" s="13">
         <v>11611</v>
       </c>
       <c r="C225" s="24" t="s">
@@ -17055,10 +17380,10 @@
       </c>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226">
+      <c r="A226" s="17">
         <v>225</v>
       </c>
-      <c r="B226" s="23">
+      <c r="B226" s="13">
         <v>11612</v>
       </c>
       <c r="C226" s="24" t="s">
@@ -17072,10 +17397,10 @@
       </c>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227">
+      <c r="A227" s="17">
         <v>226</v>
       </c>
-      <c r="B227" s="23">
+      <c r="B227" s="13">
         <v>11613</v>
       </c>
       <c r="C227" s="24" t="s">
@@ -17089,10 +17414,10 @@
       </c>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228">
+      <c r="A228" s="17">
         <v>227</v>
       </c>
-      <c r="B228" s="23">
+      <c r="B228" s="13">
         <v>11614</v>
       </c>
       <c r="C228" s="24" t="s">
@@ -17106,10 +17431,10 @@
       </c>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229">
+      <c r="A229" s="17">
         <v>228</v>
       </c>
-      <c r="B229" s="23">
+      <c r="B229" s="13">
         <v>11621</v>
       </c>
       <c r="C229" s="24" t="s">
@@ -17123,10 +17448,10 @@
       </c>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230">
+      <c r="A230" s="17">
         <v>229</v>
       </c>
-      <c r="B230" s="23">
+      <c r="B230" s="13">
         <v>11622</v>
       </c>
       <c r="C230" s="24" t="s">
@@ -17140,10 +17465,10 @@
       </c>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231">
+      <c r="A231" s="17">
         <v>230</v>
       </c>
-      <c r="B231" s="23">
+      <c r="B231" s="13">
         <v>11623</v>
       </c>
       <c r="C231" s="24" t="s">
@@ -17157,10 +17482,10 @@
       </c>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232">
+      <c r="A232" s="17">
         <v>231</v>
       </c>
-      <c r="B232" s="23">
+      <c r="B232" s="13">
         <v>11624</v>
       </c>
       <c r="C232" s="24" t="s">
@@ -17174,10 +17499,10 @@
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233">
+      <c r="A233" s="17">
         <v>232</v>
       </c>
-      <c r="B233" s="23">
+      <c r="B233" s="13">
         <v>11631</v>
       </c>
       <c r="C233" s="24" t="s">
@@ -17191,10 +17516,10 @@
       </c>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234">
+      <c r="A234" s="17">
         <v>233</v>
       </c>
-      <c r="B234" s="23">
+      <c r="B234" s="13">
         <v>11632</v>
       </c>
       <c r="C234" s="24" t="s">
@@ -17208,10 +17533,10 @@
       </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235">
+      <c r="A235" s="17">
         <v>234</v>
       </c>
-      <c r="B235" s="23">
+      <c r="B235" s="13">
         <v>11633</v>
       </c>
       <c r="C235" s="24" t="s">
@@ -17225,10 +17550,10 @@
       </c>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236">
+      <c r="A236" s="17">
         <v>235</v>
       </c>
-      <c r="B236" s="23">
+      <c r="B236" s="13">
         <v>11634</v>
       </c>
       <c r="C236" s="24" t="s">
@@ -17242,10 +17567,10 @@
       </c>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237">
+      <c r="A237" s="17">
         <v>236</v>
       </c>
-      <c r="B237" s="23">
+      <c r="B237" s="13">
         <v>11641</v>
       </c>
       <c r="C237" s="24" t="s">
@@ -17259,10 +17584,10 @@
       </c>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238">
+      <c r="A238" s="17">
         <v>237</v>
       </c>
-      <c r="B238" s="23">
+      <c r="B238" s="13">
         <v>11642</v>
       </c>
       <c r="C238" s="24" t="s">
@@ -17276,10 +17601,10 @@
       </c>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239">
+      <c r="A239" s="17">
         <v>238</v>
       </c>
-      <c r="B239" s="23">
+      <c r="B239" s="13">
         <v>11643</v>
       </c>
       <c r="C239" s="24" t="s">
@@ -17293,10 +17618,10 @@
       </c>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240">
+      <c r="A240" s="17">
         <v>239</v>
       </c>
-      <c r="B240" s="23">
+      <c r="B240" s="13">
         <v>11644</v>
       </c>
       <c r="C240" s="24" t="s">
@@ -17310,10 +17635,10 @@
       </c>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241">
+      <c r="A241" s="17">
         <v>240</v>
       </c>
-      <c r="B241" s="23">
+      <c r="B241" s="13">
         <v>11651</v>
       </c>
       <c r="C241" s="24" t="s">
@@ -17327,10 +17652,10 @@
       </c>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242">
+      <c r="A242" s="17">
         <v>241</v>
       </c>
-      <c r="B242" s="23">
+      <c r="B242" s="13">
         <v>11652</v>
       </c>
       <c r="C242" s="24" t="s">
@@ -17344,10 +17669,10 @@
       </c>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243">
+      <c r="A243" s="17">
         <v>242</v>
       </c>
-      <c r="B243" s="23">
+      <c r="B243" s="13">
         <v>11653</v>
       </c>
       <c r="C243" s="24" t="s">
@@ -17361,10 +17686,10 @@
       </c>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244">
+      <c r="A244" s="17">
         <v>243</v>
       </c>
-      <c r="B244" s="23">
+      <c r="B244" s="13">
         <v>11654</v>
       </c>
       <c r="C244" s="24" t="s">
@@ -17378,10 +17703,10 @@
       </c>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245">
+      <c r="A245" s="17">
         <v>244</v>
       </c>
-      <c r="B245" s="23">
+      <c r="B245" s="13">
         <v>11661</v>
       </c>
       <c r="C245" s="24" t="s">
@@ -17395,10 +17720,10 @@
       </c>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246">
+      <c r="A246" s="17">
         <v>245</v>
       </c>
-      <c r="B246" s="23">
+      <c r="B246" s="13">
         <v>11662</v>
       </c>
       <c r="C246" s="24" t="s">
@@ -17412,10 +17737,10 @@
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247">
+      <c r="A247" s="17">
         <v>246</v>
       </c>
-      <c r="B247" s="23">
+      <c r="B247" s="13">
         <v>11663</v>
       </c>
       <c r="C247" s="24" t="s">
@@ -17429,10 +17754,10 @@
       </c>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248">
+      <c r="A248" s="17">
         <v>247</v>
       </c>
-      <c r="B248" s="23">
+      <c r="B248" s="13">
         <v>11664</v>
       </c>
       <c r="C248" s="24" t="s">
@@ -17446,10 +17771,10 @@
       </c>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249">
+      <c r="A249" s="17">
         <v>248</v>
       </c>
-      <c r="B249" s="23">
+      <c r="B249" s="13">
         <v>11671</v>
       </c>
       <c r="C249" s="24" t="s">
@@ -17463,10 +17788,10 @@
       </c>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250">
+      <c r="A250" s="17">
         <v>249</v>
       </c>
-      <c r="B250" s="23">
+      <c r="B250" s="13">
         <v>11672</v>
       </c>
       <c r="C250" s="24" t="s">
@@ -17480,10 +17805,10 @@
       </c>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251">
+      <c r="A251" s="17">
         <v>250</v>
       </c>
-      <c r="B251" s="23">
+      <c r="B251" s="13">
         <v>11673</v>
       </c>
       <c r="C251" s="24" t="s">
@@ -17497,10 +17822,10 @@
       </c>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252">
+      <c r="A252" s="17">
         <v>251</v>
       </c>
-      <c r="B252" s="23">
+      <c r="B252" s="13">
         <v>11674</v>
       </c>
       <c r="C252" s="24" t="s">
@@ -17514,10 +17839,10 @@
       </c>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253">
+      <c r="A253" s="17">
         <v>252</v>
       </c>
-      <c r="B253" s="23">
+      <c r="B253" s="13">
         <v>11681</v>
       </c>
       <c r="C253" s="24" t="s">
@@ -17531,10 +17856,10 @@
       </c>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254">
+      <c r="A254" s="17">
         <v>253</v>
       </c>
-      <c r="B254" s="23">
+      <c r="B254" s="13">
         <v>11682</v>
       </c>
       <c r="C254" s="24" t="s">
@@ -17548,10 +17873,10 @@
       </c>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255">
+      <c r="A255" s="17">
         <v>254</v>
       </c>
-      <c r="B255" s="23">
+      <c r="B255" s="13">
         <v>11683</v>
       </c>
       <c r="C255" s="24" t="s">
@@ -17565,10 +17890,10 @@
       </c>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256">
+      <c r="A256" s="17">
         <v>255</v>
       </c>
-      <c r="B256" s="23">
+      <c r="B256" s="13">
         <v>11684</v>
       </c>
       <c r="C256" s="24" t="s">
@@ -17582,466 +17907,466 @@
       </c>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="36">
+      <c r="A257" s="17">
         <v>256</v>
       </c>
-      <c r="B257" s="35">
+      <c r="B257" s="13">
         <v>11701</v>
       </c>
       <c r="C257" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="D257" s="37" t="s">
+      <c r="D257" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E257" s="38" t="s">
+      <c r="E257" s="37" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="36">
+      <c r="A258" s="17">
         <v>257</v>
       </c>
-      <c r="B258" s="35">
+      <c r="B258" s="13">
         <v>11702</v>
       </c>
       <c r="C258" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="D258" s="37" t="s">
+      <c r="D258" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E258" s="38" t="s">
+      <c r="E258" s="37" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="36">
+      <c r="A259" s="17">
         <v>258</v>
       </c>
-      <c r="B259" s="35">
+      <c r="B259" s="13">
         <v>11703</v>
       </c>
       <c r="C259" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="D259" s="37" t="s">
+      <c r="D259" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E259" s="38" t="s">
+      <c r="E259" s="37" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="260" spans="1:5">
-      <c r="A260" s="36">
+      <c r="A260" s="17">
         <v>259</v>
       </c>
-      <c r="B260" s="35">
+      <c r="B260" s="13">
         <v>11704</v>
       </c>
       <c r="C260" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="D260" s="37" t="s">
+      <c r="D260" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E260" s="38" t="s">
+      <c r="E260" s="37" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="261" spans="1:5">
-      <c r="A261" s="36">
+      <c r="A261" s="17">
         <v>260</v>
       </c>
-      <c r="B261" s="35">
+      <c r="B261" s="13">
         <v>11705</v>
       </c>
       <c r="C261" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="D261" s="37" t="s">
+      <c r="D261" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E261" s="38" t="s">
+      <c r="E261" s="37" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="262" spans="1:5">
-      <c r="A262" s="36">
+      <c r="A262" s="17">
         <v>261</v>
       </c>
-      <c r="B262" s="35">
+      <c r="B262" s="13">
         <v>11706</v>
       </c>
       <c r="C262" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="D262" s="37" t="s">
+      <c r="D262" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E262" s="38" t="s">
+      <c r="E262" s="37" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="36">
+      <c r="A263" s="17">
         <v>262</v>
       </c>
-      <c r="B263" s="35">
+      <c r="B263" s="13">
         <v>11707</v>
       </c>
       <c r="C263" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="D263" s="37" t="s">
+      <c r="D263" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E263" s="38" t="s">
+      <c r="E263" s="37" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" s="36">
+      <c r="A264" s="17">
         <v>263</v>
       </c>
-      <c r="B264" s="35">
+      <c r="B264" s="13">
         <v>11708</v>
       </c>
       <c r="C264" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="D264" s="37" t="s">
+      <c r="D264" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E264" s="38" t="s">
+      <c r="E264" s="37" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="36">
+      <c r="A265" s="17">
         <v>264</v>
       </c>
-      <c r="B265" s="35">
+      <c r="B265" s="13">
         <v>11709</v>
       </c>
       <c r="C265" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="D265" s="37" t="s">
+      <c r="D265" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E265" s="38" t="s">
+      <c r="E265" s="37" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="39">
+      <c r="A266" s="17">
         <v>265</v>
       </c>
-      <c r="B266" s="40">
+      <c r="B266" s="13">
         <v>11710</v>
       </c>
-      <c r="C266" s="41" t="s">
+      <c r="C266" s="40" t="s">
         <v>389</v>
       </c>
-      <c r="D266" s="41" t="s">
+      <c r="D266" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E266" s="42" t="s">
+      <c r="E266" s="41" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="267" spans="1:5">
-      <c r="A267" s="39">
+      <c r="A267" s="17">
         <v>266</v>
       </c>
-      <c r="B267" s="40">
+      <c r="B267" s="13">
         <v>11711</v>
       </c>
-      <c r="C267" s="41" t="s">
+      <c r="C267" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="D267" s="41" t="s">
+      <c r="D267" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E267" s="42" t="s">
+      <c r="E267" s="41" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="39">
+      <c r="A268" s="17">
         <v>267</v>
       </c>
-      <c r="B268" s="40">
+      <c r="B268" s="13">
         <v>11712</v>
       </c>
-      <c r="C268" s="41" t="s">
+      <c r="C268" s="40" t="s">
         <v>440</v>
       </c>
-      <c r="D268" s="41" t="s">
+      <c r="D268" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E268" s="42" t="s">
+      <c r="E268" s="41" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="269" spans="1:5">
-      <c r="A269" s="39">
+      <c r="A269" s="17">
         <v>268</v>
       </c>
-      <c r="B269" s="40">
+      <c r="B269" s="13">
         <v>11713</v>
       </c>
-      <c r="C269" s="41" t="s">
+      <c r="C269" s="40" t="s">
         <v>441</v>
       </c>
-      <c r="D269" s="41" t="s">
+      <c r="D269" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E269" s="42" t="s">
+      <c r="E269" s="41" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="270" spans="1:5">
-      <c r="A270" s="39">
+      <c r="A270" s="17">
         <v>269</v>
       </c>
-      <c r="B270" s="40">
+      <c r="B270" s="13">
         <v>11714</v>
       </c>
-      <c r="C270" s="41" t="s">
+      <c r="C270" s="40" t="s">
         <v>442</v>
       </c>
-      <c r="D270" s="41" t="s">
+      <c r="D270" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E270" s="42" t="s">
+      <c r="E270" s="41" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="39">
+      <c r="A271" s="17">
         <v>270</v>
       </c>
-      <c r="B271" s="40">
+      <c r="B271" s="13">
         <v>11715</v>
       </c>
-      <c r="C271" s="41" t="s">
+      <c r="C271" s="40" t="s">
         <v>443</v>
       </c>
-      <c r="D271" s="41" t="s">
+      <c r="D271" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E271" s="42" t="s">
+      <c r="E271" s="41" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="272" spans="1:5">
-      <c r="A272" s="39">
+      <c r="A272" s="17">
         <v>271</v>
       </c>
-      <c r="B272" s="40">
+      <c r="B272" s="13">
         <v>11716</v>
       </c>
-      <c r="C272" s="41" t="s">
+      <c r="C272" s="40" t="s">
         <v>444</v>
       </c>
-      <c r="D272" s="41" t="s">
+      <c r="D272" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E272" s="42" t="s">
+      <c r="E272" s="41" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="273" spans="1:5">
-      <c r="A273" s="39">
+      <c r="A273" s="17">
         <v>272</v>
       </c>
-      <c r="B273" s="40">
+      <c r="B273" s="13">
         <v>11717</v>
       </c>
-      <c r="C273" s="41" t="s">
+      <c r="C273" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="D273" s="41" t="s">
+      <c r="D273" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E273" s="42" t="s">
+      <c r="E273" s="41" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="274" spans="1:5">
-      <c r="A274" s="39">
+      <c r="A274" s="17">
         <v>273</v>
       </c>
-      <c r="B274" s="40">
+      <c r="B274" s="13">
         <v>11718</v>
       </c>
-      <c r="C274" s="41" t="s">
+      <c r="C274" s="40" t="s">
         <v>446</v>
       </c>
-      <c r="D274" s="41" t="s">
+      <c r="D274" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E274" s="42" t="s">
+      <c r="E274" s="41" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="36">
+      <c r="A275" s="17">
         <v>274</v>
       </c>
-      <c r="B275" s="35">
+      <c r="B275" s="13">
         <v>11719</v>
       </c>
-      <c r="C275" s="37" t="s">
+      <c r="C275" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="D275" s="37" t="s">
+      <c r="D275" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E275" s="38" t="s">
+      <c r="E275" s="37" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="276" spans="1:5">
-      <c r="A276" s="36">
+      <c r="A276" s="17">
         <v>275</v>
       </c>
-      <c r="B276" s="35">
+      <c r="B276" s="13">
         <v>11720</v>
       </c>
-      <c r="C276" s="37" t="s">
+      <c r="C276" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="D276" s="37" t="s">
+      <c r="D276" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E276" s="38" t="s">
+      <c r="E276" s="37" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" s="36">
+      <c r="A277" s="17">
         <v>276</v>
       </c>
-      <c r="B277" s="35">
+      <c r="B277" s="13">
         <v>11721</v>
       </c>
-      <c r="C277" s="37" t="s">
+      <c r="C277" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="D277" s="37" t="s">
+      <c r="D277" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E277" s="38" t="s">
+      <c r="E277" s="37" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="278" spans="1:5">
-      <c r="A278" s="36">
+      <c r="A278" s="17">
         <v>277</v>
       </c>
-      <c r="B278" s="35">
+      <c r="B278" s="13">
         <v>11722</v>
       </c>
-      <c r="C278" s="37" t="s">
+      <c r="C278" s="36" t="s">
         <v>450</v>
       </c>
-      <c r="D278" s="37" t="s">
+      <c r="D278" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E278" s="38" t="s">
+      <c r="E278" s="37" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="36">
+      <c r="A279" s="17">
         <v>278</v>
       </c>
-      <c r="B279" s="35">
+      <c r="B279" s="13">
         <v>11723</v>
       </c>
-      <c r="C279" s="37" t="s">
+      <c r="C279" s="36" t="s">
         <v>452</v>
       </c>
-      <c r="D279" s="37" t="s">
+      <c r="D279" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="E279" s="38" t="s">
+      <c r="E279" s="37" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="36">
+      <c r="A280" s="17">
         <v>279</v>
       </c>
-      <c r="B280" s="35">
+      <c r="B280" s="13">
         <v>11724</v>
       </c>
-      <c r="C280" s="37" t="s">
+      <c r="C280" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="D280" s="37" t="s">
+      <c r="D280" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E280" s="38" t="s">
+      <c r="E280" s="37" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="281" spans="1:5">
-      <c r="A281" s="36">
+      <c r="A281" s="17">
         <v>280</v>
       </c>
-      <c r="B281" s="35">
+      <c r="B281" s="13">
         <v>11725</v>
       </c>
-      <c r="C281" s="37" t="s">
+      <c r="C281" s="36" t="s">
         <v>453</v>
       </c>
-      <c r="D281" s="37" t="s">
+      <c r="D281" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="E281" s="38" t="s">
+      <c r="E281" s="37" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="282" spans="1:5">
-      <c r="A282" s="36">
+      <c r="A282" s="17">
         <v>281</v>
       </c>
-      <c r="B282" s="35">
+      <c r="B282" s="13">
         <v>11726</v>
       </c>
-      <c r="C282" s="37" t="s">
+      <c r="C282" s="36" t="s">
         <v>455</v>
       </c>
-      <c r="D282" s="37" t="s">
+      <c r="D282" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E282" s="38" t="s">
+      <c r="E282" s="37" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="283" spans="1:5">
-      <c r="A283" s="36">
+      <c r="A283" s="17">
         <v>282</v>
       </c>
-      <c r="B283" s="35">
+      <c r="B283" s="13">
         <v>11727</v>
       </c>
-      <c r="C283" s="37" t="s">
+      <c r="C283" s="36" t="s">
         <v>456</v>
       </c>
-      <c r="D283" s="37" t="s">
+      <c r="D283" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E283" s="38" t="s">
+      <c r="E283" s="37" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="284" spans="1:5">
-      <c r="A284">
+      <c r="A284" s="17">
         <v>283</v>
       </c>
       <c r="B284" s="13">
@@ -18058,7 +18383,7 @@
       </c>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285">
+      <c r="A285" s="17">
         <v>284</v>
       </c>
       <c r="B285" s="13">
@@ -18075,7 +18400,7 @@
       </c>
     </row>
     <row r="286" spans="1:5">
-      <c r="A286">
+      <c r="A286" s="17">
         <v>285</v>
       </c>
       <c r="B286" s="13">
@@ -18092,7 +18417,7 @@
       </c>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287">
+      <c r="A287" s="17">
         <v>286</v>
       </c>
       <c r="B287" s="13">
@@ -18109,10 +18434,10 @@
       </c>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288">
+      <c r="A288" s="17">
         <v>287</v>
       </c>
-      <c r="B288" s="23">
+      <c r="B288" s="13">
         <v>11741</v>
       </c>
       <c r="C288" s="24" t="s">
@@ -18126,10 +18451,10 @@
       </c>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289">
+      <c r="A289" s="17">
         <v>288</v>
       </c>
-      <c r="B289" s="23">
+      <c r="B289" s="13">
         <v>11742</v>
       </c>
       <c r="C289" s="24" t="s">
@@ -18143,10 +18468,10 @@
       </c>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290">
+      <c r="A290" s="17">
         <v>289</v>
       </c>
-      <c r="B290" s="23">
+      <c r="B290" s="13">
         <v>11743</v>
       </c>
       <c r="C290" s="24" t="s">
@@ -18160,10 +18485,10 @@
       </c>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291">
+      <c r="A291" s="17">
         <v>290</v>
       </c>
-      <c r="B291" s="23">
+      <c r="B291" s="13">
         <v>11744</v>
       </c>
       <c r="C291" s="24" t="s">
@@ -18177,10 +18502,10 @@
       </c>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292">
+      <c r="A292" s="17">
         <v>291</v>
       </c>
-      <c r="B292" s="1">
+      <c r="B292" s="13">
         <v>11751</v>
       </c>
       <c r="C292" s="1" t="s">
@@ -18189,15 +18514,15 @@
       <c r="D292" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E292" s="45" t="s">
+      <c r="E292" s="44" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293">
+      <c r="A293" s="17">
         <v>292</v>
       </c>
-      <c r="B293" s="1">
+      <c r="B293" s="13">
         <v>11752</v>
       </c>
       <c r="C293" s="1" t="s">
@@ -18206,15 +18531,15 @@
       <c r="D293" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E293" s="45" t="s">
+      <c r="E293" s="44" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294">
+      <c r="A294" s="17">
         <v>293</v>
       </c>
-      <c r="B294" s="1">
+      <c r="B294" s="13">
         <v>11753</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -18223,15 +18548,15 @@
       <c r="D294" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E294" s="45" t="s">
+      <c r="E294" s="44" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="295" spans="1:5">
-      <c r="A295">
+      <c r="A295" s="17">
         <v>294</v>
       </c>
-      <c r="B295" s="1">
+      <c r="B295" s="13">
         <v>11754</v>
       </c>
       <c r="C295" s="1" t="s">
@@ -18240,15 +18565,15 @@
       <c r="D295" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E295" s="45" t="s">
+      <c r="E295" s="44" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="296" spans="1:5">
-      <c r="A296">
+      <c r="A296" s="17">
         <v>295</v>
       </c>
-      <c r="B296" s="1">
+      <c r="B296" s="13">
         <v>11755</v>
       </c>
       <c r="C296" s="1" t="s">
@@ -18257,66 +18582,66 @@
       <c r="D296" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E296" s="45" t="s">
+      <c r="E296" s="44" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="16.5">
-      <c r="A297">
+      <c r="A297" s="17">
         <v>296</v>
       </c>
-      <c r="B297" s="1">
+      <c r="B297" s="13">
         <v>11761</v>
       </c>
       <c r="C297" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D297" s="46" t="s">
+      <c r="D297" s="45" t="s">
         <v>499</v>
       </c>
-      <c r="E297" s="45" t="s">
+      <c r="E297" s="44" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="16.5">
-      <c r="A298">
+      <c r="A298" s="17">
         <v>297</v>
       </c>
-      <c r="B298" s="1">
+      <c r="B298" s="13">
         <v>11762</v>
       </c>
       <c r="C298" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="D298" s="46" t="s">
+      <c r="D298" s="45" t="s">
         <v>500</v>
       </c>
-      <c r="E298" s="45" t="s">
+      <c r="E298" s="44" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="16.5">
-      <c r="A299">
+      <c r="A299" s="17">
         <v>298</v>
       </c>
-      <c r="B299" s="1">
+      <c r="B299" s="13">
         <v>11763</v>
       </c>
       <c r="C299" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="D299" s="46" t="s">
+      <c r="D299" s="45" t="s">
         <v>501</v>
       </c>
-      <c r="E299" s="45" t="s">
+      <c r="E299" s="44" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="300" spans="1:5">
-      <c r="A300">
+      <c r="A300" s="17">
         <v>299</v>
       </c>
-      <c r="B300" s="1">
+      <c r="B300" s="13">
         <v>11773</v>
       </c>
       <c r="C300" s="3" t="s">
@@ -18325,15 +18650,15 @@
       <c r="D300" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E300" s="45" t="s">
+      <c r="E300" s="44" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="301" spans="1:5">
-      <c r="A301">
+      <c r="A301" s="17">
         <v>300</v>
       </c>
-      <c r="B301" s="1">
+      <c r="B301" s="13">
         <v>11774</v>
       </c>
       <c r="C301" s="3" t="s">
@@ -18342,15 +18667,15 @@
       <c r="D301" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E301" s="45" t="s">
+      <c r="E301" s="44" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="302" spans="1:5">
-      <c r="A302">
+      <c r="A302" s="17">
         <v>301</v>
       </c>
-      <c r="B302" s="1">
+      <c r="B302" s="13">
         <v>11775</v>
       </c>
       <c r="C302" s="3" t="s">
@@ -18359,15 +18684,15 @@
       <c r="D302" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E302" s="45" t="s">
+      <c r="E302" s="44" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="303" spans="1:5">
-      <c r="A303">
+      <c r="A303" s="17">
         <v>302</v>
       </c>
-      <c r="B303" s="1">
+      <c r="B303" s="13">
         <v>11776</v>
       </c>
       <c r="C303" s="3" t="s">
@@ -18376,15 +18701,15 @@
       <c r="D303" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E303" s="45" t="s">
+      <c r="E303" s="44" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="304" spans="1:5">
-      <c r="A304">
+      <c r="A304" s="17">
         <v>303</v>
       </c>
-      <c r="B304" s="1">
+      <c r="B304" s="13">
         <v>11777</v>
       </c>
       <c r="C304" s="3" t="s">
@@ -18393,15 +18718,15 @@
       <c r="D304" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="E304" s="45" t="s">
+      <c r="E304" s="44" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="305" spans="1:5">
-      <c r="A305">
+      <c r="A305" s="17">
         <v>304</v>
       </c>
-      <c r="B305" s="1">
+      <c r="B305" s="13">
         <v>11778</v>
       </c>
       <c r="C305" s="3" t="s">
@@ -18409,10 +18734,10 @@
       </c>
     </row>
     <row r="306" spans="1:5">
-      <c r="A306">
+      <c r="A306" s="17">
         <v>305</v>
       </c>
-      <c r="B306" s="1">
+      <c r="B306" s="13">
         <v>11779</v>
       </c>
       <c r="C306" s="3" t="s">
@@ -18421,15 +18746,15 @@
       <c r="D306" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E306" s="45" t="s">
+      <c r="E306" s="44" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="307" spans="1:5">
-      <c r="A307">
+      <c r="A307" s="17">
         <v>306</v>
       </c>
-      <c r="B307" s="1">
+      <c r="B307" s="13">
         <v>11780</v>
       </c>
       <c r="C307" s="3" t="s">
@@ -18438,15 +18763,15 @@
       <c r="D307" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E307" s="45" t="s">
+      <c r="E307" s="44" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="308" spans="1:5">
-      <c r="A308">
+      <c r="A308" s="17">
         <v>307</v>
       </c>
-      <c r="B308" s="1">
+      <c r="B308" s="13">
         <v>11781</v>
       </c>
       <c r="C308" s="3" t="s">
@@ -18455,15 +18780,15 @@
       <c r="D308" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E308" s="45" t="s">
+      <c r="E308" s="44" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="309" spans="1:5">
-      <c r="A309">
+      <c r="A309" s="17">
         <v>308</v>
       </c>
-      <c r="B309" s="1">
+      <c r="B309" s="13">
         <v>11782</v>
       </c>
       <c r="C309" s="3" t="s">
@@ -18472,15 +18797,15 @@
       <c r="D309" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E309" s="45" t="s">
+      <c r="E309" s="44" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="310" spans="1:5">
-      <c r="A310">
+      <c r="A310" s="17">
         <v>309</v>
       </c>
-      <c r="B310" s="1">
+      <c r="B310" s="13">
         <v>11783</v>
       </c>
       <c r="C310" s="3" t="s">
@@ -18489,15 +18814,15 @@
       <c r="D310" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E310" s="45" t="s">
+      <c r="E310" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="311" spans="1:5">
-      <c r="A311">
+      <c r="A311" s="17">
         <v>310</v>
       </c>
-      <c r="B311" s="1">
+      <c r="B311" s="13">
         <v>11784</v>
       </c>
       <c r="C311" s="3" t="s">
@@ -18506,15 +18831,15 @@
       <c r="D311" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E311" s="45" t="s">
+      <c r="E311" s="44" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="312" spans="1:5">
-      <c r="A312">
+      <c r="A312" s="17">
         <v>311</v>
       </c>
-      <c r="B312" s="1">
+      <c r="B312" s="13">
         <v>11785</v>
       </c>
       <c r="C312" s="3" t="s">
@@ -18523,15 +18848,15 @@
       <c r="D312" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E312" s="45" t="s">
+      <c r="E312" s="44" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="313" spans="1:5">
-      <c r="A313">
+      <c r="A313" s="17">
         <v>312</v>
       </c>
-      <c r="B313" s="1">
+      <c r="B313" s="13">
         <v>11786</v>
       </c>
       <c r="C313" s="3" t="s">
@@ -18540,15 +18865,15 @@
       <c r="D313" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E313" s="45" t="s">
+      <c r="E313" s="44" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="314" spans="1:5">
-      <c r="A314">
+      <c r="A314" s="17">
         <v>313</v>
       </c>
-      <c r="B314" s="1">
+      <c r="B314" s="13">
         <v>11787</v>
       </c>
       <c r="C314" s="3" t="s">
@@ -18557,15 +18882,15 @@
       <c r="D314" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E314" s="45" t="s">
+      <c r="E314" s="44" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="315" spans="1:5">
-      <c r="A315">
+      <c r="A315" s="17">
         <v>314</v>
       </c>
-      <c r="B315" s="1">
+      <c r="B315" s="13">
         <v>11788</v>
       </c>
       <c r="C315" s="3" t="s">
@@ -18574,15 +18899,15 @@
       <c r="D315" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E315" s="45" t="s">
+      <c r="E315" s="44" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="316" spans="1:5">
-      <c r="A316">
+      <c r="A316" s="17">
         <v>315</v>
       </c>
-      <c r="B316" s="1">
+      <c r="B316" s="13">
         <v>11789</v>
       </c>
       <c r="C316" s="3" t="s">
@@ -18591,15 +18916,15 @@
       <c r="D316" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E316" s="45" t="s">
+      <c r="E316" s="44" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="317" spans="1:5">
-      <c r="A317">
+      <c r="A317" s="17">
         <v>316</v>
       </c>
-      <c r="B317" s="1">
+      <c r="B317" s="13">
         <v>11790</v>
       </c>
       <c r="C317" s="3" t="s">
@@ -18608,15 +18933,15 @@
       <c r="D317" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E317" s="45" t="s">
+      <c r="E317" s="44" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="318" spans="1:5">
-      <c r="A318">
+      <c r="A318" s="17">
         <v>317</v>
       </c>
-      <c r="B318" s="1">
+      <c r="B318" s="13">
         <v>11791</v>
       </c>
       <c r="C318" s="3" t="s">
@@ -18625,15 +18950,15 @@
       <c r="D318" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E318" s="45" t="s">
+      <c r="E318" s="44" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="319" spans="1:5">
-      <c r="A319">
+      <c r="A319" s="17">
         <v>318</v>
       </c>
-      <c r="B319" s="1">
+      <c r="B319" s="13">
         <v>11792</v>
       </c>
       <c r="C319" s="3" t="s">
@@ -18642,15 +18967,15 @@
       <c r="D319" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E319" s="45" t="s">
+      <c r="E319" s="44" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="320" spans="1:5">
-      <c r="A320">
+      <c r="A320" s="17">
         <v>319</v>
       </c>
-      <c r="B320" s="1">
+      <c r="B320" s="13">
         <v>11793</v>
       </c>
       <c r="C320" s="3" t="s">
@@ -18659,15 +18984,15 @@
       <c r="D320" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E320" s="45" t="s">
+      <c r="E320" s="44" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="321" spans="1:5">
-      <c r="A321">
+      <c r="A321" s="17">
         <v>320</v>
       </c>
-      <c r="B321" s="1">
+      <c r="B321" s="13">
         <v>11794</v>
       </c>
       <c r="C321" s="3" t="s">
@@ -18676,15 +19001,15 @@
       <c r="D321" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E321" s="45" t="s">
+      <c r="E321" s="44" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="322" spans="1:5">
-      <c r="A322">
+      <c r="A322" s="17">
         <v>321</v>
       </c>
-      <c r="B322" s="1">
+      <c r="B322" s="13">
         <v>11795</v>
       </c>
       <c r="C322" s="3" t="s">
@@ -18693,15 +19018,15 @@
       <c r="D322" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E322" s="45" t="s">
+      <c r="E322" s="44" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="323" spans="1:5">
-      <c r="A323">
+      <c r="A323" s="17">
         <v>322</v>
       </c>
-      <c r="B323" s="1">
+      <c r="B323" s="13">
         <v>11796</v>
       </c>
       <c r="C323" s="3" t="s">
@@ -18710,15 +19035,15 @@
       <c r="D323" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E323" s="45" t="s">
+      <c r="E323" s="44" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="324" spans="1:5">
-      <c r="A324">
+      <c r="A324" s="17">
         <v>323</v>
       </c>
-      <c r="B324" s="1">
+      <c r="B324" s="13">
         <v>11797</v>
       </c>
       <c r="C324" s="3" t="s">
@@ -18727,15 +19052,15 @@
       <c r="D324" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E324" s="45" t="s">
+      <c r="E324" s="44" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="325" spans="1:5">
-      <c r="A325">
+      <c r="A325" s="17">
         <v>324</v>
       </c>
-      <c r="B325" s="1">
+      <c r="B325" s="13">
         <v>11798</v>
       </c>
       <c r="C325" s="3" t="s">
@@ -18744,15 +19069,15 @@
       <c r="D325" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E325" s="45" t="s">
+      <c r="E325" s="44" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="326" spans="1:5">
-      <c r="A326">
+      <c r="A326" s="17">
         <v>325</v>
       </c>
-      <c r="B326" s="1">
+      <c r="B326" s="13">
         <v>11799</v>
       </c>
       <c r="C326" s="3" t="s">
@@ -18761,15 +19086,15 @@
       <c r="D326" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E326" s="45" t="s">
+      <c r="E326" s="44" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="327" spans="1:5">
-      <c r="A327">
+      <c r="A327" s="17">
         <v>326</v>
       </c>
-      <c r="B327" s="1">
+      <c r="B327" s="13">
         <v>11800</v>
       </c>
       <c r="C327" s="3" t="s">
@@ -18778,15 +19103,15 @@
       <c r="D327" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E327" s="45" t="s">
+      <c r="E327" s="44" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="328" spans="1:5">
-      <c r="A328">
+      <c r="A328" s="17">
         <v>327</v>
       </c>
-      <c r="B328" s="1">
+      <c r="B328" s="13">
         <v>11801</v>
       </c>
       <c r="C328" s="3" t="s">
@@ -18795,15 +19120,15 @@
       <c r="D328" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E328" s="45" t="s">
+      <c r="E328" s="44" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="329" spans="1:5">
-      <c r="A329">
+      <c r="A329" s="17">
         <v>328</v>
       </c>
-      <c r="B329" s="1">
+      <c r="B329" s="13">
         <v>11802</v>
       </c>
       <c r="C329" s="3" t="s">
@@ -18812,15 +19137,15 @@
       <c r="D329" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E329" s="45" t="s">
+      <c r="E329" s="44" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="330" spans="1:5">
-      <c r="A330">
+      <c r="A330" s="17">
         <v>329</v>
       </c>
-      <c r="B330" s="1">
+      <c r="B330" s="13">
         <v>11803</v>
       </c>
       <c r="C330" s="3" t="s">
@@ -18829,15 +19154,15 @@
       <c r="D330" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E330" s="45" t="s">
+      <c r="E330" s="44" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="331" spans="1:5">
-      <c r="A331">
+      <c r="A331" s="17">
         <v>330</v>
       </c>
-      <c r="B331" s="1">
+      <c r="B331" s="13">
         <v>11804</v>
       </c>
       <c r="C331" s="3" t="s">
@@ -18846,15 +19171,15 @@
       <c r="D331" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E331" s="45" t="s">
+      <c r="E331" s="44" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="332" spans="1:5">
-      <c r="A332">
+      <c r="A332" s="17">
         <v>331</v>
       </c>
-      <c r="B332" s="1">
+      <c r="B332" s="13">
         <v>11805</v>
       </c>
       <c r="C332" s="3" t="s">
@@ -18863,15 +19188,15 @@
       <c r="D332" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E332" s="45" t="s">
+      <c r="E332" s="44" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="333" spans="1:5">
-      <c r="A333">
+      <c r="A333" s="17">
         <v>332</v>
       </c>
-      <c r="B333" s="1">
+      <c r="B333" s="13">
         <v>11806</v>
       </c>
       <c r="C333" s="3" t="s">
@@ -18880,15 +19205,15 @@
       <c r="D333" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E333" s="45" t="s">
+      <c r="E333" s="44" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="334" spans="1:5">
-      <c r="A334">
+      <c r="A334" s="17">
         <v>333</v>
       </c>
-      <c r="B334" s="1">
+      <c r="B334" s="13">
         <v>11807</v>
       </c>
       <c r="C334" s="3" t="s">
@@ -18897,15 +19222,15 @@
       <c r="D334" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E334" s="45" t="s">
+      <c r="E334" s="44" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="335" spans="1:5">
-      <c r="A335">
+      <c r="A335" s="17">
         <v>334</v>
       </c>
-      <c r="B335" s="1">
+      <c r="B335" s="13">
         <v>11808</v>
       </c>
       <c r="C335" s="3" t="s">
@@ -18914,15 +19239,15 @@
       <c r="D335" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E335" s="45" t="s">
+      <c r="E335" s="44" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="336" spans="1:5">
-      <c r="A336">
+      <c r="A336" s="17">
         <v>335</v>
       </c>
-      <c r="B336" s="1">
+      <c r="B336" s="13">
         <v>11809</v>
       </c>
       <c r="C336" s="3" t="s">
@@ -18931,15 +19256,15 @@
       <c r="D336" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E336" s="45" t="s">
+      <c r="E336" s="44" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="337" spans="1:5">
-      <c r="A337">
+      <c r="A337" s="17">
         <v>336</v>
       </c>
-      <c r="B337" s="1">
+      <c r="B337" s="13">
         <v>11810</v>
       </c>
       <c r="C337" s="3" t="s">
@@ -18948,15 +19273,15 @@
       <c r="D337" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E337" s="45" t="s">
+      <c r="E337" s="44" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="338" spans="1:5">
-      <c r="A338">
+      <c r="A338" s="17">
         <v>337</v>
       </c>
-      <c r="B338" s="1">
+      <c r="B338" s="13">
         <v>11811</v>
       </c>
       <c r="C338" s="3" t="s">
@@ -18965,15 +19290,15 @@
       <c r="D338" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E338" s="45" t="s">
+      <c r="E338" s="44" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="339" spans="1:5">
-      <c r="A339">
+      <c r="A339" s="17">
         <v>338</v>
       </c>
-      <c r="B339" s="1">
+      <c r="B339" s="13">
         <v>11812</v>
       </c>
       <c r="C339" s="3" t="s">
@@ -18982,15 +19307,15 @@
       <c r="D339" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E339" s="45" t="s">
+      <c r="E339" s="44" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="340" spans="1:5">
-      <c r="A340">
+      <c r="A340" s="17">
         <v>339</v>
       </c>
-      <c r="B340" s="1">
+      <c r="B340" s="13">
         <v>11813</v>
       </c>
       <c r="C340" s="3" t="s">
@@ -18999,15 +19324,15 @@
       <c r="D340" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E340" s="45" t="s">
+      <c r="E340" s="44" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="341" spans="1:5">
-      <c r="A341">
+      <c r="A341" s="17">
         <v>340</v>
       </c>
-      <c r="B341" s="1">
+      <c r="B341" s="13">
         <v>11814</v>
       </c>
       <c r="C341" s="3" t="s">
@@ -19016,7 +19341,7 @@
       <c r="D341" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E341" s="45" t="s">
+      <c r="E341" s="44" t="s">
         <v>574</v>
       </c>
     </row>
@@ -19169,1208 +19494,1306 @@
       <c r="D350" s="13"/>
       <c r="E350" s="33"/>
     </row>
-    <row r="351" spans="1:5" s="53" customFormat="1">
-      <c r="A351" s="53">
+    <row r="351" spans="1:5" s="52" customFormat="1">
+      <c r="A351" s="17">
         <v>350</v>
       </c>
-      <c r="B351" s="54">
+      <c r="B351" s="13">
         <v>11824</v>
       </c>
-      <c r="C351" s="54" t="s">
+      <c r="C351" s="53" t="s">
         <v>613</v>
       </c>
-      <c r="D351" s="55" t="s">
+      <c r="D351" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="E351" s="57" t="s">
+      <c r="E351" s="56" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="352" spans="1:5" s="53" customFormat="1">
-      <c r="A352" s="53">
+    <row r="352" spans="1:5" s="52" customFormat="1">
+      <c r="A352" s="17">
         <v>351</v>
       </c>
-      <c r="B352" s="54">
+      <c r="B352" s="13">
         <v>11825</v>
       </c>
-      <c r="C352" s="55" t="s">
+      <c r="C352" s="54" t="s">
         <v>614</v>
       </c>
-      <c r="D352" s="55" t="s">
+      <c r="D352" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="E352" s="57" t="s">
+      <c r="E352" s="56" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="353" spans="1:5" s="53" customFormat="1">
-      <c r="A353" s="53">
+    <row r="353" spans="1:5" s="52" customFormat="1">
+      <c r="A353" s="17">
         <v>352</v>
       </c>
-      <c r="B353" s="54">
+      <c r="B353" s="13">
         <v>11826</v>
       </c>
-      <c r="C353" s="55" t="s">
+      <c r="C353" s="54" t="s">
         <v>615</v>
       </c>
-      <c r="D353" s="55" t="s">
+      <c r="D353" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="E353" s="57" t="s">
+      <c r="E353" s="56" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="354" spans="1:5" s="53" customFormat="1">
-      <c r="A354" s="53">
+    <row r="354" spans="1:5" s="52" customFormat="1">
+      <c r="A354" s="17">
         <v>353</v>
       </c>
-      <c r="B354" s="54">
+      <c r="B354" s="13">
         <v>11827</v>
       </c>
-      <c r="C354" s="55" t="s">
+      <c r="C354" s="54" t="s">
         <v>616</v>
       </c>
-      <c r="D354" s="55" t="s">
+      <c r="D354" s="54" t="s">
         <v>663</v>
       </c>
-      <c r="E354" s="57" t="s">
+      <c r="E354" s="56" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="355" spans="1:5" s="53" customFormat="1">
-      <c r="A355" s="53">
+    <row r="355" spans="1:5" s="52" customFormat="1">
+      <c r="A355" s="17">
         <v>354</v>
       </c>
-      <c r="B355" s="54">
+      <c r="B355" s="13">
         <v>11828</v>
       </c>
-      <c r="C355" s="55" t="s">
+      <c r="C355" s="54" t="s">
         <v>617</v>
       </c>
-      <c r="D355" s="54" t="s">
+      <c r="D355" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E355" s="57" t="s">
+      <c r="E355" s="56" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="356" spans="1:5" s="53" customFormat="1">
-      <c r="A356" s="53">
+    <row r="356" spans="1:5" s="52" customFormat="1">
+      <c r="A356" s="17">
         <v>355</v>
       </c>
-      <c r="B356" s="54">
+      <c r="B356" s="13">
         <v>11829</v>
       </c>
-      <c r="C356" s="55" t="s">
+      <c r="C356" s="54" t="s">
         <v>618</v>
       </c>
-      <c r="D356" s="54" t="s">
+      <c r="D356" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E356" s="57" t="s">
+      <c r="E356" s="56" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="357" spans="1:5" s="53" customFormat="1">
-      <c r="A357" s="53">
+    <row r="357" spans="1:5" s="52" customFormat="1">
+      <c r="A357" s="17">
         <v>356</v>
       </c>
-      <c r="B357" s="54">
+      <c r="B357" s="13">
         <v>11830</v>
       </c>
-      <c r="C357" s="55" t="s">
+      <c r="C357" s="54" t="s">
         <v>619</v>
       </c>
-      <c r="D357" s="55" t="s">
+      <c r="D357" s="54" t="s">
         <v>664</v>
       </c>
-      <c r="E357" s="57" t="s">
+      <c r="E357" s="56" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="358" spans="1:5" s="53" customFormat="1">
-      <c r="A358" s="53">
+    <row r="358" spans="1:5" s="52" customFormat="1">
+      <c r="A358" s="17">
         <v>357</v>
       </c>
-      <c r="B358" s="54">
+      <c r="B358" s="13">
         <v>11831</v>
       </c>
-      <c r="C358" s="55" t="s">
+      <c r="C358" s="54" t="s">
         <v>620</v>
       </c>
-      <c r="D358" s="55" t="s">
+      <c r="D358" s="54" t="s">
         <v>665</v>
       </c>
-      <c r="E358" s="57" t="s">
+      <c r="E358" s="56" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="359" spans="1:5" s="53" customFormat="1">
-      <c r="A359" s="53">
+    <row r="359" spans="1:5" s="52" customFormat="1">
+      <c r="A359" s="17">
         <v>358</v>
       </c>
-      <c r="B359" s="54">
+      <c r="B359" s="13">
         <v>11832</v>
       </c>
-      <c r="C359" s="55" t="s">
+      <c r="C359" s="54" t="s">
         <v>621</v>
       </c>
-      <c r="D359" s="55" t="s">
+      <c r="D359" s="54" t="s">
         <v>664</v>
       </c>
-      <c r="E359" s="57" t="s">
+      <c r="E359" s="56" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="360" spans="1:5" s="47" customFormat="1">
-      <c r="A360" s="47">
+    <row r="360" spans="1:5" s="46" customFormat="1">
+      <c r="A360" s="17">
         <v>359</v>
       </c>
-      <c r="B360" s="48">
+      <c r="B360" s="13">
         <v>11833</v>
       </c>
-      <c r="C360" s="56" t="s">
+      <c r="C360" s="55" t="s">
         <v>622</v>
       </c>
-      <c r="D360" s="56" t="s">
+      <c r="D360" s="55" t="s">
         <v>640</v>
       </c>
-      <c r="E360" s="58" t="s">
+      <c r="E360" s="57" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="361" spans="1:5" s="47" customFormat="1">
-      <c r="A361" s="47">
+    <row r="361" spans="1:5" s="46" customFormat="1">
+      <c r="A361" s="17">
         <v>360</v>
       </c>
-      <c r="B361" s="48">
+      <c r="B361" s="13">
         <v>11834</v>
       </c>
-      <c r="C361" s="56" t="s">
+      <c r="C361" s="55" t="s">
         <v>623</v>
       </c>
-      <c r="D361" s="56" t="s">
+      <c r="D361" s="55" t="s">
         <v>640</v>
       </c>
-      <c r="E361" s="58" t="s">
+      <c r="E361" s="57" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="362" spans="1:5" s="47" customFormat="1">
-      <c r="A362" s="47">
+    <row r="362" spans="1:5" s="46" customFormat="1">
+      <c r="A362" s="17">
         <v>361</v>
       </c>
-      <c r="B362" s="48">
+      <c r="B362" s="13">
         <v>11835</v>
       </c>
-      <c r="C362" s="56" t="s">
+      <c r="C362" s="55" t="s">
         <v>624</v>
       </c>
-      <c r="D362" s="56" t="s">
+      <c r="D362" s="55" t="s">
         <v>640</v>
       </c>
-      <c r="E362" s="58" t="s">
+      <c r="E362" s="57" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="363" spans="1:5" s="47" customFormat="1">
-      <c r="A363" s="47">
+    <row r="363" spans="1:5" s="46" customFormat="1">
+      <c r="A363" s="17">
         <v>362</v>
       </c>
-      <c r="B363" s="48">
+      <c r="B363" s="13">
         <v>11836</v>
       </c>
-      <c r="C363" s="56" t="s">
+      <c r="C363" s="55" t="s">
         <v>625</v>
       </c>
-      <c r="D363" s="56" t="s">
+      <c r="D363" s="55" t="s">
         <v>663</v>
       </c>
-      <c r="E363" s="58" t="s">
+      <c r="E363" s="57" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="364" spans="1:5" s="47" customFormat="1">
-      <c r="A364" s="47">
+    <row r="364" spans="1:5" s="46" customFormat="1">
+      <c r="A364" s="17">
         <v>363</v>
       </c>
-      <c r="B364" s="48">
+      <c r="B364" s="13">
         <v>11837</v>
       </c>
-      <c r="C364" s="56" t="s">
+      <c r="C364" s="55" t="s">
         <v>626</v>
       </c>
-      <c r="D364" s="48" t="s">
+      <c r="D364" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E364" s="58" t="s">
+      <c r="E364" s="57" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="365" spans="1:5" s="47" customFormat="1">
-      <c r="A365" s="47">
+    <row r="365" spans="1:5" s="46" customFormat="1">
+      <c r="A365" s="17">
         <v>364</v>
       </c>
-      <c r="B365" s="48">
+      <c r="B365" s="13">
         <v>11838</v>
       </c>
-      <c r="C365" s="56" t="s">
+      <c r="C365" s="55" t="s">
         <v>627</v>
       </c>
-      <c r="D365" s="48" t="s">
+      <c r="D365" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E365" s="58" t="s">
+      <c r="E365" s="57" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="366" spans="1:5" s="47" customFormat="1">
-      <c r="A366" s="47">
+    <row r="366" spans="1:5" s="46" customFormat="1">
+      <c r="A366" s="17">
         <v>365</v>
       </c>
-      <c r="B366" s="48">
+      <c r="B366" s="13">
         <v>11839</v>
       </c>
-      <c r="C366" s="56" t="s">
+      <c r="C366" s="55" t="s">
         <v>628</v>
       </c>
-      <c r="D366" s="56" t="s">
+      <c r="D366" s="55" t="s">
         <v>664</v>
       </c>
-      <c r="E366" s="58" t="s">
+      <c r="E366" s="57" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="367" spans="1:5" s="47" customFormat="1">
-      <c r="A367" s="47">
+    <row r="367" spans="1:5" s="46" customFormat="1">
+      <c r="A367" s="17">
         <v>366</v>
       </c>
-      <c r="B367" s="48">
+      <c r="B367" s="13">
         <v>11840</v>
       </c>
-      <c r="C367" s="56" t="s">
+      <c r="C367" s="55" t="s">
         <v>629</v>
       </c>
-      <c r="D367" s="56" t="s">
+      <c r="D367" s="55" t="s">
         <v>665</v>
       </c>
-      <c r="E367" s="58" t="s">
+      <c r="E367" s="57" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="368" spans="1:5" s="47" customFormat="1">
-      <c r="A368" s="47">
+    <row r="368" spans="1:5" s="46" customFormat="1">
+      <c r="A368" s="17">
         <v>367</v>
       </c>
-      <c r="B368" s="48">
+      <c r="B368" s="13">
         <v>11841</v>
       </c>
-      <c r="C368" s="56" t="s">
+      <c r="C368" s="55" t="s">
         <v>630</v>
       </c>
-      <c r="D368" s="56" t="s">
+      <c r="D368" s="55" t="s">
         <v>664</v>
       </c>
-      <c r="E368" s="58" t="s">
+      <c r="E368" s="57" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="369" spans="1:5" s="53" customFormat="1">
-      <c r="A369" s="53">
+    <row r="369" spans="1:5" s="52" customFormat="1">
+      <c r="A369" s="17">
         <v>368</v>
       </c>
-      <c r="B369" s="54">
+      <c r="B369" s="13">
         <v>11842</v>
       </c>
-      <c r="C369" s="55" t="s">
+      <c r="C369" s="54" t="s">
         <v>631</v>
       </c>
-      <c r="D369" s="55" t="s">
+      <c r="D369" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="E369" s="57" t="s">
+      <c r="E369" s="56" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="370" spans="1:5" s="53" customFormat="1">
-      <c r="A370" s="53">
+    <row r="370" spans="1:5" s="52" customFormat="1">
+      <c r="A370" s="17">
         <v>369</v>
       </c>
-      <c r="B370" s="54">
+      <c r="B370" s="13">
         <v>11843</v>
       </c>
-      <c r="C370" s="55" t="s">
+      <c r="C370" s="54" t="s">
         <v>632</v>
       </c>
-      <c r="D370" s="55" t="s">
+      <c r="D370" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="E370" s="57" t="s">
+      <c r="E370" s="56" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="371" spans="1:5" s="53" customFormat="1">
-      <c r="A371" s="53">
+    <row r="371" spans="1:5" s="52" customFormat="1">
+      <c r="A371" s="17">
         <v>370</v>
       </c>
-      <c r="B371" s="54">
+      <c r="B371" s="13">
         <v>11844</v>
       </c>
-      <c r="C371" s="55" t="s">
+      <c r="C371" s="54" t="s">
         <v>633</v>
       </c>
-      <c r="D371" s="55" t="s">
+      <c r="D371" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="E371" s="57" t="s">
+      <c r="E371" s="56" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="372" spans="1:5" s="53" customFormat="1">
-      <c r="A372" s="53">
+    <row r="372" spans="1:5" s="52" customFormat="1">
+      <c r="A372" s="17">
         <v>371</v>
       </c>
-      <c r="B372" s="54">
+      <c r="B372" s="13">
         <v>11845</v>
       </c>
-      <c r="C372" s="55" t="s">
+      <c r="C372" s="54" t="s">
         <v>634</v>
       </c>
-      <c r="D372" s="55" t="s">
+      <c r="D372" s="54" t="s">
         <v>663</v>
       </c>
-      <c r="E372" s="57" t="s">
+      <c r="E372" s="56" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="373" spans="1:5" s="53" customFormat="1">
-      <c r="A373" s="53">
+    <row r="373" spans="1:5" s="52" customFormat="1">
+      <c r="A373" s="17">
         <v>372</v>
       </c>
-      <c r="B373" s="54">
+      <c r="B373" s="13">
         <v>11846</v>
       </c>
-      <c r="C373" s="55" t="s">
+      <c r="C373" s="54" t="s">
         <v>635</v>
       </c>
-      <c r="D373" s="54" t="s">
+      <c r="D373" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E373" s="57" t="s">
+      <c r="E373" s="56" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="374" spans="1:5" s="53" customFormat="1">
-      <c r="A374" s="53">
+    <row r="374" spans="1:5" s="52" customFormat="1">
+      <c r="A374" s="17">
         <v>373</v>
       </c>
-      <c r="B374" s="54">
+      <c r="B374" s="13">
         <v>11847</v>
       </c>
-      <c r="C374" s="55" t="s">
+      <c r="C374" s="54" t="s">
         <v>636</v>
       </c>
-      <c r="D374" s="54" t="s">
+      <c r="D374" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E374" s="57" t="s">
+      <c r="E374" s="56" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="375" spans="1:5" s="53" customFormat="1">
-      <c r="A375" s="53">
+    <row r="375" spans="1:5" s="52" customFormat="1">
+      <c r="A375" s="17">
         <v>374</v>
       </c>
-      <c r="B375" s="54">
+      <c r="B375" s="13">
         <v>11848</v>
       </c>
-      <c r="C375" s="55" t="s">
+      <c r="C375" s="54" t="s">
         <v>637</v>
       </c>
-      <c r="D375" s="55" t="s">
+      <c r="D375" s="54" t="s">
         <v>664</v>
       </c>
-      <c r="E375" s="57" t="s">
+      <c r="E375" s="56" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="376" spans="1:5" s="53" customFormat="1">
-      <c r="A376" s="53">
+    <row r="376" spans="1:5" s="52" customFormat="1">
+      <c r="A376" s="17">
         <v>375</v>
       </c>
-      <c r="B376" s="54">
+      <c r="B376" s="13">
         <v>11849</v>
       </c>
-      <c r="C376" s="55" t="s">
+      <c r="C376" s="54" t="s">
         <v>638</v>
       </c>
-      <c r="D376" s="55" t="s">
+      <c r="D376" s="54" t="s">
         <v>665</v>
       </c>
-      <c r="E376" s="57" t="s">
+      <c r="E376" s="56" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="377" spans="1:5" s="53" customFormat="1">
-      <c r="A377" s="53">
+    <row r="377" spans="1:5" s="52" customFormat="1">
+      <c r="A377" s="17">
         <v>376</v>
       </c>
-      <c r="B377" s="54">
+      <c r="B377" s="13">
         <v>11850</v>
       </c>
-      <c r="C377" s="55" t="s">
+      <c r="C377" s="54" t="s">
         <v>639</v>
       </c>
-      <c r="D377" s="55" t="s">
+      <c r="D377" s="54" t="s">
         <v>664</v>
       </c>
-      <c r="E377" s="57" t="s">
+      <c r="E377" s="56" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="378" spans="1:5" s="66" customFormat="1">
-      <c r="A378" s="66">
+    <row r="378" spans="1:5" s="65" customFormat="1">
+      <c r="A378" s="17">
         <v>377</v>
       </c>
-      <c r="B378" s="64">
+      <c r="B378" s="13">
         <v>11851</v>
       </c>
-      <c r="C378" s="64" t="s">
+      <c r="C378" s="63" t="s">
         <v>595</v>
       </c>
-      <c r="D378" s="64" t="s">
+      <c r="D378" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="E378" s="67" t="s">
+      <c r="E378" s="66" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="379" spans="1:5" s="66" customFormat="1">
-      <c r="A379" s="66">
+    <row r="379" spans="1:5" s="65" customFormat="1">
+      <c r="A379" s="17">
         <v>378</v>
       </c>
-      <c r="B379" s="64">
+      <c r="B379" s="13">
         <v>11852</v>
       </c>
-      <c r="C379" s="68" t="s">
+      <c r="C379" s="67" t="s">
         <v>508</v>
       </c>
-      <c r="D379" s="68" t="s">
+      <c r="D379" s="67" t="s">
         <v>601</v>
       </c>
-      <c r="E379" s="67" t="s">
+      <c r="E379" s="66" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="380" spans="1:5" s="66" customFormat="1">
-      <c r="A380" s="66">
+    <row r="380" spans="1:5" s="65" customFormat="1">
+      <c r="A380" s="17">
         <v>379</v>
       </c>
-      <c r="B380" s="64">
+      <c r="B380" s="13">
         <v>11853</v>
       </c>
-      <c r="C380" s="68" t="s">
+      <c r="C380" s="67" t="s">
         <v>442</v>
       </c>
-      <c r="D380" s="64" t="s">
+      <c r="D380" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="E380" s="67" t="s">
+      <c r="E380" s="66" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="381" spans="1:5" s="66" customFormat="1">
-      <c r="A381" s="66">
+    <row r="381" spans="1:5" s="65" customFormat="1">
+      <c r="A381" s="17">
         <v>380</v>
       </c>
-      <c r="B381" s="64">
+      <c r="B381" s="13">
         <v>11854</v>
       </c>
-      <c r="C381" s="68" t="s">
+      <c r="C381" s="67" t="s">
         <v>483</v>
       </c>
-      <c r="D381" s="68" t="s">
+      <c r="D381" s="67" t="s">
         <v>601</v>
       </c>
-      <c r="E381" s="67" t="s">
+      <c r="E381" s="66" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="382" spans="1:5" s="66" customFormat="1">
-      <c r="A382" s="66">
+    <row r="382" spans="1:5" s="65" customFormat="1">
+      <c r="A382" s="17">
         <v>381</v>
       </c>
-      <c r="B382" s="64">
+      <c r="B382" s="13">
         <v>11855</v>
       </c>
-      <c r="C382" s="68" t="s">
+      <c r="C382" s="67" t="s">
         <v>445</v>
       </c>
-      <c r="D382" s="68" t="s">
+      <c r="D382" s="67" t="s">
         <v>513</v>
       </c>
-      <c r="E382" s="67" t="s">
+      <c r="E382" s="66" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="383" spans="1:5" s="66" customFormat="1">
-      <c r="A383" s="66">
+    <row r="383" spans="1:5" s="65" customFormat="1">
+      <c r="A383" s="17">
         <v>382</v>
       </c>
-      <c r="B383" s="64">
+      <c r="B383" s="13">
         <v>11856</v>
       </c>
-      <c r="C383" s="68" t="s">
+      <c r="C383" s="67" t="s">
         <v>666</v>
       </c>
-      <c r="D383" s="64"/>
-      <c r="E383" s="69"/>
+      <c r="D383" s="63"/>
+      <c r="E383" s="68"/>
     </row>
     <row r="384" spans="1:5" ht="16.5">
-      <c r="A384" s="66">
+      <c r="A384" s="17">
         <v>383</v>
       </c>
-      <c r="B384" s="64">
+      <c r="B384" s="13">
         <v>11857</v>
       </c>
       <c r="C384" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="D384" s="46" t="s">
+      <c r="D384" s="45" t="s">
         <v>675</v>
       </c>
-      <c r="E384" s="45" t="s">
+      <c r="E384" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="16.5">
-      <c r="A385" s="66">
+      <c r="A385" s="17">
         <v>384</v>
       </c>
-      <c r="B385" s="64">
+      <c r="B385" s="13">
         <v>11858</v>
       </c>
       <c r="C385" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="D385" s="46" t="s">
+      <c r="D385" s="45" t="s">
         <v>676</v>
       </c>
-      <c r="E385" s="45" t="s">
+      <c r="E385" s="44" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="386" spans="1:5">
-      <c r="A386" s="77">
+      <c r="A386" s="17">
         <v>385</v>
       </c>
-      <c r="B386" s="76">
+      <c r="B386" s="13">
         <v>11859</v>
       </c>
-      <c r="C386" s="71" t="s">
+      <c r="C386" s="70" t="s">
         <v>528</v>
       </c>
-      <c r="D386" s="76" t="s">
+      <c r="D386" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E386" s="78" t="s">
+      <c r="E386" s="77" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="387" spans="1:5">
-      <c r="A387" s="77">
+      <c r="A387" s="17">
         <v>386</v>
       </c>
-      <c r="B387" s="76">
+      <c r="B387" s="13">
         <v>11860</v>
       </c>
-      <c r="C387" s="71" t="s">
+      <c r="C387" s="70" t="s">
         <v>529</v>
       </c>
-      <c r="D387" s="76" t="s">
+      <c r="D387" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E387" s="78" t="s">
+      <c r="E387" s="77" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="388" spans="1:5">
-      <c r="A388" s="77">
+      <c r="A388" s="17">
         <v>387</v>
       </c>
-      <c r="B388" s="76">
+      <c r="B388" s="13">
         <v>11861</v>
       </c>
-      <c r="C388" s="71" t="s">
+      <c r="C388" s="70" t="s">
         <v>530</v>
       </c>
-      <c r="D388" s="76" t="s">
+      <c r="D388" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E388" s="78" t="s">
+      <c r="E388" s="77" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="389" spans="1:5">
-      <c r="A389" s="77">
+      <c r="A389" s="17">
         <v>388</v>
       </c>
-      <c r="B389" s="76">
+      <c r="B389" s="13">
         <v>11862</v>
       </c>
-      <c r="C389" s="71" t="s">
+      <c r="C389" s="70" t="s">
         <v>531</v>
       </c>
-      <c r="D389" s="76" t="s">
+      <c r="D389" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E389" s="78" t="s">
+      <c r="E389" s="77" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="390" spans="1:5">
-      <c r="A390" s="77">
+      <c r="A390" s="17">
         <v>389</v>
       </c>
-      <c r="B390" s="76">
+      <c r="B390" s="13">
         <v>11863</v>
       </c>
-      <c r="C390" s="71" t="s">
+      <c r="C390" s="70" t="s">
         <v>532</v>
       </c>
-      <c r="D390" s="76" t="s">
+      <c r="D390" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E390" s="78" t="s">
+      <c r="E390" s="77" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="391" spans="1:5">
-      <c r="A391" s="77">
+      <c r="A391" s="17">
         <v>390</v>
       </c>
-      <c r="B391" s="76">
+      <c r="B391" s="13">
         <v>11864</v>
       </c>
-      <c r="C391" s="71" t="s">
+      <c r="C391" s="70" t="s">
         <v>533</v>
       </c>
-      <c r="D391" s="76" t="s">
+      <c r="D391" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E391" s="78" t="s">
+      <c r="E391" s="77" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="392" spans="1:5">
-      <c r="A392" s="77">
+      <c r="A392" s="17">
         <v>391</v>
       </c>
-      <c r="B392" s="76">
+      <c r="B392" s="13">
         <v>11865</v>
       </c>
-      <c r="C392" s="71" t="s">
+      <c r="C392" s="70" t="s">
         <v>534</v>
       </c>
-      <c r="D392" s="76" t="s">
+      <c r="D392" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E392" s="78" t="s">
+      <c r="E392" s="77" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="393" spans="1:5">
-      <c r="A393" s="77">
+      <c r="A393" s="17">
         <v>392</v>
       </c>
-      <c r="B393" s="76">
+      <c r="B393" s="13">
         <v>11866</v>
       </c>
-      <c r="C393" s="71" t="s">
+      <c r="C393" s="70" t="s">
         <v>535</v>
       </c>
-      <c r="D393" s="76" t="s">
+      <c r="D393" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E393" s="78" t="s">
+      <c r="E393" s="77" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="394" spans="1:5">
-      <c r="A394" s="77">
+      <c r="A394" s="17">
         <v>393</v>
       </c>
-      <c r="B394" s="76">
+      <c r="B394" s="13">
         <v>11867</v>
       </c>
-      <c r="C394" s="71" t="s">
+      <c r="C394" s="70" t="s">
         <v>536</v>
       </c>
-      <c r="D394" s="76" t="s">
+      <c r="D394" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E394" s="78" t="s">
+      <c r="E394" s="77" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="395" spans="1:5">
-      <c r="A395" s="77">
+      <c r="A395" s="17">
         <v>394</v>
       </c>
-      <c r="B395" s="76">
+      <c r="B395" s="13">
         <v>11868</v>
       </c>
-      <c r="C395" s="71" t="s">
+      <c r="C395" s="70" t="s">
         <v>537</v>
       </c>
-      <c r="D395" s="76" t="s">
+      <c r="D395" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E395" s="78" t="s">
+      <c r="E395" s="77" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="396" spans="1:5">
-      <c r="A396" s="77">
+      <c r="A396" s="17">
         <v>395</v>
       </c>
-      <c r="B396" s="76">
+      <c r="B396" s="13">
         <v>11869</v>
       </c>
-      <c r="C396" s="71" t="s">
+      <c r="C396" s="70" t="s">
         <v>538</v>
       </c>
-      <c r="D396" s="76" t="s">
+      <c r="D396" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E396" s="78" t="s">
+      <c r="E396" s="77" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="397" spans="1:5">
-      <c r="A397" s="77">
+      <c r="A397" s="17">
         <v>396</v>
       </c>
-      <c r="B397" s="76">
+      <c r="B397" s="13">
         <v>11870</v>
       </c>
-      <c r="C397" s="71" t="s">
+      <c r="C397" s="70" t="s">
         <v>539</v>
       </c>
-      <c r="D397" s="76" t="s">
+      <c r="D397" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E397" s="78" t="s">
+      <c r="E397" s="77" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="398" spans="1:5">
-      <c r="A398" s="77">
+      <c r="A398" s="17">
         <v>397</v>
       </c>
-      <c r="B398" s="76">
+      <c r="B398" s="13">
         <v>11871</v>
       </c>
-      <c r="C398" s="71" t="s">
+      <c r="C398" s="70" t="s">
         <v>539</v>
       </c>
-      <c r="D398" s="76" t="s">
+      <c r="D398" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E398" s="78" t="s">
+      <c r="E398" s="77" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="399" spans="1:5">
-      <c r="A399" s="77">
+      <c r="A399" s="17">
         <v>398</v>
       </c>
-      <c r="B399" s="76">
+      <c r="B399" s="13">
         <v>11872</v>
       </c>
-      <c r="C399" s="71" t="s">
+      <c r="C399" s="70" t="s">
         <v>540</v>
       </c>
-      <c r="D399" s="76" t="s">
+      <c r="D399" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E399" s="78" t="s">
+      <c r="E399" s="77" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="400" spans="1:5">
-      <c r="A400" s="77">
+      <c r="A400" s="17">
         <v>399</v>
       </c>
-      <c r="B400" s="76">
+      <c r="B400" s="13">
         <v>11873</v>
       </c>
-      <c r="C400" s="71" t="s">
+      <c r="C400" s="70" t="s">
         <v>541</v>
       </c>
-      <c r="D400" s="76" t="s">
+      <c r="D400" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E400" s="78" t="s">
+      <c r="E400" s="77" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="401" spans="1:5">
-      <c r="A401" s="77">
+      <c r="A401" s="17">
         <v>400</v>
       </c>
-      <c r="B401" s="76">
+      <c r="B401" s="13">
         <v>11874</v>
       </c>
-      <c r="C401" s="71" t="s">
+      <c r="C401" s="70" t="s">
         <v>542</v>
       </c>
-      <c r="D401" s="76" t="s">
+      <c r="D401" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E401" s="78" t="s">
+      <c r="E401" s="77" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="402" spans="1:5">
-      <c r="A402" s="77">
+      <c r="A402" s="17">
         <v>401</v>
       </c>
-      <c r="B402" s="76">
+      <c r="B402" s="13">
         <v>11875</v>
       </c>
-      <c r="C402" s="71" t="s">
+      <c r="C402" s="70" t="s">
         <v>543</v>
       </c>
-      <c r="D402" s="76" t="s">
+      <c r="D402" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E402" s="78" t="s">
+      <c r="E402" s="77" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="403" spans="1:5">
-      <c r="A403" s="77">
+      <c r="A403" s="17">
         <v>402</v>
       </c>
-      <c r="B403" s="76">
+      <c r="B403" s="13">
         <v>11876</v>
       </c>
-      <c r="C403" s="71" t="s">
+      <c r="C403" s="70" t="s">
         <v>544</v>
       </c>
-      <c r="D403" s="76" t="s">
+      <c r="D403" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E403" s="78" t="s">
+      <c r="E403" s="77" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="404" spans="1:5">
-      <c r="A404" s="77">
+      <c r="A404" s="17">
         <v>403</v>
       </c>
-      <c r="B404" s="76">
+      <c r="B404" s="13">
         <v>11877</v>
       </c>
-      <c r="C404" s="71" t="s">
+      <c r="C404" s="70" t="s">
         <v>545</v>
       </c>
-      <c r="D404" s="76" t="s">
+      <c r="D404" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E404" s="78" t="s">
+      <c r="E404" s="77" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="405" spans="1:5">
-      <c r="A405" s="77">
+      <c r="A405" s="17">
         <v>404</v>
       </c>
-      <c r="B405" s="76">
+      <c r="B405" s="13">
         <v>11878</v>
       </c>
-      <c r="C405" s="71" t="s">
+      <c r="C405" s="70" t="s">
         <v>546</v>
       </c>
-      <c r="D405" s="76" t="s">
+      <c r="D405" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E405" s="78" t="s">
+      <c r="E405" s="77" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="406" spans="1:5">
-      <c r="A406" s="77">
+      <c r="A406" s="17">
         <v>405</v>
       </c>
-      <c r="B406" s="76">
+      <c r="B406" s="13">
         <v>11879</v>
       </c>
-      <c r="C406" s="71" t="s">
+      <c r="C406" s="70" t="s">
         <v>547</v>
       </c>
-      <c r="D406" s="76" t="s">
+      <c r="D406" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E406" s="78" t="s">
+      <c r="E406" s="77" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="407" spans="1:5">
-      <c r="A407" s="77">
+      <c r="A407" s="17">
         <v>406</v>
       </c>
-      <c r="B407" s="76">
+      <c r="B407" s="13">
         <v>11880</v>
       </c>
-      <c r="C407" s="71" t="s">
+      <c r="C407" s="70" t="s">
         <v>548</v>
       </c>
-      <c r="D407" s="76" t="s">
+      <c r="D407" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E407" s="78" t="s">
+      <c r="E407" s="77" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="408" spans="1:5">
-      <c r="A408" s="77">
+      <c r="A408" s="17">
         <v>407</v>
       </c>
-      <c r="B408" s="76">
+      <c r="B408" s="13">
         <v>11881</v>
       </c>
-      <c r="C408" s="71" t="s">
+      <c r="C408" s="70" t="s">
         <v>549</v>
       </c>
-      <c r="D408" s="76" t="s">
+      <c r="D408" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E408" s="78" t="s">
+      <c r="E408" s="77" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="409" spans="1:5">
-      <c r="A409" s="77">
+      <c r="A409" s="17">
         <v>408</v>
       </c>
-      <c r="B409" s="76">
+      <c r="B409" s="13">
         <v>11882</v>
       </c>
-      <c r="C409" s="71" t="s">
+      <c r="C409" s="70" t="s">
         <v>550</v>
       </c>
-      <c r="D409" s="76" t="s">
+      <c r="D409" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E409" s="78" t="s">
+      <c r="E409" s="77" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="410" spans="1:5">
-      <c r="A410" s="77">
+      <c r="A410" s="17">
         <v>409</v>
       </c>
-      <c r="B410" s="76">
+      <c r="B410" s="13">
         <v>11883</v>
       </c>
-      <c r="C410" s="71" t="s">
+      <c r="C410" s="70" t="s">
         <v>551</v>
       </c>
-      <c r="D410" s="76" t="s">
+      <c r="D410" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E410" s="78" t="s">
+      <c r="E410" s="77" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="411" spans="1:5">
-      <c r="A411" s="77">
+      <c r="A411" s="17">
         <v>410</v>
       </c>
-      <c r="B411" s="76">
+      <c r="B411" s="13">
         <v>11884</v>
       </c>
-      <c r="C411" s="71" t="s">
+      <c r="C411" s="70" t="s">
         <v>552</v>
       </c>
-      <c r="D411" s="76" t="s">
+      <c r="D411" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E411" s="78" t="s">
+      <c r="E411" s="77" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="412" spans="1:5">
-      <c r="A412" s="77">
+      <c r="A412" s="17">
         <v>411</v>
       </c>
-      <c r="B412" s="76">
+      <c r="B412" s="13">
         <v>11885</v>
       </c>
-      <c r="C412" s="71" t="s">
+      <c r="C412" s="70" t="s">
         <v>553</v>
       </c>
-      <c r="D412" s="76" t="s">
+      <c r="D412" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E412" s="78" t="s">
+      <c r="E412" s="77" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="413" spans="1:5">
-      <c r="A413" s="77">
+      <c r="A413" s="17">
         <v>412</v>
       </c>
-      <c r="B413" s="76">
+      <c r="B413" s="13">
         <v>11886</v>
       </c>
-      <c r="C413" s="71" t="s">
+      <c r="C413" s="70" t="s">
         <v>554</v>
       </c>
-      <c r="D413" s="76" t="s">
+      <c r="D413" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E413" s="78" t="s">
+      <c r="E413" s="77" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="414" spans="1:5">
-      <c r="A414" s="77">
+      <c r="A414" s="17">
         <v>413</v>
       </c>
-      <c r="B414" s="76">
+      <c r="B414" s="13">
         <v>11887</v>
       </c>
-      <c r="C414" s="71" t="s">
+      <c r="C414" s="70" t="s">
         <v>555</v>
       </c>
-      <c r="D414" s="76" t="s">
+      <c r="D414" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E414" s="78" t="s">
+      <c r="E414" s="77" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="415" spans="1:5">
-      <c r="A415" s="77">
+      <c r="A415" s="17">
         <v>414</v>
       </c>
-      <c r="B415" s="76">
+      <c r="B415" s="13">
         <v>11888</v>
       </c>
-      <c r="C415" s="71" t="s">
+      <c r="C415" s="70" t="s">
         <v>556</v>
       </c>
-      <c r="D415" s="76" t="s">
+      <c r="D415" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E415" s="78" t="s">
+      <c r="E415" s="77" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="416" spans="1:5">
-      <c r="A416" s="77">
+      <c r="A416" s="17">
         <v>415</v>
       </c>
-      <c r="B416" s="76">
+      <c r="B416" s="13">
         <v>11889</v>
       </c>
-      <c r="C416" s="71" t="s">
+      <c r="C416" s="70" t="s">
         <v>557</v>
       </c>
-      <c r="D416" s="76" t="s">
+      <c r="D416" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E416" s="78" t="s">
+      <c r="E416" s="77" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="417" spans="1:5">
-      <c r="A417" s="77">
+      <c r="A417" s="17">
         <v>416</v>
       </c>
-      <c r="B417" s="76">
+      <c r="B417" s="13">
         <v>11890</v>
       </c>
-      <c r="C417" s="71" t="s">
+      <c r="C417" s="70" t="s">
         <v>558</v>
       </c>
-      <c r="D417" s="76" t="s">
+      <c r="D417" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E417" s="78" t="s">
+      <c r="E417" s="77" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="418" spans="1:5">
-      <c r="A418" s="77">
+      <c r="A418" s="17">
         <v>417</v>
       </c>
-      <c r="B418" s="76">
+      <c r="B418" s="13">
         <v>11891</v>
       </c>
-      <c r="C418" s="71" t="s">
+      <c r="C418" s="70" t="s">
         <v>559</v>
       </c>
-      <c r="D418" s="76" t="s">
+      <c r="D418" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E418" s="78" t="s">
+      <c r="E418" s="77" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="419" spans="1:5">
-      <c r="A419" s="77">
+      <c r="A419" s="17">
         <v>418</v>
       </c>
-      <c r="B419" s="76">
+      <c r="B419" s="13">
         <v>11892</v>
       </c>
-      <c r="C419" s="71" t="s">
+      <c r="C419" s="70" t="s">
         <v>560</v>
       </c>
-      <c r="D419" s="76" t="s">
+      <c r="D419" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E419" s="78" t="s">
+      <c r="E419" s="77" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="420" spans="1:5">
-      <c r="A420" s="77">
+      <c r="A420" s="17">
         <v>419</v>
       </c>
-      <c r="B420" s="76">
+      <c r="B420" s="13">
         <v>11893</v>
       </c>
-      <c r="C420" s="71" t="s">
+      <c r="C420" s="70" t="s">
         <v>561</v>
       </c>
-      <c r="D420" s="76" t="s">
+      <c r="D420" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E420" s="78" t="s">
+      <c r="E420" s="77" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="421" spans="1:5">
-      <c r="A421" s="77">
+      <c r="A421" s="17">
         <v>420</v>
       </c>
-      <c r="B421" s="76">
+      <c r="B421" s="13">
         <v>11894</v>
       </c>
-      <c r="C421" s="71" t="s">
+      <c r="C421" s="70" t="s">
         <v>562</v>
       </c>
-      <c r="D421" s="76" t="s">
+      <c r="D421" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E421" s="78" t="s">
+      <c r="E421" s="77" t="s">
         <v>574</v>
       </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="17">
+        <v>421</v>
+      </c>
+      <c r="B422" s="13">
+        <v>11895</v>
+      </c>
+      <c r="C422" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="D422" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E422" s="41" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="17">
+        <v>422</v>
+      </c>
+      <c r="B423" s="13">
+        <v>11896</v>
+      </c>
+      <c r="C423" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D423" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="E423" s="41" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="17">
+        <v>423</v>
+      </c>
+      <c r="B424" s="13">
+        <v>11897</v>
+      </c>
+      <c r="C424" s="40" t="s">
+        <v>682</v>
+      </c>
+      <c r="D424" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E424" s="41" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="17">
+        <v>424</v>
+      </c>
+      <c r="B425" s="13">
+        <v>11898</v>
+      </c>
+      <c r="C425" s="40" t="s">
+        <v>683</v>
+      </c>
+      <c r="D425" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="E425" s="41" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="17">
+        <v>425</v>
+      </c>
+      <c r="B426" s="13">
+        <v>11899</v>
+      </c>
+      <c r="C426" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="D426" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E426" s="41" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="17">
+        <v>426</v>
+      </c>
+      <c r="B427" s="13">
+        <v>11900</v>
+      </c>
+      <c r="C427" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="D427" s="39"/>
+      <c r="E427" s="82"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -20384,7 +20807,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="688">
   <si>
     <t>id|</t>
   </si>
@@ -4108,88 +4108,11 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2000,</t>
-    </r>
+    <t>30,30</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,</t>
-    </r>
+    <t>15,15</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -4920,9 +4843,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="A70:E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8007,7 +7930,7 @@
   <dimension ref="A1:E427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B403" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B382" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C422" sqref="C422"/>
@@ -14014,9 +13937,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F427"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F422" sqref="F422"/>
+      <selection pane="bottomLeft" activeCell="E422" sqref="E422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -20711,7 +20634,7 @@
         <v>42</v>
       </c>
       <c r="E422" s="41" t="s">
-        <v>686</v>
+        <v>579</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -20745,7 +20668,7 @@
         <v>42</v>
       </c>
       <c r="E424" s="41" t="s">
-        <v>688</v>
+        <v>576</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -20762,7 +20685,7 @@
         <v>601</v>
       </c>
       <c r="E425" s="41" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -20779,7 +20702,7 @@
         <v>42</v>
       </c>
       <c r="E426" s="41" t="s">
-        <v>690</v>
+        <v>578</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -20807,7 +20730,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="725">
   <si>
     <t>id|</t>
   </si>
@@ -4108,11 +4108,549 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>30,30</t>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000,</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>15,15</t>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包稀有宝箱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包史诗宝箱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包传说宝箱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hqjnh_xybox</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hqjnh_ssbox</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_hqjnh_csbox</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,30000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,60000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,100000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,30</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,60</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,100</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,30</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,60</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,100</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,80000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,120000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20000,220000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,90</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,110</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50,190</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,80</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,120</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30,210</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30000,170000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,300000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,120</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30,170</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,300</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,120</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>130,170</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,300</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -4335,7 +4873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4563,6 +5101,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4841,11 +5385,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="A70:E70"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6941,6 +7485,90 @@
         <v>1</v>
       </c>
     </row>
+    <row r="71" spans="1:12" s="84" customFormat="1">
+      <c r="A71" s="84">
+        <v>70</v>
+      </c>
+      <c r="B71" s="84" t="s">
+        <v>691</v>
+      </c>
+      <c r="C71" s="84">
+        <v>1610409600</v>
+      </c>
+      <c r="D71" s="84">
+        <v>1610985599</v>
+      </c>
+      <c r="E71" s="85">
+        <v>65</v>
+      </c>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="84">
+        <v>70</v>
+      </c>
+      <c r="L71" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="84" customFormat="1">
+      <c r="A72" s="84">
+        <v>71</v>
+      </c>
+      <c r="B72" s="84" t="s">
+        <v>692</v>
+      </c>
+      <c r="C72" s="84">
+        <v>1610409600</v>
+      </c>
+      <c r="D72" s="84">
+        <v>1610985599</v>
+      </c>
+      <c r="E72" s="85">
+        <v>66</v>
+      </c>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="84">
+        <v>71</v>
+      </c>
+      <c r="L72" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="84" customFormat="1">
+      <c r="A73" s="84">
+        <v>72</v>
+      </c>
+      <c r="B73" s="84" t="s">
+        <v>693</v>
+      </c>
+      <c r="C73" s="84">
+        <v>1610409600</v>
+      </c>
+      <c r="D73" s="84">
+        <v>1610985599</v>
+      </c>
+      <c r="E73" s="85">
+        <v>67</v>
+      </c>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="52"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="84">
+        <v>72</v>
+      </c>
+      <c r="L73" s="84">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6952,11 +7580,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7872,6 +8500,48 @@
         <v>679</v>
       </c>
       <c r="D65" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="17">
+        <v>65</v>
+      </c>
+      <c r="B66" s="17">
+        <v>65</v>
+      </c>
+      <c r="C66" s="84" t="s">
+        <v>694</v>
+      </c>
+      <c r="D66" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="17">
+        <v>66</v>
+      </c>
+      <c r="B67" s="17">
+        <v>66</v>
+      </c>
+      <c r="C67" s="84" t="s">
+        <v>695</v>
+      </c>
+      <c r="D67" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="17">
+        <v>67</v>
+      </c>
+      <c r="B68" s="17">
+        <v>67</v>
+      </c>
+      <c r="C68" s="84" t="s">
+        <v>696</v>
+      </c>
+      <c r="D68" s="84">
         <v>1</v>
       </c>
     </row>
@@ -7927,13 +8597,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E427"/>
+  <dimension ref="A1:E454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B382" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B419" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C422" sqref="C422"/>
+      <selection pane="bottomRight" activeCell="E444" sqref="E444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13926,6 +14596,384 @@
         <v>0</v>
       </c>
     </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="13">
+        <v>427</v>
+      </c>
+      <c r="B428" s="53">
+        <v>70</v>
+      </c>
+      <c r="C428" s="53">
+        <v>11901</v>
+      </c>
+      <c r="D428" s="53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="13">
+        <v>428</v>
+      </c>
+      <c r="B429" s="53">
+        <v>70</v>
+      </c>
+      <c r="C429" s="53">
+        <v>11902</v>
+      </c>
+      <c r="D429" s="53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="13">
+        <v>429</v>
+      </c>
+      <c r="B430" s="53">
+        <v>70</v>
+      </c>
+      <c r="C430" s="53">
+        <v>11903</v>
+      </c>
+      <c r="D430" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="13">
+        <v>430</v>
+      </c>
+      <c r="B431" s="53">
+        <v>70</v>
+      </c>
+      <c r="C431" s="53">
+        <v>11904</v>
+      </c>
+      <c r="D431" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="13">
+        <v>431</v>
+      </c>
+      <c r="B432" s="53">
+        <v>70</v>
+      </c>
+      <c r="C432" s="53">
+        <v>11905</v>
+      </c>
+      <c r="D432" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="13">
+        <v>432</v>
+      </c>
+      <c r="B433" s="53">
+        <v>70</v>
+      </c>
+      <c r="C433" s="53">
+        <v>11906</v>
+      </c>
+      <c r="D433" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="13">
+        <v>433</v>
+      </c>
+      <c r="B434" s="53">
+        <v>70</v>
+      </c>
+      <c r="C434" s="53">
+        <v>11907</v>
+      </c>
+      <c r="D434" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="13">
+        <v>434</v>
+      </c>
+      <c r="B435" s="53">
+        <v>70</v>
+      </c>
+      <c r="C435" s="53">
+        <v>11908</v>
+      </c>
+      <c r="D435" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="13">
+        <v>435</v>
+      </c>
+      <c r="B436" s="53">
+        <v>70</v>
+      </c>
+      <c r="C436" s="53">
+        <v>11909</v>
+      </c>
+      <c r="D436" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="13">
+        <v>436</v>
+      </c>
+      <c r="B437" s="53">
+        <v>71</v>
+      </c>
+      <c r="C437" s="53">
+        <v>11911</v>
+      </c>
+      <c r="D437" s="53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="13">
+        <v>437</v>
+      </c>
+      <c r="B438" s="53">
+        <v>71</v>
+      </c>
+      <c r="C438" s="53">
+        <v>11912</v>
+      </c>
+      <c r="D438" s="53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="13">
+        <v>438</v>
+      </c>
+      <c r="B439" s="53">
+        <v>71</v>
+      </c>
+      <c r="C439" s="53">
+        <v>11913</v>
+      </c>
+      <c r="D439" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="13">
+        <v>439</v>
+      </c>
+      <c r="B440" s="53">
+        <v>71</v>
+      </c>
+      <c r="C440" s="53">
+        <v>11914</v>
+      </c>
+      <c r="D440" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="13">
+        <v>440</v>
+      </c>
+      <c r="B441" s="53">
+        <v>71</v>
+      </c>
+      <c r="C441" s="53">
+        <v>11915</v>
+      </c>
+      <c r="D441" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="13">
+        <v>441</v>
+      </c>
+      <c r="B442" s="53">
+        <v>71</v>
+      </c>
+      <c r="C442" s="53">
+        <v>11916</v>
+      </c>
+      <c r="D442" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="13">
+        <v>442</v>
+      </c>
+      <c r="B443" s="53">
+        <v>71</v>
+      </c>
+      <c r="C443" s="53">
+        <v>11917</v>
+      </c>
+      <c r="D443" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="13">
+        <v>443</v>
+      </c>
+      <c r="B444" s="53">
+        <v>71</v>
+      </c>
+      <c r="C444" s="53">
+        <v>11918</v>
+      </c>
+      <c r="D444" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="13">
+        <v>444</v>
+      </c>
+      <c r="B445" s="53">
+        <v>71</v>
+      </c>
+      <c r="C445" s="53">
+        <v>11919</v>
+      </c>
+      <c r="D445" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="13">
+        <v>445</v>
+      </c>
+      <c r="B446" s="53">
+        <v>72</v>
+      </c>
+      <c r="C446" s="53">
+        <v>11921</v>
+      </c>
+      <c r="D446" s="53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="13">
+        <v>446</v>
+      </c>
+      <c r="B447" s="53">
+        <v>72</v>
+      </c>
+      <c r="C447" s="53">
+        <v>11922</v>
+      </c>
+      <c r="D447" s="53">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="13">
+        <v>447</v>
+      </c>
+      <c r="B448" s="53">
+        <v>72</v>
+      </c>
+      <c r="C448" s="53">
+        <v>11923</v>
+      </c>
+      <c r="D448" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="13">
+        <v>448</v>
+      </c>
+      <c r="B449" s="53">
+        <v>72</v>
+      </c>
+      <c r="C449" s="53">
+        <v>11924</v>
+      </c>
+      <c r="D449" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="13">
+        <v>449</v>
+      </c>
+      <c r="B450" s="53">
+        <v>72</v>
+      </c>
+      <c r="C450" s="53">
+        <v>11925</v>
+      </c>
+      <c r="D450" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="13">
+        <v>450</v>
+      </c>
+      <c r="B451" s="53">
+        <v>72</v>
+      </c>
+      <c r="C451" s="53">
+        <v>11926</v>
+      </c>
+      <c r="D451" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="13">
+        <v>451</v>
+      </c>
+      <c r="B452" s="53">
+        <v>72</v>
+      </c>
+      <c r="C452" s="53">
+        <v>11927</v>
+      </c>
+      <c r="D452" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="13">
+        <v>452</v>
+      </c>
+      <c r="B453" s="53">
+        <v>72</v>
+      </c>
+      <c r="C453" s="53">
+        <v>11928</v>
+      </c>
+      <c r="D453" s="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="13">
+        <v>453</v>
+      </c>
+      <c r="B454" s="53">
+        <v>72</v>
+      </c>
+      <c r="C454" s="53">
+        <v>11929</v>
+      </c>
+      <c r="D454" s="53">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13935,11 +14983,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F427"/>
+  <dimension ref="A1:F454"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E422" sqref="E422"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A418" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E454" sqref="E454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -20634,7 +21682,7 @@
         <v>42</v>
       </c>
       <c r="E422" s="41" t="s">
-        <v>579</v>
+        <v>686</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -20668,7 +21716,7 @@
         <v>42</v>
       </c>
       <c r="E424" s="41" t="s">
-        <v>576</v>
+        <v>688</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -20685,7 +21733,7 @@
         <v>601</v>
       </c>
       <c r="E425" s="41" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -20702,7 +21750,7 @@
         <v>42</v>
       </c>
       <c r="E426" s="41" t="s">
-        <v>578</v>
+        <v>690</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -20717,6 +21765,411 @@
       </c>
       <c r="D427" s="39"/>
       <c r="E427" s="82"/>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="17">
+        <v>427</v>
+      </c>
+      <c r="B428" s="53">
+        <v>11901</v>
+      </c>
+      <c r="C428" s="53"/>
+      <c r="D428" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="E428" s="56" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="17">
+        <v>428</v>
+      </c>
+      <c r="B429" s="53">
+        <v>11902</v>
+      </c>
+      <c r="C429" s="53"/>
+      <c r="D429" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="E429" s="56" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="17">
+        <v>429</v>
+      </c>
+      <c r="B430" s="53">
+        <v>11903</v>
+      </c>
+      <c r="C430" s="53"/>
+      <c r="D430" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="E430" s="56" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="17">
+        <v>430</v>
+      </c>
+      <c r="B431" s="53">
+        <v>11904</v>
+      </c>
+      <c r="C431" s="53"/>
+      <c r="D431" s="54" t="s">
+        <v>698</v>
+      </c>
+      <c r="E431" s="56" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="17">
+        <v>431</v>
+      </c>
+      <c r="B432" s="53">
+        <v>11905</v>
+      </c>
+      <c r="C432" s="53"/>
+      <c r="D432" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="E432" s="56" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="17">
+        <v>432</v>
+      </c>
+      <c r="B433" s="53">
+        <v>11906</v>
+      </c>
+      <c r="C433" s="53"/>
+      <c r="D433" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="E433" s="56" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="17">
+        <v>433</v>
+      </c>
+      <c r="B434" s="53">
+        <v>11907</v>
+      </c>
+      <c r="C434" s="53"/>
+      <c r="D434" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E434" s="56" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="17">
+        <v>434</v>
+      </c>
+      <c r="B435" s="53">
+        <v>11908</v>
+      </c>
+      <c r="C435" s="53"/>
+      <c r="D435" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E435" s="56" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="17">
+        <v>435</v>
+      </c>
+      <c r="B436" s="53">
+        <v>11909</v>
+      </c>
+      <c r="C436" s="53"/>
+      <c r="D436" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E436" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="17">
+        <v>436</v>
+      </c>
+      <c r="B437" s="53">
+        <v>11911</v>
+      </c>
+      <c r="C437" s="53"/>
+      <c r="D437" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="E437" s="56" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="17">
+        <v>437</v>
+      </c>
+      <c r="B438" s="53">
+        <v>11912</v>
+      </c>
+      <c r="C438" s="53"/>
+      <c r="D438" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="E438" s="56" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="17">
+        <v>438</v>
+      </c>
+      <c r="B439" s="53">
+        <v>11913</v>
+      </c>
+      <c r="C439" s="53"/>
+      <c r="D439" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="E439" s="56" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="17">
+        <v>439</v>
+      </c>
+      <c r="B440" s="53">
+        <v>11914</v>
+      </c>
+      <c r="C440" s="53"/>
+      <c r="D440" s="54" t="s">
+        <v>698</v>
+      </c>
+      <c r="E440" s="56" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="17">
+        <v>440</v>
+      </c>
+      <c r="B441" s="53">
+        <v>11915</v>
+      </c>
+      <c r="C441" s="53"/>
+      <c r="D441" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="E441" s="56" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="17">
+        <v>441</v>
+      </c>
+      <c r="B442" s="53">
+        <v>11916</v>
+      </c>
+      <c r="C442" s="53"/>
+      <c r="D442" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="E442" s="56" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="17">
+        <v>442</v>
+      </c>
+      <c r="B443" s="53">
+        <v>11917</v>
+      </c>
+      <c r="C443" s="53"/>
+      <c r="D443" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E443" s="56" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="17">
+        <v>443</v>
+      </c>
+      <c r="B444" s="53">
+        <v>11918</v>
+      </c>
+      <c r="C444" s="53"/>
+      <c r="D444" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E444" s="56" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="17">
+        <v>444</v>
+      </c>
+      <c r="B445" s="53">
+        <v>11919</v>
+      </c>
+      <c r="C445" s="53"/>
+      <c r="D445" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E445" s="56" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="17">
+        <v>445</v>
+      </c>
+      <c r="B446" s="53">
+        <v>11921</v>
+      </c>
+      <c r="C446" s="53"/>
+      <c r="D446" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="E446" s="56" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="17">
+        <v>446</v>
+      </c>
+      <c r="B447" s="53">
+        <v>11922</v>
+      </c>
+      <c r="C447" s="53"/>
+      <c r="D447" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="E447" s="56" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="17">
+        <v>447</v>
+      </c>
+      <c r="B448" s="53">
+        <v>11923</v>
+      </c>
+      <c r="C448" s="53"/>
+      <c r="D448" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="E448" s="56" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="17">
+        <v>448</v>
+      </c>
+      <c r="B449" s="53">
+        <v>11924</v>
+      </c>
+      <c r="C449" s="53"/>
+      <c r="D449" s="54" t="s">
+        <v>698</v>
+      </c>
+      <c r="E449" s="56" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="17">
+        <v>449</v>
+      </c>
+      <c r="B450" s="53">
+        <v>11925</v>
+      </c>
+      <c r="C450" s="53"/>
+      <c r="D450" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="E450" s="56" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="17">
+        <v>450</v>
+      </c>
+      <c r="B451" s="53">
+        <v>11926</v>
+      </c>
+      <c r="C451" s="53"/>
+      <c r="D451" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="E451" s="56" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="17">
+        <v>451</v>
+      </c>
+      <c r="B452" s="53">
+        <v>11927</v>
+      </c>
+      <c r="C452" s="53"/>
+      <c r="D452" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E452" s="56" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="17">
+        <v>452</v>
+      </c>
+      <c r="B453" s="53">
+        <v>11928</v>
+      </c>
+      <c r="C453" s="53"/>
+      <c r="D453" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E453" s="56" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="17">
+        <v>453</v>
+      </c>
+      <c r="B454" s="53">
+        <v>11929</v>
+      </c>
+      <c r="C454" s="53"/>
+      <c r="D454" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="E454" s="56" t="s">
+        <v>724</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -20732,7 +22185,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4873,7 +4873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4951,9 +4951,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4978,7 +4975,6 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5007,9 +5003,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5036,13 +5029,6 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5068,33 +5054,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5105,8 +5069,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5388,8 +5352,8 @@
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5410,7 +5374,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -6626,7 +6590,7 @@
       <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="40" t="s">
         <v>434</v>
       </c>
       <c r="C41" s="18">
@@ -6650,62 +6614,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="26" customFormat="1">
+    <row r="42" spans="1:12" s="18" customFormat="1">
       <c r="A42" s="18">
         <v>41</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="18">
         <v>1599523200</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D42" s="18">
         <v>1600099199</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="28">
         <v>36</v>
       </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="26">
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="18">
         <v>41</v>
       </c>
-      <c r="L42" s="26">
+      <c r="L42" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" s="18" customFormat="1">
       <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="18">
         <v>1600732800</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="18">
         <v>1601308799</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="28">
         <v>37</v>
       </c>
-      <c r="K43" s="6">
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="18">
         <v>42</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" s="18" customFormat="1">
       <c r="A44" s="18">
         <v>43</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>490</v>
       </c>
       <c r="C44" s="13">
@@ -6714,21 +6683,26 @@
       <c r="D44" s="13">
         <v>32503651200</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="28">
         <v>38</v>
       </c>
-      <c r="K44" s="6">
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="18">
         <v>43</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" s="18" customFormat="1">
       <c r="A45" s="18">
         <v>44</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="15" t="s">
         <v>491</v>
       </c>
       <c r="C45" s="13">
@@ -6737,21 +6711,26 @@
       <c r="D45" s="13">
         <v>32503651200</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="28">
         <v>39</v>
       </c>
-      <c r="K45" s="6">
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="18">
         <v>44</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" s="18" customFormat="1">
       <c r="A46" s="18">
         <v>45</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="15" t="s">
         <v>492</v>
       </c>
       <c r="C46" s="13">
@@ -6760,13 +6739,18 @@
       <c r="D46" s="13">
         <v>32503651200</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="28">
         <v>40</v>
       </c>
-      <c r="K46" s="6">
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="18">
         <v>45</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="18">
         <v>1</v>
       </c>
     </row>
@@ -6774,7 +6758,7 @@
       <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="40" t="s">
         <v>505</v>
       </c>
       <c r="C47" s="18">
@@ -6806,7 +6790,7 @@
       <c r="A48" s="18">
         <v>47</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="40" t="s">
         <v>521</v>
       </c>
       <c r="C48" s="18">
@@ -6838,7 +6822,7 @@
       <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="40" t="s">
         <v>522</v>
       </c>
       <c r="C49" s="18">
@@ -6870,7 +6854,7 @@
       <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="40" t="s">
         <v>523</v>
       </c>
       <c r="C50" s="18">
@@ -6902,7 +6886,7 @@
       <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="40" t="s">
         <v>524</v>
       </c>
       <c r="C51" s="18">
@@ -6934,7 +6918,7 @@
       <c r="A52" s="18">
         <v>51</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="40" t="s">
         <v>525</v>
       </c>
       <c r="C52" s="18">
@@ -6966,7 +6950,7 @@
       <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="40" t="s">
         <v>526</v>
       </c>
       <c r="C53" s="18">
@@ -7106,119 +7090,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="48" customFormat="1">
+    <row r="58" spans="1:12" s="18" customFormat="1">
       <c r="A58" s="18">
         <v>57</v>
       </c>
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="C58" s="48">
+      <c r="C58" s="18">
         <v>1606176000</v>
       </c>
-      <c r="D58" s="48">
+      <c r="D58" s="18">
         <v>1606751999</v>
       </c>
-      <c r="E58" s="49">
+      <c r="E58" s="28">
         <v>52</v>
       </c>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="48">
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="18">
         <v>57</v>
       </c>
-      <c r="L58" s="48">
+      <c r="L58" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="48" customFormat="1">
+    <row r="59" spans="1:12" s="18" customFormat="1">
       <c r="A59" s="18">
         <v>58</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="18" t="s">
         <v>608</v>
       </c>
-      <c r="C59" s="48">
+      <c r="C59" s="18">
         <v>1606176000</v>
       </c>
-      <c r="D59" s="48">
+      <c r="D59" s="18">
         <v>1606751999</v>
       </c>
-      <c r="E59" s="49">
+      <c r="E59" s="28">
         <v>53</v>
       </c>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="48">
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="18">
         <v>58</v>
       </c>
-      <c r="L59" s="48">
+      <c r="L59" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="48" customFormat="1">
+    <row r="60" spans="1:12" s="18" customFormat="1">
       <c r="A60" s="18">
         <v>59</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="C60" s="48">
+      <c r="C60" s="18">
         <v>1606176000</v>
       </c>
-      <c r="D60" s="48">
+      <c r="D60" s="18">
         <v>1606751999</v>
       </c>
-      <c r="E60" s="49">
+      <c r="E60" s="28">
         <v>54</v>
       </c>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="48">
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="18">
         <v>59</v>
       </c>
-      <c r="L60" s="48">
+      <c r="L60" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="60" customFormat="1">
+    <row r="61" spans="1:12" s="18" customFormat="1">
       <c r="A61" s="18">
         <v>60</v>
       </c>
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="C61" s="63">
+      <c r="C61" s="13">
         <v>1607385600</v>
       </c>
-      <c r="D61" s="63">
+      <c r="D61" s="13">
         <v>1607961599</v>
       </c>
-      <c r="E61" s="61">
+      <c r="E61" s="28">
         <v>55</v>
       </c>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="60">
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="18">
         <v>60</v>
       </c>
-      <c r="L61" s="60">
+      <c r="L61" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" s="18" customFormat="1">
       <c r="A62" s="18">
         <v>61</v>
       </c>
@@ -7231,18 +7215,22 @@
       <c r="D62" s="13">
         <v>32503651200</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="28">
         <v>56</v>
       </c>
       <c r="F62" s="13"/>
-      <c r="K62" s="6">
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="18">
         <v>61</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L62" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" s="18" customFormat="1">
       <c r="A63" s="18">
         <v>62</v>
       </c>
@@ -7255,13 +7243,18 @@
       <c r="D63" s="13">
         <v>32503651200</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="28">
         <v>57</v>
       </c>
-      <c r="K63" s="6">
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="18">
         <v>62</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L63" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7269,31 +7262,31 @@
       <c r="A64" s="18">
         <v>63</v>
       </c>
-      <c r="B64" s="72" t="s">
+      <c r="B64" s="40" t="s">
         <v>521</v>
       </c>
-      <c r="C64" s="74">
+      <c r="C64" s="71">
         <v>1609200000</v>
       </c>
-      <c r="D64" s="74">
+      <c r="D64" s="71">
         <v>1609775999</v>
       </c>
-      <c r="E64" s="73">
+      <c r="E64" s="28">
         <v>58</v>
       </c>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="76">
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17">
         <v>1</v>
       </c>
-      <c r="J64" s="76">
+      <c r="J64" s="17">
         <v>0</v>
       </c>
-      <c r="K64" s="71">
+      <c r="K64" s="18">
         <v>63</v>
       </c>
-      <c r="L64" s="71">
+      <c r="L64" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7301,31 +7294,31 @@
       <c r="A65" s="18">
         <v>64</v>
       </c>
-      <c r="B65" s="72" t="s">
+      <c r="B65" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="C65" s="74">
+      <c r="C65" s="71">
         <v>1609200000</v>
       </c>
-      <c r="D65" s="74">
+      <c r="D65" s="71">
         <v>1609775999</v>
       </c>
-      <c r="E65" s="73">
+      <c r="E65" s="28">
         <v>59</v>
       </c>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="76">
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17">
         <v>1</v>
       </c>
-      <c r="J65" s="76">
+      <c r="J65" s="17">
         <v>0</v>
       </c>
-      <c r="K65" s="71">
+      <c r="K65" s="18">
         <v>64</v>
       </c>
-      <c r="L65" s="71">
+      <c r="L65" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7333,31 +7326,31 @@
       <c r="A66" s="18">
         <v>65</v>
       </c>
-      <c r="B66" s="72" t="s">
+      <c r="B66" s="40" t="s">
         <v>523</v>
       </c>
-      <c r="C66" s="74">
+      <c r="C66" s="71">
         <v>1609200000</v>
       </c>
-      <c r="D66" s="74">
+      <c r="D66" s="71">
         <v>1609775999</v>
       </c>
-      <c r="E66" s="73">
+      <c r="E66" s="28">
         <v>60</v>
       </c>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="76"/>
-      <c r="I66" s="76">
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17">
         <v>1</v>
       </c>
-      <c r="J66" s="76">
+      <c r="J66" s="17">
         <v>0</v>
       </c>
-      <c r="K66" s="71">
+      <c r="K66" s="18">
         <v>65</v>
       </c>
-      <c r="L66" s="71">
+      <c r="L66" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7365,31 +7358,31 @@
       <c r="A67" s="18">
         <v>66</v>
       </c>
-      <c r="B67" s="72" t="s">
+      <c r="B67" s="40" t="s">
         <v>524</v>
       </c>
-      <c r="C67" s="74">
+      <c r="C67" s="71">
         <v>1609200000</v>
       </c>
-      <c r="D67" s="74">
+      <c r="D67" s="71">
         <v>1609775999</v>
       </c>
-      <c r="E67" s="73">
+      <c r="E67" s="28">
         <v>61</v>
       </c>
-      <c r="F67" s="76"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="76"/>
-      <c r="I67" s="76">
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17">
         <v>1</v>
       </c>
-      <c r="J67" s="76">
+      <c r="J67" s="17">
         <v>0</v>
       </c>
-      <c r="K67" s="71">
+      <c r="K67" s="18">
         <v>66</v>
       </c>
-      <c r="L67" s="71">
+      <c r="L67" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7397,31 +7390,31 @@
       <c r="A68" s="18">
         <v>67</v>
       </c>
-      <c r="B68" s="72" t="s">
+      <c r="B68" s="40" t="s">
         <v>525</v>
       </c>
-      <c r="C68" s="74">
+      <c r="C68" s="71">
         <v>1609200000</v>
       </c>
-      <c r="D68" s="74">
+      <c r="D68" s="71">
         <v>1609775999</v>
       </c>
-      <c r="E68" s="73">
+      <c r="E68" s="28">
         <v>62</v>
       </c>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76">
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17">
         <v>1</v>
       </c>
-      <c r="J68" s="76">
+      <c r="J68" s="17">
         <v>0</v>
       </c>
-      <c r="K68" s="71">
+      <c r="K68" s="18">
         <v>67</v>
       </c>
-      <c r="L68" s="71">
+      <c r="L68" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7429,31 +7422,31 @@
       <c r="A69" s="18">
         <v>68</v>
       </c>
-      <c r="B69" s="72" t="s">
+      <c r="B69" s="40" t="s">
         <v>526</v>
       </c>
-      <c r="C69" s="74">
+      <c r="C69" s="71">
         <v>1609200000</v>
       </c>
-      <c r="D69" s="74">
+      <c r="D69" s="71">
         <v>1609775999</v>
       </c>
-      <c r="E69" s="73">
+      <c r="E69" s="28">
         <v>63</v>
       </c>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
-      <c r="I69" s="76">
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17">
         <v>1</v>
       </c>
-      <c r="J69" s="76">
+      <c r="J69" s="17">
         <v>0</v>
       </c>
-      <c r="K69" s="71">
+      <c r="K69" s="18">
         <v>68</v>
       </c>
-      <c r="L69" s="71">
+      <c r="L69" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7461,111 +7454,111 @@
       <c r="A70" s="18">
         <v>69</v>
       </c>
-      <c r="B70" s="78" t="s">
+      <c r="B70" s="40" t="s">
         <v>678</v>
       </c>
-      <c r="C70" s="79">
+      <c r="C70" s="71">
         <v>1609804800</v>
       </c>
-      <c r="D70" s="79">
+      <c r="D70" s="71">
         <v>1610380799</v>
       </c>
-      <c r="E70" s="80">
+      <c r="E70" s="28">
         <v>64</v>
       </c>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="81">
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="18">
         <v>69</v>
       </c>
-      <c r="L70" s="81">
+      <c r="L70" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="84" customFormat="1">
-      <c r="A71" s="84">
+    <row r="71" spans="1:12" s="18" customFormat="1">
+      <c r="A71" s="18">
         <v>70</v>
       </c>
-      <c r="B71" s="84" t="s">
+      <c r="B71" s="18" t="s">
         <v>691</v>
       </c>
-      <c r="C71" s="84">
+      <c r="C71" s="18">
         <v>1610409600</v>
       </c>
-      <c r="D71" s="84">
+      <c r="D71" s="18">
         <v>1610985599</v>
       </c>
-      <c r="E71" s="85">
+      <c r="E71" s="28">
         <v>65</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="84">
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="18">
         <v>70</v>
       </c>
-      <c r="L71" s="84">
+      <c r="L71" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="84" customFormat="1">
-      <c r="A72" s="84">
+    <row r="72" spans="1:12" s="18" customFormat="1">
+      <c r="A72" s="18">
         <v>71</v>
       </c>
-      <c r="B72" s="84" t="s">
+      <c r="B72" s="18" t="s">
         <v>692</v>
       </c>
-      <c r="C72" s="84">
+      <c r="C72" s="18">
         <v>1610409600</v>
       </c>
-      <c r="D72" s="84">
+      <c r="D72" s="18">
         <v>1610985599</v>
       </c>
-      <c r="E72" s="85">
+      <c r="E72" s="28">
         <v>66</v>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
-      <c r="K72" s="84">
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="18">
         <v>71</v>
       </c>
-      <c r="L72" s="84">
+      <c r="L72" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="84" customFormat="1">
-      <c r="A73" s="84">
+    <row r="73" spans="1:12" s="18" customFormat="1">
+      <c r="A73" s="18">
         <v>72</v>
       </c>
-      <c r="B73" s="84" t="s">
+      <c r="B73" s="18" t="s">
         <v>693</v>
       </c>
-      <c r="C73" s="84">
+      <c r="C73" s="18">
         <v>1610409600</v>
       </c>
-      <c r="D73" s="84">
+      <c r="D73" s="18">
         <v>1610985599</v>
       </c>
-      <c r="E73" s="85">
+      <c r="E73" s="28">
         <v>67</v>
       </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="52"/>
-      <c r="J73" s="52"/>
-      <c r="K73" s="84">
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="18">
         <v>72</v>
       </c>
-      <c r="L73" s="84">
+      <c r="L73" s="18">
         <v>1</v>
       </c>
     </row>
@@ -8090,7 +8083,7 @@
       <c r="B36" s="17">
         <v>35</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="40" t="s">
         <v>435</v>
       </c>
       <c r="D36" s="18">
@@ -8104,7 +8097,7 @@
       <c r="B37" s="25">
         <v>36</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="29" t="s">
         <v>241</v>
       </c>
       <c r="D37" s="26">
@@ -8118,7 +8111,7 @@
       <c r="B38" s="17">
         <v>37</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="41" t="s">
         <v>478</v>
       </c>
       <c r="D38" s="6">
@@ -8132,7 +8125,7 @@
       <c r="B39" s="17">
         <v>38</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="41" t="s">
         <v>493</v>
       </c>
       <c r="D39" s="6">
@@ -8146,7 +8139,7 @@
       <c r="B40" s="17">
         <v>39</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="41" t="s">
         <v>494</v>
       </c>
       <c r="D40" s="6">
@@ -8160,7 +8153,7 @@
       <c r="B41" s="17">
         <v>40</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="41" t="s">
         <v>495</v>
       </c>
       <c r="D41" s="6">
@@ -8272,7 +8265,7 @@
       <c r="B49" s="17">
         <v>48</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="48" t="s">
         <v>591</v>
       </c>
       <c r="D49" s="18">
@@ -8286,7 +8279,7 @@
       <c r="B50" s="17">
         <v>49</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="48" t="s">
         <v>590</v>
       </c>
       <c r="D50" s="18">
@@ -8300,7 +8293,7 @@
       <c r="B51" s="17">
         <v>50</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="48" t="s">
         <v>592</v>
       </c>
       <c r="D51" s="18">
@@ -8321,56 +8314,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="50" customFormat="1">
-      <c r="A53" s="50">
+    <row r="53" spans="1:4" s="47" customFormat="1">
+      <c r="A53" s="47">
         <v>52</v>
       </c>
-      <c r="B53" s="50">
+      <c r="B53" s="47">
         <v>52</v>
       </c>
-      <c r="C53" s="48" t="s">
+      <c r="C53" s="46" t="s">
         <v>610</v>
       </c>
-      <c r="D53" s="48">
+      <c r="D53" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="50" customFormat="1">
-      <c r="A54" s="50">
+    <row r="54" spans="1:4" s="47" customFormat="1">
+      <c r="A54" s="47">
         <v>53</v>
       </c>
-      <c r="B54" s="50">
+      <c r="B54" s="47">
         <v>53</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="46" t="s">
         <v>611</v>
       </c>
-      <c r="D54" s="48">
+      <c r="D54" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="50" customFormat="1">
-      <c r="A55" s="50">
+    <row r="55" spans="1:4" s="47" customFormat="1">
+      <c r="A55" s="47">
         <v>54</v>
       </c>
-      <c r="B55" s="50">
+      <c r="B55" s="47">
         <v>54</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="46" t="s">
         <v>612</v>
       </c>
-      <c r="D55" s="48">
+      <c r="D55" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="50">
+      <c r="A56" s="47">
         <v>55</v>
       </c>
-      <c r="B56" s="50">
+      <c r="B56" s="47">
         <v>55</v>
       </c>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="58" t="s">
         <v>667</v>
       </c>
       <c r="D56" s="6">
@@ -8384,7 +8377,7 @@
       <c r="B57" s="17">
         <v>56</v>
       </c>
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="41" t="s">
         <v>672</v>
       </c>
       <c r="D57" s="6">
@@ -8398,7 +8391,7 @@
       <c r="B58" s="17">
         <v>57</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="41" t="s">
         <v>673</v>
       </c>
       <c r="D58" s="6">
@@ -8412,10 +8405,10 @@
       <c r="B59" s="17">
         <v>58</v>
       </c>
-      <c r="C59" s="70" t="s">
+      <c r="C59" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="D59" s="71">
+      <c r="D59" s="65">
         <v>1</v>
       </c>
     </row>
@@ -8426,10 +8419,10 @@
       <c r="B60" s="17">
         <v>59</v>
       </c>
-      <c r="C60" s="70" t="s">
+      <c r="C60" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="D60" s="71">
+      <c r="D60" s="65">
         <v>1</v>
       </c>
     </row>
@@ -8440,10 +8433,10 @@
       <c r="B61" s="17">
         <v>60</v>
       </c>
-      <c r="C61" s="70" t="s">
+      <c r="C61" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="D61" s="71">
+      <c r="D61" s="65">
         <v>1</v>
       </c>
     </row>
@@ -8454,10 +8447,10 @@
       <c r="B62" s="17">
         <v>61</v>
       </c>
-      <c r="C62" s="70" t="s">
+      <c r="C62" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="D62" s="71">
+      <c r="D62" s="65">
         <v>1</v>
       </c>
     </row>
@@ -8468,10 +8461,10 @@
       <c r="B63" s="17">
         <v>62</v>
       </c>
-      <c r="C63" s="70" t="s">
+      <c r="C63" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="D63" s="71">
+      <c r="D63" s="65">
         <v>1</v>
       </c>
     </row>
@@ -8482,10 +8475,10 @@
       <c r="B64" s="17">
         <v>63</v>
       </c>
-      <c r="C64" s="70" t="s">
+      <c r="C64" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="D64" s="71">
+      <c r="D64" s="65">
         <v>1</v>
       </c>
     </row>
@@ -8496,10 +8489,10 @@
       <c r="B65" s="17">
         <v>64</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="C65" s="38" t="s">
         <v>679</v>
       </c>
-      <c r="D65" s="40">
+      <c r="D65" s="38">
         <v>1</v>
       </c>
     </row>
@@ -8510,10 +8503,10 @@
       <c r="B66" s="17">
         <v>65</v>
       </c>
-      <c r="C66" s="84" t="s">
+      <c r="C66" s="70" t="s">
         <v>694</v>
       </c>
-      <c r="D66" s="84">
+      <c r="D66" s="70">
         <v>1</v>
       </c>
     </row>
@@ -8524,10 +8517,10 @@
       <c r="B67" s="17">
         <v>66</v>
       </c>
-      <c r="C67" s="84" t="s">
+      <c r="C67" s="70" t="s">
         <v>695</v>
       </c>
-      <c r="D67" s="84">
+      <c r="D67" s="70">
         <v>1</v>
       </c>
     </row>
@@ -8538,10 +8531,10 @@
       <c r="B68" s="17">
         <v>67</v>
       </c>
-      <c r="C68" s="84" t="s">
+      <c r="C68" s="70" t="s">
         <v>696</v>
       </c>
-      <c r="D68" s="84">
+      <c r="D68" s="70">
         <v>1</v>
       </c>
     </row>
@@ -12203,380 +12196,380 @@
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="35">
+      <c r="A257" s="34">
         <v>256</v>
       </c>
-      <c r="B257" s="35">
+      <c r="B257" s="34">
         <v>37</v>
       </c>
-      <c r="C257" s="35">
+      <c r="C257" s="34">
         <v>11701</v>
       </c>
-      <c r="D257" s="35">
+      <c r="D257" s="34">
         <v>1340</v>
       </c>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="35">
+      <c r="A258" s="34">
         <v>257</v>
       </c>
-      <c r="B258" s="35">
+      <c r="B258" s="34">
         <v>37</v>
       </c>
-      <c r="C258" s="35">
+      <c r="C258" s="34">
         <v>11702</v>
       </c>
-      <c r="D258" s="35">
+      <c r="D258" s="34">
         <v>1330</v>
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="35">
+      <c r="A259" s="34">
         <v>258</v>
       </c>
-      <c r="B259" s="35">
+      <c r="B259" s="34">
         <v>37</v>
       </c>
-      <c r="C259" s="35">
+      <c r="C259" s="34">
         <v>11703</v>
       </c>
-      <c r="D259" s="35">
+      <c r="D259" s="34">
         <v>1330</v>
       </c>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="35">
+      <c r="A260" s="34">
         <v>259</v>
       </c>
-      <c r="B260" s="35">
+      <c r="B260" s="34">
         <v>37</v>
       </c>
-      <c r="C260" s="35">
+      <c r="C260" s="34">
         <v>11704</v>
       </c>
-      <c r="D260" s="35">
+      <c r="D260" s="34">
         <v>1840</v>
       </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="35">
+      <c r="A261" s="34">
         <v>260</v>
       </c>
-      <c r="B261" s="35">
+      <c r="B261" s="34">
         <v>37</v>
       </c>
-      <c r="C261" s="35">
+      <c r="C261" s="34">
         <v>11705</v>
       </c>
-      <c r="D261" s="35">
+      <c r="D261" s="34">
         <v>1830</v>
       </c>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="35">
+      <c r="A262" s="34">
         <v>261</v>
       </c>
-      <c r="B262" s="35">
+      <c r="B262" s="34">
         <v>37</v>
       </c>
-      <c r="C262" s="35">
+      <c r="C262" s="34">
         <v>11706</v>
       </c>
-      <c r="D262" s="35">
+      <c r="D262" s="34">
         <v>1830</v>
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="35">
+      <c r="A263" s="34">
         <v>262</v>
       </c>
-      <c r="B263" s="35">
+      <c r="B263" s="34">
         <v>37</v>
       </c>
-      <c r="C263" s="35">
+      <c r="C263" s="34">
         <v>11707</v>
       </c>
-      <c r="D263" s="35">
+      <c r="D263" s="34">
         <v>167</v>
       </c>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="35">
+      <c r="A264" s="34">
         <v>263</v>
       </c>
-      <c r="B264" s="35">
+      <c r="B264" s="34">
         <v>37</v>
       </c>
-      <c r="C264" s="35">
+      <c r="C264" s="34">
         <v>11708</v>
       </c>
-      <c r="D264" s="35">
+      <c r="D264" s="34">
         <v>167</v>
       </c>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="35">
+      <c r="A265" s="34">
         <v>264</v>
       </c>
-      <c r="B265" s="35">
+      <c r="B265" s="34">
         <v>37</v>
       </c>
-      <c r="C265" s="35">
+      <c r="C265" s="34">
         <v>11709</v>
       </c>
-      <c r="D265" s="35">
+      <c r="D265" s="34">
         <v>166</v>
       </c>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="35">
+      <c r="A266" s="34">
         <v>265</v>
       </c>
-      <c r="B266" s="35">
+      <c r="B266" s="34">
         <v>38</v>
       </c>
-      <c r="C266" s="35">
+      <c r="C266" s="34">
         <v>11710</v>
       </c>
-      <c r="D266" s="35">
+      <c r="D266" s="34">
         <v>1340</v>
       </c>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="35">
+      <c r="A267" s="34">
         <v>266</v>
       </c>
-      <c r="B267" s="35">
+      <c r="B267" s="34">
         <v>38</v>
       </c>
-      <c r="C267" s="35">
+      <c r="C267" s="34">
         <v>11711</v>
       </c>
-      <c r="D267" s="35">
+      <c r="D267" s="34">
         <v>1330</v>
       </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="35">
+      <c r="A268" s="34">
         <v>267</v>
       </c>
-      <c r="B268" s="35">
+      <c r="B268" s="34">
         <v>38</v>
       </c>
-      <c r="C268" s="35">
+      <c r="C268" s="34">
         <v>11712</v>
       </c>
-      <c r="D268" s="35">
+      <c r="D268" s="34">
         <v>1330</v>
       </c>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="35">
+      <c r="A269" s="34">
         <v>268</v>
       </c>
-      <c r="B269" s="35">
+      <c r="B269" s="34">
         <v>38</v>
       </c>
-      <c r="C269" s="35">
+      <c r="C269" s="34">
         <v>11713</v>
       </c>
-      <c r="D269" s="35">
+      <c r="D269" s="34">
         <v>1840</v>
       </c>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="35">
+      <c r="A270" s="34">
         <v>269</v>
       </c>
-      <c r="B270" s="35">
+      <c r="B270" s="34">
         <v>38</v>
       </c>
-      <c r="C270" s="35">
+      <c r="C270" s="34">
         <v>11714</v>
       </c>
-      <c r="D270" s="35">
+      <c r="D270" s="34">
         <v>1830</v>
       </c>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="35">
+      <c r="A271" s="34">
         <v>270</v>
       </c>
-      <c r="B271" s="35">
+      <c r="B271" s="34">
         <v>38</v>
       </c>
-      <c r="C271" s="35">
+      <c r="C271" s="34">
         <v>11715</v>
       </c>
-      <c r="D271" s="35">
+      <c r="D271" s="34">
         <v>1830</v>
       </c>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="35">
+      <c r="A272" s="34">
         <v>271</v>
       </c>
-      <c r="B272" s="35">
+      <c r="B272" s="34">
         <v>38</v>
       </c>
-      <c r="C272" s="35">
+      <c r="C272" s="34">
         <v>11716</v>
       </c>
-      <c r="D272" s="35">
+      <c r="D272" s="34">
         <v>167</v>
       </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="35">
+      <c r="A273" s="34">
         <v>272</v>
       </c>
-      <c r="B273" s="35">
+      <c r="B273" s="34">
         <v>38</v>
       </c>
-      <c r="C273" s="35">
+      <c r="C273" s="34">
         <v>11717</v>
       </c>
-      <c r="D273" s="35">
+      <c r="D273" s="34">
         <v>167</v>
       </c>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="35">
+      <c r="A274" s="34">
         <v>273</v>
       </c>
-      <c r="B274" s="35">
+      <c r="B274" s="34">
         <v>38</v>
       </c>
-      <c r="C274" s="35">
+      <c r="C274" s="34">
         <v>11718</v>
       </c>
-      <c r="D274" s="35">
+      <c r="D274" s="34">
         <v>166</v>
       </c>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="35">
+      <c r="A275" s="34">
         <v>274</v>
       </c>
-      <c r="B275" s="35">
+      <c r="B275" s="34">
         <v>39</v>
       </c>
-      <c r="C275" s="35">
+      <c r="C275" s="34">
         <v>11719</v>
       </c>
-      <c r="D275" s="35">
+      <c r="D275" s="34">
         <v>1340</v>
       </c>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="35">
+      <c r="A276" s="34">
         <v>275</v>
       </c>
-      <c r="B276" s="35">
+      <c r="B276" s="34">
         <v>39</v>
       </c>
-      <c r="C276" s="35">
+      <c r="C276" s="34">
         <v>11720</v>
       </c>
-      <c r="D276" s="35">
+      <c r="D276" s="34">
         <v>1330</v>
       </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="35">
+      <c r="A277" s="34">
         <v>276</v>
       </c>
-      <c r="B277" s="35">
+      <c r="B277" s="34">
         <v>39</v>
       </c>
-      <c r="C277" s="35">
+      <c r="C277" s="34">
         <v>11721</v>
       </c>
-      <c r="D277" s="35">
+      <c r="D277" s="34">
         <v>1330</v>
       </c>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="35">
+      <c r="A278" s="34">
         <v>277</v>
       </c>
-      <c r="B278" s="35">
+      <c r="B278" s="34">
         <v>39</v>
       </c>
-      <c r="C278" s="35">
+      <c r="C278" s="34">
         <v>11722</v>
       </c>
-      <c r="D278" s="35">
+      <c r="D278" s="34">
         <v>1840</v>
       </c>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="35">
+      <c r="A279" s="34">
         <v>278</v>
       </c>
-      <c r="B279" s="35">
+      <c r="B279" s="34">
         <v>39</v>
       </c>
-      <c r="C279" s="35">
+      <c r="C279" s="34">
         <v>11723</v>
       </c>
-      <c r="D279" s="35">
+      <c r="D279" s="34">
         <v>1830</v>
       </c>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="35">
+      <c r="A280" s="34">
         <v>279</v>
       </c>
-      <c r="B280" s="35">
+      <c r="B280" s="34">
         <v>39</v>
       </c>
-      <c r="C280" s="35">
+      <c r="C280" s="34">
         <v>11724</v>
       </c>
-      <c r="D280" s="35">
+      <c r="D280" s="34">
         <v>1830</v>
       </c>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="35">
+      <c r="A281" s="34">
         <v>280</v>
       </c>
-      <c r="B281" s="35">
+      <c r="B281" s="34">
         <v>39</v>
       </c>
-      <c r="C281" s="35">
+      <c r="C281" s="34">
         <v>11725</v>
       </c>
-      <c r="D281" s="35">
+      <c r="D281" s="34">
         <v>167</v>
       </c>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="35">
+      <c r="A282" s="34">
         <v>281</v>
       </c>
-      <c r="B282" s="35">
+      <c r="B282" s="34">
         <v>39</v>
       </c>
-      <c r="C282" s="35">
+      <c r="C282" s="34">
         <v>11726</v>
       </c>
-      <c r="D282" s="35">
+      <c r="D282" s="34">
         <v>167</v>
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="35">
+      <c r="A283" s="34">
         <v>282</v>
       </c>
-      <c r="B283" s="35">
+      <c r="B283" s="34">
         <v>39</v>
       </c>
-      <c r="C283" s="35">
+      <c r="C283" s="34">
         <v>11727</v>
       </c>
-      <c r="D283" s="35">
+      <c r="D283" s="34">
         <v>166</v>
       </c>
     </row>
@@ -13518,465 +13511,465 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" s="58" customFormat="1">
-      <c r="A351" s="58">
+    <row r="351" spans="1:4" s="55" customFormat="1">
+      <c r="A351" s="55">
         <v>350</v>
       </c>
-      <c r="B351" s="58">
+      <c r="B351" s="55">
         <v>57</v>
       </c>
-      <c r="C351" s="58">
+      <c r="C351" s="55">
         <v>11824</v>
       </c>
-      <c r="D351" s="58">
+      <c r="D351" s="55">
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:4" s="58" customFormat="1">
-      <c r="A352" s="58">
+    <row r="352" spans="1:4" s="55" customFormat="1">
+      <c r="A352" s="55">
         <v>351</v>
       </c>
-      <c r="B352" s="58">
+      <c r="B352" s="55">
         <v>57</v>
       </c>
-      <c r="C352" s="58">
+      <c r="C352" s="55">
         <v>11825</v>
       </c>
-      <c r="D352" s="58">
+      <c r="D352" s="55">
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:4" s="58" customFormat="1">
-      <c r="A353" s="58">
+    <row r="353" spans="1:4" s="55" customFormat="1">
+      <c r="A353" s="55">
         <v>352</v>
       </c>
-      <c r="B353" s="58">
+      <c r="B353" s="55">
         <v>57</v>
       </c>
-      <c r="C353" s="58">
+      <c r="C353" s="55">
         <v>11826</v>
       </c>
-      <c r="D353" s="58">
+      <c r="D353" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:4" s="58" customFormat="1">
-      <c r="A354" s="58">
+    <row r="354" spans="1:4" s="55" customFormat="1">
+      <c r="A354" s="55">
         <v>353</v>
       </c>
-      <c r="B354" s="58">
+      <c r="B354" s="55">
         <v>57</v>
       </c>
-      <c r="C354" s="58">
+      <c r="C354" s="55">
         <v>11827</v>
       </c>
-      <c r="D354" s="58">
+      <c r="D354" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:4" s="58" customFormat="1">
-      <c r="A355" s="58">
+    <row r="355" spans="1:4" s="55" customFormat="1">
+      <c r="A355" s="55">
         <v>354</v>
       </c>
-      <c r="B355" s="58">
+      <c r="B355" s="55">
         <v>57</v>
       </c>
-      <c r="C355" s="58">
+      <c r="C355" s="55">
         <v>11828</v>
       </c>
-      <c r="D355" s="58">
+      <c r="D355" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="58" customFormat="1">
-      <c r="A356" s="58">
+    <row r="356" spans="1:4" s="55" customFormat="1">
+      <c r="A356" s="55">
         <v>355</v>
       </c>
-      <c r="B356" s="58">
+      <c r="B356" s="55">
         <v>57</v>
       </c>
-      <c r="C356" s="58">
+      <c r="C356" s="55">
         <v>11829</v>
       </c>
-      <c r="D356" s="58">
+      <c r="D356" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" s="58" customFormat="1">
-      <c r="A357" s="58">
+    <row r="357" spans="1:4" s="55" customFormat="1">
+      <c r="A357" s="55">
         <v>356</v>
       </c>
-      <c r="B357" s="58">
+      <c r="B357" s="55">
         <v>57</v>
       </c>
-      <c r="C357" s="58">
+      <c r="C357" s="55">
         <v>11830</v>
       </c>
-      <c r="D357" s="58">
+      <c r="D357" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:4" s="58" customFormat="1">
-      <c r="A358" s="58">
+    <row r="358" spans="1:4" s="55" customFormat="1">
+      <c r="A358" s="55">
         <v>357</v>
       </c>
-      <c r="B358" s="58">
+      <c r="B358" s="55">
         <v>57</v>
       </c>
-      <c r="C358" s="58">
+      <c r="C358" s="55">
         <v>11831</v>
       </c>
-      <c r="D358" s="58">
+      <c r="D358" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:4" s="58" customFormat="1">
-      <c r="A359" s="58">
+    <row r="359" spans="1:4" s="55" customFormat="1">
+      <c r="A359" s="55">
         <v>358</v>
       </c>
-      <c r="B359" s="58">
+      <c r="B359" s="55">
         <v>57</v>
       </c>
-      <c r="C359" s="58">
+      <c r="C359" s="55">
         <v>11832</v>
       </c>
-      <c r="D359" s="58">
+      <c r="D359" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:4" s="53" customFormat="1">
-      <c r="A360" s="53">
+    <row r="360" spans="1:4" s="50" customFormat="1">
+      <c r="A360" s="50">
         <v>359</v>
       </c>
-      <c r="B360" s="59">
+      <c r="B360" s="56">
         <v>58</v>
       </c>
-      <c r="C360" s="53">
+      <c r="C360" s="50">
         <v>11833</v>
       </c>
-      <c r="D360" s="59">
+      <c r="D360" s="56">
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:4" s="53" customFormat="1">
-      <c r="A361" s="53">
+    <row r="361" spans="1:4" s="50" customFormat="1">
+      <c r="A361" s="50">
         <v>360</v>
       </c>
-      <c r="B361" s="59">
+      <c r="B361" s="56">
         <v>58</v>
       </c>
-      <c r="C361" s="53">
+      <c r="C361" s="50">
         <v>11834</v>
       </c>
-      <c r="D361" s="59">
+      <c r="D361" s="56">
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="1:4" s="53" customFormat="1">
-      <c r="A362" s="53">
+    <row r="362" spans="1:4" s="50" customFormat="1">
+      <c r="A362" s="50">
         <v>361</v>
       </c>
-      <c r="B362" s="59">
+      <c r="B362" s="56">
         <v>58</v>
       </c>
-      <c r="C362" s="53">
+      <c r="C362" s="50">
         <v>11835</v>
       </c>
-      <c r="D362" s="59">
+      <c r="D362" s="56">
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:4" s="53" customFormat="1">
-      <c r="A363" s="53">
+    <row r="363" spans="1:4" s="50" customFormat="1">
+      <c r="A363" s="50">
         <v>362</v>
       </c>
-      <c r="B363" s="59">
+      <c r="B363" s="56">
         <v>58</v>
       </c>
-      <c r="C363" s="53">
+      <c r="C363" s="50">
         <v>11836</v>
       </c>
-      <c r="D363" s="59">
+      <c r="D363" s="56">
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:4" s="53" customFormat="1">
-      <c r="A364" s="53">
+    <row r="364" spans="1:4" s="50" customFormat="1">
+      <c r="A364" s="50">
         <v>363</v>
       </c>
-      <c r="B364" s="59">
+      <c r="B364" s="56">
         <v>58</v>
       </c>
-      <c r="C364" s="53">
+      <c r="C364" s="50">
         <v>11837</v>
       </c>
-      <c r="D364" s="59">
+      <c r="D364" s="56">
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:4" s="53" customFormat="1">
-      <c r="A365" s="53">
+    <row r="365" spans="1:4" s="50" customFormat="1">
+      <c r="A365" s="50">
         <v>364</v>
       </c>
-      <c r="B365" s="59">
+      <c r="B365" s="56">
         <v>58</v>
       </c>
-      <c r="C365" s="53">
+      <c r="C365" s="50">
         <v>11838</v>
       </c>
-      <c r="D365" s="59">
+      <c r="D365" s="56">
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:4" s="53" customFormat="1">
-      <c r="A366" s="53">
+    <row r="366" spans="1:4" s="50" customFormat="1">
+      <c r="A366" s="50">
         <v>365</v>
       </c>
-      <c r="B366" s="59">
+      <c r="B366" s="56">
         <v>58</v>
       </c>
-      <c r="C366" s="53">
+      <c r="C366" s="50">
         <v>11839</v>
       </c>
-      <c r="D366" s="59">
+      <c r="D366" s="56">
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:4" s="53" customFormat="1">
-      <c r="A367" s="53">
+    <row r="367" spans="1:4" s="50" customFormat="1">
+      <c r="A367" s="50">
         <v>366</v>
       </c>
-      <c r="B367" s="59">
+      <c r="B367" s="56">
         <v>58</v>
       </c>
-      <c r="C367" s="53">
+      <c r="C367" s="50">
         <v>11840</v>
       </c>
-      <c r="D367" s="59">
+      <c r="D367" s="56">
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:4" s="53" customFormat="1">
-      <c r="A368" s="53">
+    <row r="368" spans="1:4" s="50" customFormat="1">
+      <c r="A368" s="50">
         <v>367</v>
       </c>
-      <c r="B368" s="59">
+      <c r="B368" s="56">
         <v>58</v>
       </c>
-      <c r="C368" s="53">
+      <c r="C368" s="50">
         <v>11841</v>
       </c>
-      <c r="D368" s="59">
+      <c r="D368" s="56">
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:4" s="47" customFormat="1">
-      <c r="A369" s="47">
+    <row r="369" spans="1:4" s="45" customFormat="1">
+      <c r="A369" s="45">
         <v>368</v>
       </c>
-      <c r="B369" s="58">
+      <c r="B369" s="55">
         <v>59</v>
       </c>
-      <c r="C369" s="47">
+      <c r="C369" s="45">
         <v>11842</v>
       </c>
-      <c r="D369" s="58">
+      <c r="D369" s="55">
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:4" s="47" customFormat="1">
-      <c r="A370" s="47">
+    <row r="370" spans="1:4" s="45" customFormat="1">
+      <c r="A370" s="45">
         <v>369</v>
       </c>
-      <c r="B370" s="58">
+      <c r="B370" s="55">
         <v>59</v>
       </c>
-      <c r="C370" s="47">
+      <c r="C370" s="45">
         <v>11843</v>
       </c>
-      <c r="D370" s="58">
+      <c r="D370" s="55">
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:4" s="47" customFormat="1">
-      <c r="A371" s="47">
+    <row r="371" spans="1:4" s="45" customFormat="1">
+      <c r="A371" s="45">
         <v>370</v>
       </c>
-      <c r="B371" s="58">
+      <c r="B371" s="55">
         <v>59</v>
       </c>
-      <c r="C371" s="47">
+      <c r="C371" s="45">
         <v>11844</v>
       </c>
-      <c r="D371" s="58">
+      <c r="D371" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:4" s="47" customFormat="1">
-      <c r="A372" s="47">
+    <row r="372" spans="1:4" s="45" customFormat="1">
+      <c r="A372" s="45">
         <v>371</v>
       </c>
-      <c r="B372" s="58">
+      <c r="B372" s="55">
         <v>59</v>
       </c>
-      <c r="C372" s="47">
+      <c r="C372" s="45">
         <v>11845</v>
       </c>
-      <c r="D372" s="58">
+      <c r="D372" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:4" s="47" customFormat="1">
-      <c r="A373" s="47">
+    <row r="373" spans="1:4" s="45" customFormat="1">
+      <c r="A373" s="45">
         <v>372</v>
       </c>
-      <c r="B373" s="58">
+      <c r="B373" s="55">
         <v>59</v>
       </c>
-      <c r="C373" s="47">
+      <c r="C373" s="45">
         <v>11846</v>
       </c>
-      <c r="D373" s="58">
+      <c r="D373" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:4" s="47" customFormat="1">
-      <c r="A374" s="47">
+    <row r="374" spans="1:4" s="45" customFormat="1">
+      <c r="A374" s="45">
         <v>373</v>
       </c>
-      <c r="B374" s="58">
+      <c r="B374" s="55">
         <v>59</v>
       </c>
-      <c r="C374" s="47">
+      <c r="C374" s="45">
         <v>11847</v>
       </c>
-      <c r="D374" s="58">
+      <c r="D374" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:4" s="47" customFormat="1">
-      <c r="A375" s="47">
+    <row r="375" spans="1:4" s="45" customFormat="1">
+      <c r="A375" s="45">
         <v>374</v>
       </c>
-      <c r="B375" s="58">
+      <c r="B375" s="55">
         <v>59</v>
       </c>
-      <c r="C375" s="47">
+      <c r="C375" s="45">
         <v>11848</v>
       </c>
-      <c r="D375" s="58">
+      <c r="D375" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:4" s="47" customFormat="1">
-      <c r="A376" s="47">
+    <row r="376" spans="1:4" s="45" customFormat="1">
+      <c r="A376" s="45">
         <v>375</v>
       </c>
-      <c r="B376" s="58">
+      <c r="B376" s="55">
         <v>59</v>
       </c>
-      <c r="C376" s="47">
+      <c r="C376" s="45">
         <v>11849</v>
       </c>
-      <c r="D376" s="58">
+      <c r="D376" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:4" s="47" customFormat="1">
-      <c r="A377" s="47">
+    <row r="377" spans="1:4" s="45" customFormat="1">
+      <c r="A377" s="45">
         <v>376</v>
       </c>
-      <c r="B377" s="58">
+      <c r="B377" s="55">
         <v>59</v>
       </c>
-      <c r="C377" s="47">
+      <c r="C377" s="45">
         <v>11850</v>
       </c>
-      <c r="D377" s="58">
+      <c r="D377" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:4" s="63" customFormat="1">
-      <c r="A378" s="63">
+    <row r="378" spans="1:4" s="57" customFormat="1">
+      <c r="A378" s="57">
         <v>377</v>
       </c>
-      <c r="B378" s="63">
+      <c r="B378" s="57">
         <v>60</v>
       </c>
-      <c r="C378" s="63">
+      <c r="C378" s="57">
         <v>11851</v>
       </c>
-      <c r="D378" s="63">
+      <c r="D378" s="57">
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:4" s="63" customFormat="1">
-      <c r="A379" s="63">
+    <row r="379" spans="1:4" s="57" customFormat="1">
+      <c r="A379" s="57">
         <v>378</v>
       </c>
-      <c r="B379" s="63">
+      <c r="B379" s="57">
         <v>60</v>
       </c>
-      <c r="C379" s="63">
+      <c r="C379" s="57">
         <v>11852</v>
       </c>
-      <c r="D379" s="63">
+      <c r="D379" s="57">
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:4" s="63" customFormat="1">
-      <c r="A380" s="63">
+    <row r="380" spans="1:4" s="57" customFormat="1">
+      <c r="A380" s="57">
         <v>379</v>
       </c>
-      <c r="B380" s="63">
+      <c r="B380" s="57">
         <v>60</v>
       </c>
-      <c r="C380" s="63">
+      <c r="C380" s="57">
         <v>11853</v>
       </c>
-      <c r="D380" s="63">
+      <c r="D380" s="57">
         <v>25</v>
       </c>
     </row>
-    <row r="381" spans="1:4" s="63" customFormat="1">
-      <c r="A381" s="63">
+    <row r="381" spans="1:4" s="57" customFormat="1">
+      <c r="A381" s="57">
         <v>380</v>
       </c>
-      <c r="B381" s="63">
+      <c r="B381" s="57">
         <v>60</v>
       </c>
-      <c r="C381" s="63">
+      <c r="C381" s="57">
         <v>11854</v>
       </c>
-      <c r="D381" s="63">
+      <c r="D381" s="57">
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:4" s="63" customFormat="1">
-      <c r="A382" s="63">
+    <row r="382" spans="1:4" s="57" customFormat="1">
+      <c r="A382" s="57">
         <v>381</v>
       </c>
-      <c r="B382" s="63">
+      <c r="B382" s="57">
         <v>60</v>
       </c>
-      <c r="C382" s="63">
+      <c r="C382" s="57">
         <v>11855</v>
       </c>
-      <c r="D382" s="63">
+      <c r="D382" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:4" s="63" customFormat="1">
-      <c r="A383" s="63">
+    <row r="383" spans="1:4" s="57" customFormat="1">
+      <c r="A383" s="57">
         <v>382</v>
       </c>
-      <c r="B383" s="63">
+      <c r="B383" s="57">
         <v>60</v>
       </c>
-      <c r="C383" s="63">
+      <c r="C383" s="57">
         <v>11856</v>
       </c>
-      <c r="D383" s="63">
+      <c r="D383" s="57">
         <v>0</v>
       </c>
     </row>
@@ -13987,7 +13980,7 @@
       <c r="B384" s="13">
         <v>61</v>
       </c>
-      <c r="C384" s="63">
+      <c r="C384" s="57">
         <v>11857</v>
       </c>
       <c r="D384" s="13">
@@ -14001,7 +13994,7 @@
       <c r="B385" s="13">
         <v>62</v>
       </c>
-      <c r="C385" s="63">
+      <c r="C385" s="57">
         <v>11858</v>
       </c>
       <c r="D385" s="13">
@@ -14012,13 +14005,13 @@
       <c r="A386" s="13">
         <v>385</v>
       </c>
-      <c r="B386" s="75">
+      <c r="B386" s="66">
         <v>63</v>
       </c>
-      <c r="C386" s="75">
+      <c r="C386" s="66">
         <v>11859</v>
       </c>
-      <c r="D386" s="75">
+      <c r="D386" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14026,13 +14019,13 @@
       <c r="A387" s="13">
         <v>386</v>
       </c>
-      <c r="B387" s="75">
+      <c r="B387" s="66">
         <v>63</v>
       </c>
-      <c r="C387" s="75">
+      <c r="C387" s="66">
         <v>11860</v>
       </c>
-      <c r="D387" s="75">
+      <c r="D387" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14040,13 +14033,13 @@
       <c r="A388" s="13">
         <v>387</v>
       </c>
-      <c r="B388" s="75">
+      <c r="B388" s="66">
         <v>63</v>
       </c>
-      <c r="C388" s="75">
+      <c r="C388" s="66">
         <v>11861</v>
       </c>
-      <c r="D388" s="75">
+      <c r="D388" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14054,13 +14047,13 @@
       <c r="A389" s="13">
         <v>388</v>
       </c>
-      <c r="B389" s="75">
+      <c r="B389" s="66">
         <v>63</v>
       </c>
-      <c r="C389" s="75">
+      <c r="C389" s="66">
         <v>11862</v>
       </c>
-      <c r="D389" s="75">
+      <c r="D389" s="66">
         <v>400</v>
       </c>
     </row>
@@ -14068,13 +14061,13 @@
       <c r="A390" s="13">
         <v>389</v>
       </c>
-      <c r="B390" s="75">
+      <c r="B390" s="66">
         <v>63</v>
       </c>
-      <c r="C390" s="75">
+      <c r="C390" s="66">
         <v>11863</v>
       </c>
-      <c r="D390" s="75">
+      <c r="D390" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14082,13 +14075,13 @@
       <c r="A391" s="13">
         <v>390</v>
       </c>
-      <c r="B391" s="75">
+      <c r="B391" s="66">
         <v>63</v>
       </c>
-      <c r="C391" s="75">
+      <c r="C391" s="66">
         <v>11864</v>
       </c>
-      <c r="D391" s="75">
+      <c r="D391" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14096,13 +14089,13 @@
       <c r="A392" s="13">
         <v>391</v>
       </c>
-      <c r="B392" s="75">
+      <c r="B392" s="66">
         <v>64</v>
       </c>
-      <c r="C392" s="75">
+      <c r="C392" s="66">
         <v>11865</v>
       </c>
-      <c r="D392" s="75">
+      <c r="D392" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14110,13 +14103,13 @@
       <c r="A393" s="13">
         <v>392</v>
       </c>
-      <c r="B393" s="75">
+      <c r="B393" s="66">
         <v>64</v>
       </c>
-      <c r="C393" s="75">
+      <c r="C393" s="66">
         <v>11866</v>
       </c>
-      <c r="D393" s="75">
+      <c r="D393" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14124,13 +14117,13 @@
       <c r="A394" s="13">
         <v>393</v>
       </c>
-      <c r="B394" s="75">
+      <c r="B394" s="66">
         <v>64</v>
       </c>
-      <c r="C394" s="75">
+      <c r="C394" s="66">
         <v>11867</v>
       </c>
-      <c r="D394" s="75">
+      <c r="D394" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14138,13 +14131,13 @@
       <c r="A395" s="13">
         <v>394</v>
       </c>
-      <c r="B395" s="75">
+      <c r="B395" s="66">
         <v>64</v>
       </c>
-      <c r="C395" s="75">
+      <c r="C395" s="66">
         <v>11868</v>
       </c>
-      <c r="D395" s="75">
+      <c r="D395" s="66">
         <v>400</v>
       </c>
     </row>
@@ -14152,13 +14145,13 @@
       <c r="A396" s="13">
         <v>395</v>
       </c>
-      <c r="B396" s="75">
+      <c r="B396" s="66">
         <v>64</v>
       </c>
-      <c r="C396" s="75">
+      <c r="C396" s="66">
         <v>11869</v>
       </c>
-      <c r="D396" s="75">
+      <c r="D396" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14166,13 +14159,13 @@
       <c r="A397" s="13">
         <v>396</v>
       </c>
-      <c r="B397" s="75">
+      <c r="B397" s="66">
         <v>64</v>
       </c>
-      <c r="C397" s="75">
+      <c r="C397" s="66">
         <v>11870</v>
       </c>
-      <c r="D397" s="75">
+      <c r="D397" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14180,13 +14173,13 @@
       <c r="A398" s="13">
         <v>397</v>
       </c>
-      <c r="B398" s="75">
+      <c r="B398" s="66">
         <v>65</v>
       </c>
-      <c r="C398" s="75">
+      <c r="C398" s="66">
         <v>11871</v>
       </c>
-      <c r="D398" s="75">
+      <c r="D398" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14194,13 +14187,13 @@
       <c r="A399" s="13">
         <v>398</v>
       </c>
-      <c r="B399" s="75">
+      <c r="B399" s="66">
         <v>65</v>
       </c>
-      <c r="C399" s="75">
+      <c r="C399" s="66">
         <v>11872</v>
       </c>
-      <c r="D399" s="75">
+      <c r="D399" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14208,13 +14201,13 @@
       <c r="A400" s="13">
         <v>399</v>
       </c>
-      <c r="B400" s="75">
+      <c r="B400" s="66">
         <v>65</v>
       </c>
-      <c r="C400" s="75">
+      <c r="C400" s="66">
         <v>11873</v>
       </c>
-      <c r="D400" s="75">
+      <c r="D400" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14222,13 +14215,13 @@
       <c r="A401" s="13">
         <v>400</v>
       </c>
-      <c r="B401" s="75">
+      <c r="B401" s="66">
         <v>65</v>
       </c>
-      <c r="C401" s="75">
+      <c r="C401" s="66">
         <v>11874</v>
       </c>
-      <c r="D401" s="75">
+      <c r="D401" s="66">
         <v>400</v>
       </c>
     </row>
@@ -14236,13 +14229,13 @@
       <c r="A402" s="13">
         <v>401</v>
       </c>
-      <c r="B402" s="75">
+      <c r="B402" s="66">
         <v>65</v>
       </c>
-      <c r="C402" s="75">
+      <c r="C402" s="66">
         <v>11875</v>
       </c>
-      <c r="D402" s="75">
+      <c r="D402" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14250,13 +14243,13 @@
       <c r="A403" s="13">
         <v>402</v>
       </c>
-      <c r="B403" s="75">
+      <c r="B403" s="66">
         <v>65</v>
       </c>
-      <c r="C403" s="75">
+      <c r="C403" s="66">
         <v>11876</v>
       </c>
-      <c r="D403" s="75">
+      <c r="D403" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14264,13 +14257,13 @@
       <c r="A404" s="13">
         <v>403</v>
       </c>
-      <c r="B404" s="75">
+      <c r="B404" s="66">
         <v>66</v>
       </c>
-      <c r="C404" s="75">
+      <c r="C404" s="66">
         <v>11877</v>
       </c>
-      <c r="D404" s="75">
+      <c r="D404" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14278,13 +14271,13 @@
       <c r="A405" s="13">
         <v>404</v>
       </c>
-      <c r="B405" s="75">
+      <c r="B405" s="66">
         <v>66</v>
       </c>
-      <c r="C405" s="75">
+      <c r="C405" s="66">
         <v>11878</v>
       </c>
-      <c r="D405" s="75">
+      <c r="D405" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14292,13 +14285,13 @@
       <c r="A406" s="13">
         <v>405</v>
       </c>
-      <c r="B406" s="75">
+      <c r="B406" s="66">
         <v>66</v>
       </c>
-      <c r="C406" s="75">
+      <c r="C406" s="66">
         <v>11879</v>
       </c>
-      <c r="D406" s="75">
+      <c r="D406" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14306,13 +14299,13 @@
       <c r="A407" s="13">
         <v>406</v>
       </c>
-      <c r="B407" s="75">
+      <c r="B407" s="66">
         <v>66</v>
       </c>
-      <c r="C407" s="75">
+      <c r="C407" s="66">
         <v>11880</v>
       </c>
-      <c r="D407" s="75">
+      <c r="D407" s="66">
         <v>400</v>
       </c>
     </row>
@@ -14320,13 +14313,13 @@
       <c r="A408" s="13">
         <v>407</v>
       </c>
-      <c r="B408" s="75">
+      <c r="B408" s="66">
         <v>66</v>
       </c>
-      <c r="C408" s="75">
+      <c r="C408" s="66">
         <v>11881</v>
       </c>
-      <c r="D408" s="75">
+      <c r="D408" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14334,13 +14327,13 @@
       <c r="A409" s="13">
         <v>408</v>
       </c>
-      <c r="B409" s="75">
+      <c r="B409" s="66">
         <v>66</v>
       </c>
-      <c r="C409" s="75">
+      <c r="C409" s="66">
         <v>11882</v>
       </c>
-      <c r="D409" s="75">
+      <c r="D409" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14348,13 +14341,13 @@
       <c r="A410" s="13">
         <v>409</v>
       </c>
-      <c r="B410" s="75">
+      <c r="B410" s="66">
         <v>67</v>
       </c>
-      <c r="C410" s="75">
+      <c r="C410" s="66">
         <v>11883</v>
       </c>
-      <c r="D410" s="75">
+      <c r="D410" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14362,13 +14355,13 @@
       <c r="A411" s="13">
         <v>410</v>
       </c>
-      <c r="B411" s="75">
+      <c r="B411" s="66">
         <v>67</v>
       </c>
-      <c r="C411" s="75">
+      <c r="C411" s="66">
         <v>11884</v>
       </c>
-      <c r="D411" s="75">
+      <c r="D411" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14376,13 +14369,13 @@
       <c r="A412" s="13">
         <v>411</v>
       </c>
-      <c r="B412" s="75">
+      <c r="B412" s="66">
         <v>67</v>
       </c>
-      <c r="C412" s="75">
+      <c r="C412" s="66">
         <v>11885</v>
       </c>
-      <c r="D412" s="75">
+      <c r="D412" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14390,13 +14383,13 @@
       <c r="A413" s="13">
         <v>412</v>
       </c>
-      <c r="B413" s="75">
+      <c r="B413" s="66">
         <v>67</v>
       </c>
-      <c r="C413" s="75">
+      <c r="C413" s="66">
         <v>11886</v>
       </c>
-      <c r="D413" s="75">
+      <c r="D413" s="66">
         <v>400</v>
       </c>
     </row>
@@ -14404,13 +14397,13 @@
       <c r="A414" s="13">
         <v>413</v>
       </c>
-      <c r="B414" s="75">
+      <c r="B414" s="66">
         <v>67</v>
       </c>
-      <c r="C414" s="75">
+      <c r="C414" s="66">
         <v>11887</v>
       </c>
-      <c r="D414" s="75">
+      <c r="D414" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14418,13 +14411,13 @@
       <c r="A415" s="13">
         <v>414</v>
       </c>
-      <c r="B415" s="75">
+      <c r="B415" s="66">
         <v>67</v>
       </c>
-      <c r="C415" s="75">
+      <c r="C415" s="66">
         <v>11888</v>
       </c>
-      <c r="D415" s="75">
+      <c r="D415" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14432,13 +14425,13 @@
       <c r="A416" s="13">
         <v>415</v>
       </c>
-      <c r="B416" s="75">
+      <c r="B416" s="66">
         <v>68</v>
       </c>
-      <c r="C416" s="75">
+      <c r="C416" s="66">
         <v>11889</v>
       </c>
-      <c r="D416" s="75">
+      <c r="D416" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14446,13 +14439,13 @@
       <c r="A417" s="13">
         <v>416</v>
       </c>
-      <c r="B417" s="75">
+      <c r="B417" s="66">
         <v>68</v>
       </c>
-      <c r="C417" s="75">
+      <c r="C417" s="66">
         <v>11890</v>
       </c>
-      <c r="D417" s="75">
+      <c r="D417" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14460,13 +14453,13 @@
       <c r="A418" s="13">
         <v>417</v>
       </c>
-      <c r="B418" s="75">
+      <c r="B418" s="66">
         <v>68</v>
       </c>
-      <c r="C418" s="75">
+      <c r="C418" s="66">
         <v>11891</v>
       </c>
-      <c r="D418" s="75">
+      <c r="D418" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14474,13 +14467,13 @@
       <c r="A419" s="13">
         <v>418</v>
       </c>
-      <c r="B419" s="75">
+      <c r="B419" s="66">
         <v>68</v>
       </c>
-      <c r="C419" s="75">
+      <c r="C419" s="66">
         <v>11892</v>
       </c>
-      <c r="D419" s="75">
+      <c r="D419" s="66">
         <v>400</v>
       </c>
     </row>
@@ -14488,13 +14481,13 @@
       <c r="A420" s="13">
         <v>419</v>
       </c>
-      <c r="B420" s="75">
+      <c r="B420" s="66">
         <v>68</v>
       </c>
-      <c r="C420" s="75">
+      <c r="C420" s="66">
         <v>11893</v>
       </c>
-      <c r="D420" s="75">
+      <c r="D420" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14502,13 +14495,13 @@
       <c r="A421" s="13">
         <v>420</v>
       </c>
-      <c r="B421" s="75">
+      <c r="B421" s="66">
         <v>68</v>
       </c>
-      <c r="C421" s="75">
+      <c r="C421" s="66">
         <v>11894</v>
       </c>
-      <c r="D421" s="75">
+      <c r="D421" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14516,13 +14509,13 @@
       <c r="A422" s="13">
         <v>421</v>
       </c>
-      <c r="B422" s="39">
+      <c r="B422" s="37">
         <v>69</v>
       </c>
-      <c r="C422" s="39">
+      <c r="C422" s="37">
         <v>11895</v>
       </c>
-      <c r="D422" s="39">
+      <c r="D422" s="37">
         <v>20</v>
       </c>
     </row>
@@ -14530,13 +14523,13 @@
       <c r="A423" s="13">
         <v>422</v>
       </c>
-      <c r="B423" s="39">
+      <c r="B423" s="37">
         <v>69</v>
       </c>
-      <c r="C423" s="39">
+      <c r="C423" s="37">
         <v>11896</v>
       </c>
-      <c r="D423" s="39">
+      <c r="D423" s="37">
         <v>25</v>
       </c>
     </row>
@@ -14544,13 +14537,13 @@
       <c r="A424" s="13">
         <v>423</v>
       </c>
-      <c r="B424" s="39">
+      <c r="B424" s="37">
         <v>69</v>
       </c>
-      <c r="C424" s="39">
+      <c r="C424" s="37">
         <v>11897</v>
       </c>
-      <c r="D424" s="39">
+      <c r="D424" s="37">
         <v>25</v>
       </c>
     </row>
@@ -14558,13 +14551,13 @@
       <c r="A425" s="13">
         <v>424</v>
       </c>
-      <c r="B425" s="39">
+      <c r="B425" s="37">
         <v>69</v>
       </c>
-      <c r="C425" s="39">
+      <c r="C425" s="37">
         <v>11898</v>
       </c>
-      <c r="D425" s="39">
+      <c r="D425" s="37">
         <v>27</v>
       </c>
     </row>
@@ -14572,13 +14565,13 @@
       <c r="A426" s="13">
         <v>425</v>
       </c>
-      <c r="B426" s="39">
+      <c r="B426" s="37">
         <v>69</v>
       </c>
-      <c r="C426" s="39">
+      <c r="C426" s="37">
         <v>11899</v>
       </c>
-      <c r="D426" s="39">
+      <c r="D426" s="37">
         <v>3</v>
       </c>
     </row>
@@ -14586,13 +14579,13 @@
       <c r="A427" s="13">
         <v>426</v>
       </c>
-      <c r="B427" s="39">
+      <c r="B427" s="37">
         <v>69</v>
       </c>
-      <c r="C427" s="39">
+      <c r="C427" s="37">
         <v>11900</v>
       </c>
-      <c r="D427" s="39">
+      <c r="D427" s="37">
         <v>0</v>
       </c>
     </row>
@@ -14600,13 +14593,13 @@
       <c r="A428" s="13">
         <v>427</v>
       </c>
-      <c r="B428" s="53">
+      <c r="B428" s="50">
         <v>70</v>
       </c>
-      <c r="C428" s="53">
+      <c r="C428" s="50">
         <v>11901</v>
       </c>
-      <c r="D428" s="53">
+      <c r="D428" s="50">
         <v>20</v>
       </c>
     </row>
@@ -14614,13 +14607,13 @@
       <c r="A429" s="13">
         <v>428</v>
       </c>
-      <c r="B429" s="53">
+      <c r="B429" s="50">
         <v>70</v>
       </c>
-      <c r="C429" s="53">
+      <c r="C429" s="50">
         <v>11902</v>
       </c>
-      <c r="D429" s="53">
+      <c r="D429" s="50">
         <v>25</v>
       </c>
     </row>
@@ -14628,13 +14621,13 @@
       <c r="A430" s="13">
         <v>429</v>
       </c>
-      <c r="B430" s="53">
+      <c r="B430" s="50">
         <v>70</v>
       </c>
-      <c r="C430" s="53">
+      <c r="C430" s="50">
         <v>11903</v>
       </c>
-      <c r="D430" s="53">
+      <c r="D430" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14642,13 +14635,13 @@
       <c r="A431" s="13">
         <v>430</v>
       </c>
-      <c r="B431" s="53">
+      <c r="B431" s="50">
         <v>70</v>
       </c>
-      <c r="C431" s="53">
+      <c r="C431" s="50">
         <v>11904</v>
       </c>
-      <c r="D431" s="53">
+      <c r="D431" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14656,13 +14649,13 @@
       <c r="A432" s="13">
         <v>431</v>
       </c>
-      <c r="B432" s="53">
+      <c r="B432" s="50">
         <v>70</v>
       </c>
-      <c r="C432" s="53">
+      <c r="C432" s="50">
         <v>11905</v>
       </c>
-      <c r="D432" s="53">
+      <c r="D432" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14670,13 +14663,13 @@
       <c r="A433" s="13">
         <v>432</v>
       </c>
-      <c r="B433" s="53">
+      <c r="B433" s="50">
         <v>70</v>
       </c>
-      <c r="C433" s="53">
+      <c r="C433" s="50">
         <v>11906</v>
       </c>
-      <c r="D433" s="53">
+      <c r="D433" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14684,13 +14677,13 @@
       <c r="A434" s="13">
         <v>433</v>
       </c>
-      <c r="B434" s="53">
+      <c r="B434" s="50">
         <v>70</v>
       </c>
-      <c r="C434" s="53">
+      <c r="C434" s="50">
         <v>11907</v>
       </c>
-      <c r="D434" s="53">
+      <c r="D434" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14698,13 +14691,13 @@
       <c r="A435" s="13">
         <v>434</v>
       </c>
-      <c r="B435" s="53">
+      <c r="B435" s="50">
         <v>70</v>
       </c>
-      <c r="C435" s="53">
+      <c r="C435" s="50">
         <v>11908</v>
       </c>
-      <c r="D435" s="53">
+      <c r="D435" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14712,13 +14705,13 @@
       <c r="A436" s="13">
         <v>435</v>
       </c>
-      <c r="B436" s="53">
+      <c r="B436" s="50">
         <v>70</v>
       </c>
-      <c r="C436" s="53">
+      <c r="C436" s="50">
         <v>11909</v>
       </c>
-      <c r="D436" s="53">
+      <c r="D436" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14726,13 +14719,13 @@
       <c r="A437" s="13">
         <v>436</v>
       </c>
-      <c r="B437" s="53">
+      <c r="B437" s="50">
         <v>71</v>
       </c>
-      <c r="C437" s="53">
+      <c r="C437" s="50">
         <v>11911</v>
       </c>
-      <c r="D437" s="53">
+      <c r="D437" s="50">
         <v>20</v>
       </c>
     </row>
@@ -14740,13 +14733,13 @@
       <c r="A438" s="13">
         <v>437</v>
       </c>
-      <c r="B438" s="53">
+      <c r="B438" s="50">
         <v>71</v>
       </c>
-      <c r="C438" s="53">
+      <c r="C438" s="50">
         <v>11912</v>
       </c>
-      <c r="D438" s="53">
+      <c r="D438" s="50">
         <v>25</v>
       </c>
     </row>
@@ -14754,13 +14747,13 @@
       <c r="A439" s="13">
         <v>438</v>
       </c>
-      <c r="B439" s="53">
+      <c r="B439" s="50">
         <v>71</v>
       </c>
-      <c r="C439" s="53">
+      <c r="C439" s="50">
         <v>11913</v>
       </c>
-      <c r="D439" s="53">
+      <c r="D439" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14768,13 +14761,13 @@
       <c r="A440" s="13">
         <v>439</v>
       </c>
-      <c r="B440" s="53">
+      <c r="B440" s="50">
         <v>71</v>
       </c>
-      <c r="C440" s="53">
+      <c r="C440" s="50">
         <v>11914</v>
       </c>
-      <c r="D440" s="53">
+      <c r="D440" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14782,13 +14775,13 @@
       <c r="A441" s="13">
         <v>440</v>
       </c>
-      <c r="B441" s="53">
+      <c r="B441" s="50">
         <v>71</v>
       </c>
-      <c r="C441" s="53">
+      <c r="C441" s="50">
         <v>11915</v>
       </c>
-      <c r="D441" s="53">
+      <c r="D441" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14796,13 +14789,13 @@
       <c r="A442" s="13">
         <v>441</v>
       </c>
-      <c r="B442" s="53">
+      <c r="B442" s="50">
         <v>71</v>
       </c>
-      <c r="C442" s="53">
+      <c r="C442" s="50">
         <v>11916</v>
       </c>
-      <c r="D442" s="53">
+      <c r="D442" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14810,13 +14803,13 @@
       <c r="A443" s="13">
         <v>442</v>
       </c>
-      <c r="B443" s="53">
+      <c r="B443" s="50">
         <v>71</v>
       </c>
-      <c r="C443" s="53">
+      <c r="C443" s="50">
         <v>11917</v>
       </c>
-      <c r="D443" s="53">
+      <c r="D443" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14824,13 +14817,13 @@
       <c r="A444" s="13">
         <v>443</v>
       </c>
-      <c r="B444" s="53">
+      <c r="B444" s="50">
         <v>71</v>
       </c>
-      <c r="C444" s="53">
+      <c r="C444" s="50">
         <v>11918</v>
       </c>
-      <c r="D444" s="53">
+      <c r="D444" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14838,13 +14831,13 @@
       <c r="A445" s="13">
         <v>444</v>
       </c>
-      <c r="B445" s="53">
+      <c r="B445" s="50">
         <v>71</v>
       </c>
-      <c r="C445" s="53">
+      <c r="C445" s="50">
         <v>11919</v>
       </c>
-      <c r="D445" s="53">
+      <c r="D445" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14852,13 +14845,13 @@
       <c r="A446" s="13">
         <v>445</v>
       </c>
-      <c r="B446" s="53">
+      <c r="B446" s="50">
         <v>72</v>
       </c>
-      <c r="C446" s="53">
+      <c r="C446" s="50">
         <v>11921</v>
       </c>
-      <c r="D446" s="53">
+      <c r="D446" s="50">
         <v>20</v>
       </c>
     </row>
@@ -14866,13 +14859,13 @@
       <c r="A447" s="13">
         <v>446</v>
       </c>
-      <c r="B447" s="53">
+      <c r="B447" s="50">
         <v>72</v>
       </c>
-      <c r="C447" s="53">
+      <c r="C447" s="50">
         <v>11922</v>
       </c>
-      <c r="D447" s="53">
+      <c r="D447" s="50">
         <v>25</v>
       </c>
     </row>
@@ -14880,13 +14873,13 @@
       <c r="A448" s="13">
         <v>447</v>
       </c>
-      <c r="B448" s="53">
+      <c r="B448" s="50">
         <v>72</v>
       </c>
-      <c r="C448" s="53">
+      <c r="C448" s="50">
         <v>11923</v>
       </c>
-      <c r="D448" s="53">
+      <c r="D448" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14894,13 +14887,13 @@
       <c r="A449" s="13">
         <v>448</v>
       </c>
-      <c r="B449" s="53">
+      <c r="B449" s="50">
         <v>72</v>
       </c>
-      <c r="C449" s="53">
+      <c r="C449" s="50">
         <v>11924</v>
       </c>
-      <c r="D449" s="53">
+      <c r="D449" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14908,13 +14901,13 @@
       <c r="A450" s="13">
         <v>449</v>
       </c>
-      <c r="B450" s="53">
+      <c r="B450" s="50">
         <v>72</v>
       </c>
-      <c r="C450" s="53">
+      <c r="C450" s="50">
         <v>11925</v>
       </c>
-      <c r="D450" s="53">
+      <c r="D450" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14922,13 +14915,13 @@
       <c r="A451" s="13">
         <v>450</v>
       </c>
-      <c r="B451" s="53">
+      <c r="B451" s="50">
         <v>72</v>
       </c>
-      <c r="C451" s="53">
+      <c r="C451" s="50">
         <v>11926</v>
       </c>
-      <c r="D451" s="53">
+      <c r="D451" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14936,13 +14929,13 @@
       <c r="A452" s="13">
         <v>451</v>
       </c>
-      <c r="B452" s="53">
+      <c r="B452" s="50">
         <v>72</v>
       </c>
-      <c r="C452" s="53">
+      <c r="C452" s="50">
         <v>11927</v>
       </c>
-      <c r="D452" s="53">
+      <c r="D452" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14950,13 +14943,13 @@
       <c r="A453" s="13">
         <v>452</v>
       </c>
-      <c r="B453" s="53">
+      <c r="B453" s="50">
         <v>72</v>
       </c>
-      <c r="C453" s="53">
+      <c r="C453" s="50">
         <v>11928</v>
       </c>
-      <c r="D453" s="53">
+      <c r="D453" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14964,13 +14957,13 @@
       <c r="A454" s="13">
         <v>453</v>
       </c>
-      <c r="B454" s="53">
+      <c r="B454" s="50">
         <v>72</v>
       </c>
-      <c r="C454" s="53">
+      <c r="C454" s="50">
         <v>11929</v>
       </c>
-      <c r="D454" s="53">
+      <c r="D454" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14996,14 +14989,14 @@
     <col min="2" max="2" width="19.375" style="13" customWidth="1"/>
     <col min="3" max="3" width="23.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="69" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="63" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -15012,10 +15005,10 @@
       <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="34"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17">
@@ -16400,7 +16393,7 @@
         <v>93</v>
       </c>
       <c r="D103" s="13"/>
-      <c r="E103" s="33"/>
+      <c r="E103" s="32"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="17">
@@ -16413,7 +16406,7 @@
         <v>98</v>
       </c>
       <c r="D104" s="13"/>
-      <c r="E104" s="33"/>
+      <c r="E104" s="32"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="17">
@@ -16456,7 +16449,7 @@
         <v>97</v>
       </c>
       <c r="D107" s="13"/>
-      <c r="E107" s="33"/>
+      <c r="E107" s="32"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="17">
@@ -16469,7 +16462,7 @@
         <v>58</v>
       </c>
       <c r="D108" s="13"/>
-      <c r="E108" s="33"/>
+      <c r="E108" s="32"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="17">
@@ -18884,13 +18877,13 @@
       <c r="B257" s="13">
         <v>11701</v>
       </c>
-      <c r="C257" s="35" t="s">
+      <c r="C257" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="D257" s="36" t="s">
+      <c r="D257" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E257" s="37" t="s">
+      <c r="E257" s="36" t="s">
         <v>162</v>
       </c>
     </row>
@@ -18901,13 +18894,13 @@
       <c r="B258" s="13">
         <v>11702</v>
       </c>
-      <c r="C258" s="35" t="s">
+      <c r="C258" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="D258" s="36" t="s">
+      <c r="D258" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E258" s="37" t="s">
+      <c r="E258" s="36" t="s">
         <v>390</v>
       </c>
     </row>
@@ -18918,13 +18911,13 @@
       <c r="B259" s="13">
         <v>11703</v>
       </c>
-      <c r="C259" s="35" t="s">
+      <c r="C259" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="D259" s="36" t="s">
+      <c r="D259" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E259" s="37" t="s">
+      <c r="E259" s="36" t="s">
         <v>157</v>
       </c>
     </row>
@@ -18935,13 +18928,13 @@
       <c r="B260" s="13">
         <v>11704</v>
       </c>
-      <c r="C260" s="35" t="s">
+      <c r="C260" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="D260" s="36" t="s">
+      <c r="D260" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E260" s="37" t="s">
+      <c r="E260" s="36" t="s">
         <v>393</v>
       </c>
     </row>
@@ -18952,13 +18945,13 @@
       <c r="B261" s="13">
         <v>11705</v>
       </c>
-      <c r="C261" s="35" t="s">
+      <c r="C261" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="D261" s="36" t="s">
+      <c r="D261" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E261" s="37" t="s">
+      <c r="E261" s="36" t="s">
         <v>395</v>
       </c>
     </row>
@@ -18969,13 +18962,13 @@
       <c r="B262" s="13">
         <v>11706</v>
       </c>
-      <c r="C262" s="35" t="s">
+      <c r="C262" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="D262" s="36" t="s">
+      <c r="D262" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E262" s="37" t="s">
+      <c r="E262" s="36" t="s">
         <v>204</v>
       </c>
     </row>
@@ -18986,13 +18979,13 @@
       <c r="B263" s="13">
         <v>11707</v>
       </c>
-      <c r="C263" s="35" t="s">
+      <c r="C263" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="D263" s="36" t="s">
+      <c r="D263" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E263" s="37" t="s">
+      <c r="E263" s="36" t="s">
         <v>398</v>
       </c>
     </row>
@@ -19003,13 +18996,13 @@
       <c r="B264" s="13">
         <v>11708</v>
       </c>
-      <c r="C264" s="35" t="s">
+      <c r="C264" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="D264" s="36" t="s">
+      <c r="D264" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E264" s="37" t="s">
+      <c r="E264" s="36" t="s">
         <v>400</v>
       </c>
     </row>
@@ -19020,13 +19013,13 @@
       <c r="B265" s="13">
         <v>11709</v>
       </c>
-      <c r="C265" s="35" t="s">
+      <c r="C265" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="D265" s="36" t="s">
+      <c r="D265" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E265" s="37" t="s">
+      <c r="E265" s="36" t="s">
         <v>402</v>
       </c>
     </row>
@@ -19037,13 +19030,13 @@
       <c r="B266" s="13">
         <v>11710</v>
       </c>
-      <c r="C266" s="40" t="s">
+      <c r="C266" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="D266" s="40" t="s">
+      <c r="D266" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E266" s="41" t="s">
+      <c r="E266" s="39" t="s">
         <v>433</v>
       </c>
     </row>
@@ -19054,13 +19047,13 @@
       <c r="B267" s="13">
         <v>11711</v>
       </c>
-      <c r="C267" s="40" t="s">
+      <c r="C267" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="D267" s="40" t="s">
+      <c r="D267" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E267" s="41" t="s">
+      <c r="E267" s="39" t="s">
         <v>457</v>
       </c>
     </row>
@@ -19071,13 +19064,13 @@
       <c r="B268" s="13">
         <v>11712</v>
       </c>
-      <c r="C268" s="40" t="s">
+      <c r="C268" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="D268" s="40" t="s">
+      <c r="D268" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E268" s="41" t="s">
+      <c r="E268" s="39" t="s">
         <v>204</v>
       </c>
     </row>
@@ -19088,13 +19081,13 @@
       <c r="B269" s="13">
         <v>11713</v>
       </c>
-      <c r="C269" s="40" t="s">
+      <c r="C269" s="38" t="s">
         <v>441</v>
       </c>
-      <c r="D269" s="40" t="s">
+      <c r="D269" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E269" s="41" t="s">
+      <c r="E269" s="39" t="s">
         <v>458</v>
       </c>
     </row>
@@ -19105,13 +19098,13 @@
       <c r="B270" s="13">
         <v>11714</v>
       </c>
-      <c r="C270" s="40" t="s">
+      <c r="C270" s="38" t="s">
         <v>442</v>
       </c>
-      <c r="D270" s="40" t="s">
+      <c r="D270" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E270" s="41" t="s">
+      <c r="E270" s="39" t="s">
         <v>459</v>
       </c>
     </row>
@@ -19122,13 +19115,13 @@
       <c r="B271" s="13">
         <v>11715</v>
       </c>
-      <c r="C271" s="40" t="s">
+      <c r="C271" s="38" t="s">
         <v>443</v>
       </c>
-      <c r="D271" s="40" t="s">
+      <c r="D271" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E271" s="41" t="s">
+      <c r="E271" s="39" t="s">
         <v>460</v>
       </c>
     </row>
@@ -19139,13 +19132,13 @@
       <c r="B272" s="13">
         <v>11716</v>
       </c>
-      <c r="C272" s="40" t="s">
+      <c r="C272" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="D272" s="40" t="s">
+      <c r="D272" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E272" s="41" t="s">
+      <c r="E272" s="39" t="s">
         <v>461</v>
       </c>
     </row>
@@ -19156,13 +19149,13 @@
       <c r="B273" s="13">
         <v>11717</v>
       </c>
-      <c r="C273" s="40" t="s">
+      <c r="C273" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="D273" s="40" t="s">
+      <c r="D273" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E273" s="41" t="s">
+      <c r="E273" s="39" t="s">
         <v>462</v>
       </c>
     </row>
@@ -19173,13 +19166,13 @@
       <c r="B274" s="13">
         <v>11718</v>
       </c>
-      <c r="C274" s="40" t="s">
+      <c r="C274" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="D274" s="40" t="s">
+      <c r="D274" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E274" s="41" t="s">
+      <c r="E274" s="39" t="s">
         <v>463</v>
       </c>
     </row>
@@ -19190,13 +19183,13 @@
       <c r="B275" s="13">
         <v>11719</v>
       </c>
-      <c r="C275" s="36" t="s">
+      <c r="C275" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="D275" s="36" t="s">
+      <c r="D275" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E275" s="37" t="s">
+      <c r="E275" s="36" t="s">
         <v>162</v>
       </c>
     </row>
@@ -19207,13 +19200,13 @@
       <c r="B276" s="13">
         <v>11720</v>
       </c>
-      <c r="C276" s="36" t="s">
+      <c r="C276" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="D276" s="36" t="s">
+      <c r="D276" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E276" s="37" t="s">
+      <c r="E276" s="36" t="s">
         <v>390</v>
       </c>
     </row>
@@ -19224,13 +19217,13 @@
       <c r="B277" s="13">
         <v>11721</v>
       </c>
-      <c r="C277" s="36" t="s">
+      <c r="C277" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="D277" s="36" t="s">
+      <c r="D277" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E277" s="37" t="s">
+      <c r="E277" s="36" t="s">
         <v>157</v>
       </c>
     </row>
@@ -19241,13 +19234,13 @@
       <c r="B278" s="13">
         <v>11722</v>
       </c>
-      <c r="C278" s="36" t="s">
+      <c r="C278" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="D278" s="36" t="s">
+      <c r="D278" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E278" s="37" t="s">
+      <c r="E278" s="36" t="s">
         <v>204</v>
       </c>
     </row>
@@ -19258,13 +19251,13 @@
       <c r="B279" s="13">
         <v>11723</v>
       </c>
-      <c r="C279" s="36" t="s">
+      <c r="C279" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="D279" s="36" t="s">
+      <c r="D279" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="E279" s="37" t="s">
+      <c r="E279" s="36" t="s">
         <v>202</v>
       </c>
     </row>
@@ -19275,13 +19268,13 @@
       <c r="B280" s="13">
         <v>11724</v>
       </c>
-      <c r="C280" s="36" t="s">
+      <c r="C280" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="D280" s="36" t="s">
+      <c r="D280" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E280" s="37" t="s">
+      <c r="E280" s="36" t="s">
         <v>464</v>
       </c>
     </row>
@@ -19292,13 +19285,13 @@
       <c r="B281" s="13">
         <v>11725</v>
       </c>
-      <c r="C281" s="36" t="s">
+      <c r="C281" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="D281" s="36" t="s">
+      <c r="D281" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="E281" s="37" t="s">
+      <c r="E281" s="36" t="s">
         <v>136</v>
       </c>
     </row>
@@ -19309,13 +19302,13 @@
       <c r="B282" s="13">
         <v>11726</v>
       </c>
-      <c r="C282" s="36" t="s">
+      <c r="C282" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="D282" s="36" t="s">
+      <c r="D282" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E282" s="37" t="s">
+      <c r="E282" s="36" t="s">
         <v>465</v>
       </c>
     </row>
@@ -19326,13 +19319,13 @@
       <c r="B283" s="13">
         <v>11727</v>
       </c>
-      <c r="C283" s="36" t="s">
+      <c r="C283" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="D283" s="36" t="s">
+      <c r="D283" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E283" s="37" t="s">
+      <c r="E283" s="36" t="s">
         <v>466</v>
       </c>
     </row>
@@ -19485,7 +19478,7 @@
       <c r="D292" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E292" s="44" t="s">
+      <c r="E292" s="42" t="s">
         <v>485</v>
       </c>
     </row>
@@ -19502,7 +19495,7 @@
       <c r="D293" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E293" s="44" t="s">
+      <c r="E293" s="42" t="s">
         <v>486</v>
       </c>
     </row>
@@ -19519,7 +19512,7 @@
       <c r="D294" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E294" s="44" t="s">
+      <c r="E294" s="42" t="s">
         <v>487</v>
       </c>
     </row>
@@ -19536,7 +19529,7 @@
       <c r="D295" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E295" s="44" t="s">
+      <c r="E295" s="42" t="s">
         <v>488</v>
       </c>
     </row>
@@ -19553,7 +19546,7 @@
       <c r="D296" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E296" s="44" t="s">
+      <c r="E296" s="42" t="s">
         <v>489</v>
       </c>
     </row>
@@ -19567,10 +19560,10 @@
       <c r="C297" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D297" s="45" t="s">
+      <c r="D297" s="43" t="s">
         <v>499</v>
       </c>
-      <c r="E297" s="44" t="s">
+      <c r="E297" s="42" t="s">
         <v>504</v>
       </c>
     </row>
@@ -19584,10 +19577,10 @@
       <c r="C298" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="D298" s="45" t="s">
+      <c r="D298" s="43" t="s">
         <v>500</v>
       </c>
-      <c r="E298" s="44" t="s">
+      <c r="E298" s="42" t="s">
         <v>502</v>
       </c>
     </row>
@@ -19601,10 +19594,10 @@
       <c r="C299" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="D299" s="45" t="s">
+      <c r="D299" s="43" t="s">
         <v>501</v>
       </c>
-      <c r="E299" s="44" t="s">
+      <c r="E299" s="42" t="s">
         <v>503</v>
       </c>
     </row>
@@ -19621,7 +19614,7 @@
       <c r="D300" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E300" s="44" t="s">
+      <c r="E300" s="42" t="s">
         <v>579</v>
       </c>
     </row>
@@ -19638,7 +19631,7 @@
       <c r="D301" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E301" s="44" t="s">
+      <c r="E301" s="42" t="s">
         <v>575</v>
       </c>
     </row>
@@ -19655,7 +19648,7 @@
       <c r="D302" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E302" s="44" t="s">
+      <c r="E302" s="42" t="s">
         <v>576</v>
       </c>
     </row>
@@ -19672,7 +19665,7 @@
       <c r="D303" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E303" s="44" t="s">
+      <c r="E303" s="42" t="s">
         <v>577</v>
       </c>
     </row>
@@ -19689,7 +19682,7 @@
       <c r="D304" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="E304" s="44" t="s">
+      <c r="E304" s="42" t="s">
         <v>578</v>
       </c>
     </row>
@@ -19717,7 +19710,7 @@
       <c r="D306" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E306" s="44" t="s">
+      <c r="E306" s="42" t="s">
         <v>563</v>
       </c>
     </row>
@@ -19734,7 +19727,7 @@
       <c r="D307" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E307" s="44" t="s">
+      <c r="E307" s="42" t="s">
         <v>564</v>
       </c>
     </row>
@@ -19751,7 +19744,7 @@
       <c r="D308" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E308" s="44" t="s">
+      <c r="E308" s="42" t="s">
         <v>355</v>
       </c>
     </row>
@@ -19768,7 +19761,7 @@
       <c r="D309" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E309" s="44" t="s">
+      <c r="E309" s="42" t="s">
         <v>356</v>
       </c>
     </row>
@@ -19785,7 +19778,7 @@
       <c r="D310" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E310" s="44" t="s">
+      <c r="E310" s="42" t="s">
         <v>77</v>
       </c>
     </row>
@@ -19802,7 +19795,7 @@
       <c r="D311" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E311" s="44" t="s">
+      <c r="E311" s="42" t="s">
         <v>565</v>
       </c>
     </row>
@@ -19819,7 +19812,7 @@
       <c r="D312" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E312" s="44" t="s">
+      <c r="E312" s="42" t="s">
         <v>361</v>
       </c>
     </row>
@@ -19836,7 +19829,7 @@
       <c r="D313" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E313" s="44" t="s">
+      <c r="E313" s="42" t="s">
         <v>362</v>
       </c>
     </row>
@@ -19853,7 +19846,7 @@
       <c r="D314" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E314" s="44" t="s">
+      <c r="E314" s="42" t="s">
         <v>363</v>
       </c>
     </row>
@@ -19870,7 +19863,7 @@
       <c r="D315" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E315" s="44" t="s">
+      <c r="E315" s="42" t="s">
         <v>364</v>
       </c>
     </row>
@@ -19887,7 +19880,7 @@
       <c r="D316" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E316" s="44" t="s">
+      <c r="E316" s="42" t="s">
         <v>566</v>
       </c>
     </row>
@@ -19904,7 +19897,7 @@
       <c r="D317" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E317" s="44" t="s">
+      <c r="E317" s="42" t="s">
         <v>365</v>
       </c>
     </row>
@@ -19921,7 +19914,7 @@
       <c r="D318" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E318" s="44" t="s">
+      <c r="E318" s="42" t="s">
         <v>365</v>
       </c>
     </row>
@@ -19938,7 +19931,7 @@
       <c r="D319" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E319" s="44" t="s">
+      <c r="E319" s="42" t="s">
         <v>366</v>
       </c>
     </row>
@@ -19955,7 +19948,7 @@
       <c r="D320" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E320" s="44" t="s">
+      <c r="E320" s="42" t="s">
         <v>367</v>
       </c>
     </row>
@@ -19972,7 +19965,7 @@
       <c r="D321" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E321" s="44" t="s">
+      <c r="E321" s="42" t="s">
         <v>368</v>
       </c>
     </row>
@@ -19989,7 +19982,7 @@
       <c r="D322" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E322" s="44" t="s">
+      <c r="E322" s="42" t="s">
         <v>567</v>
       </c>
     </row>
@@ -20006,7 +19999,7 @@
       <c r="D323" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E323" s="44" t="s">
+      <c r="E323" s="42" t="s">
         <v>568</v>
       </c>
     </row>
@@ -20023,7 +20016,7 @@
       <c r="D324" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E324" s="44" t="s">
+      <c r="E324" s="42" t="s">
         <v>369</v>
       </c>
     </row>
@@ -20040,7 +20033,7 @@
       <c r="D325" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E325" s="44" t="s">
+      <c r="E325" s="42" t="s">
         <v>370</v>
       </c>
     </row>
@@ -20057,7 +20050,7 @@
       <c r="D326" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E326" s="44" t="s">
+      <c r="E326" s="42" t="s">
         <v>371</v>
       </c>
     </row>
@@ -20074,7 +20067,7 @@
       <c r="D327" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E327" s="44" t="s">
+      <c r="E327" s="42" t="s">
         <v>372</v>
       </c>
     </row>
@@ -20091,7 +20084,7 @@
       <c r="D328" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E328" s="44" t="s">
+      <c r="E328" s="42" t="s">
         <v>569</v>
       </c>
     </row>
@@ -20108,7 +20101,7 @@
       <c r="D329" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E329" s="44" t="s">
+      <c r="E329" s="42" t="s">
         <v>570</v>
       </c>
     </row>
@@ -20125,7 +20118,7 @@
       <c r="D330" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E330" s="44" t="s">
+      <c r="E330" s="42" t="s">
         <v>373</v>
       </c>
     </row>
@@ -20142,7 +20135,7 @@
       <c r="D331" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E331" s="44" t="s">
+      <c r="E331" s="42" t="s">
         <v>374</v>
       </c>
     </row>
@@ -20159,7 +20152,7 @@
       <c r="D332" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E332" s="44" t="s">
+      <c r="E332" s="42" t="s">
         <v>375</v>
       </c>
     </row>
@@ -20176,7 +20169,7 @@
       <c r="D333" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E333" s="44" t="s">
+      <c r="E333" s="42" t="s">
         <v>376</v>
       </c>
     </row>
@@ -20193,7 +20186,7 @@
       <c r="D334" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E334" s="44" t="s">
+      <c r="E334" s="42" t="s">
         <v>571</v>
       </c>
     </row>
@@ -20210,7 +20203,7 @@
       <c r="D335" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E335" s="44" t="s">
+      <c r="E335" s="42" t="s">
         <v>572</v>
       </c>
     </row>
@@ -20227,7 +20220,7 @@
       <c r="D336" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E336" s="44" t="s">
+      <c r="E336" s="42" t="s">
         <v>377</v>
       </c>
     </row>
@@ -20244,7 +20237,7 @@
       <c r="D337" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E337" s="44" t="s">
+      <c r="E337" s="42" t="s">
         <v>378</v>
       </c>
     </row>
@@ -20261,7 +20254,7 @@
       <c r="D338" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E338" s="44" t="s">
+      <c r="E338" s="42" t="s">
         <v>379</v>
       </c>
     </row>
@@ -20278,7 +20271,7 @@
       <c r="D339" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E339" s="44" t="s">
+      <c r="E339" s="42" t="s">
         <v>380</v>
       </c>
     </row>
@@ -20295,7 +20288,7 @@
       <c r="D340" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E340" s="44" t="s">
+      <c r="E340" s="42" t="s">
         <v>573</v>
       </c>
     </row>
@@ -20312,7 +20305,7 @@
       <c r="D341" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E341" s="44" t="s">
+      <c r="E341" s="42" t="s">
         <v>574</v>
       </c>
     </row>
@@ -20329,7 +20322,7 @@
       <c r="D342" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E342" s="33" t="s">
+      <c r="E342" s="32" t="s">
         <v>583</v>
       </c>
     </row>
@@ -20346,7 +20339,7 @@
       <c r="D343" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E343" s="33" t="s">
+      <c r="E343" s="32" t="s">
         <v>584</v>
       </c>
     </row>
@@ -20363,7 +20356,7 @@
       <c r="D344" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E344" s="33" t="s">
+      <c r="E344" s="32" t="s">
         <v>585</v>
       </c>
     </row>
@@ -20463,564 +20456,564 @@
         <v>606</v>
       </c>
       <c r="D350" s="13"/>
-      <c r="E350" s="33"/>
-    </row>
-    <row r="351" spans="1:5" s="52" customFormat="1">
+      <c r="E350" s="32"/>
+    </row>
+    <row r="351" spans="1:5" s="49" customFormat="1">
       <c r="A351" s="17">
         <v>350</v>
       </c>
       <c r="B351" s="13">
         <v>11824</v>
       </c>
-      <c r="C351" s="53" t="s">
+      <c r="C351" s="50" t="s">
         <v>613</v>
       </c>
-      <c r="D351" s="54" t="s">
+      <c r="D351" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="E351" s="56" t="s">
+      <c r="E351" s="53" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="352" spans="1:5" s="52" customFormat="1">
+    <row r="352" spans="1:5" s="49" customFormat="1">
       <c r="A352" s="17">
         <v>351</v>
       </c>
       <c r="B352" s="13">
         <v>11825</v>
       </c>
-      <c r="C352" s="54" t="s">
+      <c r="C352" s="51" t="s">
         <v>614</v>
       </c>
-      <c r="D352" s="54" t="s">
+      <c r="D352" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="E352" s="56" t="s">
+      <c r="E352" s="53" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="353" spans="1:5" s="52" customFormat="1">
+    <row r="353" spans="1:5" s="49" customFormat="1">
       <c r="A353" s="17">
         <v>352</v>
       </c>
       <c r="B353" s="13">
         <v>11826</v>
       </c>
-      <c r="C353" s="54" t="s">
+      <c r="C353" s="51" t="s">
         <v>615</v>
       </c>
-      <c r="D353" s="54" t="s">
+      <c r="D353" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="E353" s="56" t="s">
+      <c r="E353" s="53" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="354" spans="1:5" s="52" customFormat="1">
+    <row r="354" spans="1:5" s="49" customFormat="1">
       <c r="A354" s="17">
         <v>353</v>
       </c>
       <c r="B354" s="13">
         <v>11827</v>
       </c>
-      <c r="C354" s="54" t="s">
+      <c r="C354" s="51" t="s">
         <v>616</v>
       </c>
-      <c r="D354" s="54" t="s">
+      <c r="D354" s="51" t="s">
         <v>663</v>
       </c>
-      <c r="E354" s="56" t="s">
+      <c r="E354" s="53" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="355" spans="1:5" s="52" customFormat="1">
+    <row r="355" spans="1:5" s="49" customFormat="1">
       <c r="A355" s="17">
         <v>354</v>
       </c>
       <c r="B355" s="13">
         <v>11828</v>
       </c>
-      <c r="C355" s="54" t="s">
+      <c r="C355" s="51" t="s">
         <v>617</v>
       </c>
-      <c r="D355" s="53" t="s">
+      <c r="D355" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E355" s="56" t="s">
+      <c r="E355" s="53" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="356" spans="1:5" s="52" customFormat="1">
+    <row r="356" spans="1:5" s="49" customFormat="1">
       <c r="A356" s="17">
         <v>355</v>
       </c>
       <c r="B356" s="13">
         <v>11829</v>
       </c>
-      <c r="C356" s="54" t="s">
+      <c r="C356" s="51" t="s">
         <v>618</v>
       </c>
-      <c r="D356" s="53" t="s">
+      <c r="D356" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E356" s="56" t="s">
+      <c r="E356" s="53" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="357" spans="1:5" s="52" customFormat="1">
+    <row r="357" spans="1:5" s="49" customFormat="1">
       <c r="A357" s="17">
         <v>356</v>
       </c>
       <c r="B357" s="13">
         <v>11830</v>
       </c>
-      <c r="C357" s="54" t="s">
+      <c r="C357" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="D357" s="54" t="s">
+      <c r="D357" s="51" t="s">
         <v>664</v>
       </c>
-      <c r="E357" s="56" t="s">
+      <c r="E357" s="53" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="358" spans="1:5" s="52" customFormat="1">
+    <row r="358" spans="1:5" s="49" customFormat="1">
       <c r="A358" s="17">
         <v>357</v>
       </c>
       <c r="B358" s="13">
         <v>11831</v>
       </c>
-      <c r="C358" s="54" t="s">
+      <c r="C358" s="51" t="s">
         <v>620</v>
       </c>
-      <c r="D358" s="54" t="s">
+      <c r="D358" s="51" t="s">
         <v>665</v>
       </c>
-      <c r="E358" s="56" t="s">
+      <c r="E358" s="53" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="359" spans="1:5" s="52" customFormat="1">
+    <row r="359" spans="1:5" s="49" customFormat="1">
       <c r="A359" s="17">
         <v>358</v>
       </c>
       <c r="B359" s="13">
         <v>11832</v>
       </c>
-      <c r="C359" s="54" t="s">
+      <c r="C359" s="51" t="s">
         <v>621</v>
       </c>
-      <c r="D359" s="54" t="s">
+      <c r="D359" s="51" t="s">
         <v>664</v>
       </c>
-      <c r="E359" s="56" t="s">
+      <c r="E359" s="53" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="360" spans="1:5" s="46" customFormat="1">
+    <row r="360" spans="1:5" s="44" customFormat="1">
       <c r="A360" s="17">
         <v>359</v>
       </c>
       <c r="B360" s="13">
         <v>11833</v>
       </c>
-      <c r="C360" s="55" t="s">
+      <c r="C360" s="52" t="s">
         <v>622</v>
       </c>
-      <c r="D360" s="55" t="s">
+      <c r="D360" s="52" t="s">
         <v>640</v>
       </c>
-      <c r="E360" s="57" t="s">
+      <c r="E360" s="54" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="361" spans="1:5" s="46" customFormat="1">
+    <row r="361" spans="1:5" s="44" customFormat="1">
       <c r="A361" s="17">
         <v>360</v>
       </c>
       <c r="B361" s="13">
         <v>11834</v>
       </c>
-      <c r="C361" s="55" t="s">
+      <c r="C361" s="52" t="s">
         <v>623</v>
       </c>
-      <c r="D361" s="55" t="s">
+      <c r="D361" s="52" t="s">
         <v>640</v>
       </c>
-      <c r="E361" s="57" t="s">
+      <c r="E361" s="54" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="362" spans="1:5" s="46" customFormat="1">
+    <row r="362" spans="1:5" s="44" customFormat="1">
       <c r="A362" s="17">
         <v>361</v>
       </c>
       <c r="B362" s="13">
         <v>11835</v>
       </c>
-      <c r="C362" s="55" t="s">
+      <c r="C362" s="52" t="s">
         <v>624</v>
       </c>
-      <c r="D362" s="55" t="s">
+      <c r="D362" s="52" t="s">
         <v>640</v>
       </c>
-      <c r="E362" s="57" t="s">
+      <c r="E362" s="54" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="363" spans="1:5" s="46" customFormat="1">
+    <row r="363" spans="1:5" s="44" customFormat="1">
       <c r="A363" s="17">
         <v>362</v>
       </c>
       <c r="B363" s="13">
         <v>11836</v>
       </c>
-      <c r="C363" s="55" t="s">
+      <c r="C363" s="52" t="s">
         <v>625</v>
       </c>
-      <c r="D363" s="55" t="s">
+      <c r="D363" s="52" t="s">
         <v>663</v>
       </c>
-      <c r="E363" s="57" t="s">
+      <c r="E363" s="54" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="364" spans="1:5" s="46" customFormat="1">
+    <row r="364" spans="1:5" s="44" customFormat="1">
       <c r="A364" s="17">
         <v>363</v>
       </c>
       <c r="B364" s="13">
         <v>11837</v>
       </c>
-      <c r="C364" s="55" t="s">
+      <c r="C364" s="52" t="s">
         <v>626</v>
       </c>
-      <c r="D364" s="47" t="s">
+      <c r="D364" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E364" s="57" t="s">
+      <c r="E364" s="54" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="365" spans="1:5" s="46" customFormat="1">
+    <row r="365" spans="1:5" s="44" customFormat="1">
       <c r="A365" s="17">
         <v>364</v>
       </c>
       <c r="B365" s="13">
         <v>11838</v>
       </c>
-      <c r="C365" s="55" t="s">
+      <c r="C365" s="52" t="s">
         <v>627</v>
       </c>
-      <c r="D365" s="47" t="s">
+      <c r="D365" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E365" s="57" t="s">
+      <c r="E365" s="54" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="366" spans="1:5" s="46" customFormat="1">
+    <row r="366" spans="1:5" s="44" customFormat="1">
       <c r="A366" s="17">
         <v>365</v>
       </c>
       <c r="B366" s="13">
         <v>11839</v>
       </c>
-      <c r="C366" s="55" t="s">
+      <c r="C366" s="52" t="s">
         <v>628</v>
       </c>
-      <c r="D366" s="55" t="s">
+      <c r="D366" s="52" t="s">
         <v>664</v>
       </c>
-      <c r="E366" s="57" t="s">
+      <c r="E366" s="54" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="367" spans="1:5" s="46" customFormat="1">
+    <row r="367" spans="1:5" s="44" customFormat="1">
       <c r="A367" s="17">
         <v>366</v>
       </c>
       <c r="B367" s="13">
         <v>11840</v>
       </c>
-      <c r="C367" s="55" t="s">
+      <c r="C367" s="52" t="s">
         <v>629</v>
       </c>
-      <c r="D367" s="55" t="s">
+      <c r="D367" s="52" t="s">
         <v>665</v>
       </c>
-      <c r="E367" s="57" t="s">
+      <c r="E367" s="54" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="368" spans="1:5" s="46" customFormat="1">
+    <row r="368" spans="1:5" s="44" customFormat="1">
       <c r="A368" s="17">
         <v>367</v>
       </c>
       <c r="B368" s="13">
         <v>11841</v>
       </c>
-      <c r="C368" s="55" t="s">
+      <c r="C368" s="52" t="s">
         <v>630</v>
       </c>
-      <c r="D368" s="55" t="s">
+      <c r="D368" s="52" t="s">
         <v>664</v>
       </c>
-      <c r="E368" s="57" t="s">
+      <c r="E368" s="54" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="369" spans="1:5" s="52" customFormat="1">
+    <row r="369" spans="1:5" s="49" customFormat="1">
       <c r="A369" s="17">
         <v>368</v>
       </c>
       <c r="B369" s="13">
         <v>11842</v>
       </c>
-      <c r="C369" s="54" t="s">
+      <c r="C369" s="51" t="s">
         <v>631</v>
       </c>
-      <c r="D369" s="54" t="s">
+      <c r="D369" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="E369" s="56" t="s">
+      <c r="E369" s="53" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="370" spans="1:5" s="52" customFormat="1">
+    <row r="370" spans="1:5" s="49" customFormat="1">
       <c r="A370" s="17">
         <v>369</v>
       </c>
       <c r="B370" s="13">
         <v>11843</v>
       </c>
-      <c r="C370" s="54" t="s">
+      <c r="C370" s="51" t="s">
         <v>632</v>
       </c>
-      <c r="D370" s="54" t="s">
+      <c r="D370" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="E370" s="56" t="s">
+      <c r="E370" s="53" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="371" spans="1:5" s="52" customFormat="1">
+    <row r="371" spans="1:5" s="49" customFormat="1">
       <c r="A371" s="17">
         <v>370</v>
       </c>
       <c r="B371" s="13">
         <v>11844</v>
       </c>
-      <c r="C371" s="54" t="s">
+      <c r="C371" s="51" t="s">
         <v>633</v>
       </c>
-      <c r="D371" s="54" t="s">
+      <c r="D371" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="E371" s="56" t="s">
+      <c r="E371" s="53" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="372" spans="1:5" s="52" customFormat="1">
+    <row r="372" spans="1:5" s="49" customFormat="1">
       <c r="A372" s="17">
         <v>371</v>
       </c>
       <c r="B372" s="13">
         <v>11845</v>
       </c>
-      <c r="C372" s="54" t="s">
+      <c r="C372" s="51" t="s">
         <v>634</v>
       </c>
-      <c r="D372" s="54" t="s">
+      <c r="D372" s="51" t="s">
         <v>663</v>
       </c>
-      <c r="E372" s="56" t="s">
+      <c r="E372" s="53" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="373" spans="1:5" s="52" customFormat="1">
+    <row r="373" spans="1:5" s="49" customFormat="1">
       <c r="A373" s="17">
         <v>372</v>
       </c>
       <c r="B373" s="13">
         <v>11846</v>
       </c>
-      <c r="C373" s="54" t="s">
+      <c r="C373" s="51" t="s">
         <v>635</v>
       </c>
-      <c r="D373" s="53" t="s">
+      <c r="D373" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E373" s="56" t="s">
+      <c r="E373" s="53" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="374" spans="1:5" s="52" customFormat="1">
+    <row r="374" spans="1:5" s="49" customFormat="1">
       <c r="A374" s="17">
         <v>373</v>
       </c>
       <c r="B374" s="13">
         <v>11847</v>
       </c>
-      <c r="C374" s="54" t="s">
+      <c r="C374" s="51" t="s">
         <v>636</v>
       </c>
-      <c r="D374" s="53" t="s">
+      <c r="D374" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E374" s="56" t="s">
+      <c r="E374" s="53" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="375" spans="1:5" s="52" customFormat="1">
+    <row r="375" spans="1:5" s="49" customFormat="1">
       <c r="A375" s="17">
         <v>374</v>
       </c>
       <c r="B375" s="13">
         <v>11848</v>
       </c>
-      <c r="C375" s="54" t="s">
+      <c r="C375" s="51" t="s">
         <v>637</v>
       </c>
-      <c r="D375" s="54" t="s">
+      <c r="D375" s="51" t="s">
         <v>664</v>
       </c>
-      <c r="E375" s="56" t="s">
+      <c r="E375" s="53" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="376" spans="1:5" s="52" customFormat="1">
+    <row r="376" spans="1:5" s="49" customFormat="1">
       <c r="A376" s="17">
         <v>375</v>
       </c>
       <c r="B376" s="13">
         <v>11849</v>
       </c>
-      <c r="C376" s="54" t="s">
+      <c r="C376" s="51" t="s">
         <v>638</v>
       </c>
-      <c r="D376" s="54" t="s">
+      <c r="D376" s="51" t="s">
         <v>665</v>
       </c>
-      <c r="E376" s="56" t="s">
+      <c r="E376" s="53" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="377" spans="1:5" s="52" customFormat="1">
+    <row r="377" spans="1:5" s="49" customFormat="1">
       <c r="A377" s="17">
         <v>376</v>
       </c>
       <c r="B377" s="13">
         <v>11850</v>
       </c>
-      <c r="C377" s="54" t="s">
+      <c r="C377" s="51" t="s">
         <v>639</v>
       </c>
-      <c r="D377" s="54" t="s">
+      <c r="D377" s="51" t="s">
         <v>664</v>
       </c>
-      <c r="E377" s="56" t="s">
+      <c r="E377" s="53" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="378" spans="1:5" s="65" customFormat="1">
+    <row r="378" spans="1:5" s="59" customFormat="1">
       <c r="A378" s="17">
         <v>377</v>
       </c>
       <c r="B378" s="13">
         <v>11851</v>
       </c>
-      <c r="C378" s="63" t="s">
+      <c r="C378" s="57" t="s">
         <v>595</v>
       </c>
-      <c r="D378" s="63" t="s">
+      <c r="D378" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E378" s="66" t="s">
+      <c r="E378" s="60" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="379" spans="1:5" s="65" customFormat="1">
+    <row r="379" spans="1:5" s="59" customFormat="1">
       <c r="A379" s="17">
         <v>378</v>
       </c>
       <c r="B379" s="13">
         <v>11852</v>
       </c>
-      <c r="C379" s="67" t="s">
+      <c r="C379" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="D379" s="67" t="s">
+      <c r="D379" s="61" t="s">
         <v>601</v>
       </c>
-      <c r="E379" s="66" t="s">
+      <c r="E379" s="60" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="380" spans="1:5" s="65" customFormat="1">
+    <row r="380" spans="1:5" s="59" customFormat="1">
       <c r="A380" s="17">
         <v>379</v>
       </c>
       <c r="B380" s="13">
         <v>11853</v>
       </c>
-      <c r="C380" s="67" t="s">
+      <c r="C380" s="61" t="s">
         <v>442</v>
       </c>
-      <c r="D380" s="63" t="s">
+      <c r="D380" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E380" s="66" t="s">
+      <c r="E380" s="60" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="381" spans="1:5" s="65" customFormat="1">
+    <row r="381" spans="1:5" s="59" customFormat="1">
       <c r="A381" s="17">
         <v>380</v>
       </c>
       <c r="B381" s="13">
         <v>11854</v>
       </c>
-      <c r="C381" s="67" t="s">
+      <c r="C381" s="61" t="s">
         <v>483</v>
       </c>
-      <c r="D381" s="67" t="s">
+      <c r="D381" s="61" t="s">
         <v>601</v>
       </c>
-      <c r="E381" s="66" t="s">
+      <c r="E381" s="60" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="382" spans="1:5" s="65" customFormat="1">
+    <row r="382" spans="1:5" s="59" customFormat="1">
       <c r="A382" s="17">
         <v>381</v>
       </c>
       <c r="B382" s="13">
         <v>11855</v>
       </c>
-      <c r="C382" s="67" t="s">
+      <c r="C382" s="61" t="s">
         <v>445</v>
       </c>
-      <c r="D382" s="67" t="s">
+      <c r="D382" s="61" t="s">
         <v>513</v>
       </c>
-      <c r="E382" s="66" t="s">
+      <c r="E382" s="60" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="383" spans="1:5" s="65" customFormat="1">
+    <row r="383" spans="1:5" s="59" customFormat="1">
       <c r="A383" s="17">
         <v>382</v>
       </c>
       <c r="B383" s="13">
         <v>11856</v>
       </c>
-      <c r="C383" s="67" t="s">
+      <c r="C383" s="61" t="s">
         <v>666</v>
       </c>
-      <c r="D383" s="63"/>
-      <c r="E383" s="68"/>
+      <c r="D383" s="57"/>
+      <c r="E383" s="62"/>
     </row>
     <row r="384" spans="1:5" ht="16.5">
       <c r="A384" s="17">
@@ -21032,10 +21025,10 @@
       <c r="C384" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="D384" s="45" t="s">
+      <c r="D384" s="43" t="s">
         <v>675</v>
       </c>
-      <c r="E384" s="44" t="s">
+      <c r="E384" s="42" t="s">
         <v>107</v>
       </c>
     </row>
@@ -21049,10 +21042,10 @@
       <c r="C385" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="D385" s="45" t="s">
+      <c r="D385" s="43" t="s">
         <v>676</v>
       </c>
-      <c r="E385" s="44" t="s">
+      <c r="E385" s="42" t="s">
         <v>677</v>
       </c>
     </row>
@@ -21063,13 +21056,13 @@
       <c r="B386" s="13">
         <v>11859</v>
       </c>
-      <c r="C386" s="70" t="s">
+      <c r="C386" s="64" t="s">
         <v>528</v>
       </c>
-      <c r="D386" s="75" t="s">
+      <c r="D386" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E386" s="77" t="s">
+      <c r="E386" s="67" t="s">
         <v>563</v>
       </c>
     </row>
@@ -21080,13 +21073,13 @@
       <c r="B387" s="13">
         <v>11860</v>
       </c>
-      <c r="C387" s="70" t="s">
+      <c r="C387" s="64" t="s">
         <v>529</v>
       </c>
-      <c r="D387" s="75" t="s">
+      <c r="D387" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E387" s="77" t="s">
+      <c r="E387" s="67" t="s">
         <v>564</v>
       </c>
     </row>
@@ -21097,13 +21090,13 @@
       <c r="B388" s="13">
         <v>11861</v>
       </c>
-      <c r="C388" s="70" t="s">
+      <c r="C388" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="D388" s="75" t="s">
+      <c r="D388" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E388" s="77" t="s">
+      <c r="E388" s="67" t="s">
         <v>355</v>
       </c>
     </row>
@@ -21114,13 +21107,13 @@
       <c r="B389" s="13">
         <v>11862</v>
       </c>
-      <c r="C389" s="70" t="s">
+      <c r="C389" s="64" t="s">
         <v>531</v>
       </c>
-      <c r="D389" s="75" t="s">
+      <c r="D389" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E389" s="77" t="s">
+      <c r="E389" s="67" t="s">
         <v>356</v>
       </c>
     </row>
@@ -21131,13 +21124,13 @@
       <c r="B390" s="13">
         <v>11863</v>
       </c>
-      <c r="C390" s="70" t="s">
+      <c r="C390" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="D390" s="75" t="s">
+      <c r="D390" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E390" s="77" t="s">
+      <c r="E390" s="67" t="s">
         <v>77</v>
       </c>
     </row>
@@ -21148,13 +21141,13 @@
       <c r="B391" s="13">
         <v>11864</v>
       </c>
-      <c r="C391" s="70" t="s">
+      <c r="C391" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="D391" s="75" t="s">
+      <c r="D391" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E391" s="77" t="s">
+      <c r="E391" s="67" t="s">
         <v>565</v>
       </c>
     </row>
@@ -21165,13 +21158,13 @@
       <c r="B392" s="13">
         <v>11865</v>
       </c>
-      <c r="C392" s="70" t="s">
+      <c r="C392" s="64" t="s">
         <v>534</v>
       </c>
-      <c r="D392" s="75" t="s">
+      <c r="D392" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E392" s="77" t="s">
+      <c r="E392" s="67" t="s">
         <v>361</v>
       </c>
     </row>
@@ -21182,13 +21175,13 @@
       <c r="B393" s="13">
         <v>11866</v>
       </c>
-      <c r="C393" s="70" t="s">
+      <c r="C393" s="64" t="s">
         <v>535</v>
       </c>
-      <c r="D393" s="75" t="s">
+      <c r="D393" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E393" s="77" t="s">
+      <c r="E393" s="67" t="s">
         <v>362</v>
       </c>
     </row>
@@ -21199,13 +21192,13 @@
       <c r="B394" s="13">
         <v>11867</v>
       </c>
-      <c r="C394" s="70" t="s">
+      <c r="C394" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="D394" s="75" t="s">
+      <c r="D394" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E394" s="77" t="s">
+      <c r="E394" s="67" t="s">
         <v>363</v>
       </c>
     </row>
@@ -21216,13 +21209,13 @@
       <c r="B395" s="13">
         <v>11868</v>
       </c>
-      <c r="C395" s="70" t="s">
+      <c r="C395" s="64" t="s">
         <v>537</v>
       </c>
-      <c r="D395" s="75" t="s">
+      <c r="D395" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E395" s="77" t="s">
+      <c r="E395" s="67" t="s">
         <v>364</v>
       </c>
     </row>
@@ -21233,13 +21226,13 @@
       <c r="B396" s="13">
         <v>11869</v>
       </c>
-      <c r="C396" s="70" t="s">
+      <c r="C396" s="64" t="s">
         <v>538</v>
       </c>
-      <c r="D396" s="75" t="s">
+      <c r="D396" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E396" s="77" t="s">
+      <c r="E396" s="67" t="s">
         <v>566</v>
       </c>
     </row>
@@ -21250,13 +21243,13 @@
       <c r="B397" s="13">
         <v>11870</v>
       </c>
-      <c r="C397" s="70" t="s">
+      <c r="C397" s="64" t="s">
         <v>539</v>
       </c>
-      <c r="D397" s="75" t="s">
+      <c r="D397" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E397" s="77" t="s">
+      <c r="E397" s="67" t="s">
         <v>365</v>
       </c>
     </row>
@@ -21267,13 +21260,13 @@
       <c r="B398" s="13">
         <v>11871</v>
       </c>
-      <c r="C398" s="70" t="s">
+      <c r="C398" s="64" t="s">
         <v>539</v>
       </c>
-      <c r="D398" s="75" t="s">
+      <c r="D398" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E398" s="77" t="s">
+      <c r="E398" s="67" t="s">
         <v>365</v>
       </c>
     </row>
@@ -21284,13 +21277,13 @@
       <c r="B399" s="13">
         <v>11872</v>
       </c>
-      <c r="C399" s="70" t="s">
+      <c r="C399" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="D399" s="75" t="s">
+      <c r="D399" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E399" s="77" t="s">
+      <c r="E399" s="67" t="s">
         <v>366</v>
       </c>
     </row>
@@ -21301,13 +21294,13 @@
       <c r="B400" s="13">
         <v>11873</v>
       </c>
-      <c r="C400" s="70" t="s">
+      <c r="C400" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="D400" s="75" t="s">
+      <c r="D400" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E400" s="77" t="s">
+      <c r="E400" s="67" t="s">
         <v>367</v>
       </c>
     </row>
@@ -21318,13 +21311,13 @@
       <c r="B401" s="13">
         <v>11874</v>
       </c>
-      <c r="C401" s="70" t="s">
+      <c r="C401" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="D401" s="75" t="s">
+      <c r="D401" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E401" s="77" t="s">
+      <c r="E401" s="67" t="s">
         <v>368</v>
       </c>
     </row>
@@ -21335,13 +21328,13 @@
       <c r="B402" s="13">
         <v>11875</v>
       </c>
-      <c r="C402" s="70" t="s">
+      <c r="C402" s="64" t="s">
         <v>543</v>
       </c>
-      <c r="D402" s="75" t="s">
+      <c r="D402" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E402" s="77" t="s">
+      <c r="E402" s="67" t="s">
         <v>567</v>
       </c>
     </row>
@@ -21352,13 +21345,13 @@
       <c r="B403" s="13">
         <v>11876</v>
       </c>
-      <c r="C403" s="70" t="s">
+      <c r="C403" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="D403" s="75" t="s">
+      <c r="D403" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E403" s="77" t="s">
+      <c r="E403" s="67" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21369,13 +21362,13 @@
       <c r="B404" s="13">
         <v>11877</v>
       </c>
-      <c r="C404" s="70" t="s">
+      <c r="C404" s="64" t="s">
         <v>545</v>
       </c>
-      <c r="D404" s="75" t="s">
+      <c r="D404" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E404" s="77" t="s">
+      <c r="E404" s="67" t="s">
         <v>369</v>
       </c>
     </row>
@@ -21386,13 +21379,13 @@
       <c r="B405" s="13">
         <v>11878</v>
       </c>
-      <c r="C405" s="70" t="s">
+      <c r="C405" s="64" t="s">
         <v>546</v>
       </c>
-      <c r="D405" s="75" t="s">
+      <c r="D405" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E405" s="77" t="s">
+      <c r="E405" s="67" t="s">
         <v>370</v>
       </c>
     </row>
@@ -21403,13 +21396,13 @@
       <c r="B406" s="13">
         <v>11879</v>
       </c>
-      <c r="C406" s="70" t="s">
+      <c r="C406" s="64" t="s">
         <v>547</v>
       </c>
-      <c r="D406" s="75" t="s">
+      <c r="D406" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E406" s="77" t="s">
+      <c r="E406" s="67" t="s">
         <v>371</v>
       </c>
     </row>
@@ -21420,13 +21413,13 @@
       <c r="B407" s="13">
         <v>11880</v>
       </c>
-      <c r="C407" s="70" t="s">
+      <c r="C407" s="64" t="s">
         <v>548</v>
       </c>
-      <c r="D407" s="75" t="s">
+      <c r="D407" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E407" s="77" t="s">
+      <c r="E407" s="67" t="s">
         <v>372</v>
       </c>
     </row>
@@ -21437,13 +21430,13 @@
       <c r="B408" s="13">
         <v>11881</v>
       </c>
-      <c r="C408" s="70" t="s">
+      <c r="C408" s="64" t="s">
         <v>549</v>
       </c>
-      <c r="D408" s="75" t="s">
+      <c r="D408" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E408" s="77" t="s">
+      <c r="E408" s="67" t="s">
         <v>569</v>
       </c>
     </row>
@@ -21454,13 +21447,13 @@
       <c r="B409" s="13">
         <v>11882</v>
       </c>
-      <c r="C409" s="70" t="s">
+      <c r="C409" s="64" t="s">
         <v>550</v>
       </c>
-      <c r="D409" s="75" t="s">
+      <c r="D409" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E409" s="77" t="s">
+      <c r="E409" s="67" t="s">
         <v>570</v>
       </c>
     </row>
@@ -21471,13 +21464,13 @@
       <c r="B410" s="13">
         <v>11883</v>
       </c>
-      <c r="C410" s="70" t="s">
+      <c r="C410" s="64" t="s">
         <v>551</v>
       </c>
-      <c r="D410" s="75" t="s">
+      <c r="D410" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E410" s="77" t="s">
+      <c r="E410" s="67" t="s">
         <v>373</v>
       </c>
     </row>
@@ -21488,13 +21481,13 @@
       <c r="B411" s="13">
         <v>11884</v>
       </c>
-      <c r="C411" s="70" t="s">
+      <c r="C411" s="64" t="s">
         <v>552</v>
       </c>
-      <c r="D411" s="75" t="s">
+      <c r="D411" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E411" s="77" t="s">
+      <c r="E411" s="67" t="s">
         <v>374</v>
       </c>
     </row>
@@ -21505,13 +21498,13 @@
       <c r="B412" s="13">
         <v>11885</v>
       </c>
-      <c r="C412" s="70" t="s">
+      <c r="C412" s="64" t="s">
         <v>553</v>
       </c>
-      <c r="D412" s="75" t="s">
+      <c r="D412" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E412" s="77" t="s">
+      <c r="E412" s="67" t="s">
         <v>375</v>
       </c>
     </row>
@@ -21522,13 +21515,13 @@
       <c r="B413" s="13">
         <v>11886</v>
       </c>
-      <c r="C413" s="70" t="s">
+      <c r="C413" s="64" t="s">
         <v>554</v>
       </c>
-      <c r="D413" s="75" t="s">
+      <c r="D413" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E413" s="77" t="s">
+      <c r="E413" s="67" t="s">
         <v>376</v>
       </c>
     </row>
@@ -21539,13 +21532,13 @@
       <c r="B414" s="13">
         <v>11887</v>
       </c>
-      <c r="C414" s="70" t="s">
+      <c r="C414" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="D414" s="75" t="s">
+      <c r="D414" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E414" s="77" t="s">
+      <c r="E414" s="67" t="s">
         <v>571</v>
       </c>
     </row>
@@ -21556,13 +21549,13 @@
       <c r="B415" s="13">
         <v>11888</v>
       </c>
-      <c r="C415" s="70" t="s">
+      <c r="C415" s="64" t="s">
         <v>556</v>
       </c>
-      <c r="D415" s="75" t="s">
+      <c r="D415" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E415" s="77" t="s">
+      <c r="E415" s="67" t="s">
         <v>572</v>
       </c>
     </row>
@@ -21573,13 +21566,13 @@
       <c r="B416" s="13">
         <v>11889</v>
       </c>
-      <c r="C416" s="70" t="s">
+      <c r="C416" s="64" t="s">
         <v>557</v>
       </c>
-      <c r="D416" s="75" t="s">
+      <c r="D416" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E416" s="77" t="s">
+      <c r="E416" s="67" t="s">
         <v>377</v>
       </c>
     </row>
@@ -21590,13 +21583,13 @@
       <c r="B417" s="13">
         <v>11890</v>
       </c>
-      <c r="C417" s="70" t="s">
+      <c r="C417" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="D417" s="75" t="s">
+      <c r="D417" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E417" s="77" t="s">
+      <c r="E417" s="67" t="s">
         <v>378</v>
       </c>
     </row>
@@ -21607,13 +21600,13 @@
       <c r="B418" s="13">
         <v>11891</v>
       </c>
-      <c r="C418" s="70" t="s">
+      <c r="C418" s="64" t="s">
         <v>559</v>
       </c>
-      <c r="D418" s="75" t="s">
+      <c r="D418" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E418" s="77" t="s">
+      <c r="E418" s="67" t="s">
         <v>379</v>
       </c>
     </row>
@@ -21624,13 +21617,13 @@
       <c r="B419" s="13">
         <v>11892</v>
       </c>
-      <c r="C419" s="70" t="s">
+      <c r="C419" s="64" t="s">
         <v>560</v>
       </c>
-      <c r="D419" s="75" t="s">
+      <c r="D419" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E419" s="77" t="s">
+      <c r="E419" s="67" t="s">
         <v>380</v>
       </c>
     </row>
@@ -21641,13 +21634,13 @@
       <c r="B420" s="13">
         <v>11893</v>
       </c>
-      <c r="C420" s="70" t="s">
+      <c r="C420" s="64" t="s">
         <v>561</v>
       </c>
-      <c r="D420" s="75" t="s">
+      <c r="D420" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E420" s="77" t="s">
+      <c r="E420" s="67" t="s">
         <v>573</v>
       </c>
     </row>
@@ -21658,13 +21651,13 @@
       <c r="B421" s="13">
         <v>11894</v>
       </c>
-      <c r="C421" s="70" t="s">
+      <c r="C421" s="64" t="s">
         <v>562</v>
       </c>
-      <c r="D421" s="75" t="s">
+      <c r="D421" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E421" s="77" t="s">
+      <c r="E421" s="67" t="s">
         <v>574</v>
       </c>
     </row>
@@ -21675,13 +21668,13 @@
       <c r="B422" s="13">
         <v>11895</v>
       </c>
-      <c r="C422" s="40" t="s">
+      <c r="C422" s="38" t="s">
         <v>680</v>
       </c>
-      <c r="D422" s="39" t="s">
+      <c r="D422" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E422" s="41" t="s">
+      <c r="E422" s="39" t="s">
         <v>686</v>
       </c>
     </row>
@@ -21692,13 +21685,13 @@
       <c r="B423" s="13">
         <v>11896</v>
       </c>
-      <c r="C423" s="40" t="s">
+      <c r="C423" s="38" t="s">
         <v>681</v>
       </c>
-      <c r="D423" s="40" t="s">
+      <c r="D423" s="38" t="s">
         <v>601</v>
       </c>
-      <c r="E423" s="41" t="s">
+      <c r="E423" s="39" t="s">
         <v>687</v>
       </c>
     </row>
@@ -21709,13 +21702,13 @@
       <c r="B424" s="13">
         <v>11897</v>
       </c>
-      <c r="C424" s="40" t="s">
+      <c r="C424" s="38" t="s">
         <v>682</v>
       </c>
-      <c r="D424" s="39" t="s">
+      <c r="D424" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E424" s="41" t="s">
+      <c r="E424" s="39" t="s">
         <v>688</v>
       </c>
     </row>
@@ -21726,13 +21719,13 @@
       <c r="B425" s="13">
         <v>11898</v>
       </c>
-      <c r="C425" s="40" t="s">
+      <c r="C425" s="38" t="s">
         <v>683</v>
       </c>
-      <c r="D425" s="40" t="s">
+      <c r="D425" s="38" t="s">
         <v>601</v>
       </c>
-      <c r="E425" s="41" t="s">
+      <c r="E425" s="39" t="s">
         <v>689</v>
       </c>
     </row>
@@ -21743,13 +21736,13 @@
       <c r="B426" s="13">
         <v>11899</v>
       </c>
-      <c r="C426" s="40" t="s">
+      <c r="C426" s="38" t="s">
         <v>684</v>
       </c>
-      <c r="D426" s="39" t="s">
+      <c r="D426" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E426" s="41" t="s">
+      <c r="E426" s="39" t="s">
         <v>690</v>
       </c>
     </row>
@@ -21760,24 +21753,24 @@
       <c r="B427" s="13">
         <v>11900</v>
       </c>
-      <c r="C427" s="40" t="s">
+      <c r="C427" s="38" t="s">
         <v>685</v>
       </c>
-      <c r="D427" s="39"/>
-      <c r="E427" s="82"/>
+      <c r="D427" s="37"/>
+      <c r="E427" s="68"/>
     </row>
     <row r="428" spans="1:5">
       <c r="A428" s="17">
         <v>427</v>
       </c>
-      <c r="B428" s="53">
+      <c r="B428" s="50">
         <v>11901</v>
       </c>
-      <c r="C428" s="53"/>
-      <c r="D428" s="53" t="s">
+      <c r="C428" s="50"/>
+      <c r="D428" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E428" s="56" t="s">
+      <c r="E428" s="53" t="s">
         <v>699</v>
       </c>
     </row>
@@ -21785,14 +21778,14 @@
       <c r="A429" s="17">
         <v>428</v>
       </c>
-      <c r="B429" s="53">
+      <c r="B429" s="50">
         <v>11902</v>
       </c>
-      <c r="C429" s="53"/>
-      <c r="D429" s="53" t="s">
+      <c r="C429" s="50"/>
+      <c r="D429" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E429" s="56" t="s">
+      <c r="E429" s="53" t="s">
         <v>700</v>
       </c>
     </row>
@@ -21800,14 +21793,14 @@
       <c r="A430" s="17">
         <v>429</v>
       </c>
-      <c r="B430" s="53">
+      <c r="B430" s="50">
         <v>11903</v>
       </c>
-      <c r="C430" s="53"/>
-      <c r="D430" s="53" t="s">
+      <c r="C430" s="50"/>
+      <c r="D430" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E430" s="56" t="s">
+      <c r="E430" s="53" t="s">
         <v>701</v>
       </c>
     </row>
@@ -21815,14 +21808,14 @@
       <c r="A431" s="17">
         <v>430</v>
       </c>
-      <c r="B431" s="53">
+      <c r="B431" s="50">
         <v>11904</v>
       </c>
-      <c r="C431" s="53"/>
-      <c r="D431" s="54" t="s">
+      <c r="C431" s="50"/>
+      <c r="D431" s="51" t="s">
         <v>698</v>
       </c>
-      <c r="E431" s="56" t="s">
+      <c r="E431" s="53" t="s">
         <v>702</v>
       </c>
     </row>
@@ -21830,14 +21823,14 @@
       <c r="A432" s="17">
         <v>431</v>
       </c>
-      <c r="B432" s="53">
+      <c r="B432" s="50">
         <v>11905</v>
       </c>
-      <c r="C432" s="53"/>
-      <c r="D432" s="54" t="s">
+      <c r="C432" s="50"/>
+      <c r="D432" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="E432" s="56" t="s">
+      <c r="E432" s="53" t="s">
         <v>703</v>
       </c>
     </row>
@@ -21845,14 +21838,14 @@
       <c r="A433" s="17">
         <v>432</v>
       </c>
-      <c r="B433" s="53">
+      <c r="B433" s="50">
         <v>11906</v>
       </c>
-      <c r="C433" s="53"/>
-      <c r="D433" s="54" t="s">
+      <c r="C433" s="50"/>
+      <c r="D433" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="E433" s="56" t="s">
+      <c r="E433" s="53" t="s">
         <v>704</v>
       </c>
     </row>
@@ -21860,14 +21853,14 @@
       <c r="A434" s="17">
         <v>433</v>
       </c>
-      <c r="B434" s="53">
+      <c r="B434" s="50">
         <v>11907</v>
       </c>
-      <c r="C434" s="53"/>
-      <c r="D434" s="54" t="s">
+      <c r="C434" s="50"/>
+      <c r="D434" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E434" s="56" t="s">
+      <c r="E434" s="53" t="s">
         <v>705</v>
       </c>
     </row>
@@ -21875,14 +21868,14 @@
       <c r="A435" s="17">
         <v>434</v>
       </c>
-      <c r="B435" s="53">
+      <c r="B435" s="50">
         <v>11908</v>
       </c>
-      <c r="C435" s="53"/>
-      <c r="D435" s="54" t="s">
+      <c r="C435" s="50"/>
+      <c r="D435" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E435" s="56" t="s">
+      <c r="E435" s="53" t="s">
         <v>706</v>
       </c>
     </row>
@@ -21890,14 +21883,14 @@
       <c r="A436" s="17">
         <v>435</v>
       </c>
-      <c r="B436" s="53">
+      <c r="B436" s="50">
         <v>11909</v>
       </c>
-      <c r="C436" s="53"/>
-      <c r="D436" s="54" t="s">
+      <c r="C436" s="50"/>
+      <c r="D436" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E436" s="56" t="s">
+      <c r="E436" s="53" t="s">
         <v>707</v>
       </c>
     </row>
@@ -21905,14 +21898,14 @@
       <c r="A437" s="17">
         <v>436</v>
       </c>
-      <c r="B437" s="53">
+      <c r="B437" s="50">
         <v>11911</v>
       </c>
-      <c r="C437" s="53"/>
-      <c r="D437" s="53" t="s">
+      <c r="C437" s="50"/>
+      <c r="D437" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E437" s="56" t="s">
+      <c r="E437" s="53" t="s">
         <v>708</v>
       </c>
     </row>
@@ -21920,14 +21913,14 @@
       <c r="A438" s="17">
         <v>437</v>
       </c>
-      <c r="B438" s="53">
+      <c r="B438" s="50">
         <v>11912</v>
       </c>
-      <c r="C438" s="53"/>
-      <c r="D438" s="53" t="s">
+      <c r="C438" s="50"/>
+      <c r="D438" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E438" s="56" t="s">
+      <c r="E438" s="53" t="s">
         <v>709</v>
       </c>
     </row>
@@ -21935,14 +21928,14 @@
       <c r="A439" s="17">
         <v>438</v>
       </c>
-      <c r="B439" s="53">
+      <c r="B439" s="50">
         <v>11913</v>
       </c>
-      <c r="C439" s="53"/>
-      <c r="D439" s="53" t="s">
+      <c r="C439" s="50"/>
+      <c r="D439" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E439" s="56" t="s">
+      <c r="E439" s="53" t="s">
         <v>710</v>
       </c>
     </row>
@@ -21950,14 +21943,14 @@
       <c r="A440" s="17">
         <v>439</v>
       </c>
-      <c r="B440" s="53">
+      <c r="B440" s="50">
         <v>11914</v>
       </c>
-      <c r="C440" s="53"/>
-      <c r="D440" s="54" t="s">
+      <c r="C440" s="50"/>
+      <c r="D440" s="51" t="s">
         <v>698</v>
       </c>
-      <c r="E440" s="56" t="s">
+      <c r="E440" s="53" t="s">
         <v>711</v>
       </c>
     </row>
@@ -21965,14 +21958,14 @@
       <c r="A441" s="17">
         <v>440</v>
       </c>
-      <c r="B441" s="53">
+      <c r="B441" s="50">
         <v>11915</v>
       </c>
-      <c r="C441" s="53"/>
-      <c r="D441" s="54" t="s">
+      <c r="C441" s="50"/>
+      <c r="D441" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="E441" s="56" t="s">
+      <c r="E441" s="53" t="s">
         <v>712</v>
       </c>
     </row>
@@ -21980,14 +21973,14 @@
       <c r="A442" s="17">
         <v>441</v>
       </c>
-      <c r="B442" s="53">
+      <c r="B442" s="50">
         <v>11916</v>
       </c>
-      <c r="C442" s="53"/>
-      <c r="D442" s="54" t="s">
+      <c r="C442" s="50"/>
+      <c r="D442" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="E442" s="56" t="s">
+      <c r="E442" s="53" t="s">
         <v>713</v>
       </c>
     </row>
@@ -21995,14 +21988,14 @@
       <c r="A443" s="17">
         <v>442</v>
       </c>
-      <c r="B443" s="53">
+      <c r="B443" s="50">
         <v>11917</v>
       </c>
-      <c r="C443" s="53"/>
-      <c r="D443" s="54" t="s">
+      <c r="C443" s="50"/>
+      <c r="D443" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E443" s="56" t="s">
+      <c r="E443" s="53" t="s">
         <v>714</v>
       </c>
     </row>
@@ -22010,14 +22003,14 @@
       <c r="A444" s="17">
         <v>443</v>
       </c>
-      <c r="B444" s="53">
+      <c r="B444" s="50">
         <v>11918</v>
       </c>
-      <c r="C444" s="53"/>
-      <c r="D444" s="54" t="s">
+      <c r="C444" s="50"/>
+      <c r="D444" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E444" s="56" t="s">
+      <c r="E444" s="53" t="s">
         <v>715</v>
       </c>
     </row>
@@ -22025,14 +22018,14 @@
       <c r="A445" s="17">
         <v>444</v>
       </c>
-      <c r="B445" s="53">
+      <c r="B445" s="50">
         <v>11919</v>
       </c>
-      <c r="C445" s="53"/>
-      <c r="D445" s="54" t="s">
+      <c r="C445" s="50"/>
+      <c r="D445" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E445" s="56" t="s">
+      <c r="E445" s="53" t="s">
         <v>716</v>
       </c>
     </row>
@@ -22040,14 +22033,14 @@
       <c r="A446" s="17">
         <v>445</v>
       </c>
-      <c r="B446" s="53">
+      <c r="B446" s="50">
         <v>11921</v>
       </c>
-      <c r="C446" s="53"/>
-      <c r="D446" s="53" t="s">
+      <c r="C446" s="50"/>
+      <c r="D446" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E446" s="56" t="s">
+      <c r="E446" s="53" t="s">
         <v>709</v>
       </c>
     </row>
@@ -22055,14 +22048,14 @@
       <c r="A447" s="17">
         <v>446</v>
       </c>
-      <c r="B447" s="53">
+      <c r="B447" s="50">
         <v>11922</v>
       </c>
-      <c r="C447" s="53"/>
-      <c r="D447" s="53" t="s">
+      <c r="C447" s="50"/>
+      <c r="D447" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E447" s="56" t="s">
+      <c r="E447" s="53" t="s">
         <v>717</v>
       </c>
     </row>
@@ -22070,14 +22063,14 @@
       <c r="A448" s="17">
         <v>447</v>
       </c>
-      <c r="B448" s="53">
+      <c r="B448" s="50">
         <v>11923</v>
       </c>
-      <c r="C448" s="53"/>
-      <c r="D448" s="53" t="s">
+      <c r="C448" s="50"/>
+      <c r="D448" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E448" s="56" t="s">
+      <c r="E448" s="53" t="s">
         <v>718</v>
       </c>
     </row>
@@ -22085,14 +22078,14 @@
       <c r="A449" s="17">
         <v>448</v>
       </c>
-      <c r="B449" s="53">
+      <c r="B449" s="50">
         <v>11924</v>
       </c>
-      <c r="C449" s="53"/>
-      <c r="D449" s="54" t="s">
+      <c r="C449" s="50"/>
+      <c r="D449" s="51" t="s">
         <v>698</v>
       </c>
-      <c r="E449" s="56" t="s">
+      <c r="E449" s="53" t="s">
         <v>719</v>
       </c>
     </row>
@@ -22100,14 +22093,14 @@
       <c r="A450" s="17">
         <v>449</v>
       </c>
-      <c r="B450" s="53">
+      <c r="B450" s="50">
         <v>11925</v>
       </c>
-      <c r="C450" s="53"/>
-      <c r="D450" s="54" t="s">
+      <c r="C450" s="50"/>
+      <c r="D450" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="E450" s="56" t="s">
+      <c r="E450" s="53" t="s">
         <v>720</v>
       </c>
     </row>
@@ -22115,14 +22108,14 @@
       <c r="A451" s="17">
         <v>450</v>
       </c>
-      <c r="B451" s="53">
+      <c r="B451" s="50">
         <v>11926</v>
       </c>
-      <c r="C451" s="53"/>
-      <c r="D451" s="54" t="s">
+      <c r="C451" s="50"/>
+      <c r="D451" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="E451" s="56" t="s">
+      <c r="E451" s="53" t="s">
         <v>721</v>
       </c>
     </row>
@@ -22130,14 +22123,14 @@
       <c r="A452" s="17">
         <v>451</v>
       </c>
-      <c r="B452" s="53">
+      <c r="B452" s="50">
         <v>11927</v>
       </c>
-      <c r="C452" s="53"/>
-      <c r="D452" s="54" t="s">
+      <c r="C452" s="50"/>
+      <c r="D452" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E452" s="56" t="s">
+      <c r="E452" s="53" t="s">
         <v>722</v>
       </c>
     </row>
@@ -22145,14 +22138,14 @@
       <c r="A453" s="17">
         <v>452</v>
       </c>
-      <c r="B453" s="53">
+      <c r="B453" s="50">
         <v>11928</v>
       </c>
-      <c r="C453" s="53"/>
-      <c r="D453" s="54" t="s">
+      <c r="C453" s="50"/>
+      <c r="D453" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E453" s="56" t="s">
+      <c r="E453" s="53" t="s">
         <v>723</v>
       </c>
     </row>
@@ -22160,14 +22153,14 @@
       <c r="A454" s="17">
         <v>453</v>
       </c>
-      <c r="B454" s="53">
+      <c r="B454" s="50">
         <v>11929</v>
       </c>
-      <c r="C454" s="53"/>
-      <c r="D454" s="54" t="s">
+      <c r="C454" s="50"/>
+      <c r="D454" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E454" s="56" t="s">
+      <c r="E454" s="53" t="s">
         <v>724</v>
       </c>
     </row>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="award" sheetId="3" r:id="rId4"/>
     <sheet name="award_item" sheetId="7" r:id="rId5"/>
     <sheet name="weight" sheetId="6" r:id="rId6"/>
-    <sheet name="treasury_score|奖励积分" sheetId="9" r:id="rId7"/>
-    <sheet name="all_exchange_data|一键兑换" sheetId="10" r:id="rId8"/>
-    <sheet name="all_powerful|万能兑换" sheetId="11" r:id="rId9"/>
+    <sheet name="treasury_score|奖励积分" sheetId="8" r:id="rId7"/>
+    <sheet name="all_exchange_data|一键兑换" sheetId="9" r:id="rId8"/>
+    <sheet name="all_powerful|万能兑换" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">weight!$A$1:$D$61</definedName>
@@ -105,6 +105,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -113,6 +114,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -128,6 +130,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -136,6 +139,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -152,6 +156,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -160,6 +165,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -175,6 +181,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -183,6 +190,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -196,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="778">
   <si>
     <t>id|</t>
   </si>
@@ -4760,6 +4768,29 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>福袋--正常</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+  </si>
+  <si>
+    <t>prop_gdn_x</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_n</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_k</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_gdn_l</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>box_id|宝箱id</t>
   </si>
   <si>
@@ -4797,6 +4828,307 @@
   </si>
   <si>
     <t>all_powerful_type|万能道具类型</t>
+  </si>
+  <si>
+    <t>茅台抽奖--600-900</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台抽奖--大于900</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台抽奖--小于600</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xnsmt_cjq</t>
+  </si>
+  <si>
+    <t>prop_xnsmt_mtsp</t>
+  </si>
+  <si>
+    <t>茅台酒</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,30000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,50</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,100</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,3000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,10000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,50</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果电脑</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00京东卡</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚果大礼包</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0元话费</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯棉毛巾</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,150000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,40</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,40000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,40000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,40</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,15</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,15000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,600000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--抽奖（金元宝）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>过大年--抽奖（福利券）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4914,11 +5246,13 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4926,15 +5260,17 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4967,43 +5303,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5149,9 +5467,6 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5170,86 +5485,91 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5529,11 +5849,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5554,7 +5874,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -6770,7 +7090,7 @@
       <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="39" t="s">
         <v>434</v>
       </c>
       <c r="C41" s="18">
@@ -6826,7 +7146,7 @@
       <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="39" t="s">
         <v>479</v>
       </c>
       <c r="C43" s="18">
@@ -6938,7 +7258,7 @@
       <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="39" t="s">
         <v>505</v>
       </c>
       <c r="C47" s="18">
@@ -6970,7 +7290,7 @@
       <c r="A48" s="18">
         <v>47</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="39" t="s">
         <v>521</v>
       </c>
       <c r="C48" s="18">
@@ -7002,7 +7322,7 @@
       <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="39" t="s">
         <v>522</v>
       </c>
       <c r="C49" s="18">
@@ -7034,7 +7354,7 @@
       <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="39" t="s">
         <v>523</v>
       </c>
       <c r="C50" s="18">
@@ -7066,7 +7386,7 @@
       <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="39" t="s">
         <v>524</v>
       </c>
       <c r="C51" s="18">
@@ -7098,7 +7418,7 @@
       <c r="A52" s="18">
         <v>51</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="39" t="s">
         <v>525</v>
       </c>
       <c r="C52" s="18">
@@ -7130,7 +7450,7 @@
       <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="39" t="s">
         <v>526</v>
       </c>
       <c r="C53" s="18">
@@ -7442,13 +7762,13 @@
       <c r="A64" s="18">
         <v>63</v>
       </c>
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="39" t="s">
         <v>521</v>
       </c>
-      <c r="C64" s="71">
+      <c r="C64" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D64" s="71">
+      <c r="D64" s="50">
         <v>1609775999</v>
       </c>
       <c r="E64" s="28">
@@ -7474,13 +7794,13 @@
       <c r="A65" s="18">
         <v>64</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="C65" s="71">
+      <c r="C65" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D65" s="71">
+      <c r="D65" s="50">
         <v>1609775999</v>
       </c>
       <c r="E65" s="28">
@@ -7506,13 +7826,13 @@
       <c r="A66" s="18">
         <v>65</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="39" t="s">
         <v>523</v>
       </c>
-      <c r="C66" s="71">
+      <c r="C66" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D66" s="71">
+      <c r="D66" s="50">
         <v>1609775999</v>
       </c>
       <c r="E66" s="28">
@@ -7538,13 +7858,13 @@
       <c r="A67" s="18">
         <v>66</v>
       </c>
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="39" t="s">
         <v>524</v>
       </c>
-      <c r="C67" s="71">
+      <c r="C67" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D67" s="71">
+      <c r="D67" s="50">
         <v>1609775999</v>
       </c>
       <c r="E67" s="28">
@@ -7570,13 +7890,13 @@
       <c r="A68" s="18">
         <v>67</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="39" t="s">
         <v>525</v>
       </c>
-      <c r="C68" s="71">
+      <c r="C68" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D68" s="71">
+      <c r="D68" s="50">
         <v>1609775999</v>
       </c>
       <c r="E68" s="28">
@@ -7602,13 +7922,13 @@
       <c r="A69" s="18">
         <v>68</v>
       </c>
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="39" t="s">
         <v>526</v>
       </c>
-      <c r="C69" s="71">
+      <c r="C69" s="50">
         <v>1609200000</v>
       </c>
-      <c r="D69" s="71">
+      <c r="D69" s="50">
         <v>1609775999</v>
       </c>
       <c r="E69" s="28">
@@ -7634,13 +7954,13 @@
       <c r="A70" s="18">
         <v>69</v>
       </c>
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="39" t="s">
         <v>678</v>
       </c>
-      <c r="C70" s="71">
+      <c r="C70" s="50">
         <v>1609804800</v>
       </c>
-      <c r="D70" s="71">
+      <c r="D70" s="50">
         <v>1610380799</v>
       </c>
       <c r="E70" s="28">
@@ -7739,6 +8059,174 @@
         <v>72</v>
       </c>
       <c r="L73" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="49" customFormat="1">
+      <c r="A74" s="49">
+        <v>73</v>
+      </c>
+      <c r="B74" s="49" t="s">
+        <v>725</v>
+      </c>
+      <c r="C74" s="49">
+        <v>1612828800</v>
+      </c>
+      <c r="D74" s="49">
+        <v>1613404799</v>
+      </c>
+      <c r="E74" s="52">
+        <v>68</v>
+      </c>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="49">
+        <v>73</v>
+      </c>
+      <c r="L74" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="63" customFormat="1">
+      <c r="A75" s="63">
+        <v>74</v>
+      </c>
+      <c r="B75" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="C75" s="63">
+        <v>1612828800</v>
+      </c>
+      <c r="D75" s="63">
+        <v>1613404799</v>
+      </c>
+      <c r="E75" s="65">
+        <v>69</v>
+      </c>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="63">
+        <v>74</v>
+      </c>
+      <c r="L75" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="63" customFormat="1">
+      <c r="A76" s="63">
+        <v>75</v>
+      </c>
+      <c r="B76" s="64" t="s">
+        <v>744</v>
+      </c>
+      <c r="C76" s="63">
+        <v>1612828800</v>
+      </c>
+      <c r="D76" s="63">
+        <v>1613404799</v>
+      </c>
+      <c r="E76" s="65">
+        <v>69</v>
+      </c>
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="62"/>
+      <c r="J76" s="62"/>
+      <c r="K76" s="63">
+        <v>75</v>
+      </c>
+      <c r="L76" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="63" customFormat="1">
+      <c r="A77" s="63">
+        <v>76</v>
+      </c>
+      <c r="B77" s="64" t="s">
+        <v>745</v>
+      </c>
+      <c r="C77" s="63">
+        <v>1612828800</v>
+      </c>
+      <c r="D77" s="63">
+        <v>1613404799</v>
+      </c>
+      <c r="E77" s="65">
+        <v>69</v>
+      </c>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="63">
+        <v>76</v>
+      </c>
+      <c r="L77" s="63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="71">
+        <v>77</v>
+      </c>
+      <c r="B78" s="72" t="s">
+        <v>775</v>
+      </c>
+      <c r="C78" s="71">
+        <v>1613433600</v>
+      </c>
+      <c r="D78" s="71">
+        <v>1614009599</v>
+      </c>
+      <c r="E78" s="73">
+        <v>70</v>
+      </c>
+      <c r="F78" s="70"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="70"/>
+      <c r="J78" s="70"/>
+      <c r="K78" s="71">
+        <v>77</v>
+      </c>
+      <c r="L78" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="71">
+        <v>78</v>
+      </c>
+      <c r="B79" s="72" t="s">
+        <v>776</v>
+      </c>
+      <c r="C79" s="71">
+        <v>1613433600</v>
+      </c>
+      <c r="D79" s="71">
+        <v>1614009599</v>
+      </c>
+      <c r="E79" s="73">
+        <v>71</v>
+      </c>
+      <c r="F79" s="70"/>
+      <c r="G79" s="70"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="70"/>
+      <c r="J79" s="70"/>
+      <c r="K79" s="71">
+        <v>77</v>
+      </c>
+      <c r="L79" s="71">
         <v>1</v>
       </c>
     </row>
@@ -7753,11 +8241,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66:D68"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8263,7 +8751,7 @@
       <c r="B36" s="17">
         <v>35</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="39" t="s">
         <v>435</v>
       </c>
       <c r="D36" s="18">
@@ -8291,7 +8779,7 @@
       <c r="B38" s="17">
         <v>37</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="40" t="s">
         <v>478</v>
       </c>
       <c r="D38" s="6">
@@ -8305,7 +8793,7 @@
       <c r="B39" s="17">
         <v>38</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="40" t="s">
         <v>493</v>
       </c>
       <c r="D39" s="6">
@@ -8319,7 +8807,7 @@
       <c r="B40" s="17">
         <v>39</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="40" t="s">
         <v>494</v>
       </c>
       <c r="D40" s="6">
@@ -8333,7 +8821,7 @@
       <c r="B41" s="17">
         <v>40</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="40" t="s">
         <v>495</v>
       </c>
       <c r="D41" s="6">
@@ -8445,7 +8933,7 @@
       <c r="B49" s="17">
         <v>48</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="43" t="s">
         <v>591</v>
       </c>
       <c r="D49" s="18">
@@ -8459,7 +8947,7 @@
       <c r="B50" s="17">
         <v>49</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="43" t="s">
         <v>590</v>
       </c>
       <c r="D50" s="18">
@@ -8473,7 +8961,7 @@
       <c r="B51" s="17">
         <v>50</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="C51" s="43" t="s">
         <v>592</v>
       </c>
       <c r="D51" s="18">
@@ -8494,228 +8982,284 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="47" customFormat="1">
-      <c r="A53" s="47">
+    <row r="53" spans="1:4" s="17" customFormat="1">
+      <c r="A53" s="17">
         <v>52</v>
       </c>
-      <c r="B53" s="47">
+      <c r="B53" s="17">
         <v>52</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C53" s="18" t="s">
         <v>610</v>
       </c>
-      <c r="D53" s="46">
+      <c r="D53" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="47" customFormat="1">
-      <c r="A54" s="47">
+    <row r="54" spans="1:4" s="17" customFormat="1">
+      <c r="A54" s="17">
         <v>53</v>
       </c>
-      <c r="B54" s="47">
+      <c r="B54" s="17">
         <v>53</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="D54" s="46">
+      <c r="D54" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="47" customFormat="1">
-      <c r="A55" s="47">
+    <row r="55" spans="1:4" s="17" customFormat="1">
+      <c r="A55" s="17">
         <v>54</v>
       </c>
-      <c r="B55" s="47">
+      <c r="B55" s="17">
         <v>54</v>
       </c>
-      <c r="C55" s="46" t="s">
+      <c r="C55" s="18" t="s">
         <v>612</v>
       </c>
-      <c r="D55" s="46">
+      <c r="D55" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="47">
+    <row r="56" spans="1:4" s="17" customFormat="1">
+      <c r="A56" s="17">
         <v>55</v>
       </c>
-      <c r="B56" s="47">
+      <c r="B56" s="17">
         <v>55</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" s="17" customFormat="1">
       <c r="A57" s="17">
         <v>56</v>
       </c>
       <c r="B57" s="17">
         <v>56</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="39" t="s">
         <v>672</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" s="17" customFormat="1">
       <c r="A58" s="17">
         <v>57</v>
       </c>
       <c r="B58" s="17">
         <v>57</v>
       </c>
-      <c r="C58" s="41" t="s">
+      <c r="C58" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" s="17" customFormat="1">
       <c r="A59" s="17">
         <v>58</v>
       </c>
       <c r="B59" s="17">
         <v>58</v>
       </c>
-      <c r="C59" s="64" t="s">
+      <c r="C59" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="D59" s="65">
+      <c r="D59" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" s="17" customFormat="1">
       <c r="A60" s="17">
         <v>59</v>
       </c>
       <c r="B60" s="17">
         <v>59</v>
       </c>
-      <c r="C60" s="64" t="s">
+      <c r="C60" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="D60" s="65">
+      <c r="D60" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" s="17" customFormat="1">
       <c r="A61" s="17">
         <v>60</v>
       </c>
       <c r="B61" s="17">
         <v>60</v>
       </c>
-      <c r="C61" s="64" t="s">
+      <c r="C61" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="D61" s="65">
+      <c r="D61" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" s="17" customFormat="1">
       <c r="A62" s="17">
         <v>61</v>
       </c>
       <c r="B62" s="17">
         <v>61</v>
       </c>
-      <c r="C62" s="64" t="s">
+      <c r="C62" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="D62" s="65">
+      <c r="D62" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" s="17" customFormat="1">
       <c r="A63" s="17">
         <v>62</v>
       </c>
       <c r="B63" s="17">
         <v>62</v>
       </c>
-      <c r="C63" s="64" t="s">
+      <c r="C63" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="D63" s="65">
+      <c r="D63" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" s="17" customFormat="1">
       <c r="A64" s="17">
         <v>63</v>
       </c>
       <c r="B64" s="17">
         <v>63</v>
       </c>
-      <c r="C64" s="64" t="s">
+      <c r="C64" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="D64" s="65">
+      <c r="D64" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" s="17" customFormat="1">
       <c r="A65" s="17">
         <v>64</v>
       </c>
       <c r="B65" s="17">
         <v>64</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="D65" s="38">
+      <c r="D65" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" s="17" customFormat="1">
       <c r="A66" s="17">
         <v>65</v>
       </c>
       <c r="B66" s="17">
         <v>65</v>
       </c>
-      <c r="C66" s="70" t="s">
+      <c r="C66" s="18" t="s">
         <v>694</v>
       </c>
-      <c r="D66" s="70">
+      <c r="D66" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" s="17" customFormat="1">
       <c r="A67" s="17">
         <v>66</v>
       </c>
       <c r="B67" s="17">
         <v>66</v>
       </c>
-      <c r="C67" s="70" t="s">
+      <c r="C67" s="18" t="s">
         <v>695</v>
       </c>
-      <c r="D67" s="70">
+      <c r="D67" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" s="17" customFormat="1">
       <c r="A68" s="17">
         <v>67</v>
       </c>
       <c r="B68" s="17">
         <v>67</v>
       </c>
-      <c r="C68" s="70" t="s">
+      <c r="C68" s="18" t="s">
         <v>696</v>
       </c>
-      <c r="D68" s="70">
+      <c r="D68" s="18">
         <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="44">
+        <v>68</v>
+      </c>
+      <c r="B69" s="44">
+        <v>68</v>
+      </c>
+      <c r="C69" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="D69" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="17" customFormat="1">
+      <c r="A70" s="62">
+        <v>69</v>
+      </c>
+      <c r="B70" s="62">
+        <v>69</v>
+      </c>
+      <c r="C70" s="63" t="s">
+        <v>747</v>
+      </c>
+      <c r="D70" s="63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="70">
+        <v>70</v>
+      </c>
+      <c r="B71" s="70">
+        <v>70</v>
+      </c>
+      <c r="C71" s="71" t="s">
+        <v>757</v>
+      </c>
+      <c r="D71" s="71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="70">
+        <v>71</v>
+      </c>
+      <c r="B72" s="70">
+        <v>71</v>
+      </c>
+      <c r="C72" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="71">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -8770,13 +9314,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E454"/>
+  <dimension ref="A1:E497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B419" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B457" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E444" sqref="E444"/>
+      <selection pane="bottomRight" activeCell="D466" sqref="D466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13691,1460 +14235,2062 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" s="55" customFormat="1">
-      <c r="A351" s="55">
+    <row r="351" spans="1:4" s="51" customFormat="1">
+      <c r="A351" s="51">
         <v>350</v>
       </c>
-      <c r="B351" s="55">
+      <c r="B351" s="51">
         <v>57</v>
       </c>
-      <c r="C351" s="55">
+      <c r="C351" s="51">
         <v>11824</v>
       </c>
-      <c r="D351" s="55">
+      <c r="D351" s="51">
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:4" s="55" customFormat="1">
-      <c r="A352" s="55">
+    <row r="352" spans="1:4" s="51" customFormat="1">
+      <c r="A352" s="51">
         <v>351</v>
       </c>
-      <c r="B352" s="55">
+      <c r="B352" s="51">
         <v>57</v>
       </c>
-      <c r="C352" s="55">
+      <c r="C352" s="51">
         <v>11825</v>
       </c>
-      <c r="D352" s="55">
+      <c r="D352" s="51">
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:4" s="55" customFormat="1">
-      <c r="A353" s="55">
+    <row r="353" spans="1:4" s="51" customFormat="1">
+      <c r="A353" s="51">
         <v>352</v>
       </c>
-      <c r="B353" s="55">
+      <c r="B353" s="51">
         <v>57</v>
       </c>
-      <c r="C353" s="55">
+      <c r="C353" s="51">
         <v>11826</v>
       </c>
-      <c r="D353" s="55">
+      <c r="D353" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:4" s="55" customFormat="1">
-      <c r="A354" s="55">
+    <row r="354" spans="1:4" s="51" customFormat="1">
+      <c r="A354" s="51">
         <v>353</v>
       </c>
-      <c r="B354" s="55">
+      <c r="B354" s="51">
         <v>57</v>
       </c>
-      <c r="C354" s="55">
+      <c r="C354" s="51">
         <v>11827</v>
       </c>
-      <c r="D354" s="55">
+      <c r="D354" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:4" s="55" customFormat="1">
-      <c r="A355" s="55">
+    <row r="355" spans="1:4" s="51" customFormat="1">
+      <c r="A355" s="51">
         <v>354</v>
       </c>
-      <c r="B355" s="55">
+      <c r="B355" s="51">
         <v>57</v>
       </c>
-      <c r="C355" s="55">
+      <c r="C355" s="51">
         <v>11828</v>
       </c>
-      <c r="D355" s="55">
+      <c r="D355" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="55" customFormat="1">
-      <c r="A356" s="55">
+    <row r="356" spans="1:4" s="51" customFormat="1">
+      <c r="A356" s="51">
         <v>355</v>
       </c>
-      <c r="B356" s="55">
+      <c r="B356" s="51">
         <v>57</v>
       </c>
-      <c r="C356" s="55">
+      <c r="C356" s="51">
         <v>11829</v>
       </c>
-      <c r="D356" s="55">
+      <c r="D356" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" s="55" customFormat="1">
-      <c r="A357" s="55">
+    <row r="357" spans="1:4" s="51" customFormat="1">
+      <c r="A357" s="51">
         <v>356</v>
       </c>
-      <c r="B357" s="55">
+      <c r="B357" s="51">
         <v>57</v>
       </c>
-      <c r="C357" s="55">
+      <c r="C357" s="51">
         <v>11830</v>
       </c>
-      <c r="D357" s="55">
+      <c r="D357" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:4" s="55" customFormat="1">
-      <c r="A358" s="55">
+    <row r="358" spans="1:4" s="51" customFormat="1">
+      <c r="A358" s="51">
         <v>357</v>
       </c>
-      <c r="B358" s="55">
+      <c r="B358" s="51">
         <v>57</v>
       </c>
-      <c r="C358" s="55">
+      <c r="C358" s="51">
         <v>11831</v>
       </c>
-      <c r="D358" s="55">
+      <c r="D358" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:4" s="55" customFormat="1">
-      <c r="A359" s="55">
+    <row r="359" spans="1:4" s="51" customFormat="1">
+      <c r="A359" s="51">
         <v>358</v>
       </c>
-      <c r="B359" s="55">
+      <c r="B359" s="51">
         <v>57</v>
       </c>
-      <c r="C359" s="55">
+      <c r="C359" s="51">
         <v>11832</v>
       </c>
-      <c r="D359" s="55">
+      <c r="D359" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:4" s="50" customFormat="1">
-      <c r="A360" s="50">
+    <row r="360" spans="1:4" s="13" customFormat="1">
+      <c r="A360" s="13">
         <v>359</v>
       </c>
-      <c r="B360" s="56">
+      <c r="B360" s="51">
         <v>58</v>
       </c>
-      <c r="C360" s="50">
+      <c r="C360" s="13">
         <v>11833</v>
       </c>
-      <c r="D360" s="56">
+      <c r="D360" s="51">
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:4" s="50" customFormat="1">
-      <c r="A361" s="50">
+    <row r="361" spans="1:4" s="13" customFormat="1">
+      <c r="A361" s="13">
         <v>360</v>
       </c>
-      <c r="B361" s="56">
+      <c r="B361" s="51">
         <v>58</v>
       </c>
-      <c r="C361" s="50">
+      <c r="C361" s="13">
         <v>11834</v>
       </c>
-      <c r="D361" s="56">
+      <c r="D361" s="51">
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="1:4" s="50" customFormat="1">
-      <c r="A362" s="50">
+    <row r="362" spans="1:4" s="13" customFormat="1">
+      <c r="A362" s="13">
         <v>361</v>
       </c>
-      <c r="B362" s="56">
+      <c r="B362" s="51">
         <v>58</v>
       </c>
-      <c r="C362" s="50">
+      <c r="C362" s="13">
         <v>11835</v>
       </c>
-      <c r="D362" s="56">
+      <c r="D362" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:4" s="50" customFormat="1">
-      <c r="A363" s="50">
+    <row r="363" spans="1:4" s="13" customFormat="1">
+      <c r="A363" s="13">
         <v>362</v>
       </c>
-      <c r="B363" s="56">
+      <c r="B363" s="51">
         <v>58</v>
       </c>
-      <c r="C363" s="50">
+      <c r="C363" s="13">
         <v>11836</v>
       </c>
-      <c r="D363" s="56">
+      <c r="D363" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:4" s="50" customFormat="1">
-      <c r="A364" s="50">
+    <row r="364" spans="1:4" s="13" customFormat="1">
+      <c r="A364" s="13">
         <v>363</v>
       </c>
-      <c r="B364" s="56">
+      <c r="B364" s="51">
         <v>58</v>
       </c>
-      <c r="C364" s="50">
+      <c r="C364" s="13">
         <v>11837</v>
       </c>
-      <c r="D364" s="56">
+      <c r="D364" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:4" s="50" customFormat="1">
-      <c r="A365" s="50">
+    <row r="365" spans="1:4" s="13" customFormat="1">
+      <c r="A365" s="13">
         <v>364</v>
       </c>
-      <c r="B365" s="56">
+      <c r="B365" s="51">
         <v>58</v>
       </c>
-      <c r="C365" s="50">
+      <c r="C365" s="13">
         <v>11838</v>
       </c>
-      <c r="D365" s="56">
+      <c r="D365" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:4" s="50" customFormat="1">
-      <c r="A366" s="50">
+    <row r="366" spans="1:4" s="13" customFormat="1">
+      <c r="A366" s="13">
         <v>365</v>
       </c>
-      <c r="B366" s="56">
+      <c r="B366" s="51">
         <v>58</v>
       </c>
-      <c r="C366" s="50">
+      <c r="C366" s="13">
         <v>11839</v>
       </c>
-      <c r="D366" s="56">
+      <c r="D366" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:4" s="50" customFormat="1">
-      <c r="A367" s="50">
+    <row r="367" spans="1:4" s="13" customFormat="1">
+      <c r="A367" s="13">
         <v>366</v>
       </c>
-      <c r="B367" s="56">
+      <c r="B367" s="51">
         <v>58</v>
       </c>
-      <c r="C367" s="50">
+      <c r="C367" s="13">
         <v>11840</v>
       </c>
-      <c r="D367" s="56">
+      <c r="D367" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:4" s="50" customFormat="1">
-      <c r="A368" s="50">
+    <row r="368" spans="1:4" s="13" customFormat="1">
+      <c r="A368" s="13">
         <v>367</v>
       </c>
-      <c r="B368" s="56">
+      <c r="B368" s="51">
         <v>58</v>
       </c>
-      <c r="C368" s="50">
+      <c r="C368" s="13">
         <v>11841</v>
       </c>
-      <c r="D368" s="56">
+      <c r="D368" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:4" s="45" customFormat="1">
-      <c r="A369" s="45">
+    <row r="369" spans="1:4" s="13" customFormat="1">
+      <c r="A369" s="13">
         <v>368</v>
       </c>
-      <c r="B369" s="55">
+      <c r="B369" s="51">
         <v>59</v>
       </c>
-      <c r="C369" s="45">
+      <c r="C369" s="13">
         <v>11842</v>
       </c>
-      <c r="D369" s="55">
+      <c r="D369" s="51">
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:4" s="45" customFormat="1">
-      <c r="A370" s="45">
+    <row r="370" spans="1:4" s="13" customFormat="1">
+      <c r="A370" s="13">
         <v>369</v>
       </c>
-      <c r="B370" s="55">
+      <c r="B370" s="51">
         <v>59</v>
       </c>
-      <c r="C370" s="45">
+      <c r="C370" s="13">
         <v>11843</v>
       </c>
-      <c r="D370" s="55">
+      <c r="D370" s="51">
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:4" s="45" customFormat="1">
-      <c r="A371" s="45">
+    <row r="371" spans="1:4" s="13" customFormat="1">
+      <c r="A371" s="13">
         <v>370</v>
       </c>
-      <c r="B371" s="55">
+      <c r="B371" s="51">
         <v>59</v>
       </c>
-      <c r="C371" s="45">
+      <c r="C371" s="13">
         <v>11844</v>
       </c>
-      <c r="D371" s="55">
+      <c r="D371" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:4" s="45" customFormat="1">
-      <c r="A372" s="45">
+    <row r="372" spans="1:4" s="13" customFormat="1">
+      <c r="A372" s="13">
         <v>371</v>
       </c>
-      <c r="B372" s="55">
+      <c r="B372" s="51">
         <v>59</v>
       </c>
-      <c r="C372" s="45">
+      <c r="C372" s="13">
         <v>11845</v>
       </c>
-      <c r="D372" s="55">
+      <c r="D372" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:4" s="45" customFormat="1">
-      <c r="A373" s="45">
+    <row r="373" spans="1:4" s="13" customFormat="1">
+      <c r="A373" s="13">
         <v>372</v>
       </c>
-      <c r="B373" s="55">
+      <c r="B373" s="51">
         <v>59</v>
       </c>
-      <c r="C373" s="45">
+      <c r="C373" s="13">
         <v>11846</v>
       </c>
-      <c r="D373" s="55">
+      <c r="D373" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:4" s="45" customFormat="1">
-      <c r="A374" s="45">
+    <row r="374" spans="1:4" s="13" customFormat="1">
+      <c r="A374" s="13">
         <v>373</v>
       </c>
-      <c r="B374" s="55">
+      <c r="B374" s="51">
         <v>59</v>
       </c>
-      <c r="C374" s="45">
+      <c r="C374" s="13">
         <v>11847</v>
       </c>
-      <c r="D374" s="55">
+      <c r="D374" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:4" s="45" customFormat="1">
-      <c r="A375" s="45">
+    <row r="375" spans="1:4" s="13" customFormat="1">
+      <c r="A375" s="13">
         <v>374</v>
       </c>
-      <c r="B375" s="55">
+      <c r="B375" s="51">
         <v>59</v>
       </c>
-      <c r="C375" s="45">
+      <c r="C375" s="13">
         <v>11848</v>
       </c>
-      <c r="D375" s="55">
+      <c r="D375" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:4" s="45" customFormat="1">
-      <c r="A376" s="45">
+    <row r="376" spans="1:4" s="13" customFormat="1">
+      <c r="A376" s="13">
         <v>375</v>
       </c>
-      <c r="B376" s="55">
+      <c r="B376" s="51">
         <v>59</v>
       </c>
-      <c r="C376" s="45">
+      <c r="C376" s="13">
         <v>11849</v>
       </c>
-      <c r="D376" s="55">
+      <c r="D376" s="51">
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:4" s="45" customFormat="1">
-      <c r="A377" s="45">
+    <row r="377" spans="1:4" s="13" customFormat="1">
+      <c r="A377" s="13">
         <v>376</v>
       </c>
-      <c r="B377" s="55">
+      <c r="B377" s="51">
         <v>59</v>
       </c>
-      <c r="C377" s="45">
+      <c r="C377" s="13">
         <v>11850</v>
       </c>
-      <c r="D377" s="55">
+      <c r="D377" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:4" s="57" customFormat="1">
-      <c r="A378" s="57">
+    <row r="378" spans="1:4" s="13" customFormat="1">
+      <c r="A378" s="13">
         <v>377</v>
       </c>
-      <c r="B378" s="57">
+      <c r="B378" s="13">
         <v>60</v>
       </c>
-      <c r="C378" s="57">
+      <c r="C378" s="13">
         <v>11851</v>
       </c>
-      <c r="D378" s="57">
+      <c r="D378" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:4" s="57" customFormat="1">
-      <c r="A379" s="57">
+    <row r="379" spans="1:4" s="13" customFormat="1">
+      <c r="A379" s="13">
         <v>378</v>
       </c>
-      <c r="B379" s="57">
+      <c r="B379" s="13">
         <v>60</v>
       </c>
-      <c r="C379" s="57">
+      <c r="C379" s="13">
         <v>11852</v>
       </c>
-      <c r="D379" s="57">
+      <c r="D379" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:4" s="57" customFormat="1">
-      <c r="A380" s="57">
+    <row r="380" spans="1:4" s="13" customFormat="1">
+      <c r="A380" s="13">
         <v>379</v>
       </c>
-      <c r="B380" s="57">
+      <c r="B380" s="13">
         <v>60</v>
       </c>
-      <c r="C380" s="57">
+      <c r="C380" s="13">
         <v>11853</v>
       </c>
-      <c r="D380" s="57">
+      <c r="D380" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="381" spans="1:4" s="57" customFormat="1">
-      <c r="A381" s="57">
+    <row r="381" spans="1:4" s="13" customFormat="1">
+      <c r="A381" s="13">
         <v>380</v>
       </c>
-      <c r="B381" s="57">
+      <c r="B381" s="13">
         <v>60</v>
       </c>
-      <c r="C381" s="57">
+      <c r="C381" s="13">
         <v>11854</v>
       </c>
-      <c r="D381" s="57">
+      <c r="D381" s="13">
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:4" s="57" customFormat="1">
-      <c r="A382" s="57">
+    <row r="382" spans="1:4" s="13" customFormat="1">
+      <c r="A382" s="13">
         <v>381</v>
       </c>
-      <c r="B382" s="57">
+      <c r="B382" s="13">
         <v>60</v>
       </c>
-      <c r="C382" s="57">
+      <c r="C382" s="13">
         <v>11855</v>
       </c>
-      <c r="D382" s="57">
+      <c r="D382" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:4" s="57" customFormat="1">
-      <c r="A383" s="57">
+    <row r="383" spans="1:4" s="13" customFormat="1">
+      <c r="A383" s="13">
         <v>382</v>
       </c>
-      <c r="B383" s="57">
+      <c r="B383" s="13">
         <v>60</v>
       </c>
-      <c r="C383" s="57">
+      <c r="C383" s="13">
         <v>11856</v>
       </c>
-      <c r="D383" s="57">
+      <c r="D383" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" s="13" customFormat="1">
       <c r="A384" s="13">
         <v>383</v>
       </c>
       <c r="B384" s="13">
         <v>61</v>
       </c>
-      <c r="C384" s="57">
+      <c r="C384" s="13">
         <v>11857</v>
       </c>
       <c r="D384" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" s="13" customFormat="1">
       <c r="A385" s="13">
         <v>384</v>
       </c>
       <c r="B385" s="13">
         <v>62</v>
       </c>
-      <c r="C385" s="57">
+      <c r="C385" s="13">
         <v>11858</v>
       </c>
       <c r="D385" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" s="13" customFormat="1">
       <c r="A386" s="13">
         <v>385</v>
       </c>
-      <c r="B386" s="66">
+      <c r="B386" s="13">
         <v>63</v>
       </c>
-      <c r="C386" s="66">
+      <c r="C386" s="13">
         <v>11859</v>
       </c>
-      <c r="D386" s="66">
+      <c r="D386" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" s="13" customFormat="1">
       <c r="A387" s="13">
         <v>386</v>
       </c>
-      <c r="B387" s="66">
+      <c r="B387" s="13">
         <v>63</v>
       </c>
-      <c r="C387" s="66">
+      <c r="C387" s="13">
         <v>11860</v>
       </c>
-      <c r="D387" s="66">
+      <c r="D387" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" s="13" customFormat="1">
       <c r="A388" s="13">
         <v>387</v>
       </c>
-      <c r="B388" s="66">
+      <c r="B388" s="13">
         <v>63</v>
       </c>
-      <c r="C388" s="66">
+      <c r="C388" s="13">
         <v>11861</v>
       </c>
-      <c r="D388" s="66">
+      <c r="D388" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" s="13" customFormat="1">
       <c r="A389" s="13">
         <v>388</v>
       </c>
-      <c r="B389" s="66">
+      <c r="B389" s="13">
         <v>63</v>
       </c>
-      <c r="C389" s="66">
+      <c r="C389" s="13">
         <v>11862</v>
       </c>
-      <c r="D389" s="66">
+      <c r="D389" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" s="13" customFormat="1">
       <c r="A390" s="13">
         <v>389</v>
       </c>
-      <c r="B390" s="66">
+      <c r="B390" s="13">
         <v>63</v>
       </c>
-      <c r="C390" s="66">
+      <c r="C390" s="13">
         <v>11863</v>
       </c>
-      <c r="D390" s="66">
+      <c r="D390" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" s="13" customFormat="1">
       <c r="A391" s="13">
         <v>390</v>
       </c>
-      <c r="B391" s="66">
+      <c r="B391" s="13">
         <v>63</v>
       </c>
-      <c r="C391" s="66">
+      <c r="C391" s="13">
         <v>11864</v>
       </c>
-      <c r="D391" s="66">
+      <c r="D391" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" s="13" customFormat="1">
       <c r="A392" s="13">
         <v>391</v>
       </c>
-      <c r="B392" s="66">
+      <c r="B392" s="13">
         <v>64</v>
       </c>
-      <c r="C392" s="66">
+      <c r="C392" s="13">
         <v>11865</v>
       </c>
-      <c r="D392" s="66">
+      <c r="D392" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" s="13" customFormat="1">
       <c r="A393" s="13">
         <v>392</v>
       </c>
-      <c r="B393" s="66">
+      <c r="B393" s="13">
         <v>64</v>
       </c>
-      <c r="C393" s="66">
+      <c r="C393" s="13">
         <v>11866</v>
       </c>
-      <c r="D393" s="66">
+      <c r="D393" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" s="13" customFormat="1">
       <c r="A394" s="13">
         <v>393</v>
       </c>
-      <c r="B394" s="66">
+      <c r="B394" s="13">
         <v>64</v>
       </c>
-      <c r="C394" s="66">
+      <c r="C394" s="13">
         <v>11867</v>
       </c>
-      <c r="D394" s="66">
+      <c r="D394" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" s="13" customFormat="1">
       <c r="A395" s="13">
         <v>394</v>
       </c>
-      <c r="B395" s="66">
+      <c r="B395" s="13">
         <v>64</v>
       </c>
-      <c r="C395" s="66">
+      <c r="C395" s="13">
         <v>11868</v>
       </c>
-      <c r="D395" s="66">
+      <c r="D395" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" s="13" customFormat="1">
       <c r="A396" s="13">
         <v>395</v>
       </c>
-      <c r="B396" s="66">
+      <c r="B396" s="13">
         <v>64</v>
       </c>
-      <c r="C396" s="66">
+      <c r="C396" s="13">
         <v>11869</v>
       </c>
-      <c r="D396" s="66">
+      <c r="D396" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" s="13" customFormat="1">
       <c r="A397" s="13">
         <v>396</v>
       </c>
-      <c r="B397" s="66">
+      <c r="B397" s="13">
         <v>64</v>
       </c>
-      <c r="C397" s="66">
+      <c r="C397" s="13">
         <v>11870</v>
       </c>
-      <c r="D397" s="66">
+      <c r="D397" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" s="13" customFormat="1">
       <c r="A398" s="13">
         <v>397</v>
       </c>
-      <c r="B398" s="66">
+      <c r="B398" s="13">
         <v>65</v>
       </c>
-      <c r="C398" s="66">
+      <c r="C398" s="13">
         <v>11871</v>
       </c>
-      <c r="D398" s="66">
+      <c r="D398" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" s="13" customFormat="1">
       <c r="A399" s="13">
         <v>398</v>
       </c>
-      <c r="B399" s="66">
+      <c r="B399" s="13">
         <v>65</v>
       </c>
-      <c r="C399" s="66">
+      <c r="C399" s="13">
         <v>11872</v>
       </c>
-      <c r="D399" s="66">
+      <c r="D399" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" s="13" customFormat="1">
       <c r="A400" s="13">
         <v>399</v>
       </c>
-      <c r="B400" s="66">
+      <c r="B400" s="13">
         <v>65</v>
       </c>
-      <c r="C400" s="66">
+      <c r="C400" s="13">
         <v>11873</v>
       </c>
-      <c r="D400" s="66">
+      <c r="D400" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" s="13" customFormat="1">
       <c r="A401" s="13">
         <v>400</v>
       </c>
-      <c r="B401" s="66">
+      <c r="B401" s="13">
         <v>65</v>
       </c>
-      <c r="C401" s="66">
+      <c r="C401" s="13">
         <v>11874</v>
       </c>
-      <c r="D401" s="66">
+      <c r="D401" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" s="13" customFormat="1">
       <c r="A402" s="13">
         <v>401</v>
       </c>
-      <c r="B402" s="66">
+      <c r="B402" s="13">
         <v>65</v>
       </c>
-      <c r="C402" s="66">
+      <c r="C402" s="13">
         <v>11875</v>
       </c>
-      <c r="D402" s="66">
+      <c r="D402" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" s="13" customFormat="1">
       <c r="A403" s="13">
         <v>402</v>
       </c>
-      <c r="B403" s="66">
+      <c r="B403" s="13">
         <v>65</v>
       </c>
-      <c r="C403" s="66">
+      <c r="C403" s="13">
         <v>11876</v>
       </c>
-      <c r="D403" s="66">
+      <c r="D403" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" s="13" customFormat="1">
       <c r="A404" s="13">
         <v>403</v>
       </c>
-      <c r="B404" s="66">
+      <c r="B404" s="13">
         <v>66</v>
       </c>
-      <c r="C404" s="66">
+      <c r="C404" s="13">
         <v>11877</v>
       </c>
-      <c r="D404" s="66">
+      <c r="D404" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" s="13" customFormat="1">
       <c r="A405" s="13">
         <v>404</v>
       </c>
-      <c r="B405" s="66">
+      <c r="B405" s="13">
         <v>66</v>
       </c>
-      <c r="C405" s="66">
+      <c r="C405" s="13">
         <v>11878</v>
       </c>
-      <c r="D405" s="66">
+      <c r="D405" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" s="13" customFormat="1">
       <c r="A406" s="13">
         <v>405</v>
       </c>
-      <c r="B406" s="66">
+      <c r="B406" s="13">
         <v>66</v>
       </c>
-      <c r="C406" s="66">
+      <c r="C406" s="13">
         <v>11879</v>
       </c>
-      <c r="D406" s="66">
+      <c r="D406" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" s="13" customFormat="1">
       <c r="A407" s="13">
         <v>406</v>
       </c>
-      <c r="B407" s="66">
+      <c r="B407" s="13">
         <v>66</v>
       </c>
-      <c r="C407" s="66">
+      <c r="C407" s="13">
         <v>11880</v>
       </c>
-      <c r="D407" s="66">
+      <c r="D407" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" s="13" customFormat="1">
       <c r="A408" s="13">
         <v>407</v>
       </c>
-      <c r="B408" s="66">
+      <c r="B408" s="13">
         <v>66</v>
       </c>
-      <c r="C408" s="66">
+      <c r="C408" s="13">
         <v>11881</v>
       </c>
-      <c r="D408" s="66">
+      <c r="D408" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" s="13" customFormat="1">
       <c r="A409" s="13">
         <v>408</v>
       </c>
-      <c r="B409" s="66">
+      <c r="B409" s="13">
         <v>66</v>
       </c>
-      <c r="C409" s="66">
+      <c r="C409" s="13">
         <v>11882</v>
       </c>
-      <c r="D409" s="66">
+      <c r="D409" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" s="13" customFormat="1">
       <c r="A410" s="13">
         <v>409</v>
       </c>
-      <c r="B410" s="66">
+      <c r="B410" s="13">
         <v>67</v>
       </c>
-      <c r="C410" s="66">
+      <c r="C410" s="13">
         <v>11883</v>
       </c>
-      <c r="D410" s="66">
+      <c r="D410" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" s="13" customFormat="1">
       <c r="A411" s="13">
         <v>410</v>
       </c>
-      <c r="B411" s="66">
+      <c r="B411" s="13">
         <v>67</v>
       </c>
-      <c r="C411" s="66">
+      <c r="C411" s="13">
         <v>11884</v>
       </c>
-      <c r="D411" s="66">
+      <c r="D411" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" s="13" customFormat="1">
       <c r="A412" s="13">
         <v>411</v>
       </c>
-      <c r="B412" s="66">
+      <c r="B412" s="13">
         <v>67</v>
       </c>
-      <c r="C412" s="66">
+      <c r="C412" s="13">
         <v>11885</v>
       </c>
-      <c r="D412" s="66">
+      <c r="D412" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" s="13" customFormat="1">
       <c r="A413" s="13">
         <v>412</v>
       </c>
-      <c r="B413" s="66">
+      <c r="B413" s="13">
         <v>67</v>
       </c>
-      <c r="C413" s="66">
+      <c r="C413" s="13">
         <v>11886</v>
       </c>
-      <c r="D413" s="66">
+      <c r="D413" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" s="13" customFormat="1">
       <c r="A414" s="13">
         <v>413</v>
       </c>
-      <c r="B414" s="66">
+      <c r="B414" s="13">
         <v>67</v>
       </c>
-      <c r="C414" s="66">
+      <c r="C414" s="13">
         <v>11887</v>
       </c>
-      <c r="D414" s="66">
+      <c r="D414" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" s="13" customFormat="1">
       <c r="A415" s="13">
         <v>414</v>
       </c>
-      <c r="B415" s="66">
+      <c r="B415" s="13">
         <v>67</v>
       </c>
-      <c r="C415" s="66">
+      <c r="C415" s="13">
         <v>11888</v>
       </c>
-      <c r="D415" s="66">
+      <c r="D415" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" s="13" customFormat="1">
       <c r="A416" s="13">
         <v>415</v>
       </c>
-      <c r="B416" s="66">
+      <c r="B416" s="13">
         <v>68</v>
       </c>
-      <c r="C416" s="66">
+      <c r="C416" s="13">
         <v>11889</v>
       </c>
-      <c r="D416" s="66">
+      <c r="D416" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" s="13" customFormat="1">
       <c r="A417" s="13">
         <v>416</v>
       </c>
-      <c r="B417" s="66">
+      <c r="B417" s="13">
         <v>68</v>
       </c>
-      <c r="C417" s="66">
+      <c r="C417" s="13">
         <v>11890</v>
       </c>
-      <c r="D417" s="66">
+      <c r="D417" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" s="13" customFormat="1">
       <c r="A418" s="13">
         <v>417</v>
       </c>
-      <c r="B418" s="66">
+      <c r="B418" s="13">
         <v>68</v>
       </c>
-      <c r="C418" s="66">
+      <c r="C418" s="13">
         <v>11891</v>
       </c>
-      <c r="D418" s="66">
+      <c r="D418" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" s="13" customFormat="1">
       <c r="A419" s="13">
         <v>418</v>
       </c>
-      <c r="B419" s="66">
+      <c r="B419" s="13">
         <v>68</v>
       </c>
-      <c r="C419" s="66">
+      <c r="C419" s="13">
         <v>11892</v>
       </c>
-      <c r="D419" s="66">
+      <c r="D419" s="13">
         <v>400</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" s="13" customFormat="1">
       <c r="A420" s="13">
         <v>419</v>
       </c>
-      <c r="B420" s="66">
+      <c r="B420" s="13">
         <v>68</v>
       </c>
-      <c r="C420" s="66">
+      <c r="C420" s="13">
         <v>11893</v>
       </c>
-      <c r="D420" s="66">
+      <c r="D420" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" s="13" customFormat="1">
       <c r="A421" s="13">
         <v>420</v>
       </c>
-      <c r="B421" s="66">
+      <c r="B421" s="13">
         <v>68</v>
       </c>
-      <c r="C421" s="66">
+      <c r="C421" s="13">
         <v>11894</v>
       </c>
-      <c r="D421" s="66">
+      <c r="D421" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" s="13" customFormat="1">
       <c r="A422" s="13">
         <v>421</v>
       </c>
-      <c r="B422" s="37">
+      <c r="B422" s="13">
         <v>69</v>
       </c>
-      <c r="C422" s="37">
+      <c r="C422" s="13">
         <v>11895</v>
       </c>
-      <c r="D422" s="37">
+      <c r="D422" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" s="13" customFormat="1">
       <c r="A423" s="13">
         <v>422</v>
       </c>
-      <c r="B423" s="37">
+      <c r="B423" s="13">
         <v>69</v>
       </c>
-      <c r="C423" s="37">
+      <c r="C423" s="13">
         <v>11896</v>
       </c>
-      <c r="D423" s="37">
+      <c r="D423" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" s="13" customFormat="1">
       <c r="A424" s="13">
         <v>423</v>
       </c>
-      <c r="B424" s="37">
+      <c r="B424" s="13">
         <v>69</v>
       </c>
-      <c r="C424" s="37">
+      <c r="C424" s="13">
         <v>11897</v>
       </c>
-      <c r="D424" s="37">
+      <c r="D424" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" s="13" customFormat="1">
       <c r="A425" s="13">
         <v>424</v>
       </c>
-      <c r="B425" s="37">
+      <c r="B425" s="13">
         <v>69</v>
       </c>
-      <c r="C425" s="37">
+      <c r="C425" s="13">
         <v>11898</v>
       </c>
-      <c r="D425" s="37">
+      <c r="D425" s="13">
         <v>27</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" s="13" customFormat="1">
       <c r="A426" s="13">
         <v>425</v>
       </c>
-      <c r="B426" s="37">
+      <c r="B426" s="13">
         <v>69</v>
       </c>
-      <c r="C426" s="37">
+      <c r="C426" s="13">
         <v>11899</v>
       </c>
-      <c r="D426" s="37">
+      <c r="D426" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" s="13" customFormat="1">
       <c r="A427" s="13">
         <v>426</v>
       </c>
-      <c r="B427" s="37">
+      <c r="B427" s="13">
         <v>69</v>
       </c>
-      <c r="C427" s="37">
+      <c r="C427" s="13">
         <v>11900</v>
       </c>
-      <c r="D427" s="37">
+      <c r="D427" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" s="13" customFormat="1">
       <c r="A428" s="13">
         <v>427</v>
       </c>
-      <c r="B428" s="50">
+      <c r="B428" s="13">
         <v>70</v>
       </c>
-      <c r="C428" s="50">
+      <c r="C428" s="13">
         <v>11901</v>
       </c>
-      <c r="D428" s="50">
+      <c r="D428" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" s="13" customFormat="1">
       <c r="A429" s="13">
         <v>428</v>
       </c>
-      <c r="B429" s="50">
+      <c r="B429" s="13">
         <v>70</v>
       </c>
-      <c r="C429" s="50">
+      <c r="C429" s="13">
         <v>11902</v>
       </c>
-      <c r="D429" s="50">
+      <c r="D429" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" s="13" customFormat="1">
       <c r="A430" s="13">
         <v>429</v>
       </c>
-      <c r="B430" s="50">
+      <c r="B430" s="13">
         <v>70</v>
       </c>
-      <c r="C430" s="50">
+      <c r="C430" s="13">
         <v>11903</v>
       </c>
-      <c r="D430" s="50">
+      <c r="D430" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" s="13" customFormat="1">
       <c r="A431" s="13">
         <v>430</v>
       </c>
-      <c r="B431" s="50">
+      <c r="B431" s="13">
         <v>70</v>
       </c>
-      <c r="C431" s="50">
+      <c r="C431" s="13">
         <v>11904</v>
       </c>
-      <c r="D431" s="50">
+      <c r="D431" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" s="13" customFormat="1">
       <c r="A432" s="13">
         <v>431</v>
       </c>
-      <c r="B432" s="50">
+      <c r="B432" s="13">
         <v>70</v>
       </c>
-      <c r="C432" s="50">
+      <c r="C432" s="13">
         <v>11905</v>
       </c>
-      <c r="D432" s="50">
+      <c r="D432" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" s="13" customFormat="1">
       <c r="A433" s="13">
         <v>432</v>
       </c>
-      <c r="B433" s="50">
+      <c r="B433" s="13">
         <v>70</v>
       </c>
-      <c r="C433" s="50">
+      <c r="C433" s="13">
         <v>11906</v>
       </c>
-      <c r="D433" s="50">
+      <c r="D433" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" s="13" customFormat="1">
       <c r="A434" s="13">
         <v>433</v>
       </c>
-      <c r="B434" s="50">
+      <c r="B434" s="13">
         <v>70</v>
       </c>
-      <c r="C434" s="50">
+      <c r="C434" s="13">
         <v>11907</v>
       </c>
-      <c r="D434" s="50">
+      <c r="D434" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" s="13" customFormat="1">
       <c r="A435" s="13">
         <v>434</v>
       </c>
-      <c r="B435" s="50">
+      <c r="B435" s="13">
         <v>70</v>
       </c>
-      <c r="C435" s="50">
+      <c r="C435" s="13">
         <v>11908</v>
       </c>
-      <c r="D435" s="50">
+      <c r="D435" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" s="13" customFormat="1">
       <c r="A436" s="13">
         <v>435</v>
       </c>
-      <c r="B436" s="50">
+      <c r="B436" s="13">
         <v>70</v>
       </c>
-      <c r="C436" s="50">
+      <c r="C436" s="13">
         <v>11909</v>
       </c>
-      <c r="D436" s="50">
+      <c r="D436" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" s="13" customFormat="1">
       <c r="A437" s="13">
         <v>436</v>
       </c>
-      <c r="B437" s="50">
+      <c r="B437" s="13">
         <v>71</v>
       </c>
-      <c r="C437" s="50">
+      <c r="C437" s="13">
         <v>11911</v>
       </c>
-      <c r="D437" s="50">
+      <c r="D437" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" s="13" customFormat="1">
       <c r="A438" s="13">
         <v>437</v>
       </c>
-      <c r="B438" s="50">
+      <c r="B438" s="13">
         <v>71</v>
       </c>
-      <c r="C438" s="50">
+      <c r="C438" s="13">
         <v>11912</v>
       </c>
-      <c r="D438" s="50">
+      <c r="D438" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" s="13" customFormat="1">
       <c r="A439" s="13">
         <v>438</v>
       </c>
-      <c r="B439" s="50">
+      <c r="B439" s="13">
         <v>71</v>
       </c>
-      <c r="C439" s="50">
+      <c r="C439" s="13">
         <v>11913</v>
       </c>
-      <c r="D439" s="50">
+      <c r="D439" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" s="13" customFormat="1">
       <c r="A440" s="13">
         <v>439</v>
       </c>
-      <c r="B440" s="50">
+      <c r="B440" s="13">
         <v>71</v>
       </c>
-      <c r="C440" s="50">
+      <c r="C440" s="13">
         <v>11914</v>
       </c>
-      <c r="D440" s="50">
+      <c r="D440" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" s="13" customFormat="1">
       <c r="A441" s="13">
         <v>440</v>
       </c>
-      <c r="B441" s="50">
+      <c r="B441" s="13">
         <v>71</v>
       </c>
-      <c r="C441" s="50">
+      <c r="C441" s="13">
         <v>11915</v>
       </c>
-      <c r="D441" s="50">
+      <c r="D441" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" s="13" customFormat="1">
       <c r="A442" s="13">
         <v>441</v>
       </c>
-      <c r="B442" s="50">
+      <c r="B442" s="13">
         <v>71</v>
       </c>
-      <c r="C442" s="50">
+      <c r="C442" s="13">
         <v>11916</v>
       </c>
-      <c r="D442" s="50">
+      <c r="D442" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" s="13" customFormat="1">
       <c r="A443" s="13">
         <v>442</v>
       </c>
-      <c r="B443" s="50">
+      <c r="B443" s="13">
         <v>71</v>
       </c>
-      <c r="C443" s="50">
+      <c r="C443" s="13">
         <v>11917</v>
       </c>
-      <c r="D443" s="50">
+      <c r="D443" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" s="13" customFormat="1">
       <c r="A444" s="13">
         <v>443</v>
       </c>
-      <c r="B444" s="50">
+      <c r="B444" s="13">
         <v>71</v>
       </c>
-      <c r="C444" s="50">
+      <c r="C444" s="13">
         <v>11918</v>
       </c>
-      <c r="D444" s="50">
+      <c r="D444" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" s="13" customFormat="1">
       <c r="A445" s="13">
         <v>444</v>
       </c>
-      <c r="B445" s="50">
+      <c r="B445" s="13">
         <v>71</v>
       </c>
-      <c r="C445" s="50">
+      <c r="C445" s="13">
         <v>11919</v>
       </c>
-      <c r="D445" s="50">
+      <c r="D445" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" s="13" customFormat="1">
       <c r="A446" s="13">
         <v>445</v>
       </c>
-      <c r="B446" s="50">
+      <c r="B446" s="13">
         <v>72</v>
       </c>
-      <c r="C446" s="50">
+      <c r="C446" s="13">
         <v>11921</v>
       </c>
-      <c r="D446" s="50">
+      <c r="D446" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" s="13" customFormat="1">
       <c r="A447" s="13">
         <v>446</v>
       </c>
-      <c r="B447" s="50">
+      <c r="B447" s="13">
         <v>72</v>
       </c>
-      <c r="C447" s="50">
+      <c r="C447" s="13">
         <v>11922</v>
       </c>
-      <c r="D447" s="50">
+      <c r="D447" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" s="13" customFormat="1">
       <c r="A448" s="13">
         <v>447</v>
       </c>
-      <c r="B448" s="50">
+      <c r="B448" s="13">
         <v>72</v>
       </c>
-      <c r="C448" s="50">
+      <c r="C448" s="13">
         <v>11923</v>
       </c>
-      <c r="D448" s="50">
+      <c r="D448" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" s="13" customFormat="1">
       <c r="A449" s="13">
         <v>448</v>
       </c>
-      <c r="B449" s="50">
+      <c r="B449" s="13">
         <v>72</v>
       </c>
-      <c r="C449" s="50">
+      <c r="C449" s="13">
         <v>11924</v>
       </c>
-      <c r="D449" s="50">
+      <c r="D449" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" s="13" customFormat="1">
       <c r="A450" s="13">
         <v>449</v>
       </c>
-      <c r="B450" s="50">
+      <c r="B450" s="13">
         <v>72</v>
       </c>
-      <c r="C450" s="50">
+      <c r="C450" s="13">
         <v>11925</v>
       </c>
-      <c r="D450" s="50">
+      <c r="D450" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" s="13" customFormat="1">
       <c r="A451" s="13">
         <v>450</v>
       </c>
-      <c r="B451" s="50">
+      <c r="B451" s="13">
         <v>72</v>
       </c>
-      <c r="C451" s="50">
+      <c r="C451" s="13">
         <v>11926</v>
       </c>
-      <c r="D451" s="50">
+      <c r="D451" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" s="13" customFormat="1">
       <c r="A452" s="13">
         <v>451</v>
       </c>
-      <c r="B452" s="50">
+      <c r="B452" s="13">
         <v>72</v>
       </c>
-      <c r="C452" s="50">
+      <c r="C452" s="13">
         <v>11927</v>
       </c>
-      <c r="D452" s="50">
+      <c r="D452" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" s="13" customFormat="1">
       <c r="A453" s="13">
         <v>452</v>
       </c>
-      <c r="B453" s="50">
+      <c r="B453" s="13">
         <v>72</v>
       </c>
-      <c r="C453" s="50">
+      <c r="C453" s="13">
         <v>11928</v>
       </c>
-      <c r="D453" s="50">
+      <c r="D453" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" s="13" customFormat="1">
       <c r="A454" s="13">
         <v>453</v>
       </c>
-      <c r="B454" s="50">
+      <c r="B454" s="13">
         <v>72</v>
       </c>
-      <c r="C454" s="50">
+      <c r="C454" s="13">
         <v>11929</v>
       </c>
-      <c r="D454" s="50">
+      <c r="D454" s="13">
         <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="13">
+        <v>454</v>
+      </c>
+      <c r="B455" s="45">
+        <v>73</v>
+      </c>
+      <c r="C455" s="45">
+        <v>11930</v>
+      </c>
+      <c r="D455" s="45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="13">
+        <v>455</v>
+      </c>
+      <c r="B456" s="45">
+        <v>73</v>
+      </c>
+      <c r="C456" s="45">
+        <v>11931</v>
+      </c>
+      <c r="D456" s="45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="13">
+        <v>456</v>
+      </c>
+      <c r="B457" s="45">
+        <v>73</v>
+      </c>
+      <c r="C457" s="45">
+        <v>11932</v>
+      </c>
+      <c r="D457" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="13">
+        <v>457</v>
+      </c>
+      <c r="B458" s="45">
+        <v>73</v>
+      </c>
+      <c r="C458" s="45">
+        <v>11933</v>
+      </c>
+      <c r="D458" s="45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" s="13" customFormat="1">
+      <c r="A459" s="13">
+        <v>458</v>
+      </c>
+      <c r="B459" s="57">
+        <v>74</v>
+      </c>
+      <c r="C459" s="57">
+        <v>11934</v>
+      </c>
+      <c r="D459" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" s="13" customFormat="1">
+      <c r="A460" s="13">
+        <v>459</v>
+      </c>
+      <c r="B460" s="57">
+        <v>74</v>
+      </c>
+      <c r="C460" s="57">
+        <v>11935</v>
+      </c>
+      <c r="D460" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" s="13" customFormat="1">
+      <c r="A461" s="13">
+        <v>460</v>
+      </c>
+      <c r="B461" s="57">
+        <v>74</v>
+      </c>
+      <c r="C461" s="57">
+        <v>11936</v>
+      </c>
+      <c r="D461" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" s="13" customFormat="1">
+      <c r="A462" s="13">
+        <v>461</v>
+      </c>
+      <c r="B462" s="57">
+        <v>74</v>
+      </c>
+      <c r="C462" s="57">
+        <v>11937</v>
+      </c>
+      <c r="D462" s="57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="13">
+        <v>462</v>
+      </c>
+      <c r="B463" s="57">
+        <v>74</v>
+      </c>
+      <c r="C463" s="57">
+        <v>11938</v>
+      </c>
+      <c r="D463" s="57">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="13">
+        <v>463</v>
+      </c>
+      <c r="B464" s="57">
+        <v>74</v>
+      </c>
+      <c r="C464" s="57">
+        <v>11939</v>
+      </c>
+      <c r="D464" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="13">
+        <v>464</v>
+      </c>
+      <c r="B465" s="57">
+        <v>74</v>
+      </c>
+      <c r="C465" s="57">
+        <v>11940</v>
+      </c>
+      <c r="D465" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="13">
+        <v>465</v>
+      </c>
+      <c r="B466" s="57">
+        <v>74</v>
+      </c>
+      <c r="C466" s="57">
+        <v>11941</v>
+      </c>
+      <c r="D466" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="13">
+        <v>466</v>
+      </c>
+      <c r="B467" s="57">
+        <v>75</v>
+      </c>
+      <c r="C467" s="57">
+        <v>11942</v>
+      </c>
+      <c r="D467" s="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="13">
+        <v>467</v>
+      </c>
+      <c r="B468" s="57">
+        <v>75</v>
+      </c>
+      <c r="C468" s="57">
+        <v>11943</v>
+      </c>
+      <c r="D468" s="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="13">
+        <v>468</v>
+      </c>
+      <c r="B469" s="57">
+        <v>75</v>
+      </c>
+      <c r="C469" s="57">
+        <v>11944</v>
+      </c>
+      <c r="D469" s="57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="13">
+        <v>469</v>
+      </c>
+      <c r="B470" s="57">
+        <v>75</v>
+      </c>
+      <c r="C470" s="57">
+        <v>11945</v>
+      </c>
+      <c r="D470" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="13">
+        <v>470</v>
+      </c>
+      <c r="B471" s="57">
+        <v>75</v>
+      </c>
+      <c r="C471" s="57">
+        <v>11946</v>
+      </c>
+      <c r="D471" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="13">
+        <v>471</v>
+      </c>
+      <c r="B472" s="57">
+        <v>75</v>
+      </c>
+      <c r="C472" s="57">
+        <v>11947</v>
+      </c>
+      <c r="D472" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="13">
+        <v>472</v>
+      </c>
+      <c r="B473" s="57">
+        <v>75</v>
+      </c>
+      <c r="C473" s="57">
+        <v>11948</v>
+      </c>
+      <c r="D473" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="13">
+        <v>473</v>
+      </c>
+      <c r="B474" s="57">
+        <v>75</v>
+      </c>
+      <c r="C474" s="57">
+        <v>11949</v>
+      </c>
+      <c r="D474" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="13">
+        <v>474</v>
+      </c>
+      <c r="B475" s="57">
+        <v>76</v>
+      </c>
+      <c r="C475" s="57">
+        <v>11950</v>
+      </c>
+      <c r="D475" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="13">
+        <v>475</v>
+      </c>
+      <c r="B476" s="57">
+        <v>76</v>
+      </c>
+      <c r="C476" s="57">
+        <v>11951</v>
+      </c>
+      <c r="D476" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="13">
+        <v>476</v>
+      </c>
+      <c r="B477" s="57">
+        <v>76</v>
+      </c>
+      <c r="C477" s="57">
+        <v>11952</v>
+      </c>
+      <c r="D477" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="13">
+        <v>477</v>
+      </c>
+      <c r="B478" s="57">
+        <v>76</v>
+      </c>
+      <c r="C478" s="57">
+        <v>11953</v>
+      </c>
+      <c r="D478" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="13">
+        <v>478</v>
+      </c>
+      <c r="B479" s="57">
+        <v>76</v>
+      </c>
+      <c r="C479" s="57">
+        <v>11954</v>
+      </c>
+      <c r="D479" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="13">
+        <v>479</v>
+      </c>
+      <c r="B480" s="57">
+        <v>76</v>
+      </c>
+      <c r="C480" s="57">
+        <v>11955</v>
+      </c>
+      <c r="D480" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="13">
+        <v>480</v>
+      </c>
+      <c r="B481" s="57">
+        <v>76</v>
+      </c>
+      <c r="C481" s="57">
+        <v>11956</v>
+      </c>
+      <c r="D481" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="13">
+        <v>481</v>
+      </c>
+      <c r="B482" s="57">
+        <v>76</v>
+      </c>
+      <c r="C482" s="57">
+        <v>11957</v>
+      </c>
+      <c r="D482" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="13">
+        <v>482</v>
+      </c>
+      <c r="B483" s="66">
+        <v>77</v>
+      </c>
+      <c r="C483" s="66">
+        <v>11958</v>
+      </c>
+      <c r="D483" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="13">
+        <v>483</v>
+      </c>
+      <c r="B484" s="66">
+        <v>77</v>
+      </c>
+      <c r="C484" s="66">
+        <v>11959</v>
+      </c>
+      <c r="D484" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="13">
+        <v>484</v>
+      </c>
+      <c r="B485" s="66">
+        <v>77</v>
+      </c>
+      <c r="C485" s="66">
+        <v>11960</v>
+      </c>
+      <c r="D485" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="13">
+        <v>485</v>
+      </c>
+      <c r="B486" s="66">
+        <v>77</v>
+      </c>
+      <c r="C486" s="66">
+        <v>11961</v>
+      </c>
+      <c r="D486" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="13">
+        <v>486</v>
+      </c>
+      <c r="B487" s="66">
+        <v>77</v>
+      </c>
+      <c r="C487" s="66">
+        <v>11962</v>
+      </c>
+      <c r="D487" s="66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="13">
+        <v>487</v>
+      </c>
+      <c r="B488" s="66">
+        <v>77</v>
+      </c>
+      <c r="C488" s="66">
+        <v>11963</v>
+      </c>
+      <c r="D488" s="66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="13">
+        <v>488</v>
+      </c>
+      <c r="B489" s="66">
+        <v>77</v>
+      </c>
+      <c r="C489" s="66">
+        <v>11964</v>
+      </c>
+      <c r="D489" s="66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="13">
+        <v>489</v>
+      </c>
+      <c r="B490" s="66">
+        <v>77</v>
+      </c>
+      <c r="C490" s="66">
+        <v>11965</v>
+      </c>
+      <c r="D490" s="66">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="13">
+        <v>490</v>
+      </c>
+      <c r="B491" s="66">
+        <v>77</v>
+      </c>
+      <c r="C491" s="66">
+        <v>11966</v>
+      </c>
+      <c r="D491" s="66">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="13">
+        <v>491</v>
+      </c>
+      <c r="B492" s="66">
+        <v>77</v>
+      </c>
+      <c r="C492" s="66">
+        <v>11967</v>
+      </c>
+      <c r="D492" s="66">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="13">
+        <v>492</v>
+      </c>
+      <c r="B493" s="66">
+        <v>77</v>
+      </c>
+      <c r="C493" s="66">
+        <v>11968</v>
+      </c>
+      <c r="D493" s="66">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="13">
+        <v>493</v>
+      </c>
+      <c r="B494" s="66">
+        <v>77</v>
+      </c>
+      <c r="C494" s="66">
+        <v>11969</v>
+      </c>
+      <c r="D494" s="66">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="13">
+        <v>494</v>
+      </c>
+      <c r="B495" s="66">
+        <v>77</v>
+      </c>
+      <c r="C495" s="66">
+        <v>11970</v>
+      </c>
+      <c r="D495" s="66">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="13">
+        <v>495</v>
+      </c>
+      <c r="B496" s="66">
+        <v>77</v>
+      </c>
+      <c r="C496" s="66">
+        <v>11971</v>
+      </c>
+      <c r="D496" s="66">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="13">
+        <v>496</v>
+      </c>
+      <c r="B497" s="66">
+        <v>77</v>
+      </c>
+      <c r="C497" s="66">
+        <v>11972</v>
+      </c>
+      <c r="D497" s="66">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -15156,11 +16302,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F454"/>
+  <dimension ref="A1:F497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A418" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E454" sqref="E454"/>
+      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D490" sqref="D490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15173,10 +16319,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="48" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="47" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -19210,13 +20356,13 @@
       <c r="B266" s="13">
         <v>11710</v>
       </c>
-      <c r="C266" s="38" t="s">
+      <c r="C266" s="37" t="s">
         <v>389</v>
       </c>
-      <c r="D266" s="38" t="s">
+      <c r="D266" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E266" s="39" t="s">
+      <c r="E266" s="38" t="s">
         <v>433</v>
       </c>
     </row>
@@ -19227,13 +20373,13 @@
       <c r="B267" s="13">
         <v>11711</v>
       </c>
-      <c r="C267" s="38" t="s">
+      <c r="C267" s="37" t="s">
         <v>439</v>
       </c>
-      <c r="D267" s="38" t="s">
+      <c r="D267" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E267" s="39" t="s">
+      <c r="E267" s="38" t="s">
         <v>457</v>
       </c>
     </row>
@@ -19244,13 +20390,13 @@
       <c r="B268" s="13">
         <v>11712</v>
       </c>
-      <c r="C268" s="38" t="s">
+      <c r="C268" s="37" t="s">
         <v>440</v>
       </c>
-      <c r="D268" s="38" t="s">
+      <c r="D268" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E268" s="39" t="s">
+      <c r="E268" s="38" t="s">
         <v>204</v>
       </c>
     </row>
@@ -19261,13 +20407,13 @@
       <c r="B269" s="13">
         <v>11713</v>
       </c>
-      <c r="C269" s="38" t="s">
+      <c r="C269" s="37" t="s">
         <v>441</v>
       </c>
-      <c r="D269" s="38" t="s">
+      <c r="D269" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E269" s="39" t="s">
+      <c r="E269" s="38" t="s">
         <v>458</v>
       </c>
     </row>
@@ -19278,13 +20424,13 @@
       <c r="B270" s="13">
         <v>11714</v>
       </c>
-      <c r="C270" s="38" t="s">
+      <c r="C270" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="D270" s="38" t="s">
+      <c r="D270" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E270" s="39" t="s">
+      <c r="E270" s="38" t="s">
         <v>459</v>
       </c>
     </row>
@@ -19295,13 +20441,13 @@
       <c r="B271" s="13">
         <v>11715</v>
       </c>
-      <c r="C271" s="38" t="s">
+      <c r="C271" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="D271" s="38" t="s">
+      <c r="D271" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E271" s="39" t="s">
+      <c r="E271" s="38" t="s">
         <v>460</v>
       </c>
     </row>
@@ -19312,13 +20458,13 @@
       <c r="B272" s="13">
         <v>11716</v>
       </c>
-      <c r="C272" s="38" t="s">
+      <c r="C272" s="37" t="s">
         <v>444</v>
       </c>
-      <c r="D272" s="38" t="s">
+      <c r="D272" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E272" s="39" t="s">
+      <c r="E272" s="38" t="s">
         <v>461</v>
       </c>
     </row>
@@ -19329,13 +20475,13 @@
       <c r="B273" s="13">
         <v>11717</v>
       </c>
-      <c r="C273" s="38" t="s">
+      <c r="C273" s="37" t="s">
         <v>445</v>
       </c>
-      <c r="D273" s="38" t="s">
+      <c r="D273" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E273" s="39" t="s">
+      <c r="E273" s="38" t="s">
         <v>462</v>
       </c>
     </row>
@@ -19346,13 +20492,13 @@
       <c r="B274" s="13">
         <v>11718</v>
       </c>
-      <c r="C274" s="38" t="s">
+      <c r="C274" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="D274" s="38" t="s">
+      <c r="D274" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="E274" s="39" t="s">
+      <c r="E274" s="38" t="s">
         <v>463</v>
       </c>
     </row>
@@ -19658,7 +20804,7 @@
       <c r="D292" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E292" s="42" t="s">
+      <c r="E292" s="41" t="s">
         <v>485</v>
       </c>
     </row>
@@ -19675,7 +20821,7 @@
       <c r="D293" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E293" s="42" t="s">
+      <c r="E293" s="41" t="s">
         <v>486</v>
       </c>
     </row>
@@ -19692,7 +20838,7 @@
       <c r="D294" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E294" s="42" t="s">
+      <c r="E294" s="41" t="s">
         <v>487</v>
       </c>
     </row>
@@ -19709,7 +20855,7 @@
       <c r="D295" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E295" s="42" t="s">
+      <c r="E295" s="41" t="s">
         <v>488</v>
       </c>
     </row>
@@ -19726,7 +20872,7 @@
       <c r="D296" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E296" s="42" t="s">
+      <c r="E296" s="41" t="s">
         <v>489</v>
       </c>
     </row>
@@ -19740,10 +20886,10 @@
       <c r="C297" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D297" s="43" t="s">
+      <c r="D297" s="42" t="s">
         <v>499</v>
       </c>
-      <c r="E297" s="42" t="s">
+      <c r="E297" s="41" t="s">
         <v>504</v>
       </c>
     </row>
@@ -19757,10 +20903,10 @@
       <c r="C298" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="D298" s="43" t="s">
+      <c r="D298" s="42" t="s">
         <v>500</v>
       </c>
-      <c r="E298" s="42" t="s">
+      <c r="E298" s="41" t="s">
         <v>502</v>
       </c>
     </row>
@@ -19774,10 +20920,10 @@
       <c r="C299" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="D299" s="43" t="s">
+      <c r="D299" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="E299" s="42" t="s">
+      <c r="E299" s="41" t="s">
         <v>503</v>
       </c>
     </row>
@@ -19794,7 +20940,7 @@
       <c r="D300" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E300" s="42" t="s">
+      <c r="E300" s="41" t="s">
         <v>579</v>
       </c>
     </row>
@@ -19811,7 +20957,7 @@
       <c r="D301" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E301" s="42" t="s">
+      <c r="E301" s="41" t="s">
         <v>575</v>
       </c>
     </row>
@@ -19828,7 +20974,7 @@
       <c r="D302" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E302" s="42" t="s">
+      <c r="E302" s="41" t="s">
         <v>576</v>
       </c>
     </row>
@@ -19845,7 +20991,7 @@
       <c r="D303" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E303" s="42" t="s">
+      <c r="E303" s="41" t="s">
         <v>577</v>
       </c>
     </row>
@@ -19862,7 +21008,7 @@
       <c r="D304" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="E304" s="42" t="s">
+      <c r="E304" s="41" t="s">
         <v>578</v>
       </c>
     </row>
@@ -19890,7 +21036,7 @@
       <c r="D306" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E306" s="42" t="s">
+      <c r="E306" s="41" t="s">
         <v>563</v>
       </c>
     </row>
@@ -19907,7 +21053,7 @@
       <c r="D307" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E307" s="42" t="s">
+      <c r="E307" s="41" t="s">
         <v>564</v>
       </c>
     </row>
@@ -19924,7 +21070,7 @@
       <c r="D308" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E308" s="42" t="s">
+      <c r="E308" s="41" t="s">
         <v>355</v>
       </c>
     </row>
@@ -19941,7 +21087,7 @@
       <c r="D309" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E309" s="42" t="s">
+      <c r="E309" s="41" t="s">
         <v>356</v>
       </c>
     </row>
@@ -19958,7 +21104,7 @@
       <c r="D310" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E310" s="42" t="s">
+      <c r="E310" s="41" t="s">
         <v>77</v>
       </c>
     </row>
@@ -19975,7 +21121,7 @@
       <c r="D311" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E311" s="42" t="s">
+      <c r="E311" s="41" t="s">
         <v>565</v>
       </c>
     </row>
@@ -19992,7 +21138,7 @@
       <c r="D312" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E312" s="42" t="s">
+      <c r="E312" s="41" t="s">
         <v>361</v>
       </c>
     </row>
@@ -20009,7 +21155,7 @@
       <c r="D313" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E313" s="42" t="s">
+      <c r="E313" s="41" t="s">
         <v>362</v>
       </c>
     </row>
@@ -20026,7 +21172,7 @@
       <c r="D314" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E314" s="42" t="s">
+      <c r="E314" s="41" t="s">
         <v>363</v>
       </c>
     </row>
@@ -20043,7 +21189,7 @@
       <c r="D315" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E315" s="42" t="s">
+      <c r="E315" s="41" t="s">
         <v>364</v>
       </c>
     </row>
@@ -20060,7 +21206,7 @@
       <c r="D316" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E316" s="42" t="s">
+      <c r="E316" s="41" t="s">
         <v>566</v>
       </c>
     </row>
@@ -20077,7 +21223,7 @@
       <c r="D317" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E317" s="42" t="s">
+      <c r="E317" s="41" t="s">
         <v>365</v>
       </c>
     </row>
@@ -20094,7 +21240,7 @@
       <c r="D318" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E318" s="42" t="s">
+      <c r="E318" s="41" t="s">
         <v>365</v>
       </c>
     </row>
@@ -20111,7 +21257,7 @@
       <c r="D319" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E319" s="42" t="s">
+      <c r="E319" s="41" t="s">
         <v>366</v>
       </c>
     </row>
@@ -20128,7 +21274,7 @@
       <c r="D320" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E320" s="42" t="s">
+      <c r="E320" s="41" t="s">
         <v>367</v>
       </c>
     </row>
@@ -20145,7 +21291,7 @@
       <c r="D321" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E321" s="42" t="s">
+      <c r="E321" s="41" t="s">
         <v>368</v>
       </c>
     </row>
@@ -20162,7 +21308,7 @@
       <c r="D322" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E322" s="42" t="s">
+      <c r="E322" s="41" t="s">
         <v>567</v>
       </c>
     </row>
@@ -20179,7 +21325,7 @@
       <c r="D323" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E323" s="42" t="s">
+      <c r="E323" s="41" t="s">
         <v>568</v>
       </c>
     </row>
@@ -20196,7 +21342,7 @@
       <c r="D324" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E324" s="42" t="s">
+      <c r="E324" s="41" t="s">
         <v>369</v>
       </c>
     </row>
@@ -20213,7 +21359,7 @@
       <c r="D325" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E325" s="42" t="s">
+      <c r="E325" s="41" t="s">
         <v>370</v>
       </c>
     </row>
@@ -20230,7 +21376,7 @@
       <c r="D326" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E326" s="42" t="s">
+      <c r="E326" s="41" t="s">
         <v>371</v>
       </c>
     </row>
@@ -20247,7 +21393,7 @@
       <c r="D327" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E327" s="42" t="s">
+      <c r="E327" s="41" t="s">
         <v>372</v>
       </c>
     </row>
@@ -20264,7 +21410,7 @@
       <c r="D328" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E328" s="42" t="s">
+      <c r="E328" s="41" t="s">
         <v>569</v>
       </c>
     </row>
@@ -20281,7 +21427,7 @@
       <c r="D329" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E329" s="42" t="s">
+      <c r="E329" s="41" t="s">
         <v>570</v>
       </c>
     </row>
@@ -20298,7 +21444,7 @@
       <c r="D330" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E330" s="42" t="s">
+      <c r="E330" s="41" t="s">
         <v>373</v>
       </c>
     </row>
@@ -20315,7 +21461,7 @@
       <c r="D331" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E331" s="42" t="s">
+      <c r="E331" s="41" t="s">
         <v>374</v>
       </c>
     </row>
@@ -20332,7 +21478,7 @@
       <c r="D332" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E332" s="42" t="s">
+      <c r="E332" s="41" t="s">
         <v>375</v>
       </c>
     </row>
@@ -20349,7 +21495,7 @@
       <c r="D333" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E333" s="42" t="s">
+      <c r="E333" s="41" t="s">
         <v>376</v>
       </c>
     </row>
@@ -20366,7 +21512,7 @@
       <c r="D334" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E334" s="42" t="s">
+      <c r="E334" s="41" t="s">
         <v>571</v>
       </c>
     </row>
@@ -20383,7 +21529,7 @@
       <c r="D335" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E335" s="42" t="s">
+      <c r="E335" s="41" t="s">
         <v>572</v>
       </c>
     </row>
@@ -20400,7 +21546,7 @@
       <c r="D336" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E336" s="42" t="s">
+      <c r="E336" s="41" t="s">
         <v>377</v>
       </c>
     </row>
@@ -20417,7 +21563,7 @@
       <c r="D337" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E337" s="42" t="s">
+      <c r="E337" s="41" t="s">
         <v>378</v>
       </c>
     </row>
@@ -20434,7 +21580,7 @@
       <c r="D338" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E338" s="42" t="s">
+      <c r="E338" s="41" t="s">
         <v>379</v>
       </c>
     </row>
@@ -20451,7 +21597,7 @@
       <c r="D339" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E339" s="42" t="s">
+      <c r="E339" s="41" t="s">
         <v>380</v>
       </c>
     </row>
@@ -20468,7 +21614,7 @@
       <c r="D340" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E340" s="42" t="s">
+      <c r="E340" s="41" t="s">
         <v>573</v>
       </c>
     </row>
@@ -20485,7 +21631,7 @@
       <c r="D341" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E341" s="42" t="s">
+      <c r="E341" s="41" t="s">
         <v>574</v>
       </c>
     </row>
@@ -20638,564 +21784,564 @@
       <c r="D350" s="13"/>
       <c r="E350" s="32"/>
     </row>
-    <row r="351" spans="1:5" s="49" customFormat="1">
+    <row r="351" spans="1:5" s="17" customFormat="1">
       <c r="A351" s="17">
         <v>350</v>
       </c>
       <c r="B351" s="13">
         <v>11824</v>
       </c>
-      <c r="C351" s="50" t="s">
+      <c r="C351" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="D351" s="51" t="s">
+      <c r="D351" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E351" s="53" t="s">
+      <c r="E351" s="21" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="352" spans="1:5" s="49" customFormat="1">
+    <row r="352" spans="1:5" s="17" customFormat="1">
       <c r="A352" s="17">
         <v>351</v>
       </c>
       <c r="B352" s="13">
         <v>11825</v>
       </c>
-      <c r="C352" s="51" t="s">
+      <c r="C352" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="D352" s="51" t="s">
+      <c r="D352" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E352" s="53" t="s">
+      <c r="E352" s="21" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="353" spans="1:5" s="49" customFormat="1">
+    <row r="353" spans="1:5" s="17" customFormat="1">
       <c r="A353" s="17">
         <v>352</v>
       </c>
       <c r="B353" s="13">
         <v>11826</v>
       </c>
-      <c r="C353" s="51" t="s">
+      <c r="C353" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="D353" s="51" t="s">
+      <c r="D353" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E353" s="53" t="s">
+      <c r="E353" s="21" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="354" spans="1:5" s="49" customFormat="1">
+    <row r="354" spans="1:5" s="17" customFormat="1">
       <c r="A354" s="17">
         <v>353</v>
       </c>
       <c r="B354" s="13">
         <v>11827</v>
       </c>
-      <c r="C354" s="51" t="s">
+      <c r="C354" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="D354" s="51" t="s">
+      <c r="D354" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E354" s="53" t="s">
+      <c r="E354" s="21" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="355" spans="1:5" s="49" customFormat="1">
+    <row r="355" spans="1:5" s="17" customFormat="1">
       <c r="A355" s="17">
         <v>354</v>
       </c>
       <c r="B355" s="13">
         <v>11828</v>
       </c>
-      <c r="C355" s="51" t="s">
+      <c r="C355" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="D355" s="50" t="s">
+      <c r="D355" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E355" s="53" t="s">
+      <c r="E355" s="21" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="356" spans="1:5" s="49" customFormat="1">
+    <row r="356" spans="1:5" s="17" customFormat="1">
       <c r="A356" s="17">
         <v>355</v>
       </c>
       <c r="B356" s="13">
         <v>11829</v>
       </c>
-      <c r="C356" s="51" t="s">
+      <c r="C356" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="D356" s="50" t="s">
+      <c r="D356" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E356" s="53" t="s">
+      <c r="E356" s="21" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="357" spans="1:5" s="49" customFormat="1">
+    <row r="357" spans="1:5" s="17" customFormat="1">
       <c r="A357" s="17">
         <v>356</v>
       </c>
       <c r="B357" s="13">
         <v>11830</v>
       </c>
-      <c r="C357" s="51" t="s">
+      <c r="C357" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="D357" s="51" t="s">
+      <c r="D357" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="E357" s="53" t="s">
+      <c r="E357" s="21" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="358" spans="1:5" s="49" customFormat="1">
+    <row r="358" spans="1:5" s="17" customFormat="1">
       <c r="A358" s="17">
         <v>357</v>
       </c>
       <c r="B358" s="13">
         <v>11831</v>
       </c>
-      <c r="C358" s="51" t="s">
+      <c r="C358" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="D358" s="51" t="s">
+      <c r="D358" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="E358" s="53" t="s">
+      <c r="E358" s="21" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="359" spans="1:5" s="49" customFormat="1">
+    <row r="359" spans="1:5" s="17" customFormat="1">
       <c r="A359" s="17">
         <v>358</v>
       </c>
       <c r="B359" s="13">
         <v>11832</v>
       </c>
-      <c r="C359" s="51" t="s">
+      <c r="C359" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="D359" s="51" t="s">
+      <c r="D359" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="E359" s="53" t="s">
+      <c r="E359" s="21" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="360" spans="1:5" s="44" customFormat="1">
+    <row r="360" spans="1:5" s="17" customFormat="1">
       <c r="A360" s="17">
         <v>359</v>
       </c>
       <c r="B360" s="13">
         <v>11833</v>
       </c>
-      <c r="C360" s="52" t="s">
+      <c r="C360" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="D360" s="52" t="s">
+      <c r="D360" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E360" s="54" t="s">
+      <c r="E360" s="21" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="361" spans="1:5" s="44" customFormat="1">
+    <row r="361" spans="1:5" s="17" customFormat="1">
       <c r="A361" s="17">
         <v>360</v>
       </c>
       <c r="B361" s="13">
         <v>11834</v>
       </c>
-      <c r="C361" s="52" t="s">
+      <c r="C361" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="D361" s="52" t="s">
+      <c r="D361" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E361" s="54" t="s">
+      <c r="E361" s="21" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="362" spans="1:5" s="44" customFormat="1">
+    <row r="362" spans="1:5" s="17" customFormat="1">
       <c r="A362" s="17">
         <v>361</v>
       </c>
       <c r="B362" s="13">
         <v>11835</v>
       </c>
-      <c r="C362" s="52" t="s">
+      <c r="C362" s="15" t="s">
         <v>624</v>
       </c>
-      <c r="D362" s="52" t="s">
+      <c r="D362" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E362" s="54" t="s">
+      <c r="E362" s="21" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="363" spans="1:5" s="44" customFormat="1">
+    <row r="363" spans="1:5" s="17" customFormat="1">
       <c r="A363" s="17">
         <v>362</v>
       </c>
       <c r="B363" s="13">
         <v>11836</v>
       </c>
-      <c r="C363" s="52" t="s">
+      <c r="C363" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="D363" s="52" t="s">
+      <c r="D363" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E363" s="54" t="s">
+      <c r="E363" s="21" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="364" spans="1:5" s="44" customFormat="1">
+    <row r="364" spans="1:5" s="17" customFormat="1">
       <c r="A364" s="17">
         <v>363</v>
       </c>
       <c r="B364" s="13">
         <v>11837</v>
       </c>
-      <c r="C364" s="52" t="s">
+      <c r="C364" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="D364" s="45" t="s">
+      <c r="D364" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E364" s="54" t="s">
+      <c r="E364" s="21" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="365" spans="1:5" s="44" customFormat="1">
+    <row r="365" spans="1:5" s="17" customFormat="1">
       <c r="A365" s="17">
         <v>364</v>
       </c>
       <c r="B365" s="13">
         <v>11838</v>
       </c>
-      <c r="C365" s="52" t="s">
+      <c r="C365" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="D365" s="45" t="s">
+      <c r="D365" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E365" s="54" t="s">
+      <c r="E365" s="21" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="366" spans="1:5" s="44" customFormat="1">
+    <row r="366" spans="1:5" s="17" customFormat="1">
       <c r="A366" s="17">
         <v>365</v>
       </c>
       <c r="B366" s="13">
         <v>11839</v>
       </c>
-      <c r="C366" s="52" t="s">
+      <c r="C366" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="D366" s="52" t="s">
+      <c r="D366" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="E366" s="54" t="s">
+      <c r="E366" s="21" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="367" spans="1:5" s="44" customFormat="1">
+    <row r="367" spans="1:5" s="17" customFormat="1">
       <c r="A367" s="17">
         <v>366</v>
       </c>
       <c r="B367" s="13">
         <v>11840</v>
       </c>
-      <c r="C367" s="52" t="s">
+      <c r="C367" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="D367" s="52" t="s">
+      <c r="D367" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="E367" s="54" t="s">
+      <c r="E367" s="21" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="368" spans="1:5" s="44" customFormat="1">
+    <row r="368" spans="1:5" s="17" customFormat="1">
       <c r="A368" s="17">
         <v>367</v>
       </c>
       <c r="B368" s="13">
         <v>11841</v>
       </c>
-      <c r="C368" s="52" t="s">
+      <c r="C368" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="D368" s="52" t="s">
+      <c r="D368" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="E368" s="54" t="s">
+      <c r="E368" s="21" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="369" spans="1:5" s="49" customFormat="1">
+    <row r="369" spans="1:5" s="17" customFormat="1">
       <c r="A369" s="17">
         <v>368</v>
       </c>
       <c r="B369" s="13">
         <v>11842</v>
       </c>
-      <c r="C369" s="51" t="s">
+      <c r="C369" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="D369" s="51" t="s">
+      <c r="D369" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E369" s="53" t="s">
+      <c r="E369" s="21" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="370" spans="1:5" s="49" customFormat="1">
+    <row r="370" spans="1:5" s="17" customFormat="1">
       <c r="A370" s="17">
         <v>369</v>
       </c>
       <c r="B370" s="13">
         <v>11843</v>
       </c>
-      <c r="C370" s="51" t="s">
+      <c r="C370" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="D370" s="51" t="s">
+      <c r="D370" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E370" s="53" t="s">
+      <c r="E370" s="21" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="371" spans="1:5" s="49" customFormat="1">
+    <row r="371" spans="1:5" s="17" customFormat="1">
       <c r="A371" s="17">
         <v>370</v>
       </c>
       <c r="B371" s="13">
         <v>11844</v>
       </c>
-      <c r="C371" s="51" t="s">
+      <c r="C371" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="D371" s="51" t="s">
+      <c r="D371" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E371" s="53" t="s">
+      <c r="E371" s="21" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="372" spans="1:5" s="49" customFormat="1">
+    <row r="372" spans="1:5" s="17" customFormat="1">
       <c r="A372" s="17">
         <v>371</v>
       </c>
       <c r="B372" s="13">
         <v>11845</v>
       </c>
-      <c r="C372" s="51" t="s">
+      <c r="C372" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="D372" s="51" t="s">
+      <c r="D372" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="E372" s="53" t="s">
+      <c r="E372" s="21" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="373" spans="1:5" s="49" customFormat="1">
+    <row r="373" spans="1:5" s="17" customFormat="1">
       <c r="A373" s="17">
         <v>372</v>
       </c>
       <c r="B373" s="13">
         <v>11846</v>
       </c>
-      <c r="C373" s="51" t="s">
+      <c r="C373" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="D373" s="50" t="s">
+      <c r="D373" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E373" s="53" t="s">
+      <c r="E373" s="21" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="374" spans="1:5" s="49" customFormat="1">
+    <row r="374" spans="1:5" s="17" customFormat="1">
       <c r="A374" s="17">
         <v>373</v>
       </c>
       <c r="B374" s="13">
         <v>11847</v>
       </c>
-      <c r="C374" s="51" t="s">
+      <c r="C374" s="15" t="s">
         <v>636</v>
       </c>
-      <c r="D374" s="50" t="s">
+      <c r="D374" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E374" s="53" t="s">
+      <c r="E374" s="21" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="375" spans="1:5" s="49" customFormat="1">
+    <row r="375" spans="1:5" s="17" customFormat="1">
       <c r="A375" s="17">
         <v>374</v>
       </c>
       <c r="B375" s="13">
         <v>11848</v>
       </c>
-      <c r="C375" s="51" t="s">
+      <c r="C375" s="15" t="s">
         <v>637</v>
       </c>
-      <c r="D375" s="51" t="s">
+      <c r="D375" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="E375" s="53" t="s">
+      <c r="E375" s="21" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="376" spans="1:5" s="49" customFormat="1">
+    <row r="376" spans="1:5" s="17" customFormat="1">
       <c r="A376" s="17">
         <v>375</v>
       </c>
       <c r="B376" s="13">
         <v>11849</v>
       </c>
-      <c r="C376" s="51" t="s">
+      <c r="C376" s="15" t="s">
         <v>638</v>
       </c>
-      <c r="D376" s="51" t="s">
+      <c r="D376" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="E376" s="53" t="s">
+      <c r="E376" s="21" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="377" spans="1:5" s="49" customFormat="1">
+    <row r="377" spans="1:5" s="17" customFormat="1">
       <c r="A377" s="17">
         <v>376</v>
       </c>
       <c r="B377" s="13">
         <v>11850</v>
       </c>
-      <c r="C377" s="51" t="s">
+      <c r="C377" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="D377" s="51" t="s">
+      <c r="D377" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="E377" s="53" t="s">
+      <c r="E377" s="21" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="378" spans="1:5" s="59" customFormat="1">
+    <row r="378" spans="1:5" s="17" customFormat="1">
       <c r="A378" s="17">
         <v>377</v>
       </c>
       <c r="B378" s="13">
         <v>11851</v>
       </c>
-      <c r="C378" s="57" t="s">
+      <c r="C378" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="D378" s="57" t="s">
+      <c r="D378" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E378" s="60" t="s">
+      <c r="E378" s="21" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="379" spans="1:5" s="59" customFormat="1">
+    <row r="379" spans="1:5" s="17" customFormat="1">
       <c r="A379" s="17">
         <v>378</v>
       </c>
       <c r="B379" s="13">
         <v>11852</v>
       </c>
-      <c r="C379" s="61" t="s">
+      <c r="C379" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="D379" s="61" t="s">
+      <c r="D379" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E379" s="60" t="s">
+      <c r="E379" s="21" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="380" spans="1:5" s="59" customFormat="1">
+    <row r="380" spans="1:5" s="17" customFormat="1">
       <c r="A380" s="17">
         <v>379</v>
       </c>
       <c r="B380" s="13">
         <v>11853</v>
       </c>
-      <c r="C380" s="61" t="s">
+      <c r="C380" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="D380" s="57" t="s">
+      <c r="D380" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E380" s="60" t="s">
+      <c r="E380" s="21" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="381" spans="1:5" s="59" customFormat="1">
+    <row r="381" spans="1:5" s="17" customFormat="1">
       <c r="A381" s="17">
         <v>380</v>
       </c>
       <c r="B381" s="13">
         <v>11854</v>
       </c>
-      <c r="C381" s="61" t="s">
+      <c r="C381" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="D381" s="61" t="s">
+      <c r="D381" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E381" s="60" t="s">
+      <c r="E381" s="21" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="382" spans="1:5" s="59" customFormat="1">
+    <row r="382" spans="1:5" s="17" customFormat="1">
       <c r="A382" s="17">
         <v>381</v>
       </c>
       <c r="B382" s="13">
         <v>11855</v>
       </c>
-      <c r="C382" s="61" t="s">
+      <c r="C382" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="D382" s="61" t="s">
+      <c r="D382" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="E382" s="60" t="s">
+      <c r="E382" s="21" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="383" spans="1:5" s="59" customFormat="1">
+    <row r="383" spans="1:5" s="17" customFormat="1">
       <c r="A383" s="17">
         <v>382</v>
       </c>
       <c r="B383" s="13">
         <v>11856</v>
       </c>
-      <c r="C383" s="61" t="s">
+      <c r="C383" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="D383" s="57"/>
-      <c r="E383" s="62"/>
-    </row>
-    <row r="384" spans="1:5" ht="16.5">
+      <c r="D383" s="13"/>
+      <c r="E383" s="32"/>
+    </row>
+    <row r="384" spans="1:5" s="17" customFormat="1" ht="16.5">
       <c r="A384" s="17">
         <v>383</v>
       </c>
@@ -21205,14 +22351,14 @@
       <c r="C384" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="D384" s="43" t="s">
+      <c r="D384" s="53" t="s">
         <v>675</v>
       </c>
-      <c r="E384" s="42" t="s">
+      <c r="E384" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="16.5">
+    <row r="385" spans="1:5" s="17" customFormat="1" ht="16.5">
       <c r="A385" s="17">
         <v>384</v>
       </c>
@@ -21222,1126 +22368,1755 @@
       <c r="C385" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="D385" s="43" t="s">
+      <c r="D385" s="53" t="s">
         <v>676</v>
       </c>
-      <c r="E385" s="42" t="s">
+      <c r="E385" s="21" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" s="17" customFormat="1">
       <c r="A386" s="17">
         <v>385</v>
       </c>
       <c r="B386" s="13">
         <v>11859</v>
       </c>
-      <c r="C386" s="64" t="s">
+      <c r="C386" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="D386" s="66" t="s">
+      <c r="D386" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E386" s="67" t="s">
+      <c r="E386" s="21" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" s="17" customFormat="1">
       <c r="A387" s="17">
         <v>386</v>
       </c>
       <c r="B387" s="13">
         <v>11860</v>
       </c>
-      <c r="C387" s="64" t="s">
+      <c r="C387" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="D387" s="66" t="s">
+      <c r="D387" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E387" s="67" t="s">
+      <c r="E387" s="21" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" s="17" customFormat="1">
       <c r="A388" s="17">
         <v>387</v>
       </c>
       <c r="B388" s="13">
         <v>11861</v>
       </c>
-      <c r="C388" s="64" t="s">
+      <c r="C388" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="D388" s="66" t="s">
+      <c r="D388" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E388" s="67" t="s">
+      <c r="E388" s="21" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" s="17" customFormat="1">
       <c r="A389" s="17">
         <v>388</v>
       </c>
       <c r="B389" s="13">
         <v>11862</v>
       </c>
-      <c r="C389" s="64" t="s">
+      <c r="C389" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="D389" s="66" t="s">
+      <c r="D389" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E389" s="67" t="s">
+      <c r="E389" s="21" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" s="17" customFormat="1">
       <c r="A390" s="17">
         <v>389</v>
       </c>
       <c r="B390" s="13">
         <v>11863</v>
       </c>
-      <c r="C390" s="64" t="s">
+      <c r="C390" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="D390" s="66" t="s">
+      <c r="D390" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E390" s="67" t="s">
+      <c r="E390" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" s="17" customFormat="1">
       <c r="A391" s="17">
         <v>390</v>
       </c>
       <c r="B391" s="13">
         <v>11864</v>
       </c>
-      <c r="C391" s="64" t="s">
+      <c r="C391" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="D391" s="66" t="s">
+      <c r="D391" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E391" s="67" t="s">
+      <c r="E391" s="21" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" s="17" customFormat="1">
       <c r="A392" s="17">
         <v>391</v>
       </c>
       <c r="B392" s="13">
         <v>11865</v>
       </c>
-      <c r="C392" s="64" t="s">
+      <c r="C392" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="D392" s="66" t="s">
+      <c r="D392" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E392" s="67" t="s">
+      <c r="E392" s="21" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" s="17" customFormat="1">
       <c r="A393" s="17">
         <v>392</v>
       </c>
       <c r="B393" s="13">
         <v>11866</v>
       </c>
-      <c r="C393" s="64" t="s">
+      <c r="C393" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="D393" s="66" t="s">
+      <c r="D393" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E393" s="67" t="s">
+      <c r="E393" s="21" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" s="17" customFormat="1">
       <c r="A394" s="17">
         <v>393</v>
       </c>
       <c r="B394" s="13">
         <v>11867</v>
       </c>
-      <c r="C394" s="64" t="s">
+      <c r="C394" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="D394" s="66" t="s">
+      <c r="D394" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E394" s="67" t="s">
+      <c r="E394" s="21" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" s="17" customFormat="1">
       <c r="A395" s="17">
         <v>394</v>
       </c>
       <c r="B395" s="13">
         <v>11868</v>
       </c>
-      <c r="C395" s="64" t="s">
+      <c r="C395" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="D395" s="66" t="s">
+      <c r="D395" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E395" s="67" t="s">
+      <c r="E395" s="21" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" s="17" customFormat="1">
       <c r="A396" s="17">
         <v>395</v>
       </c>
       <c r="B396" s="13">
         <v>11869</v>
       </c>
-      <c r="C396" s="64" t="s">
+      <c r="C396" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="D396" s="66" t="s">
+      <c r="D396" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E396" s="67" t="s">
+      <c r="E396" s="21" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" s="17" customFormat="1">
       <c r="A397" s="17">
         <v>396</v>
       </c>
       <c r="B397" s="13">
         <v>11870</v>
       </c>
-      <c r="C397" s="64" t="s">
+      <c r="C397" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="D397" s="66" t="s">
+      <c r="D397" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E397" s="67" t="s">
+      <c r="E397" s="21" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" s="17" customFormat="1">
       <c r="A398" s="17">
         <v>397</v>
       </c>
       <c r="B398" s="13">
         <v>11871</v>
       </c>
-      <c r="C398" s="64" t="s">
+      <c r="C398" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="D398" s="66" t="s">
+      <c r="D398" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E398" s="67" t="s">
+      <c r="E398" s="21" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" s="17" customFormat="1">
       <c r="A399" s="17">
         <v>398</v>
       </c>
       <c r="B399" s="13">
         <v>11872</v>
       </c>
-      <c r="C399" s="64" t="s">
+      <c r="C399" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="D399" s="66" t="s">
+      <c r="D399" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E399" s="67" t="s">
+      <c r="E399" s="21" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" s="17" customFormat="1">
       <c r="A400" s="17">
         <v>399</v>
       </c>
       <c r="B400" s="13">
         <v>11873</v>
       </c>
-      <c r="C400" s="64" t="s">
+      <c r="C400" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="D400" s="66" t="s">
+      <c r="D400" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E400" s="67" t="s">
+      <c r="E400" s="21" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" s="17" customFormat="1">
       <c r="A401" s="17">
         <v>400</v>
       </c>
       <c r="B401" s="13">
         <v>11874</v>
       </c>
-      <c r="C401" s="64" t="s">
+      <c r="C401" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="D401" s="66" t="s">
+      <c r="D401" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E401" s="67" t="s">
+      <c r="E401" s="21" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" s="17" customFormat="1">
       <c r="A402" s="17">
         <v>401</v>
       </c>
       <c r="B402" s="13">
         <v>11875</v>
       </c>
-      <c r="C402" s="64" t="s">
+      <c r="C402" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="D402" s="66" t="s">
+      <c r="D402" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E402" s="67" t="s">
+      <c r="E402" s="21" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" s="17" customFormat="1">
       <c r="A403" s="17">
         <v>402</v>
       </c>
       <c r="B403" s="13">
         <v>11876</v>
       </c>
-      <c r="C403" s="64" t="s">
+      <c r="C403" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="D403" s="66" t="s">
+      <c r="D403" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E403" s="67" t="s">
+      <c r="E403" s="21" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" s="17" customFormat="1">
       <c r="A404" s="17">
         <v>403</v>
       </c>
       <c r="B404" s="13">
         <v>11877</v>
       </c>
-      <c r="C404" s="64" t="s">
+      <c r="C404" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="D404" s="66" t="s">
+      <c r="D404" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E404" s="67" t="s">
+      <c r="E404" s="21" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" s="17" customFormat="1">
       <c r="A405" s="17">
         <v>404</v>
       </c>
       <c r="B405" s="13">
         <v>11878</v>
       </c>
-      <c r="C405" s="64" t="s">
+      <c r="C405" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="D405" s="66" t="s">
+      <c r="D405" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E405" s="67" t="s">
+      <c r="E405" s="21" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" s="17" customFormat="1">
       <c r="A406" s="17">
         <v>405</v>
       </c>
       <c r="B406" s="13">
         <v>11879</v>
       </c>
-      <c r="C406" s="64" t="s">
+      <c r="C406" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="D406" s="66" t="s">
+      <c r="D406" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E406" s="67" t="s">
+      <c r="E406" s="21" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" s="17" customFormat="1">
       <c r="A407" s="17">
         <v>406</v>
       </c>
       <c r="B407" s="13">
         <v>11880</v>
       </c>
-      <c r="C407" s="64" t="s">
+      <c r="C407" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="D407" s="66" t="s">
+      <c r="D407" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E407" s="67" t="s">
+      <c r="E407" s="21" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" s="17" customFormat="1">
       <c r="A408" s="17">
         <v>407</v>
       </c>
       <c r="B408" s="13">
         <v>11881</v>
       </c>
-      <c r="C408" s="64" t="s">
+      <c r="C408" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="D408" s="66" t="s">
+      <c r="D408" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E408" s="67" t="s">
+      <c r="E408" s="21" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" s="17" customFormat="1">
       <c r="A409" s="17">
         <v>408</v>
       </c>
       <c r="B409" s="13">
         <v>11882</v>
       </c>
-      <c r="C409" s="64" t="s">
+      <c r="C409" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="D409" s="66" t="s">
+      <c r="D409" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E409" s="67" t="s">
+      <c r="E409" s="21" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" s="17" customFormat="1">
       <c r="A410" s="17">
         <v>409</v>
       </c>
       <c r="B410" s="13">
         <v>11883</v>
       </c>
-      <c r="C410" s="64" t="s">
+      <c r="C410" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="D410" s="66" t="s">
+      <c r="D410" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E410" s="67" t="s">
+      <c r="E410" s="21" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" s="17" customFormat="1">
       <c r="A411" s="17">
         <v>410</v>
       </c>
       <c r="B411" s="13">
         <v>11884</v>
       </c>
-      <c r="C411" s="64" t="s">
+      <c r="C411" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="D411" s="66" t="s">
+      <c r="D411" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E411" s="67" t="s">
+      <c r="E411" s="21" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" s="17" customFormat="1">
       <c r="A412" s="17">
         <v>411</v>
       </c>
       <c r="B412" s="13">
         <v>11885</v>
       </c>
-      <c r="C412" s="64" t="s">
+      <c r="C412" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="D412" s="66" t="s">
+      <c r="D412" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E412" s="67" t="s">
+      <c r="E412" s="21" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" s="17" customFormat="1">
       <c r="A413" s="17">
         <v>412</v>
       </c>
       <c r="B413" s="13">
         <v>11886</v>
       </c>
-      <c r="C413" s="64" t="s">
+      <c r="C413" s="15" t="s">
         <v>554</v>
       </c>
-      <c r="D413" s="66" t="s">
+      <c r="D413" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E413" s="67" t="s">
+      <c r="E413" s="21" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" s="17" customFormat="1">
       <c r="A414" s="17">
         <v>413</v>
       </c>
       <c r="B414" s="13">
         <v>11887</v>
       </c>
-      <c r="C414" s="64" t="s">
+      <c r="C414" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="D414" s="66" t="s">
+      <c r="D414" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E414" s="67" t="s">
+      <c r="E414" s="21" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" s="17" customFormat="1">
       <c r="A415" s="17">
         <v>414</v>
       </c>
       <c r="B415" s="13">
         <v>11888</v>
       </c>
-      <c r="C415" s="64" t="s">
+      <c r="C415" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="D415" s="66" t="s">
+      <c r="D415" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E415" s="67" t="s">
+      <c r="E415" s="21" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" s="17" customFormat="1">
       <c r="A416" s="17">
         <v>415</v>
       </c>
       <c r="B416" s="13">
         <v>11889</v>
       </c>
-      <c r="C416" s="64" t="s">
+      <c r="C416" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="D416" s="66" t="s">
+      <c r="D416" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E416" s="67" t="s">
+      <c r="E416" s="21" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" s="17" customFormat="1">
       <c r="A417" s="17">
         <v>416</v>
       </c>
       <c r="B417" s="13">
         <v>11890</v>
       </c>
-      <c r="C417" s="64" t="s">
+      <c r="C417" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="D417" s="66" t="s">
+      <c r="D417" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E417" s="67" t="s">
+      <c r="E417" s="21" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" s="17" customFormat="1">
       <c r="A418" s="17">
         <v>417</v>
       </c>
       <c r="B418" s="13">
         <v>11891</v>
       </c>
-      <c r="C418" s="64" t="s">
+      <c r="C418" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="D418" s="66" t="s">
+      <c r="D418" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E418" s="67" t="s">
+      <c r="E418" s="21" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" s="17" customFormat="1">
       <c r="A419" s="17">
         <v>418</v>
       </c>
       <c r="B419" s="13">
         <v>11892</v>
       </c>
-      <c r="C419" s="64" t="s">
+      <c r="C419" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="D419" s="66" t="s">
+      <c r="D419" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E419" s="67" t="s">
+      <c r="E419" s="21" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" s="17" customFormat="1">
       <c r="A420" s="17">
         <v>419</v>
       </c>
       <c r="B420" s="13">
         <v>11893</v>
       </c>
-      <c r="C420" s="64" t="s">
+      <c r="C420" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="D420" s="66" t="s">
+      <c r="D420" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E420" s="67" t="s">
+      <c r="E420" s="21" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" s="17" customFormat="1">
       <c r="A421" s="17">
         <v>420</v>
       </c>
       <c r="B421" s="13">
         <v>11894</v>
       </c>
-      <c r="C421" s="64" t="s">
+      <c r="C421" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="D421" s="66" t="s">
+      <c r="D421" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E421" s="67" t="s">
+      <c r="E421" s="21" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" s="17" customFormat="1">
       <c r="A422" s="17">
         <v>421</v>
       </c>
       <c r="B422" s="13">
         <v>11895</v>
       </c>
-      <c r="C422" s="38" t="s">
+      <c r="C422" s="15" t="s">
         <v>680</v>
       </c>
-      <c r="D422" s="37" t="s">
+      <c r="D422" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E422" s="39" t="s">
+      <c r="E422" s="21" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" s="17" customFormat="1">
       <c r="A423" s="17">
         <v>422</v>
       </c>
       <c r="B423" s="13">
         <v>11896</v>
       </c>
-      <c r="C423" s="38" t="s">
+      <c r="C423" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="D423" s="38" t="s">
+      <c r="D423" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E423" s="39" t="s">
+      <c r="E423" s="21" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" s="17" customFormat="1">
       <c r="A424" s="17">
         <v>423</v>
       </c>
       <c r="B424" s="13">
         <v>11897</v>
       </c>
-      <c r="C424" s="38" t="s">
+      <c r="C424" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="D424" s="37" t="s">
+      <c r="D424" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E424" s="39" t="s">
+      <c r="E424" s="21" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" s="17" customFormat="1">
       <c r="A425" s="17">
         <v>424</v>
       </c>
       <c r="B425" s="13">
         <v>11898</v>
       </c>
-      <c r="C425" s="38" t="s">
+      <c r="C425" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="D425" s="38" t="s">
+      <c r="D425" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E425" s="39" t="s">
+      <c r="E425" s="21" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" s="17" customFormat="1">
       <c r="A426" s="17">
         <v>425</v>
       </c>
       <c r="B426" s="13">
         <v>11899</v>
       </c>
-      <c r="C426" s="38" t="s">
+      <c r="C426" s="15" t="s">
         <v>684</v>
       </c>
-      <c r="D426" s="37" t="s">
+      <c r="D426" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E426" s="39" t="s">
+      <c r="E426" s="21" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" s="17" customFormat="1">
       <c r="A427" s="17">
         <v>426</v>
       </c>
       <c r="B427" s="13">
         <v>11900</v>
       </c>
-      <c r="C427" s="38" t="s">
+      <c r="C427" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="D427" s="37"/>
-      <c r="E427" s="68"/>
-    </row>
-    <row r="428" spans="1:5">
+      <c r="D427" s="13"/>
+      <c r="E427" s="32"/>
+    </row>
+    <row r="428" spans="1:5" s="17" customFormat="1">
       <c r="A428" s="17">
         <v>427</v>
       </c>
-      <c r="B428" s="50">
+      <c r="B428" s="13">
         <v>11901</v>
       </c>
-      <c r="C428" s="50"/>
-      <c r="D428" s="50" t="s">
+      <c r="C428" s="13"/>
+      <c r="D428" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E428" s="53" t="s">
+      <c r="E428" s="21" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" s="17" customFormat="1">
       <c r="A429" s="17">
         <v>428</v>
       </c>
-      <c r="B429" s="50">
+      <c r="B429" s="13">
         <v>11902</v>
       </c>
-      <c r="C429" s="50"/>
-      <c r="D429" s="50" t="s">
+      <c r="C429" s="13"/>
+      <c r="D429" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E429" s="53" t="s">
+      <c r="E429" s="21" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" s="17" customFormat="1">
       <c r="A430" s="17">
         <v>429</v>
       </c>
-      <c r="B430" s="50">
+      <c r="B430" s="13">
         <v>11903</v>
       </c>
-      <c r="C430" s="50"/>
-      <c r="D430" s="50" t="s">
+      <c r="C430" s="13"/>
+      <c r="D430" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E430" s="53" t="s">
+      <c r="E430" s="21" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" s="17" customFormat="1">
       <c r="A431" s="17">
         <v>430</v>
       </c>
-      <c r="B431" s="50">
+      <c r="B431" s="13">
         <v>11904</v>
       </c>
-      <c r="C431" s="50"/>
-      <c r="D431" s="51" t="s">
+      <c r="C431" s="13"/>
+      <c r="D431" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="E431" s="53" t="s">
+      <c r="E431" s="21" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" s="17" customFormat="1">
       <c r="A432" s="17">
         <v>431</v>
       </c>
-      <c r="B432" s="50">
+      <c r="B432" s="13">
         <v>11905</v>
       </c>
-      <c r="C432" s="50"/>
-      <c r="D432" s="51" t="s">
+      <c r="C432" s="13"/>
+      <c r="D432" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E432" s="53" t="s">
+      <c r="E432" s="21" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" s="17" customFormat="1">
       <c r="A433" s="17">
         <v>432</v>
       </c>
-      <c r="B433" s="50">
+      <c r="B433" s="13">
         <v>11906</v>
       </c>
-      <c r="C433" s="50"/>
-      <c r="D433" s="51" t="s">
+      <c r="C433" s="13"/>
+      <c r="D433" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E433" s="53" t="s">
+      <c r="E433" s="21" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" s="17" customFormat="1">
       <c r="A434" s="17">
         <v>433</v>
       </c>
-      <c r="B434" s="50">
+      <c r="B434" s="13">
         <v>11907</v>
       </c>
-      <c r="C434" s="50"/>
-      <c r="D434" s="51" t="s">
+      <c r="C434" s="13"/>
+      <c r="D434" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E434" s="53" t="s">
+      <c r="E434" s="21" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" s="17" customFormat="1">
       <c r="A435" s="17">
         <v>434</v>
       </c>
-      <c r="B435" s="50">
+      <c r="B435" s="13">
         <v>11908</v>
       </c>
-      <c r="C435" s="50"/>
-      <c r="D435" s="51" t="s">
+      <c r="C435" s="13"/>
+      <c r="D435" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E435" s="53" t="s">
+      <c r="E435" s="21" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" s="17" customFormat="1">
       <c r="A436" s="17">
         <v>435</v>
       </c>
-      <c r="B436" s="50">
+      <c r="B436" s="13">
         <v>11909</v>
       </c>
-      <c r="C436" s="50"/>
-      <c r="D436" s="51" t="s">
+      <c r="C436" s="13"/>
+      <c r="D436" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E436" s="53" t="s">
+      <c r="E436" s="21" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" s="17" customFormat="1">
       <c r="A437" s="17">
         <v>436</v>
       </c>
-      <c r="B437" s="50">
+      <c r="B437" s="13">
         <v>11911</v>
       </c>
-      <c r="C437" s="50"/>
-      <c r="D437" s="50" t="s">
+      <c r="C437" s="13"/>
+      <c r="D437" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E437" s="53" t="s">
+      <c r="E437" s="21" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" s="17" customFormat="1">
       <c r="A438" s="17">
         <v>437</v>
       </c>
-      <c r="B438" s="50">
+      <c r="B438" s="13">
         <v>11912</v>
       </c>
-      <c r="C438" s="50"/>
-      <c r="D438" s="50" t="s">
+      <c r="C438" s="13"/>
+      <c r="D438" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E438" s="53" t="s">
+      <c r="E438" s="21" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" s="17" customFormat="1">
       <c r="A439" s="17">
         <v>438</v>
       </c>
-      <c r="B439" s="50">
+      <c r="B439" s="13">
         <v>11913</v>
       </c>
-      <c r="C439" s="50"/>
-      <c r="D439" s="50" t="s">
+      <c r="C439" s="13"/>
+      <c r="D439" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E439" s="53" t="s">
+      <c r="E439" s="21" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" s="17" customFormat="1">
       <c r="A440" s="17">
         <v>439</v>
       </c>
-      <c r="B440" s="50">
+      <c r="B440" s="13">
         <v>11914</v>
       </c>
-      <c r="C440" s="50"/>
-      <c r="D440" s="51" t="s">
+      <c r="C440" s="13"/>
+      <c r="D440" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="E440" s="53" t="s">
+      <c r="E440" s="21" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" s="17" customFormat="1">
       <c r="A441" s="17">
         <v>440</v>
       </c>
-      <c r="B441" s="50">
+      <c r="B441" s="13">
         <v>11915</v>
       </c>
-      <c r="C441" s="50"/>
-      <c r="D441" s="51" t="s">
+      <c r="C441" s="13"/>
+      <c r="D441" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E441" s="53" t="s">
+      <c r="E441" s="21" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" s="17" customFormat="1">
       <c r="A442" s="17">
         <v>441</v>
       </c>
-      <c r="B442" s="50">
+      <c r="B442" s="13">
         <v>11916</v>
       </c>
-      <c r="C442" s="50"/>
-      <c r="D442" s="51" t="s">
+      <c r="C442" s="13"/>
+      <c r="D442" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E442" s="53" t="s">
+      <c r="E442" s="21" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" s="17" customFormat="1">
       <c r="A443" s="17">
         <v>442</v>
       </c>
-      <c r="B443" s="50">
+      <c r="B443" s="13">
         <v>11917</v>
       </c>
-      <c r="C443" s="50"/>
-      <c r="D443" s="51" t="s">
+      <c r="C443" s="13"/>
+      <c r="D443" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E443" s="53" t="s">
+      <c r="E443" s="21" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" s="17" customFormat="1">
       <c r="A444" s="17">
         <v>443</v>
       </c>
-      <c r="B444" s="50">
+      <c r="B444" s="13">
         <v>11918</v>
       </c>
-      <c r="C444" s="50"/>
-      <c r="D444" s="51" t="s">
+      <c r="C444" s="13"/>
+      <c r="D444" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E444" s="53" t="s">
+      <c r="E444" s="21" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" s="17" customFormat="1">
       <c r="A445" s="17">
         <v>444</v>
       </c>
-      <c r="B445" s="50">
+      <c r="B445" s="13">
         <v>11919</v>
       </c>
-      <c r="C445" s="50"/>
-      <c r="D445" s="51" t="s">
+      <c r="C445" s="13"/>
+      <c r="D445" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E445" s="53" t="s">
+      <c r="E445" s="21" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" s="17" customFormat="1">
       <c r="A446" s="17">
         <v>445</v>
       </c>
-      <c r="B446" s="50">
+      <c r="B446" s="13">
         <v>11921</v>
       </c>
-      <c r="C446" s="50"/>
-      <c r="D446" s="50" t="s">
+      <c r="C446" s="13"/>
+      <c r="D446" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E446" s="53" t="s">
+      <c r="E446" s="21" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" s="17" customFormat="1">
       <c r="A447" s="17">
         <v>446</v>
       </c>
-      <c r="B447" s="50">
+      <c r="B447" s="13">
         <v>11922</v>
       </c>
-      <c r="C447" s="50"/>
-      <c r="D447" s="50" t="s">
+      <c r="C447" s="13"/>
+      <c r="D447" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E447" s="53" t="s">
+      <c r="E447" s="21" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" s="17" customFormat="1">
       <c r="A448" s="17">
         <v>447</v>
       </c>
-      <c r="B448" s="50">
+      <c r="B448" s="13">
         <v>11923</v>
       </c>
-      <c r="C448" s="50"/>
-      <c r="D448" s="50" t="s">
+      <c r="C448" s="13"/>
+      <c r="D448" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="E448" s="53" t="s">
+      <c r="E448" s="21" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" s="17" customFormat="1">
       <c r="A449" s="17">
         <v>448</v>
       </c>
-      <c r="B449" s="50">
+      <c r="B449" s="13">
         <v>11924</v>
       </c>
-      <c r="C449" s="50"/>
-      <c r="D449" s="51" t="s">
+      <c r="C449" s="13"/>
+      <c r="D449" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="E449" s="53" t="s">
+      <c r="E449" s="21" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" s="17" customFormat="1">
       <c r="A450" s="17">
         <v>449</v>
       </c>
-      <c r="B450" s="50">
+      <c r="B450" s="13">
         <v>11925</v>
       </c>
-      <c r="C450" s="50"/>
-      <c r="D450" s="51" t="s">
+      <c r="C450" s="13"/>
+      <c r="D450" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E450" s="53" t="s">
+      <c r="E450" s="21" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" s="17" customFormat="1">
       <c r="A451" s="17">
         <v>450</v>
       </c>
-      <c r="B451" s="50">
+      <c r="B451" s="13">
         <v>11926</v>
       </c>
-      <c r="C451" s="50"/>
-      <c r="D451" s="51" t="s">
-        <v>601</v>
-      </c>
-      <c r="E451" s="53" t="s">
+      <c r="C451" s="13"/>
+      <c r="D451" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="E451" s="21" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" s="17" customFormat="1">
       <c r="A452" s="17">
         <v>451</v>
       </c>
-      <c r="B452" s="50">
+      <c r="B452" s="13">
         <v>11927</v>
       </c>
-      <c r="C452" s="50"/>
-      <c r="D452" s="51" t="s">
+      <c r="C452" s="13"/>
+      <c r="D452" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E452" s="53" t="s">
+      <c r="E452" s="21" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" s="17" customFormat="1">
       <c r="A453" s="17">
         <v>452</v>
       </c>
-      <c r="B453" s="50">
+      <c r="B453" s="13">
         <v>11928</v>
       </c>
-      <c r="C453" s="50"/>
-      <c r="D453" s="51" t="s">
+      <c r="C453" s="13"/>
+      <c r="D453" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E453" s="53" t="s">
+      <c r="E453" s="21" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" s="17" customFormat="1">
       <c r="A454" s="17">
         <v>453</v>
       </c>
-      <c r="B454" s="50">
+      <c r="B454" s="13">
         <v>11929</v>
       </c>
-      <c r="C454" s="50"/>
-      <c r="D454" s="51" t="s">
+      <c r="C454" s="13"/>
+      <c r="D454" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E454" s="53" t="s">
+      <c r="E454" s="21" t="s">
         <v>724</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" ht="16.5">
+      <c r="A455" s="17">
+        <v>454</v>
+      </c>
+      <c r="B455" s="45">
+        <v>11930</v>
+      </c>
+      <c r="C455" s="45"/>
+      <c r="D455" s="54" t="s">
+        <v>727</v>
+      </c>
+      <c r="E455" s="46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" ht="16.5">
+      <c r="A456" s="17">
+        <v>455</v>
+      </c>
+      <c r="B456" s="45">
+        <v>11931</v>
+      </c>
+      <c r="C456" s="45"/>
+      <c r="D456" s="54" t="s">
+        <v>728</v>
+      </c>
+      <c r="E456" s="46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" ht="16.5">
+      <c r="A457" s="17">
+        <v>456</v>
+      </c>
+      <c r="B457" s="45">
+        <v>11932</v>
+      </c>
+      <c r="C457" s="45"/>
+      <c r="D457" s="54" t="s">
+        <v>729</v>
+      </c>
+      <c r="E457" s="46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" ht="16.5">
+      <c r="A458" s="17">
+        <v>457</v>
+      </c>
+      <c r="B458" s="45">
+        <v>11933</v>
+      </c>
+      <c r="C458" s="45"/>
+      <c r="D458" s="54" t="s">
+        <v>730</v>
+      </c>
+      <c r="E458" s="46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" s="17" customFormat="1">
+      <c r="A459" s="17">
+        <v>458</v>
+      </c>
+      <c r="B459" s="57">
+        <v>11934</v>
+      </c>
+      <c r="C459" s="57"/>
+      <c r="D459" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="E459" s="58" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" s="17" customFormat="1">
+      <c r="A460" s="17">
+        <v>459</v>
+      </c>
+      <c r="B460" s="57">
+        <v>11935</v>
+      </c>
+      <c r="C460" s="57"/>
+      <c r="D460" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="E460" s="58" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" s="17" customFormat="1" ht="16.5">
+      <c r="A461" s="17">
+        <v>460</v>
+      </c>
+      <c r="B461" s="57">
+        <v>11936</v>
+      </c>
+      <c r="C461" s="57"/>
+      <c r="D461" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="E461" s="58" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" s="17" customFormat="1" ht="16.5">
+      <c r="A462" s="17">
+        <v>461</v>
+      </c>
+      <c r="B462" s="57">
+        <v>11937</v>
+      </c>
+      <c r="C462" s="57"/>
+      <c r="D462" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="E462" s="58" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" ht="16.5">
+      <c r="A463" s="17">
+        <v>462</v>
+      </c>
+      <c r="B463" s="57">
+        <v>11938</v>
+      </c>
+      <c r="C463" s="57"/>
+      <c r="D463" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="E463" s="58" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="17">
+        <v>463</v>
+      </c>
+      <c r="B464" s="57">
+        <v>11939</v>
+      </c>
+      <c r="C464" s="57"/>
+      <c r="D464" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="E464" s="58" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="17">
+        <v>464</v>
+      </c>
+      <c r="B465" s="57">
+        <v>11940</v>
+      </c>
+      <c r="C465" s="57"/>
+      <c r="D465" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="E465" s="58" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="17">
+        <v>465</v>
+      </c>
+      <c r="B466" s="57">
+        <v>11941</v>
+      </c>
+      <c r="C466" s="59" t="s">
+        <v>749</v>
+      </c>
+      <c r="D466" s="57"/>
+      <c r="E466" s="61"/>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="17">
+        <v>466</v>
+      </c>
+      <c r="B467" s="57">
+        <v>11942</v>
+      </c>
+      <c r="C467" s="57"/>
+      <c r="D467" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="E467" s="58" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="17">
+        <v>467</v>
+      </c>
+      <c r="B468" s="57">
+        <v>11943</v>
+      </c>
+      <c r="C468" s="57"/>
+      <c r="D468" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="E468" s="58" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" ht="16.5">
+      <c r="A469" s="17">
+        <v>468</v>
+      </c>
+      <c r="B469" s="57">
+        <v>11944</v>
+      </c>
+      <c r="C469" s="57"/>
+      <c r="D469" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="E469" s="58" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" ht="16.5">
+      <c r="A470" s="17">
+        <v>469</v>
+      </c>
+      <c r="B470" s="57">
+        <v>11945</v>
+      </c>
+      <c r="C470" s="57"/>
+      <c r="D470" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="E470" s="58" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" ht="16.5">
+      <c r="A471" s="17">
+        <v>470</v>
+      </c>
+      <c r="B471" s="57">
+        <v>11946</v>
+      </c>
+      <c r="C471" s="57"/>
+      <c r="D471" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="E471" s="58" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="17">
+        <v>471</v>
+      </c>
+      <c r="B472" s="57">
+        <v>11947</v>
+      </c>
+      <c r="C472" s="57"/>
+      <c r="D472" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="E472" s="58" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="17">
+        <v>472</v>
+      </c>
+      <c r="B473" s="57">
+        <v>11948</v>
+      </c>
+      <c r="C473" s="57"/>
+      <c r="D473" s="59" t="s">
+        <v>770</v>
+      </c>
+      <c r="E473" s="58" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="17">
+        <v>473</v>
+      </c>
+      <c r="B474" s="57">
+        <v>11949</v>
+      </c>
+      <c r="C474" s="59" t="s">
+        <v>749</v>
+      </c>
+      <c r="D474" s="57"/>
+      <c r="E474" s="61"/>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="17">
+        <v>474</v>
+      </c>
+      <c r="B475" s="57">
+        <v>11950</v>
+      </c>
+      <c r="C475" s="57"/>
+      <c r="D475" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="E475" s="58" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="17">
+        <v>475</v>
+      </c>
+      <c r="B476" s="57">
+        <v>11951</v>
+      </c>
+      <c r="C476" s="57"/>
+      <c r="D476" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="E476" s="58" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" ht="16.5">
+      <c r="A477" s="17">
+        <v>476</v>
+      </c>
+      <c r="B477" s="57">
+        <v>11952</v>
+      </c>
+      <c r="C477" s="57"/>
+      <c r="D477" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="E477" s="58" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" ht="16.5">
+      <c r="A478" s="17">
+        <v>477</v>
+      </c>
+      <c r="B478" s="57">
+        <v>11953</v>
+      </c>
+      <c r="C478" s="57"/>
+      <c r="D478" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="E478" s="58" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" ht="16.5">
+      <c r="A479" s="17">
+        <v>478</v>
+      </c>
+      <c r="B479" s="57">
+        <v>11954</v>
+      </c>
+      <c r="C479" s="57"/>
+      <c r="D479" s="60" t="s">
+        <v>748</v>
+      </c>
+      <c r="E479" s="58" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="17">
+        <v>479</v>
+      </c>
+      <c r="B480" s="57">
+        <v>11955</v>
+      </c>
+      <c r="C480" s="57"/>
+      <c r="D480" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="E480" s="58" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="17">
+        <v>480</v>
+      </c>
+      <c r="B481" s="57">
+        <v>11956</v>
+      </c>
+      <c r="C481" s="57"/>
+      <c r="D481" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="E481" s="58" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="17">
+        <v>481</v>
+      </c>
+      <c r="B482" s="57">
+        <v>11957</v>
+      </c>
+      <c r="C482" s="59" t="s">
+        <v>749</v>
+      </c>
+      <c r="D482" s="57"/>
+      <c r="E482" s="61"/>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="17">
+        <v>482</v>
+      </c>
+      <c r="B483" s="66">
+        <v>11958</v>
+      </c>
+      <c r="C483" s="67" t="s">
+        <v>758</v>
+      </c>
+      <c r="D483" s="66"/>
+      <c r="E483" s="68"/>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="17">
+        <v>483</v>
+      </c>
+      <c r="B484" s="66">
+        <v>11959</v>
+      </c>
+      <c r="C484" s="67" t="s">
+        <v>759</v>
+      </c>
+      <c r="D484" s="66"/>
+      <c r="E484" s="68"/>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="17">
+        <v>484</v>
+      </c>
+      <c r="B485" s="66">
+        <v>11960</v>
+      </c>
+      <c r="C485" s="67" t="s">
+        <v>760</v>
+      </c>
+      <c r="D485" s="66"/>
+      <c r="E485" s="68"/>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="17">
+        <v>485</v>
+      </c>
+      <c r="B486" s="66">
+        <v>11961</v>
+      </c>
+      <c r="C486" s="67" t="s">
+        <v>761</v>
+      </c>
+      <c r="D486" s="66"/>
+      <c r="E486" s="68"/>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="17">
+        <v>486</v>
+      </c>
+      <c r="B487" s="66">
+        <v>11962</v>
+      </c>
+      <c r="C487" s="67" t="s">
+        <v>762</v>
+      </c>
+      <c r="D487" s="66"/>
+      <c r="E487" s="68"/>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="17">
+        <v>487</v>
+      </c>
+      <c r="B488" s="66">
+        <v>11963</v>
+      </c>
+      <c r="C488" s="66"/>
+      <c r="D488" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E488" s="69" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="17">
+        <v>488</v>
+      </c>
+      <c r="B489" s="66">
+        <v>11964</v>
+      </c>
+      <c r="C489" s="66"/>
+      <c r="D489" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="E489" s="69" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="17">
+        <v>489</v>
+      </c>
+      <c r="B490" s="66">
+        <v>11965</v>
+      </c>
+      <c r="C490" s="66"/>
+      <c r="D490" s="67" t="s">
+        <v>777</v>
+      </c>
+      <c r="E490" s="69" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="17">
+        <v>490</v>
+      </c>
+      <c r="B491" s="66">
+        <v>11966</v>
+      </c>
+      <c r="C491" s="66"/>
+      <c r="D491" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E491" s="69" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="17">
+        <v>491</v>
+      </c>
+      <c r="B492" s="66">
+        <v>11967</v>
+      </c>
+      <c r="C492" s="66"/>
+      <c r="D492" s="66" t="s">
+        <v>767</v>
+      </c>
+      <c r="E492" s="69" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="17">
+        <v>492</v>
+      </c>
+      <c r="B493" s="66">
+        <v>11968</v>
+      </c>
+      <c r="C493" s="66"/>
+      <c r="D493" s="66" t="s">
+        <v>769</v>
+      </c>
+      <c r="E493" s="69" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="17">
+        <v>493</v>
+      </c>
+      <c r="B494" s="66">
+        <v>11969</v>
+      </c>
+      <c r="C494" s="66"/>
+      <c r="D494" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="E494" s="69" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="17">
+        <v>494</v>
+      </c>
+      <c r="B495" s="66">
+        <v>11970</v>
+      </c>
+      <c r="C495" s="66"/>
+      <c r="D495" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E495" s="69" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="17">
+        <v>495</v>
+      </c>
+      <c r="B496" s="66">
+        <v>11971</v>
+      </c>
+      <c r="C496" s="66"/>
+      <c r="D496" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="E496" s="69" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="17">
+        <v>496</v>
+      </c>
+      <c r="B497" s="66">
+        <v>11972</v>
+      </c>
+      <c r="C497" s="66"/>
+      <c r="D497" s="66" t="s">
+        <v>769</v>
+      </c>
+      <c r="E497" s="69" t="s">
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -22358,7 +24133,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23424,32 +25199,32 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="40.5">
-      <c r="A1" s="72" t="s">
-        <v>725</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>726</v>
-      </c>
-      <c r="C1" s="72" t="s">
-        <v>727</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>728</v>
-      </c>
-      <c r="E1" s="72" t="s">
-        <v>729</v>
-      </c>
-      <c r="F1" s="72" t="s">
-        <v>730</v>
-      </c>
-      <c r="G1" s="72" t="s">
+      <c r="A1" s="55" t="s">
         <v>731</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>732</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>734</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>735</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>736</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -23464,32 +25239,31 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27">
-      <c r="A1" s="72" t="s">
-        <v>732</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>733</v>
-      </c>
-      <c r="C1" s="72" t="s">
-        <v>734</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>735</v>
+      <c r="A1" s="55" t="s">
+        <v>738</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>739</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>740</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="D2" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -23502,8 +25276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23513,11 +25287,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="73" t="s">
-        <v>725</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>737</v>
+      <c r="A1" s="56" t="s">
+        <v>731</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>743</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="778">
   <si>
     <t>id|</t>
   </si>
@@ -5121,6 +5121,14 @@
   <si>
     <t>财神送礼</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,65</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -16298,7 +16306,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J468" sqref="J468"/>
+      <selection pane="bottomLeft" activeCell="D473" sqref="D473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23702,7 +23710,7 @@
         <v>748</v>
       </c>
       <c r="E469" s="58" t="s">
-        <v>751</v>
+        <v>776</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="16.5">
@@ -23717,7 +23725,7 @@
         <v>748</v>
       </c>
       <c r="E470" s="58" t="s">
-        <v>752</v>
+        <v>645</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="16.5">
@@ -23732,7 +23740,7 @@
         <v>748</v>
       </c>
       <c r="E471" s="58" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -23820,7 +23828,7 @@
         <v>748</v>
       </c>
       <c r="E477" s="58" t="s">
-        <v>751</v>
+        <v>776</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="16.5">
@@ -23835,7 +23843,7 @@
         <v>748</v>
       </c>
       <c r="E478" s="58" t="s">
-        <v>752</v>
+        <v>645</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="16.5">
@@ -23850,7 +23858,7 @@
         <v>748</v>
       </c>
       <c r="E479" s="58" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
     </row>
     <row r="480" spans="1:5">

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="777">
   <si>
     <t>id|</t>
   </si>
@@ -5119,16 +5119,12 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>过大年--抽奖（金元宝）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>过大年--抽奖（福利券）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神送礼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5853,7 +5849,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8179,7 +8175,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="72" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C78" s="71">
         <v>1613433600</v>
@@ -24008,7 +24004,7 @@
       </c>
       <c r="C490" s="66"/>
       <c r="D490" s="67" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E490" s="69" t="s">
         <v>765</v>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="776">
   <si>
     <t>id|</t>
   </si>
@@ -5045,10 +5045,6 @@
   </si>
   <si>
     <t>prop_web_chip_huafei</t>
-  </si>
-  <si>
-    <t>prop_web_chip_huafei</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5847,9 +5843,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8175,7 +8171,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="72" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C78" s="71">
         <v>1613433600</v>
@@ -8203,7 +8199,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="72" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C79" s="71">
         <v>1613433600</v>
@@ -9313,10 +9309,10 @@
   <dimension ref="A1:E497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B457" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B448" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D466" sqref="D466"/>
+      <selection pane="bottomRight" activeCell="B478" sqref="B478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -16300,9 +16296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F497"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D490" sqref="D490"/>
+      <selection pane="bottomLeft" activeCell="J468" sqref="J468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23570,7 +23566,7 @@
       </c>
       <c r="C460" s="57"/>
       <c r="D460" s="59" t="s">
-        <v>451</v>
+        <v>30</v>
       </c>
       <c r="E460" s="58" t="s">
         <v>756</v>
@@ -23630,7 +23626,7 @@
       </c>
       <c r="C464" s="57"/>
       <c r="D464" s="59" t="s">
-        <v>451</v>
+        <v>30</v>
       </c>
       <c r="E464" s="58" t="s">
         <v>754</v>
@@ -23645,7 +23641,7 @@
       </c>
       <c r="C465" s="57"/>
       <c r="D465" s="59" t="s">
-        <v>451</v>
+        <v>30</v>
       </c>
       <c r="E465" s="58" t="s">
         <v>755</v>
@@ -23688,7 +23684,7 @@
       </c>
       <c r="C468" s="57"/>
       <c r="D468" s="59" t="s">
-        <v>451</v>
+        <v>30</v>
       </c>
       <c r="E468" s="58" t="s">
         <v>756</v>
@@ -23748,7 +23744,7 @@
       </c>
       <c r="C472" s="57"/>
       <c r="D472" s="59" t="s">
-        <v>451</v>
+        <v>30</v>
       </c>
       <c r="E472" s="58" t="s">
         <v>754</v>
@@ -23763,7 +23759,7 @@
       </c>
       <c r="C473" s="57"/>
       <c r="D473" s="59" t="s">
-        <v>770</v>
+        <v>30</v>
       </c>
       <c r="E473" s="58" t="s">
         <v>755</v>
@@ -23806,7 +23802,7 @@
       </c>
       <c r="C476" s="57"/>
       <c r="D476" s="59" t="s">
-        <v>451</v>
+        <v>30</v>
       </c>
       <c r="E476" s="58" t="s">
         <v>756</v>
@@ -23866,7 +23862,7 @@
       </c>
       <c r="C480" s="57"/>
       <c r="D480" s="59" t="s">
-        <v>451</v>
+        <v>30</v>
       </c>
       <c r="E480" s="58" t="s">
         <v>754</v>
@@ -23881,7 +23877,7 @@
       </c>
       <c r="C481" s="57"/>
       <c r="D481" s="59" t="s">
-        <v>451</v>
+        <v>30</v>
       </c>
       <c r="E481" s="58" t="s">
         <v>755</v>
@@ -23977,7 +23973,7 @@
         <v>42</v>
       </c>
       <c r="E488" s="69" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -24004,7 +24000,7 @@
       </c>
       <c r="C490" s="66"/>
       <c r="D490" s="67" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E490" s="69" t="s">
         <v>765</v>
@@ -24052,7 +24048,7 @@
         <v>769</v>
       </c>
       <c r="E493" s="69" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -24067,7 +24063,7 @@
         <v>30</v>
       </c>
       <c r="E494" s="69" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -24082,7 +24078,7 @@
         <v>42</v>
       </c>
       <c r="E495" s="69" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -24097,7 +24093,7 @@
         <v>161</v>
       </c>
       <c r="E496" s="69" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -24112,7 +24108,7 @@
         <v>769</v>
       </c>
       <c r="E497" s="69" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -24128,7 +24124,7 @@
   <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="791">
   <si>
     <t>id|</t>
   </si>
@@ -4848,20 +4848,242 @@
     <t>prop_xnsmt_mtsp</t>
   </si>
   <si>
-    <t>茅台酒</t>
+    <t>prop_fish_drop_act_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果电脑</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00京东卡</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚果大礼包</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0元话费</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯棉毛巾</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,150000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,40</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,40000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_tiny_game_coin</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,40000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,40</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,15</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,15000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,600000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神礼包稀有宝箱</t>
+  </si>
+  <si>
+    <t>女神礼包史诗宝箱</t>
+  </si>
+  <si>
+    <t>女神礼包传说宝箱</t>
+  </si>
+  <si>
+    <t>prop_ty_xybox</t>
+  </si>
+  <si>
+    <t>prop_ty_ssbox</t>
+  </si>
+  <si>
+    <t>prop_ty_csbox</t>
+  </si>
+  <si>
+    <t>财神送礼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>10000,30000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1,10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>10,50</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4878,7 +5100,65 @@
       </rPr>
       <t>0,100</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,10000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台酒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,30000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,10000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅台酒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,30000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4895,240 +5175,19 @@
       </rPr>
       <t>000,3000</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,10000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,50</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_drop_act_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果电脑</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00京东卡</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚果大礼包</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0元话费</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯棉毛巾</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,150000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,40</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,40000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_tiny_game_coin</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,40000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_web_chip_huafei</t>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,40</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,15</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,15000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,600000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神送礼</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>5,10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>50,65</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5270,7 +5329,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5303,25 +5362,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5365,7 +5412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5488,21 +5535,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5510,67 +5547,33 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5849,11 +5852,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5874,7 +5877,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -7765,10 +7768,10 @@
       <c r="B64" s="39" t="s">
         <v>521</v>
       </c>
-      <c r="C64" s="50">
+      <c r="C64" s="46">
         <v>1609200000</v>
       </c>
-      <c r="D64" s="50">
+      <c r="D64" s="46">
         <v>1609775999</v>
       </c>
       <c r="E64" s="28">
@@ -7797,10 +7800,10 @@
       <c r="B65" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="C65" s="50">
+      <c r="C65" s="46">
         <v>1609200000</v>
       </c>
-      <c r="D65" s="50">
+      <c r="D65" s="46">
         <v>1609775999</v>
       </c>
       <c r="E65" s="28">
@@ -7829,10 +7832,10 @@
       <c r="B66" s="39" t="s">
         <v>523</v>
       </c>
-      <c r="C66" s="50">
+      <c r="C66" s="46">
         <v>1609200000</v>
       </c>
-      <c r="D66" s="50">
+      <c r="D66" s="46">
         <v>1609775999</v>
       </c>
       <c r="E66" s="28">
@@ -7861,10 +7864,10 @@
       <c r="B67" s="39" t="s">
         <v>524</v>
       </c>
-      <c r="C67" s="50">
+      <c r="C67" s="46">
         <v>1609200000</v>
       </c>
-      <c r="D67" s="50">
+      <c r="D67" s="46">
         <v>1609775999</v>
       </c>
       <c r="E67" s="28">
@@ -7893,10 +7896,10 @@
       <c r="B68" s="39" t="s">
         <v>525</v>
       </c>
-      <c r="C68" s="50">
+      <c r="C68" s="46">
         <v>1609200000</v>
       </c>
-      <c r="D68" s="50">
+      <c r="D68" s="46">
         <v>1609775999</v>
       </c>
       <c r="E68" s="28">
@@ -7925,10 +7928,10 @@
       <c r="B69" s="39" t="s">
         <v>526</v>
       </c>
-      <c r="C69" s="50">
+      <c r="C69" s="46">
         <v>1609200000</v>
       </c>
-      <c r="D69" s="50">
+      <c r="D69" s="46">
         <v>1609775999</v>
       </c>
       <c r="E69" s="28">
@@ -7957,10 +7960,10 @@
       <c r="B70" s="39" t="s">
         <v>678</v>
       </c>
-      <c r="C70" s="50">
+      <c r="C70" s="46">
         <v>1609804800</v>
       </c>
-      <c r="D70" s="50">
+      <c r="D70" s="46">
         <v>1610380799</v>
       </c>
       <c r="E70" s="28">
@@ -8062,173 +8065,260 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="49" customFormat="1">
-      <c r="A74" s="49">
+    <row r="74" spans="1:12" s="18" customFormat="1">
+      <c r="A74" s="18">
         <v>73</v>
       </c>
-      <c r="B74" s="49" t="s">
+      <c r="B74" s="18" t="s">
         <v>725</v>
       </c>
-      <c r="C74" s="49">
+      <c r="C74" s="18">
         <v>1612828800</v>
       </c>
-      <c r="D74" s="49">
+      <c r="D74" s="18">
         <v>1613404799</v>
       </c>
-      <c r="E74" s="52">
+      <c r="E74" s="28">
         <v>68</v>
       </c>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="49">
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="18">
         <v>73</v>
       </c>
-      <c r="L74" s="49">
+      <c r="L74" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="63" customFormat="1">
-      <c r="A75" s="63">
+    <row r="75" spans="1:12" s="18" customFormat="1">
+      <c r="A75" s="18">
         <v>74</v>
       </c>
-      <c r="B75" s="64" t="s">
+      <c r="B75" s="39" t="s">
         <v>746</v>
       </c>
-      <c r="C75" s="63">
+      <c r="C75" s="18">
         <v>1612828800</v>
       </c>
-      <c r="D75" s="63">
+      <c r="D75" s="18">
         <v>1613404799</v>
       </c>
-      <c r="E75" s="65">
+      <c r="E75" s="28">
         <v>69</v>
       </c>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="63">
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="18">
         <v>74</v>
       </c>
-      <c r="L75" s="63">
+      <c r="L75" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="63" customFormat="1">
-      <c r="A76" s="63">
+    <row r="76" spans="1:12" s="18" customFormat="1">
+      <c r="A76" s="18">
         <v>75</v>
       </c>
-      <c r="B76" s="64" t="s">
+      <c r="B76" s="39" t="s">
         <v>744</v>
       </c>
-      <c r="C76" s="63">
+      <c r="C76" s="18">
         <v>1612828800</v>
       </c>
-      <c r="D76" s="63">
+      <c r="D76" s="18">
         <v>1613404799</v>
       </c>
-      <c r="E76" s="65">
+      <c r="E76" s="28">
         <v>69</v>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="62"/>
-      <c r="K76" s="63">
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="18">
         <v>75</v>
       </c>
-      <c r="L76" s="63">
+      <c r="L76" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="63" customFormat="1">
-      <c r="A77" s="63">
+    <row r="77" spans="1:12" s="18" customFormat="1">
+      <c r="A77" s="18">
         <v>76</v>
       </c>
-      <c r="B77" s="64" t="s">
+      <c r="B77" s="39" t="s">
         <v>745</v>
       </c>
-      <c r="C77" s="63">
+      <c r="C77" s="18">
         <v>1612828800</v>
       </c>
-      <c r="D77" s="63">
+      <c r="D77" s="18">
         <v>1613404799</v>
       </c>
-      <c r="E77" s="65">
+      <c r="E77" s="28">
         <v>69</v>
       </c>
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
-      <c r="H77" s="62"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="62"/>
-      <c r="K77" s="63">
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="18">
         <v>76</v>
       </c>
-      <c r="L77" s="63">
+      <c r="L77" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="71">
+    <row r="78" spans="1:12" s="18" customFormat="1">
+      <c r="A78" s="18">
         <v>77</v>
       </c>
-      <c r="B78" s="72" t="s">
-        <v>775</v>
-      </c>
-      <c r="C78" s="71">
+      <c r="B78" s="39" t="s">
+        <v>773</v>
+      </c>
+      <c r="C78" s="18">
         <v>1613433600</v>
       </c>
-      <c r="D78" s="71">
+      <c r="D78" s="18">
         <v>1614009599</v>
       </c>
-      <c r="E78" s="73">
+      <c r="E78" s="28">
         <v>70</v>
       </c>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
-      <c r="K78" s="71">
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="18">
         <v>77</v>
       </c>
-      <c r="L78" s="71">
+      <c r="L78" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="71">
+    <row r="79" spans="1:12" s="18" customFormat="1">
+      <c r="A79" s="18">
         <v>78</v>
       </c>
-      <c r="B79" s="72" t="s">
-        <v>775</v>
-      </c>
-      <c r="C79" s="71">
+      <c r="B79" s="39" t="s">
+        <v>773</v>
+      </c>
+      <c r="C79" s="18">
         <v>1613433600</v>
       </c>
-      <c r="D79" s="71">
+      <c r="D79" s="18">
         <v>1614009599</v>
       </c>
-      <c r="E79" s="73">
+      <c r="E79" s="28">
         <v>71</v>
       </c>
-      <c r="F79" s="70"/>
-      <c r="G79" s="70"/>
-      <c r="H79" s="70"/>
-      <c r="I79" s="70"/>
-      <c r="J79" s="70"/>
-      <c r="K79" s="71">
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="18">
         <v>77</v>
       </c>
-      <c r="L79" s="71">
+      <c r="L79" s="18">
         <v>1</v>
       </c>
+    </row>
+    <row r="80" spans="1:12" s="18" customFormat="1">
+      <c r="A80" s="51">
+        <v>79</v>
+      </c>
+      <c r="B80" s="51" t="s">
+        <v>767</v>
+      </c>
+      <c r="C80" s="51">
+        <v>1614643200</v>
+      </c>
+      <c r="D80" s="51">
+        <v>1615219199</v>
+      </c>
+      <c r="E80" s="52">
+        <v>72</v>
+      </c>
+      <c r="F80" s="53"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+      <c r="J80" s="53"/>
+      <c r="K80" s="51">
+        <v>78</v>
+      </c>
+      <c r="L80" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="18" customFormat="1">
+      <c r="A81" s="51">
+        <v>80</v>
+      </c>
+      <c r="B81" s="51" t="s">
+        <v>768</v>
+      </c>
+      <c r="C81" s="51">
+        <v>1614643200</v>
+      </c>
+      <c r="D81" s="51">
+        <v>1615219199</v>
+      </c>
+      <c r="E81" s="52">
+        <v>73</v>
+      </c>
+      <c r="F81" s="53"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="53"/>
+      <c r="I81" s="53"/>
+      <c r="J81" s="53"/>
+      <c r="K81" s="51">
+        <v>79</v>
+      </c>
+      <c r="L81" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="18" customFormat="1">
+      <c r="A82" s="51">
+        <v>81</v>
+      </c>
+      <c r="B82" s="51" t="s">
+        <v>769</v>
+      </c>
+      <c r="C82" s="51">
+        <v>1614643200</v>
+      </c>
+      <c r="D82" s="51">
+        <v>1615219199</v>
+      </c>
+      <c r="E82" s="52">
+        <v>74</v>
+      </c>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+      <c r="J82" s="53"/>
+      <c r="K82" s="51">
+        <v>80</v>
+      </c>
+      <c r="L82" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="D83" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8241,11 +8331,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9207,59 +9297,101 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="44">
+      <c r="A69" s="17">
         <v>68</v>
       </c>
-      <c r="B69" s="44">
+      <c r="B69" s="17">
         <v>68</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="18" t="s">
         <v>726</v>
       </c>
-      <c r="D69" s="49">
+      <c r="D69" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="17" customFormat="1">
-      <c r="A70" s="62">
+      <c r="A70" s="17">
         <v>69</v>
       </c>
-      <c r="B70" s="62">
+      <c r="B70" s="17">
         <v>69</v>
       </c>
-      <c r="C70" s="63" t="s">
+      <c r="C70" s="18" t="s">
         <v>747</v>
       </c>
-      <c r="D70" s="63">
+      <c r="D70" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="70">
+      <c r="A71" s="17">
         <v>70</v>
       </c>
-      <c r="B71" s="70">
+      <c r="B71" s="17">
         <v>70</v>
       </c>
-      <c r="C71" s="71" t="s">
-        <v>757</v>
-      </c>
-      <c r="D71" s="71">
+      <c r="C71" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="D71" s="18">
         <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="70">
+      <c r="A72" s="17">
         <v>71</v>
       </c>
-      <c r="B72" s="70">
+      <c r="B72" s="17">
         <v>71</v>
       </c>
-      <c r="C72" s="71" t="s">
+      <c r="C72" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D72" s="71">
+      <c r="D72" s="18">
         <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="17">
+        <v>72</v>
+      </c>
+      <c r="B73" s="17">
+        <v>72</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>770</v>
+      </c>
+      <c r="D73" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="17">
+        <v>73</v>
+      </c>
+      <c r="B74" s="17">
+        <v>73</v>
+      </c>
+      <c r="C74" s="51" t="s">
+        <v>771</v>
+      </c>
+      <c r="D74" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="17">
+        <v>74</v>
+      </c>
+      <c r="B75" s="17">
+        <v>74</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>772</v>
+      </c>
+      <c r="D75" s="51">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9314,13 +9446,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E497"/>
+  <dimension ref="A1:E524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B448" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B515" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B478" sqref="B478"/>
+      <selection pane="bottomRight" activeCell="C533" sqref="C533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13819,13 +13951,13 @@
       <c r="A321" s="1">
         <v>320</v>
       </c>
-      <c r="B321" s="1">
+      <c r="B321" s="13">
         <v>49</v>
       </c>
-      <c r="C321" s="1">
+      <c r="C321" s="13">
         <v>11794</v>
       </c>
-      <c r="D321" s="1">
+      <c r="D321" s="13">
         <v>400</v>
       </c>
     </row>
@@ -13833,13 +13965,13 @@
       <c r="A322" s="1">
         <v>321</v>
       </c>
-      <c r="B322" s="1">
+      <c r="B322" s="13">
         <v>49</v>
       </c>
-      <c r="C322" s="1">
+      <c r="C322" s="13">
         <v>11795</v>
       </c>
-      <c r="D322" s="1">
+      <c r="D322" s="13">
         <v>0</v>
       </c>
     </row>
@@ -13847,13 +13979,13 @@
       <c r="A323" s="1">
         <v>322</v>
       </c>
-      <c r="B323" s="1">
+      <c r="B323" s="13">
         <v>49</v>
       </c>
-      <c r="C323" s="1">
+      <c r="C323" s="13">
         <v>11796</v>
       </c>
-      <c r="D323" s="1">
+      <c r="D323" s="13">
         <v>0</v>
       </c>
     </row>
@@ -13861,13 +13993,13 @@
       <c r="A324" s="1">
         <v>323</v>
       </c>
-      <c r="B324" s="1">
+      <c r="B324" s="13">
         <v>50</v>
       </c>
-      <c r="C324" s="1">
+      <c r="C324" s="13">
         <v>11797</v>
       </c>
-      <c r="D324" s="1">
+      <c r="D324" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -13875,13 +14007,13 @@
       <c r="A325" s="1">
         <v>324</v>
       </c>
-      <c r="B325" s="1">
+      <c r="B325" s="13">
         <v>50</v>
       </c>
-      <c r="C325" s="1">
+      <c r="C325" s="13">
         <v>11798</v>
       </c>
-      <c r="D325" s="1">
+      <c r="D325" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -13889,13 +14021,13 @@
       <c r="A326" s="1">
         <v>325</v>
       </c>
-      <c r="B326" s="1">
+      <c r="B326" s="13">
         <v>50</v>
       </c>
-      <c r="C326" s="1">
+      <c r="C326" s="13">
         <v>11799</v>
       </c>
-      <c r="D326" s="1">
+      <c r="D326" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -13903,13 +14035,13 @@
       <c r="A327" s="1">
         <v>326</v>
       </c>
-      <c r="B327" s="1">
+      <c r="B327" s="13">
         <v>50</v>
       </c>
-      <c r="C327" s="1">
+      <c r="C327" s="13">
         <v>11800</v>
       </c>
-      <c r="D327" s="1">
+      <c r="D327" s="13">
         <v>400</v>
       </c>
     </row>
@@ -13917,13 +14049,13 @@
       <c r="A328" s="1">
         <v>327</v>
       </c>
-      <c r="B328" s="1">
+      <c r="B328" s="13">
         <v>50</v>
       </c>
-      <c r="C328" s="1">
+      <c r="C328" s="13">
         <v>11801</v>
       </c>
-      <c r="D328" s="1">
+      <c r="D328" s="13">
         <v>0</v>
       </c>
     </row>
@@ -13931,13 +14063,13 @@
       <c r="A329" s="1">
         <v>328</v>
       </c>
-      <c r="B329" s="1">
+      <c r="B329" s="13">
         <v>50</v>
       </c>
-      <c r="C329" s="1">
+      <c r="C329" s="13">
         <v>11802</v>
       </c>
-      <c r="D329" s="1">
+      <c r="D329" s="13">
         <v>0</v>
       </c>
     </row>
@@ -13945,13 +14077,13 @@
       <c r="A330" s="1">
         <v>329</v>
       </c>
-      <c r="B330" s="1">
+      <c r="B330" s="13">
         <v>51</v>
       </c>
-      <c r="C330" s="1">
+      <c r="C330" s="13">
         <v>11803</v>
       </c>
-      <c r="D330" s="1">
+      <c r="D330" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -13959,13 +14091,13 @@
       <c r="A331" s="1">
         <v>330</v>
       </c>
-      <c r="B331" s="1">
+      <c r="B331" s="13">
         <v>51</v>
       </c>
-      <c r="C331" s="1">
+      <c r="C331" s="13">
         <v>11804</v>
       </c>
-      <c r="D331" s="1">
+      <c r="D331" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -13973,13 +14105,13 @@
       <c r="A332" s="1">
         <v>331</v>
       </c>
-      <c r="B332" s="1">
+      <c r="B332" s="13">
         <v>51</v>
       </c>
-      <c r="C332" s="1">
+      <c r="C332" s="13">
         <v>11805</v>
       </c>
-      <c r="D332" s="1">
+      <c r="D332" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -13987,13 +14119,13 @@
       <c r="A333" s="1">
         <v>332</v>
       </c>
-      <c r="B333" s="1">
+      <c r="B333" s="13">
         <v>51</v>
       </c>
-      <c r="C333" s="1">
+      <c r="C333" s="13">
         <v>11806</v>
       </c>
-      <c r="D333" s="1">
+      <c r="D333" s="13">
         <v>400</v>
       </c>
     </row>
@@ -14001,13 +14133,13 @@
       <c r="A334" s="1">
         <v>333</v>
       </c>
-      <c r="B334" s="1">
+      <c r="B334" s="13">
         <v>51</v>
       </c>
-      <c r="C334" s="1">
+      <c r="C334" s="13">
         <v>11807</v>
       </c>
-      <c r="D334" s="1">
+      <c r="D334" s="13">
         <v>0</v>
       </c>
     </row>
@@ -14015,13 +14147,13 @@
       <c r="A335" s="1">
         <v>334</v>
       </c>
-      <c r="B335" s="1">
+      <c r="B335" s="13">
         <v>51</v>
       </c>
-      <c r="C335" s="1">
+      <c r="C335" s="13">
         <v>11808</v>
       </c>
-      <c r="D335" s="1">
+      <c r="D335" s="13">
         <v>0</v>
       </c>
     </row>
@@ -14029,13 +14161,13 @@
       <c r="A336" s="1">
         <v>335</v>
       </c>
-      <c r="B336" s="1">
+      <c r="B336" s="13">
         <v>52</v>
       </c>
-      <c r="C336" s="1">
+      <c r="C336" s="13">
         <v>11809</v>
       </c>
-      <c r="D336" s="1">
+      <c r="D336" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -14043,13 +14175,13 @@
       <c r="A337" s="1">
         <v>336</v>
       </c>
-      <c r="B337" s="1">
+      <c r="B337" s="13">
         <v>52</v>
       </c>
-      <c r="C337" s="1">
+      <c r="C337" s="13">
         <v>11810</v>
       </c>
-      <c r="D337" s="1">
+      <c r="D337" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -14057,13 +14189,13 @@
       <c r="A338" s="1">
         <v>337</v>
       </c>
-      <c r="B338" s="1">
+      <c r="B338" s="13">
         <v>52</v>
       </c>
-      <c r="C338" s="1">
+      <c r="C338" s="13">
         <v>11811</v>
       </c>
-      <c r="D338" s="1">
+      <c r="D338" s="13">
         <v>3200</v>
       </c>
     </row>
@@ -14071,13 +14203,13 @@
       <c r="A339" s="1">
         <v>338</v>
       </c>
-      <c r="B339" s="1">
+      <c r="B339" s="13">
         <v>52</v>
       </c>
-      <c r="C339" s="1">
+      <c r="C339" s="13">
         <v>11812</v>
       </c>
-      <c r="D339" s="1">
+      <c r="D339" s="13">
         <v>400</v>
       </c>
     </row>
@@ -14085,13 +14217,13 @@
       <c r="A340" s="1">
         <v>339</v>
       </c>
-      <c r="B340" s="1">
+      <c r="B340" s="13">
         <v>52</v>
       </c>
-      <c r="C340" s="1">
+      <c r="C340" s="13">
         <v>11813</v>
       </c>
-      <c r="D340" s="1">
+      <c r="D340" s="13">
         <v>0</v>
       </c>
     </row>
@@ -14099,13 +14231,13 @@
       <c r="A341" s="1">
         <v>340</v>
       </c>
-      <c r="B341" s="1">
+      <c r="B341" s="13">
         <v>52</v>
       </c>
-      <c r="C341" s="1">
+      <c r="C341" s="13">
         <v>11814</v>
       </c>
-      <c r="D341" s="1">
+      <c r="D341" s="13">
         <v>0</v>
       </c>
     </row>
@@ -14235,129 +14367,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" s="51" customFormat="1">
-      <c r="A351" s="51">
+    <row r="351" spans="1:4" s="47" customFormat="1">
+      <c r="A351" s="47">
         <v>350</v>
       </c>
-      <c r="B351" s="51">
+      <c r="B351" s="47">
         <v>57</v>
       </c>
-      <c r="C351" s="51">
+      <c r="C351" s="47">
         <v>11824</v>
       </c>
-      <c r="D351" s="51">
+      <c r="D351" s="47">
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:4" s="51" customFormat="1">
-      <c r="A352" s="51">
+    <row r="352" spans="1:4" s="47" customFormat="1">
+      <c r="A352" s="47">
         <v>351</v>
       </c>
-      <c r="B352" s="51">
+      <c r="B352" s="47">
         <v>57</v>
       </c>
-      <c r="C352" s="51">
+      <c r="C352" s="47">
         <v>11825</v>
       </c>
-      <c r="D352" s="51">
+      <c r="D352" s="47">
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:4" s="51" customFormat="1">
-      <c r="A353" s="51">
+    <row r="353" spans="1:4" s="47" customFormat="1">
+      <c r="A353" s="47">
         <v>352</v>
       </c>
-      <c r="B353" s="51">
+      <c r="B353" s="47">
         <v>57</v>
       </c>
-      <c r="C353" s="51">
+      <c r="C353" s="47">
         <v>11826</v>
       </c>
-      <c r="D353" s="51">
+      <c r="D353" s="47">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:4" s="51" customFormat="1">
-      <c r="A354" s="51">
+    <row r="354" spans="1:4" s="47" customFormat="1">
+      <c r="A354" s="47">
         <v>353</v>
       </c>
-      <c r="B354" s="51">
+      <c r="B354" s="47">
         <v>57</v>
       </c>
-      <c r="C354" s="51">
+      <c r="C354" s="47">
         <v>11827</v>
       </c>
-      <c r="D354" s="51">
+      <c r="D354" s="47">
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:4" s="51" customFormat="1">
-      <c r="A355" s="51">
+    <row r="355" spans="1:4" s="47" customFormat="1">
+      <c r="A355" s="47">
         <v>354</v>
       </c>
-      <c r="B355" s="51">
+      <c r="B355" s="47">
         <v>57</v>
       </c>
-      <c r="C355" s="51">
+      <c r="C355" s="47">
         <v>11828</v>
       </c>
-      <c r="D355" s="51">
+      <c r="D355" s="47">
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="51" customFormat="1">
-      <c r="A356" s="51">
+    <row r="356" spans="1:4" s="47" customFormat="1">
+      <c r="A356" s="47">
         <v>355</v>
       </c>
-      <c r="B356" s="51">
+      <c r="B356" s="47">
         <v>57</v>
       </c>
-      <c r="C356" s="51">
+      <c r="C356" s="47">
         <v>11829</v>
       </c>
-      <c r="D356" s="51">
+      <c r="D356" s="47">
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" s="51" customFormat="1">
-      <c r="A357" s="51">
+    <row r="357" spans="1:4" s="47" customFormat="1">
+      <c r="A357" s="47">
         <v>356</v>
       </c>
-      <c r="B357" s="51">
+      <c r="B357" s="47">
         <v>57</v>
       </c>
-      <c r="C357" s="51">
+      <c r="C357" s="47">
         <v>11830</v>
       </c>
-      <c r="D357" s="51">
+      <c r="D357" s="47">
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:4" s="51" customFormat="1">
-      <c r="A358" s="51">
+    <row r="358" spans="1:4" s="47" customFormat="1">
+      <c r="A358" s="47">
         <v>357</v>
       </c>
-      <c r="B358" s="51">
+      <c r="B358" s="47">
         <v>57</v>
       </c>
-      <c r="C358" s="51">
+      <c r="C358" s="47">
         <v>11831</v>
       </c>
-      <c r="D358" s="51">
+      <c r="D358" s="47">
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:4" s="51" customFormat="1">
-      <c r="A359" s="51">
+    <row r="359" spans="1:4" s="47" customFormat="1">
+      <c r="A359" s="47">
         <v>358</v>
       </c>
-      <c r="B359" s="51">
+      <c r="B359" s="47">
         <v>57</v>
       </c>
-      <c r="C359" s="51">
+      <c r="C359" s="47">
         <v>11832</v>
       </c>
-      <c r="D359" s="51">
+      <c r="D359" s="47">
         <v>5</v>
       </c>
     </row>
@@ -14365,13 +14497,13 @@
       <c r="A360" s="13">
         <v>359</v>
       </c>
-      <c r="B360" s="51">
+      <c r="B360" s="47">
         <v>58</v>
       </c>
       <c r="C360" s="13">
         <v>11833</v>
       </c>
-      <c r="D360" s="51">
+      <c r="D360" s="47">
         <v>20</v>
       </c>
     </row>
@@ -14379,13 +14511,13 @@
       <c r="A361" s="13">
         <v>360</v>
       </c>
-      <c r="B361" s="51">
+      <c r="B361" s="47">
         <v>58</v>
       </c>
       <c r="C361" s="13">
         <v>11834</v>
       </c>
-      <c r="D361" s="51">
+      <c r="D361" s="47">
         <v>25</v>
       </c>
     </row>
@@ -14393,13 +14525,13 @@
       <c r="A362" s="13">
         <v>361</v>
       </c>
-      <c r="B362" s="51">
+      <c r="B362" s="47">
         <v>58</v>
       </c>
       <c r="C362" s="13">
         <v>11835</v>
       </c>
-      <c r="D362" s="51">
+      <c r="D362" s="47">
         <v>5</v>
       </c>
     </row>
@@ -14407,13 +14539,13 @@
       <c r="A363" s="13">
         <v>362</v>
       </c>
-      <c r="B363" s="51">
+      <c r="B363" s="47">
         <v>58</v>
       </c>
       <c r="C363" s="13">
         <v>11836</v>
       </c>
-      <c r="D363" s="51">
+      <c r="D363" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14421,13 +14553,13 @@
       <c r="A364" s="13">
         <v>363</v>
       </c>
-      <c r="B364" s="51">
+      <c r="B364" s="47">
         <v>58</v>
       </c>
       <c r="C364" s="13">
         <v>11837</v>
       </c>
-      <c r="D364" s="51">
+      <c r="D364" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14435,13 +14567,13 @@
       <c r="A365" s="13">
         <v>364</v>
       </c>
-      <c r="B365" s="51">
+      <c r="B365" s="47">
         <v>58</v>
       </c>
       <c r="C365" s="13">
         <v>11838</v>
       </c>
-      <c r="D365" s="51">
+      <c r="D365" s="47">
         <v>5</v>
       </c>
     </row>
@@ -14449,13 +14581,13 @@
       <c r="A366" s="13">
         <v>365</v>
       </c>
-      <c r="B366" s="51">
+      <c r="B366" s="47">
         <v>58</v>
       </c>
       <c r="C366" s="13">
         <v>11839</v>
       </c>
-      <c r="D366" s="51">
+      <c r="D366" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14463,13 +14595,13 @@
       <c r="A367" s="13">
         <v>366</v>
       </c>
-      <c r="B367" s="51">
+      <c r="B367" s="47">
         <v>58</v>
       </c>
       <c r="C367" s="13">
         <v>11840</v>
       </c>
-      <c r="D367" s="51">
+      <c r="D367" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14477,13 +14609,13 @@
       <c r="A368" s="13">
         <v>367</v>
       </c>
-      <c r="B368" s="51">
+      <c r="B368" s="47">
         <v>58</v>
       </c>
       <c r="C368" s="13">
         <v>11841</v>
       </c>
-      <c r="D368" s="51">
+      <c r="D368" s="47">
         <v>5</v>
       </c>
     </row>
@@ -14491,13 +14623,13 @@
       <c r="A369" s="13">
         <v>368</v>
       </c>
-      <c r="B369" s="51">
+      <c r="B369" s="47">
         <v>59</v>
       </c>
       <c r="C369" s="13">
         <v>11842</v>
       </c>
-      <c r="D369" s="51">
+      <c r="D369" s="47">
         <v>20</v>
       </c>
     </row>
@@ -14505,13 +14637,13 @@
       <c r="A370" s="13">
         <v>369</v>
       </c>
-      <c r="B370" s="51">
+      <c r="B370" s="47">
         <v>59</v>
       </c>
       <c r="C370" s="13">
         <v>11843</v>
       </c>
-      <c r="D370" s="51">
+      <c r="D370" s="47">
         <v>25</v>
       </c>
     </row>
@@ -14519,13 +14651,13 @@
       <c r="A371" s="13">
         <v>370</v>
       </c>
-      <c r="B371" s="51">
+      <c r="B371" s="47">
         <v>59</v>
       </c>
       <c r="C371" s="13">
         <v>11844</v>
       </c>
-      <c r="D371" s="51">
+      <c r="D371" s="47">
         <v>5</v>
       </c>
     </row>
@@ -14533,13 +14665,13 @@
       <c r="A372" s="13">
         <v>371</v>
       </c>
-      <c r="B372" s="51">
+      <c r="B372" s="47">
         <v>59</v>
       </c>
       <c r="C372" s="13">
         <v>11845</v>
       </c>
-      <c r="D372" s="51">
+      <c r="D372" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14547,13 +14679,13 @@
       <c r="A373" s="13">
         <v>372</v>
       </c>
-      <c r="B373" s="51">
+      <c r="B373" s="47">
         <v>59</v>
       </c>
       <c r="C373" s="13">
         <v>11846</v>
       </c>
-      <c r="D373" s="51">
+      <c r="D373" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14561,13 +14693,13 @@
       <c r="A374" s="13">
         <v>373</v>
       </c>
-      <c r="B374" s="51">
+      <c r="B374" s="47">
         <v>59</v>
       </c>
       <c r="C374" s="13">
         <v>11847</v>
       </c>
-      <c r="D374" s="51">
+      <c r="D374" s="47">
         <v>5</v>
       </c>
     </row>
@@ -14575,13 +14707,13 @@
       <c r="A375" s="13">
         <v>374</v>
       </c>
-      <c r="B375" s="51">
+      <c r="B375" s="47">
         <v>59</v>
       </c>
       <c r="C375" s="13">
         <v>11848</v>
       </c>
-      <c r="D375" s="51">
+      <c r="D375" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14589,13 +14721,13 @@
       <c r="A376" s="13">
         <v>375</v>
       </c>
-      <c r="B376" s="51">
+      <c r="B376" s="47">
         <v>59</v>
       </c>
       <c r="C376" s="13">
         <v>11849</v>
       </c>
-      <c r="D376" s="51">
+      <c r="D376" s="47">
         <v>10</v>
       </c>
     </row>
@@ -14603,13 +14735,13 @@
       <c r="A377" s="13">
         <v>376</v>
       </c>
-      <c r="B377" s="51">
+      <c r="B377" s="47">
         <v>59</v>
       </c>
       <c r="C377" s="13">
         <v>11850</v>
       </c>
-      <c r="D377" s="51">
+      <c r="D377" s="47">
         <v>5</v>
       </c>
     </row>
@@ -15695,13 +15827,13 @@
       <c r="A455" s="13">
         <v>454</v>
       </c>
-      <c r="B455" s="45">
+      <c r="B455" s="13">
         <v>73</v>
       </c>
-      <c r="C455" s="45">
+      <c r="C455" s="13">
         <v>11930</v>
       </c>
-      <c r="D455" s="45">
+      <c r="D455" s="13">
         <v>30</v>
       </c>
     </row>
@@ -15709,13 +15841,13 @@
       <c r="A456" s="13">
         <v>455</v>
       </c>
-      <c r="B456" s="45">
+      <c r="B456" s="13">
         <v>73</v>
       </c>
-      <c r="C456" s="45">
+      <c r="C456" s="13">
         <v>11931</v>
       </c>
-      <c r="D456" s="45">
+      <c r="D456" s="13">
         <v>30</v>
       </c>
     </row>
@@ -15723,13 +15855,13 @@
       <c r="A457" s="13">
         <v>456</v>
       </c>
-      <c r="B457" s="45">
+      <c r="B457" s="13">
         <v>73</v>
       </c>
-      <c r="C457" s="45">
+      <c r="C457" s="13">
         <v>11932</v>
       </c>
-      <c r="D457" s="45">
+      <c r="D457" s="13">
         <v>10</v>
       </c>
     </row>
@@ -15737,13 +15869,13 @@
       <c r="A458" s="13">
         <v>457</v>
       </c>
-      <c r="B458" s="45">
+      <c r="B458" s="13">
         <v>73</v>
       </c>
-      <c r="C458" s="45">
+      <c r="C458" s="13">
         <v>11933</v>
       </c>
-      <c r="D458" s="45">
+      <c r="D458" s="13">
         <v>30</v>
       </c>
     </row>
@@ -15751,13 +15883,13 @@
       <c r="A459" s="13">
         <v>458</v>
       </c>
-      <c r="B459" s="57">
+      <c r="B459" s="13">
         <v>74</v>
       </c>
-      <c r="C459" s="57">
+      <c r="C459" s="13">
         <v>11934</v>
       </c>
-      <c r="D459" s="57">
+      <c r="D459" s="13">
         <v>10</v>
       </c>
     </row>
@@ -15765,13 +15897,13 @@
       <c r="A460" s="13">
         <v>459</v>
       </c>
-      <c r="B460" s="57">
+      <c r="B460" s="13">
         <v>74</v>
       </c>
-      <c r="C460" s="57">
+      <c r="C460" s="13">
         <v>11935</v>
       </c>
-      <c r="D460" s="57">
+      <c r="D460" s="13">
         <v>10</v>
       </c>
     </row>
@@ -15779,13 +15911,13 @@
       <c r="A461" s="13">
         <v>460</v>
       </c>
-      <c r="B461" s="57">
+      <c r="B461" s="13">
         <v>74</v>
       </c>
-      <c r="C461" s="57">
+      <c r="C461" s="13">
         <v>11936</v>
       </c>
-      <c r="D461" s="57">
+      <c r="D461" s="13">
         <v>10</v>
       </c>
     </row>
@@ -15793,13 +15925,13 @@
       <c r="A462" s="13">
         <v>461</v>
       </c>
-      <c r="B462" s="57">
+      <c r="B462" s="13">
         <v>74</v>
       </c>
-      <c r="C462" s="57">
+      <c r="C462" s="13">
         <v>11937</v>
       </c>
-      <c r="D462" s="57">
+      <c r="D462" s="13">
         <v>25</v>
       </c>
     </row>
@@ -15807,13 +15939,13 @@
       <c r="A463" s="13">
         <v>462</v>
       </c>
-      <c r="B463" s="57">
+      <c r="B463" s="13">
         <v>74</v>
       </c>
-      <c r="C463" s="57">
+      <c r="C463" s="13">
         <v>11938</v>
       </c>
-      <c r="D463" s="57">
+      <c r="D463" s="13">
         <v>45</v>
       </c>
     </row>
@@ -15821,13 +15953,13 @@
       <c r="A464" s="13">
         <v>463</v>
       </c>
-      <c r="B464" s="57">
+      <c r="B464" s="13">
         <v>74</v>
       </c>
-      <c r="C464" s="57">
+      <c r="C464" s="13">
         <v>11939</v>
       </c>
-      <c r="D464" s="57">
+      <c r="D464" s="13">
         <v>0</v>
       </c>
     </row>
@@ -15835,13 +15967,13 @@
       <c r="A465" s="13">
         <v>464</v>
       </c>
-      <c r="B465" s="57">
+      <c r="B465" s="13">
         <v>74</v>
       </c>
-      <c r="C465" s="57">
+      <c r="C465" s="13">
         <v>11940</v>
       </c>
-      <c r="D465" s="57">
+      <c r="D465" s="13">
         <v>0</v>
       </c>
     </row>
@@ -15849,13 +15981,13 @@
       <c r="A466" s="13">
         <v>465</v>
       </c>
-      <c r="B466" s="57">
+      <c r="B466" s="13">
         <v>74</v>
       </c>
-      <c r="C466" s="57">
+      <c r="C466" s="13">
         <v>11941</v>
       </c>
-      <c r="D466" s="57">
+      <c r="D466" s="13">
         <v>0</v>
       </c>
     </row>
@@ -15863,13 +15995,13 @@
       <c r="A467" s="13">
         <v>466</v>
       </c>
-      <c r="B467" s="57">
+      <c r="B467" s="13">
         <v>75</v>
       </c>
-      <c r="C467" s="57">
+      <c r="C467" s="13">
         <v>11942</v>
       </c>
-      <c r="D467" s="57">
+      <c r="D467" s="13">
         <v>5</v>
       </c>
     </row>
@@ -15877,13 +16009,13 @@
       <c r="A468" s="13">
         <v>467</v>
       </c>
-      <c r="B468" s="57">
+      <c r="B468" s="13">
         <v>75</v>
       </c>
-      <c r="C468" s="57">
+      <c r="C468" s="13">
         <v>11943</v>
       </c>
-      <c r="D468" s="57">
+      <c r="D468" s="13">
         <v>5</v>
       </c>
     </row>
@@ -15891,13 +16023,13 @@
       <c r="A469" s="13">
         <v>468</v>
       </c>
-      <c r="B469" s="57">
+      <c r="B469" s="13">
         <v>75</v>
       </c>
-      <c r="C469" s="57">
+      <c r="C469" s="13">
         <v>11944</v>
       </c>
-      <c r="D469" s="57">
+      <c r="D469" s="13">
         <v>30</v>
       </c>
     </row>
@@ -15905,13 +16037,13 @@
       <c r="A470" s="13">
         <v>469</v>
       </c>
-      <c r="B470" s="57">
+      <c r="B470" s="13">
         <v>75</v>
       </c>
-      <c r="C470" s="57">
+      <c r="C470" s="13">
         <v>11945</v>
       </c>
-      <c r="D470" s="57">
+      <c r="D470" s="13">
         <v>50</v>
       </c>
     </row>
@@ -15919,13 +16051,13 @@
       <c r="A471" s="13">
         <v>470</v>
       </c>
-      <c r="B471" s="57">
+      <c r="B471" s="13">
         <v>75</v>
       </c>
-      <c r="C471" s="57">
+      <c r="C471" s="13">
         <v>11946</v>
       </c>
-      <c r="D471" s="57">
+      <c r="D471" s="13">
         <v>10</v>
       </c>
     </row>
@@ -15933,13 +16065,13 @@
       <c r="A472" s="13">
         <v>471</v>
       </c>
-      <c r="B472" s="57">
+      <c r="B472" s="13">
         <v>75</v>
       </c>
-      <c r="C472" s="57">
+      <c r="C472" s="13">
         <v>11947</v>
       </c>
-      <c r="D472" s="57">
+      <c r="D472" s="13">
         <v>0</v>
       </c>
     </row>
@@ -15947,13 +16079,13 @@
       <c r="A473" s="13">
         <v>472</v>
       </c>
-      <c r="B473" s="57">
+      <c r="B473" s="13">
         <v>75</v>
       </c>
-      <c r="C473" s="57">
+      <c r="C473" s="13">
         <v>11948</v>
       </c>
-      <c r="D473" s="57">
+      <c r="D473" s="13">
         <v>0</v>
       </c>
     </row>
@@ -15961,13 +16093,13 @@
       <c r="A474" s="13">
         <v>473</v>
       </c>
-      <c r="B474" s="57">
+      <c r="B474" s="13">
         <v>75</v>
       </c>
-      <c r="C474" s="57">
+      <c r="C474" s="13">
         <v>11949</v>
       </c>
-      <c r="D474" s="57">
+      <c r="D474" s="13">
         <v>0</v>
       </c>
     </row>
@@ -15975,13 +16107,13 @@
       <c r="A475" s="13">
         <v>474</v>
       </c>
-      <c r="B475" s="57">
+      <c r="B475" s="13">
         <v>76</v>
       </c>
-      <c r="C475" s="57">
+      <c r="C475" s="13">
         <v>11950</v>
       </c>
-      <c r="D475" s="57">
+      <c r="D475" s="13">
         <v>50</v>
       </c>
     </row>
@@ -15989,13 +16121,13 @@
       <c r="A476" s="13">
         <v>475</v>
       </c>
-      <c r="B476" s="57">
+      <c r="B476" s="13">
         <v>76</v>
       </c>
-      <c r="C476" s="57">
+      <c r="C476" s="13">
         <v>11951</v>
       </c>
-      <c r="D476" s="57">
+      <c r="D476" s="13">
         <v>50</v>
       </c>
     </row>
@@ -16003,13 +16135,13 @@
       <c r="A477" s="13">
         <v>476</v>
       </c>
-      <c r="B477" s="57">
+      <c r="B477" s="13">
         <v>76</v>
       </c>
-      <c r="C477" s="57">
+      <c r="C477" s="13">
         <v>11952</v>
       </c>
-      <c r="D477" s="57">
+      <c r="D477" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16017,13 +16149,13 @@
       <c r="A478" s="13">
         <v>477</v>
       </c>
-      <c r="B478" s="57">
+      <c r="B478" s="13">
         <v>76</v>
       </c>
-      <c r="C478" s="57">
+      <c r="C478" s="13">
         <v>11953</v>
       </c>
-      <c r="D478" s="57">
+      <c r="D478" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16031,13 +16163,13 @@
       <c r="A479" s="13">
         <v>478</v>
       </c>
-      <c r="B479" s="57">
+      <c r="B479" s="13">
         <v>76</v>
       </c>
-      <c r="C479" s="57">
+      <c r="C479" s="13">
         <v>11954</v>
       </c>
-      <c r="D479" s="57">
+      <c r="D479" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16045,13 +16177,13 @@
       <c r="A480" s="13">
         <v>479</v>
       </c>
-      <c r="B480" s="57">
+      <c r="B480" s="13">
         <v>76</v>
       </c>
-      <c r="C480" s="57">
+      <c r="C480" s="13">
         <v>11955</v>
       </c>
-      <c r="D480" s="57">
+      <c r="D480" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16059,13 +16191,13 @@
       <c r="A481" s="13">
         <v>480</v>
       </c>
-      <c r="B481" s="57">
+      <c r="B481" s="13">
         <v>76</v>
       </c>
-      <c r="C481" s="57">
+      <c r="C481" s="13">
         <v>11956</v>
       </c>
-      <c r="D481" s="57">
+      <c r="D481" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16073,13 +16205,13 @@
       <c r="A482" s="13">
         <v>481</v>
       </c>
-      <c r="B482" s="57">
+      <c r="B482" s="13">
         <v>76</v>
       </c>
-      <c r="C482" s="57">
+      <c r="C482" s="13">
         <v>11957</v>
       </c>
-      <c r="D482" s="57">
+      <c r="D482" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16087,13 +16219,13 @@
       <c r="A483" s="13">
         <v>482</v>
       </c>
-      <c r="B483" s="66">
+      <c r="B483" s="13">
         <v>77</v>
       </c>
-      <c r="C483" s="66">
+      <c r="C483" s="13">
         <v>11958</v>
       </c>
-      <c r="D483" s="66">
+      <c r="D483" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16101,13 +16233,13 @@
       <c r="A484" s="13">
         <v>483</v>
       </c>
-      <c r="B484" s="66">
+      <c r="B484" s="13">
         <v>77</v>
       </c>
-      <c r="C484" s="66">
+      <c r="C484" s="13">
         <v>11959</v>
       </c>
-      <c r="D484" s="66">
+      <c r="D484" s="13">
         <v>0</v>
       </c>
     </row>
@@ -16115,13 +16247,13 @@
       <c r="A485" s="13">
         <v>484</v>
       </c>
-      <c r="B485" s="66">
+      <c r="B485" s="13">
         <v>77</v>
       </c>
-      <c r="C485" s="66">
+      <c r="C485" s="13">
         <v>11960</v>
       </c>
-      <c r="D485" s="66">
+      <c r="D485" s="13">
         <v>1</v>
       </c>
     </row>
@@ -16129,13 +16261,13 @@
       <c r="A486" s="13">
         <v>485</v>
       </c>
-      <c r="B486" s="66">
+      <c r="B486" s="13">
         <v>77</v>
       </c>
-      <c r="C486" s="66">
+      <c r="C486" s="13">
         <v>11961</v>
       </c>
-      <c r="D486" s="66">
+      <c r="D486" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16143,13 +16275,13 @@
       <c r="A487" s="13">
         <v>486</v>
       </c>
-      <c r="B487" s="66">
+      <c r="B487" s="13">
         <v>77</v>
       </c>
-      <c r="C487" s="66">
+      <c r="C487" s="13">
         <v>11962</v>
       </c>
-      <c r="D487" s="66">
+      <c r="D487" s="13">
         <v>20</v>
       </c>
     </row>
@@ -16157,13 +16289,13 @@
       <c r="A488" s="13">
         <v>487</v>
       </c>
-      <c r="B488" s="66">
+      <c r="B488" s="13">
         <v>77</v>
       </c>
-      <c r="C488" s="66">
+      <c r="C488" s="13">
         <v>11963</v>
       </c>
-      <c r="D488" s="66">
+      <c r="D488" s="13">
         <v>30</v>
       </c>
     </row>
@@ -16171,13 +16303,13 @@
       <c r="A489" s="13">
         <v>488</v>
       </c>
-      <c r="B489" s="66">
+      <c r="B489" s="13">
         <v>77</v>
       </c>
-      <c r="C489" s="66">
+      <c r="C489" s="13">
         <v>11964</v>
       </c>
-      <c r="D489" s="66">
+      <c r="D489" s="13">
         <v>100</v>
       </c>
     </row>
@@ -16185,13 +16317,13 @@
       <c r="A490" s="13">
         <v>489</v>
       </c>
-      <c r="B490" s="66">
+      <c r="B490" s="13">
         <v>77</v>
       </c>
-      <c r="C490" s="66">
+      <c r="C490" s="13">
         <v>11965</v>
       </c>
-      <c r="D490" s="66">
+      <c r="D490" s="13">
         <v>860</v>
       </c>
     </row>
@@ -16199,13 +16331,13 @@
       <c r="A491" s="13">
         <v>490</v>
       </c>
-      <c r="B491" s="66">
+      <c r="B491" s="13">
         <v>77</v>
       </c>
-      <c r="C491" s="66">
+      <c r="C491" s="13">
         <v>11966</v>
       </c>
-      <c r="D491" s="66">
+      <c r="D491" s="13">
         <v>860</v>
       </c>
     </row>
@@ -16213,13 +16345,13 @@
       <c r="A492" s="13">
         <v>491</v>
       </c>
-      <c r="B492" s="66">
+      <c r="B492" s="13">
         <v>77</v>
       </c>
-      <c r="C492" s="66">
+      <c r="C492" s="13">
         <v>11967</v>
       </c>
-      <c r="D492" s="66">
+      <c r="D492" s="13">
         <v>860</v>
       </c>
     </row>
@@ -16227,13 +16359,13 @@
       <c r="A493" s="13">
         <v>492</v>
       </c>
-      <c r="B493" s="66">
+      <c r="B493" s="13">
         <v>77</v>
       </c>
-      <c r="C493" s="66">
+      <c r="C493" s="13">
         <v>11968</v>
       </c>
-      <c r="D493" s="66">
+      <c r="D493" s="13">
         <v>860</v>
       </c>
     </row>
@@ -16241,13 +16373,13 @@
       <c r="A494" s="13">
         <v>493</v>
       </c>
-      <c r="B494" s="66">
+      <c r="B494" s="13">
         <v>77</v>
       </c>
-      <c r="C494" s="66">
+      <c r="C494" s="13">
         <v>11969</v>
       </c>
-      <c r="D494" s="66">
+      <c r="D494" s="13">
         <v>1599</v>
       </c>
     </row>
@@ -16255,13 +16387,13 @@
       <c r="A495" s="13">
         <v>494</v>
       </c>
-      <c r="B495" s="66">
+      <c r="B495" s="13">
         <v>77</v>
       </c>
-      <c r="C495" s="66">
+      <c r="C495" s="13">
         <v>11970</v>
       </c>
-      <c r="D495" s="66">
+      <c r="D495" s="13">
         <v>1900</v>
       </c>
     </row>
@@ -16269,13 +16401,13 @@
       <c r="A496" s="13">
         <v>495</v>
       </c>
-      <c r="B496" s="66">
+      <c r="B496" s="13">
         <v>77</v>
       </c>
-      <c r="C496" s="66">
+      <c r="C496" s="13">
         <v>11971</v>
       </c>
-      <c r="D496" s="66">
+      <c r="D496" s="13">
         <v>1900</v>
       </c>
     </row>
@@ -16283,14 +16415,392 @@
       <c r="A497" s="13">
         <v>496</v>
       </c>
-      <c r="B497" s="66">
+      <c r="B497" s="13">
         <v>77</v>
       </c>
-      <c r="C497" s="66">
+      <c r="C497" s="13">
         <v>11972</v>
       </c>
-      <c r="D497" s="66">
+      <c r="D497" s="13">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="13">
+        <v>497</v>
+      </c>
+      <c r="B498" s="55">
+        <v>78</v>
+      </c>
+      <c r="C498" s="55">
+        <v>11973</v>
+      </c>
+      <c r="D498" s="55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="13">
+        <v>498</v>
+      </c>
+      <c r="B499" s="55">
+        <v>78</v>
+      </c>
+      <c r="C499" s="55">
+        <v>11974</v>
+      </c>
+      <c r="D499" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="13">
+        <v>499</v>
+      </c>
+      <c r="B500" s="55">
+        <v>78</v>
+      </c>
+      <c r="C500" s="55">
+        <v>11975</v>
+      </c>
+      <c r="D500" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="13">
+        <v>500</v>
+      </c>
+      <c r="B501" s="55">
+        <v>78</v>
+      </c>
+      <c r="C501" s="55">
+        <v>11976</v>
+      </c>
+      <c r="D501" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="13">
+        <v>501</v>
+      </c>
+      <c r="B502" s="55">
+        <v>78</v>
+      </c>
+      <c r="C502" s="55">
+        <v>11977</v>
+      </c>
+      <c r="D502" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="13">
+        <v>502</v>
+      </c>
+      <c r="B503" s="55">
+        <v>78</v>
+      </c>
+      <c r="C503" s="55">
+        <v>11978</v>
+      </c>
+      <c r="D503" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="13">
+        <v>503</v>
+      </c>
+      <c r="B504" s="55">
+        <v>78</v>
+      </c>
+      <c r="C504" s="55">
+        <v>11979</v>
+      </c>
+      <c r="D504" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="13">
+        <v>504</v>
+      </c>
+      <c r="B505" s="55">
+        <v>78</v>
+      </c>
+      <c r="C505" s="55">
+        <v>11980</v>
+      </c>
+      <c r="D505" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="13">
+        <v>505</v>
+      </c>
+      <c r="B506" s="55">
+        <v>78</v>
+      </c>
+      <c r="C506" s="55">
+        <v>11981</v>
+      </c>
+      <c r="D506" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="13">
+        <v>506</v>
+      </c>
+      <c r="B507" s="55">
+        <v>79</v>
+      </c>
+      <c r="C507" s="55">
+        <v>11982</v>
+      </c>
+      <c r="D507" s="55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="13">
+        <v>507</v>
+      </c>
+      <c r="B508" s="55">
+        <v>79</v>
+      </c>
+      <c r="C508" s="55">
+        <v>11983</v>
+      </c>
+      <c r="D508" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="13">
+        <v>508</v>
+      </c>
+      <c r="B509" s="55">
+        <v>79</v>
+      </c>
+      <c r="C509" s="55">
+        <v>11984</v>
+      </c>
+      <c r="D509" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="13">
+        <v>509</v>
+      </c>
+      <c r="B510" s="55">
+        <v>79</v>
+      </c>
+      <c r="C510" s="55">
+        <v>11985</v>
+      </c>
+      <c r="D510" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="13">
+        <v>510</v>
+      </c>
+      <c r="B511" s="55">
+        <v>79</v>
+      </c>
+      <c r="C511" s="55">
+        <v>11986</v>
+      </c>
+      <c r="D511" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="13">
+        <v>511</v>
+      </c>
+      <c r="B512" s="55">
+        <v>79</v>
+      </c>
+      <c r="C512" s="55">
+        <v>11987</v>
+      </c>
+      <c r="D512" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="13">
+        <v>512</v>
+      </c>
+      <c r="B513" s="55">
+        <v>79</v>
+      </c>
+      <c r="C513" s="55">
+        <v>11988</v>
+      </c>
+      <c r="D513" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="13">
+        <v>513</v>
+      </c>
+      <c r="B514" s="55">
+        <v>79</v>
+      </c>
+      <c r="C514" s="55">
+        <v>11989</v>
+      </c>
+      <c r="D514" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="13">
+        <v>514</v>
+      </c>
+      <c r="B515" s="55">
+        <v>79</v>
+      </c>
+      <c r="C515" s="55">
+        <v>11990</v>
+      </c>
+      <c r="D515" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="13">
+        <v>515</v>
+      </c>
+      <c r="B516" s="55">
+        <v>80</v>
+      </c>
+      <c r="C516" s="55">
+        <v>11991</v>
+      </c>
+      <c r="D516" s="55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="13">
+        <v>516</v>
+      </c>
+      <c r="B517" s="55">
+        <v>80</v>
+      </c>
+      <c r="C517" s="55">
+        <v>11992</v>
+      </c>
+      <c r="D517" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="13">
+        <v>517</v>
+      </c>
+      <c r="B518" s="55">
+        <v>80</v>
+      </c>
+      <c r="C518" s="55">
+        <v>11993</v>
+      </c>
+      <c r="D518" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="13">
+        <v>518</v>
+      </c>
+      <c r="B519" s="55">
+        <v>80</v>
+      </c>
+      <c r="C519" s="55">
+        <v>11994</v>
+      </c>
+      <c r="D519" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="13">
+        <v>519</v>
+      </c>
+      <c r="B520" s="55">
+        <v>80</v>
+      </c>
+      <c r="C520" s="55">
+        <v>11995</v>
+      </c>
+      <c r="D520" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="13">
+        <v>520</v>
+      </c>
+      <c r="B521" s="55">
+        <v>80</v>
+      </c>
+      <c r="C521" s="55">
+        <v>11996</v>
+      </c>
+      <c r="D521" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="13">
+        <v>521</v>
+      </c>
+      <c r="B522" s="55">
+        <v>80</v>
+      </c>
+      <c r="C522" s="55">
+        <v>11997</v>
+      </c>
+      <c r="D522" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="13">
+        <v>522</v>
+      </c>
+      <c r="B523" s="55">
+        <v>80</v>
+      </c>
+      <c r="C523" s="55">
+        <v>11998</v>
+      </c>
+      <c r="D523" s="55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="13">
+        <v>523</v>
+      </c>
+      <c r="B524" s="55">
+        <v>80</v>
+      </c>
+      <c r="C524" s="55">
+        <v>11999</v>
+      </c>
+      <c r="D524" s="55">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -16302,11 +16812,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F497"/>
+  <dimension ref="A1:F524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D473" sqref="D473"/>
+      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E479" sqref="E479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16319,10 +16829,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -22351,7 +22861,7 @@
       <c r="C384" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="D384" s="53" t="s">
+      <c r="D384" s="48" t="s">
         <v>675</v>
       </c>
       <c r="E384" s="21" t="s">
@@ -22368,7 +22878,7 @@
       <c r="C385" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="D385" s="53" t="s">
+      <c r="D385" s="48" t="s">
         <v>676</v>
       </c>
       <c r="E385" s="21" t="s">
@@ -23439,7 +23949,7 @@
       </c>
       <c r="C451" s="13"/>
       <c r="D451" s="15" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="E451" s="21" t="s">
         <v>721</v>
@@ -23494,14 +24004,14 @@
       <c r="A455" s="17">
         <v>454</v>
       </c>
-      <c r="B455" s="45">
+      <c r="B455" s="13">
         <v>11930</v>
       </c>
-      <c r="C455" s="45"/>
+      <c r="C455" s="13"/>
       <c r="D455" s="54" t="s">
         <v>727</v>
       </c>
-      <c r="E455" s="46" t="s">
+      <c r="E455" s="21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -23509,14 +24019,14 @@
       <c r="A456" s="17">
         <v>455</v>
       </c>
-      <c r="B456" s="45">
+      <c r="B456" s="13">
         <v>11931</v>
       </c>
-      <c r="C456" s="45"/>
+      <c r="C456" s="13"/>
       <c r="D456" s="54" t="s">
         <v>728</v>
       </c>
-      <c r="E456" s="46" t="s">
+      <c r="E456" s="21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -23524,14 +24034,14 @@
       <c r="A457" s="17">
         <v>456</v>
       </c>
-      <c r="B457" s="45">
+      <c r="B457" s="13">
         <v>11932</v>
       </c>
-      <c r="C457" s="45"/>
+      <c r="C457" s="13"/>
       <c r="D457" s="54" t="s">
         <v>729</v>
       </c>
-      <c r="E457" s="46" t="s">
+      <c r="E457" s="21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -23539,14 +24049,14 @@
       <c r="A458" s="17">
         <v>457</v>
       </c>
-      <c r="B458" s="45">
+      <c r="B458" s="13">
         <v>11933</v>
       </c>
-      <c r="C458" s="45"/>
+      <c r="C458" s="13"/>
       <c r="D458" s="54" t="s">
         <v>730</v>
       </c>
-      <c r="E458" s="46" t="s">
+      <c r="E458" s="21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -23554,569 +24064,974 @@
       <c r="A459" s="17">
         <v>458</v>
       </c>
-      <c r="B459" s="57">
+      <c r="B459" s="13">
         <v>11934</v>
       </c>
-      <c r="C459" s="57"/>
-      <c r="D459" s="59" t="s">
-        <v>513</v>
-      </c>
-      <c r="E459" s="58" t="s">
-        <v>750</v>
+      <c r="C459" s="13"/>
+      <c r="D459" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E459" s="21" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="460" spans="1:5" s="17" customFormat="1">
       <c r="A460" s="17">
         <v>459</v>
       </c>
-      <c r="B460" s="57">
+      <c r="B460" s="13">
         <v>11935</v>
       </c>
-      <c r="C460" s="57"/>
-      <c r="D460" s="59" t="s">
+      <c r="C460" s="13"/>
+      <c r="D460" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E460" s="58" t="s">
-        <v>756</v>
+      <c r="E460" s="21" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="461" spans="1:5" s="17" customFormat="1" ht="16.5">
       <c r="A461" s="17">
         <v>460</v>
       </c>
-      <c r="B461" s="57">
+      <c r="B461" s="13">
         <v>11936</v>
       </c>
-      <c r="C461" s="57"/>
-      <c r="D461" s="60" t="s">
+      <c r="C461" s="13"/>
+      <c r="D461" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E461" s="58" t="s">
-        <v>751</v>
+      <c r="E461" s="21" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="462" spans="1:5" s="17" customFormat="1" ht="16.5">
       <c r="A462" s="17">
         <v>461</v>
       </c>
-      <c r="B462" s="57">
+      <c r="B462" s="13">
         <v>11937</v>
       </c>
-      <c r="C462" s="57"/>
-      <c r="D462" s="60" t="s">
+      <c r="C462" s="13"/>
+      <c r="D462" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E462" s="58" t="s">
-        <v>752</v>
+      <c r="E462" s="21" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="16.5">
       <c r="A463" s="17">
         <v>462</v>
       </c>
-      <c r="B463" s="57">
+      <c r="B463" s="13">
         <v>11938</v>
       </c>
-      <c r="C463" s="57"/>
-      <c r="D463" s="60" t="s">
+      <c r="C463" s="13"/>
+      <c r="D463" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E463" s="58" t="s">
-        <v>753</v>
+      <c r="E463" s="21" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="464" spans="1:5">
       <c r="A464" s="17">
         <v>463</v>
       </c>
-      <c r="B464" s="57">
+      <c r="B464" s="13">
         <v>11939</v>
       </c>
-      <c r="C464" s="57"/>
-      <c r="D464" s="59" t="s">
+      <c r="C464" s="13"/>
+      <c r="D464" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E464" s="58" t="s">
-        <v>754</v>
+      <c r="E464" s="21" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="17">
         <v>464</v>
       </c>
-      <c r="B465" s="57">
+      <c r="B465" s="13">
         <v>11940</v>
       </c>
-      <c r="C465" s="57"/>
-      <c r="D465" s="59" t="s">
+      <c r="C465" s="13"/>
+      <c r="D465" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E465" s="58" t="s">
-        <v>755</v>
+      <c r="E465" s="21" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="466" spans="1:5">
       <c r="A466" s="17">
         <v>465</v>
       </c>
-      <c r="B466" s="57">
+      <c r="B466" s="13">
         <v>11941</v>
       </c>
-      <c r="C466" s="59" t="s">
-        <v>749</v>
-      </c>
-      <c r="D466" s="57"/>
-      <c r="E466" s="61"/>
+      <c r="C466" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="D466" s="13"/>
+      <c r="E466" s="32"/>
     </row>
     <row r="467" spans="1:5">
       <c r="A467" s="17">
         <v>466</v>
       </c>
-      <c r="B467" s="57">
+      <c r="B467" s="13">
         <v>11942</v>
       </c>
-      <c r="C467" s="57"/>
-      <c r="D467" s="57" t="s">
-        <v>513</v>
-      </c>
-      <c r="E467" s="58" t="s">
-        <v>750</v>
+      <c r="C467" s="13"/>
+      <c r="D467" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E467" s="21" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="17">
         <v>467</v>
       </c>
-      <c r="B468" s="57">
+      <c r="B468" s="13">
         <v>11943</v>
       </c>
-      <c r="C468" s="57"/>
-      <c r="D468" s="59" t="s">
+      <c r="C468" s="13"/>
+      <c r="D468" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E468" s="58" t="s">
-        <v>756</v>
+      <c r="E468" s="21" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="469" spans="1:5" ht="16.5">
       <c r="A469" s="17">
         <v>468</v>
       </c>
-      <c r="B469" s="57">
+      <c r="B469" s="13">
         <v>11944</v>
       </c>
-      <c r="C469" s="57"/>
-      <c r="D469" s="60" t="s">
+      <c r="C469" s="13"/>
+      <c r="D469" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E469" s="58" t="s">
-        <v>776</v>
+      <c r="E469" s="21" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="16.5">
       <c r="A470" s="17">
         <v>469</v>
       </c>
-      <c r="B470" s="57">
+      <c r="B470" s="13">
         <v>11945</v>
       </c>
-      <c r="C470" s="57"/>
-      <c r="D470" s="60" t="s">
+      <c r="C470" s="13"/>
+      <c r="D470" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E470" s="58" t="s">
-        <v>645</v>
+      <c r="E470" s="21" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="16.5">
       <c r="A471" s="17">
         <v>470</v>
       </c>
-      <c r="B471" s="57">
+      <c r="B471" s="13">
         <v>11946</v>
       </c>
-      <c r="C471" s="57"/>
-      <c r="D471" s="60" t="s">
+      <c r="C471" s="13"/>
+      <c r="D471" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E471" s="58" t="s">
-        <v>777</v>
+      <c r="E471" s="21" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="17">
         <v>471</v>
       </c>
-      <c r="B472" s="57">
+      <c r="B472" s="13">
         <v>11947</v>
       </c>
-      <c r="C472" s="57"/>
-      <c r="D472" s="59" t="s">
+      <c r="C472" s="13"/>
+      <c r="D472" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E472" s="58" t="s">
-        <v>754</v>
+      <c r="E472" s="21" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="473" spans="1:5">
       <c r="A473" s="17">
         <v>472</v>
       </c>
-      <c r="B473" s="57">
+      <c r="B473" s="13">
         <v>11948</v>
       </c>
-      <c r="C473" s="57"/>
-      <c r="D473" s="59" t="s">
+      <c r="C473" s="13"/>
+      <c r="D473" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E473" s="58" t="s">
-        <v>755</v>
+      <c r="E473" s="21" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="17">
         <v>473</v>
       </c>
-      <c r="B474" s="57">
+      <c r="B474" s="13">
         <v>11949</v>
       </c>
-      <c r="C474" s="59" t="s">
-        <v>749</v>
-      </c>
-      <c r="D474" s="57"/>
-      <c r="E474" s="61"/>
+      <c r="C474" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="D474" s="13"/>
+      <c r="E474" s="32"/>
     </row>
     <row r="475" spans="1:5">
       <c r="A475" s="17">
         <v>474</v>
       </c>
-      <c r="B475" s="57">
+      <c r="B475" s="13">
         <v>11950</v>
       </c>
-      <c r="C475" s="57"/>
-      <c r="D475" s="57" t="s">
-        <v>513</v>
-      </c>
-      <c r="E475" s="58" t="s">
-        <v>750</v>
+      <c r="C475" s="13"/>
+      <c r="D475" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="E475" s="21" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="17">
         <v>475</v>
       </c>
-      <c r="B476" s="57">
+      <c r="B476" s="13">
         <v>11951</v>
       </c>
-      <c r="C476" s="57"/>
-      <c r="D476" s="59" t="s">
+      <c r="C476" s="13"/>
+      <c r="D476" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E476" s="58" t="s">
-        <v>756</v>
+      <c r="E476" s="21" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="16.5">
       <c r="A477" s="17">
         <v>476</v>
       </c>
-      <c r="B477" s="57">
+      <c r="B477" s="13">
         <v>11952</v>
       </c>
-      <c r="C477" s="57"/>
-      <c r="D477" s="60" t="s">
+      <c r="C477" s="13"/>
+      <c r="D477" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E477" s="58" t="s">
-        <v>776</v>
+      <c r="E477" s="21" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="16.5">
       <c r="A478" s="17">
         <v>477</v>
       </c>
-      <c r="B478" s="57">
+      <c r="B478" s="13">
         <v>11953</v>
       </c>
-      <c r="C478" s="57"/>
-      <c r="D478" s="60" t="s">
+      <c r="C478" s="13"/>
+      <c r="D478" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E478" s="58" t="s">
-        <v>645</v>
+      <c r="E478" s="21" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="16.5">
       <c r="A479" s="17">
         <v>478</v>
       </c>
-      <c r="B479" s="57">
+      <c r="B479" s="13">
         <v>11954</v>
       </c>
-      <c r="C479" s="57"/>
-      <c r="D479" s="60" t="s">
+      <c r="C479" s="13"/>
+      <c r="D479" s="54" t="s">
         <v>748</v>
       </c>
-      <c r="E479" s="58" t="s">
-        <v>777</v>
+      <c r="E479" s="21" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="17">
         <v>479</v>
       </c>
-      <c r="B480" s="57">
+      <c r="B480" s="13">
         <v>11955</v>
       </c>
-      <c r="C480" s="57"/>
-      <c r="D480" s="59" t="s">
+      <c r="C480" s="13"/>
+      <c r="D480" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E480" s="58" t="s">
-        <v>754</v>
+      <c r="E480" s="21" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="17">
         <v>480</v>
       </c>
-      <c r="B481" s="57">
+      <c r="B481" s="13">
         <v>11956</v>
       </c>
-      <c r="C481" s="57"/>
-      <c r="D481" s="59" t="s">
+      <c r="C481" s="13"/>
+      <c r="D481" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E481" s="58" t="s">
-        <v>755</v>
+      <c r="E481" s="21" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="482" spans="1:5">
       <c r="A482" s="17">
         <v>481</v>
       </c>
-      <c r="B482" s="57">
+      <c r="B482" s="13">
         <v>11957</v>
       </c>
-      <c r="C482" s="59" t="s">
-        <v>749</v>
-      </c>
-      <c r="D482" s="57"/>
-      <c r="E482" s="61"/>
+      <c r="C482" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="D482" s="13"/>
+      <c r="E482" s="32"/>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" s="17">
         <v>482</v>
       </c>
-      <c r="B483" s="66">
+      <c r="B483" s="13">
         <v>11958</v>
       </c>
-      <c r="C483" s="67" t="s">
-        <v>758</v>
-      </c>
-      <c r="D483" s="66"/>
-      <c r="E483" s="68"/>
+      <c r="C483" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="D483" s="13"/>
+      <c r="E483" s="32"/>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="17">
         <v>483</v>
       </c>
-      <c r="B484" s="66">
+      <c r="B484" s="13">
         <v>11959</v>
       </c>
-      <c r="C484" s="67" t="s">
-        <v>759</v>
-      </c>
-      <c r="D484" s="66"/>
-      <c r="E484" s="68"/>
+      <c r="C484" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="D484" s="13"/>
+      <c r="E484" s="32"/>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="17">
         <v>484</v>
       </c>
-      <c r="B485" s="66">
+      <c r="B485" s="13">
         <v>11960</v>
       </c>
-      <c r="C485" s="67" t="s">
-        <v>760</v>
-      </c>
-      <c r="D485" s="66"/>
-      <c r="E485" s="68"/>
+      <c r="C485" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="D485" s="13"/>
+      <c r="E485" s="32"/>
     </row>
     <row r="486" spans="1:5">
       <c r="A486" s="17">
         <v>485</v>
       </c>
-      <c r="B486" s="66">
+      <c r="B486" s="13">
         <v>11961</v>
       </c>
-      <c r="C486" s="67" t="s">
-        <v>761</v>
-      </c>
-      <c r="D486" s="66"/>
-      <c r="E486" s="68"/>
+      <c r="C486" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="D486" s="13"/>
+      <c r="E486" s="32"/>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" s="17">
         <v>486</v>
       </c>
-      <c r="B487" s="66">
+      <c r="B487" s="13">
         <v>11962</v>
       </c>
-      <c r="C487" s="67" t="s">
-        <v>762</v>
-      </c>
-      <c r="D487" s="66"/>
-      <c r="E487" s="68"/>
+      <c r="C487" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="D487" s="13"/>
+      <c r="E487" s="32"/>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="17">
         <v>487</v>
       </c>
-      <c r="B488" s="66">
+      <c r="B488" s="13">
         <v>11963</v>
       </c>
-      <c r="C488" s="66"/>
-      <c r="D488" s="66" t="s">
+      <c r="C488" s="13"/>
+      <c r="D488" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E488" s="69" t="s">
-        <v>773</v>
+      <c r="E488" s="21" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="489" spans="1:5">
       <c r="A489" s="17">
         <v>488</v>
       </c>
-      <c r="B489" s="66">
+      <c r="B489" s="13">
         <v>11964</v>
       </c>
-      <c r="C489" s="66"/>
-      <c r="D489" s="67" t="s">
+      <c r="C489" s="13"/>
+      <c r="D489" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E489" s="69" t="s">
-        <v>763</v>
+      <c r="E489" s="21" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="490" spans="1:5">
       <c r="A490" s="17">
         <v>489</v>
       </c>
-      <c r="B490" s="66">
+      <c r="B490" s="13">
         <v>11965</v>
       </c>
-      <c r="C490" s="66"/>
-      <c r="D490" s="67" t="s">
-        <v>774</v>
-      </c>
-      <c r="E490" s="69" t="s">
-        <v>765</v>
+      <c r="C490" s="13"/>
+      <c r="D490" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="E490" s="21" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="491" spans="1:5">
       <c r="A491" s="17">
         <v>490</v>
       </c>
-      <c r="B491" s="66">
+      <c r="B491" s="13">
         <v>11966</v>
       </c>
-      <c r="C491" s="66"/>
-      <c r="D491" s="66" t="s">
+      <c r="C491" s="13"/>
+      <c r="D491" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E491" s="69" t="s">
-        <v>766</v>
+      <c r="E491" s="21" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="492" spans="1:5">
       <c r="A492" s="17">
         <v>491</v>
       </c>
-      <c r="B492" s="66">
+      <c r="B492" s="13">
         <v>11967</v>
       </c>
-      <c r="C492" s="66"/>
-      <c r="D492" s="66" t="s">
-        <v>767</v>
-      </c>
-      <c r="E492" s="69" t="s">
-        <v>768</v>
+      <c r="C492" s="13"/>
+      <c r="D492" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="E492" s="21" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="493" spans="1:5">
       <c r="A493" s="17">
         <v>492</v>
       </c>
-      <c r="B493" s="66">
+      <c r="B493" s="13">
         <v>11968</v>
       </c>
-      <c r="C493" s="66"/>
-      <c r="D493" s="66" t="s">
-        <v>769</v>
-      </c>
-      <c r="E493" s="69" t="s">
-        <v>770</v>
+      <c r="C493" s="13"/>
+      <c r="D493" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="E493" s="21" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="494" spans="1:5">
       <c r="A494" s="17">
         <v>493</v>
       </c>
-      <c r="B494" s="66">
+      <c r="B494" s="13">
         <v>11969</v>
       </c>
-      <c r="C494" s="66"/>
-      <c r="D494" s="66" t="s">
+      <c r="C494" s="13"/>
+      <c r="D494" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E494" s="69" t="s">
-        <v>771</v>
+      <c r="E494" s="21" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="495" spans="1:5">
       <c r="A495" s="17">
         <v>494</v>
       </c>
-      <c r="B495" s="66">
+      <c r="B495" s="13">
         <v>11970</v>
       </c>
-      <c r="C495" s="66"/>
-      <c r="D495" s="66" t="s">
+      <c r="C495" s="13"/>
+      <c r="D495" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E495" s="69" t="s">
-        <v>772</v>
+      <c r="E495" s="21" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="496" spans="1:5">
       <c r="A496" s="17">
         <v>495</v>
       </c>
-      <c r="B496" s="66">
+      <c r="B496" s="13">
         <v>11971</v>
       </c>
-      <c r="C496" s="66"/>
-      <c r="D496" s="67" t="s">
+      <c r="C496" s="13"/>
+      <c r="D496" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E496" s="69" t="s">
-        <v>772</v>
+      <c r="E496" s="21" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="497" spans="1:5">
       <c r="A497" s="17">
         <v>496</v>
       </c>
-      <c r="B497" s="66">
+      <c r="B497" s="13">
         <v>11972</v>
       </c>
-      <c r="C497" s="66"/>
-      <c r="D497" s="66" t="s">
-        <v>769</v>
-      </c>
-      <c r="E497" s="69" t="s">
-        <v>771</v>
+      <c r="C497" s="13"/>
+      <c r="D497" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="E497" s="21" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="53">
+        <v>497</v>
+      </c>
+      <c r="B498" s="55">
+        <v>11973</v>
+      </c>
+      <c r="C498" s="55"/>
+      <c r="D498" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E498" s="56" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="53">
+        <v>498</v>
+      </c>
+      <c r="B499" s="55">
+        <v>11974</v>
+      </c>
+      <c r="C499" s="55"/>
+      <c r="D499" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E499" s="56" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="53">
+        <v>499</v>
+      </c>
+      <c r="B500" s="55">
+        <v>11975</v>
+      </c>
+      <c r="C500" s="55"/>
+      <c r="D500" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E500" s="56" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="53">
+        <v>500</v>
+      </c>
+      <c r="B501" s="55">
+        <v>11976</v>
+      </c>
+      <c r="C501" s="55"/>
+      <c r="D501" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E501" s="56" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="53">
+        <v>501</v>
+      </c>
+      <c r="B502" s="55">
+        <v>11977</v>
+      </c>
+      <c r="C502" s="55"/>
+      <c r="D502" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E502" s="56" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="53">
+        <v>502</v>
+      </c>
+      <c r="B503" s="55">
+        <v>11978</v>
+      </c>
+      <c r="C503" s="55"/>
+      <c r="D503" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E503" s="56" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="53">
+        <v>503</v>
+      </c>
+      <c r="B504" s="55">
+        <v>11979</v>
+      </c>
+      <c r="C504" s="55"/>
+      <c r="D504" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E504" s="56" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="53">
+        <v>504</v>
+      </c>
+      <c r="B505" s="55">
+        <v>11980</v>
+      </c>
+      <c r="C505" s="55"/>
+      <c r="D505" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E505" s="56" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="53">
+        <v>505</v>
+      </c>
+      <c r="B506" s="55">
+        <v>11981</v>
+      </c>
+      <c r="C506" s="55"/>
+      <c r="D506" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E506" s="56" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="53">
+        <v>506</v>
+      </c>
+      <c r="B507" s="55">
+        <v>11982</v>
+      </c>
+      <c r="C507" s="55"/>
+      <c r="D507" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E507" s="56" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="53">
+        <v>507</v>
+      </c>
+      <c r="B508" s="55">
+        <v>11983</v>
+      </c>
+      <c r="C508" s="55"/>
+      <c r="D508" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E508" s="56" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="53">
+        <v>508</v>
+      </c>
+      <c r="B509" s="55">
+        <v>11984</v>
+      </c>
+      <c r="C509" s="55"/>
+      <c r="D509" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E509" s="56" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="53">
+        <v>509</v>
+      </c>
+      <c r="B510" s="55">
+        <v>11985</v>
+      </c>
+      <c r="C510" s="55"/>
+      <c r="D510" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E510" s="56" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="53">
+        <v>510</v>
+      </c>
+      <c r="B511" s="55">
+        <v>11986</v>
+      </c>
+      <c r="C511" s="55"/>
+      <c r="D511" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E511" s="56" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="53">
+        <v>511</v>
+      </c>
+      <c r="B512" s="55">
+        <v>11987</v>
+      </c>
+      <c r="C512" s="55"/>
+      <c r="D512" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E512" s="56" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="53">
+        <v>512</v>
+      </c>
+      <c r="B513" s="55">
+        <v>11988</v>
+      </c>
+      <c r="C513" s="55"/>
+      <c r="D513" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E513" s="56" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="53">
+        <v>513</v>
+      </c>
+      <c r="B514" s="55">
+        <v>11989</v>
+      </c>
+      <c r="C514" s="55"/>
+      <c r="D514" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E514" s="56" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="53">
+        <v>514</v>
+      </c>
+      <c r="B515" s="55">
+        <v>11990</v>
+      </c>
+      <c r="C515" s="55"/>
+      <c r="D515" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E515" s="56" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="53">
+        <v>515</v>
+      </c>
+      <c r="B516" s="55">
+        <v>11991</v>
+      </c>
+      <c r="C516" s="55"/>
+      <c r="D516" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E516" s="56" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="53">
+        <v>516</v>
+      </c>
+      <c r="B517" s="55">
+        <v>11992</v>
+      </c>
+      <c r="C517" s="55"/>
+      <c r="D517" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E517" s="56" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="53">
+        <v>517</v>
+      </c>
+      <c r="B518" s="55">
+        <v>11993</v>
+      </c>
+      <c r="C518" s="55"/>
+      <c r="D518" s="55" t="s">
+        <v>513</v>
+      </c>
+      <c r="E518" s="56" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" s="53">
+        <v>518</v>
+      </c>
+      <c r="B519" s="55">
+        <v>11994</v>
+      </c>
+      <c r="C519" s="55"/>
+      <c r="D519" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E519" s="56" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" s="53">
+        <v>519</v>
+      </c>
+      <c r="B520" s="55">
+        <v>11995</v>
+      </c>
+      <c r="C520" s="55"/>
+      <c r="D520" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E520" s="56" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" s="53">
+        <v>520</v>
+      </c>
+      <c r="B521" s="55">
+        <v>11996</v>
+      </c>
+      <c r="C521" s="55"/>
+      <c r="D521" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E521" s="56" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" s="53">
+        <v>521</v>
+      </c>
+      <c r="B522" s="55">
+        <v>11997</v>
+      </c>
+      <c r="C522" s="55"/>
+      <c r="D522" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E522" s="56" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" s="53">
+        <v>522</v>
+      </c>
+      <c r="B523" s="55">
+        <v>11998</v>
+      </c>
+      <c r="C523" s="55"/>
+      <c r="D523" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E523" s="56" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" s="53">
+        <v>523</v>
+      </c>
+      <c r="B524" s="55">
+        <v>11999</v>
+      </c>
+      <c r="C524" s="55"/>
+      <c r="D524" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E524" s="56" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -24132,7 +25047,7 @@
   <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
@@ -25205,25 +26120,25 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="40.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>731</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="49" t="s">
         <v>732</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="49" t="s">
         <v>733</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="49" t="s">
         <v>734</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="49" t="s">
         <v>735</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="49" t="s">
         <v>736</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="49" t="s">
         <v>737</v>
       </c>
     </row>
@@ -25248,16 +26163,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>738</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="49" t="s">
         <v>739</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="49" t="s">
         <v>740</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="49" t="s">
         <v>741</v>
       </c>
     </row>
@@ -25287,10 +26202,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="50" t="s">
         <v>731</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="50" t="s">
         <v>743</v>
       </c>
     </row>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -5851,9 +5851,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8182,7 +8182,7 @@
         <v>775</v>
       </c>
       <c r="C78" s="71">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="D78" s="71">
         <v>1614009599</v>
@@ -8210,7 +8210,7 @@
         <v>775</v>
       </c>
       <c r="C79" s="71">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="D79" s="71">
         <v>1614009599</v>
@@ -16304,9 +16304,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F497"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D473" sqref="D473"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D485" sqref="D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -5851,9 +5851,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8182,7 +8182,7 @@
         <v>775</v>
       </c>
       <c r="C78" s="71">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="D78" s="71">
         <v>1614009599</v>
@@ -8210,7 +8210,7 @@
         <v>775</v>
       </c>
       <c r="C79" s="71">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="D79" s="71">
         <v>1614009599</v>
@@ -16304,9 +16304,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F497"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D485" sqref="D485"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D473" sqref="D473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="791">
   <si>
     <t>id|</t>
   </si>
@@ -4877,23 +4877,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0元话费</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>纯棉毛巾</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5188,6 +5171,10 @@
   <si>
     <t>50,65</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,5000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8182,7 +8169,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C78" s="18">
         <v>1613433600</v>
@@ -8210,7 +8197,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C79" s="18">
         <v>1613433600</v>
@@ -8238,7 +8225,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="51" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C80" s="51">
         <v>1614643200</v>
@@ -8266,7 +8253,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C81" s="51">
         <v>1614643200</v>
@@ -8294,7 +8281,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C82" s="51">
         <v>1614643200</v>
@@ -9360,7 +9347,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D73" s="51">
         <v>1</v>
@@ -9374,7 +9361,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="51" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D74" s="51">
         <v>1</v>
@@ -9388,7 +9375,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D75" s="51">
         <v>1</v>
@@ -16815,8 +16802,8 @@
   <dimension ref="A1:F524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E479" sqref="E479"/>
+      <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G489" sqref="G489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23949,7 +23936,7 @@
       </c>
       <c r="C451" s="13"/>
       <c r="D451" s="15" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E451" s="21" t="s">
         <v>721</v>
@@ -24072,7 +24059,7 @@
         <v>169</v>
       </c>
       <c r="E459" s="21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="460" spans="1:5" s="17" customFormat="1">
@@ -24087,7 +24074,7 @@
         <v>30</v>
       </c>
       <c r="E460" s="21" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="461" spans="1:5" s="17" customFormat="1" ht="16.5">
@@ -24102,7 +24089,7 @@
         <v>748</v>
       </c>
       <c r="E461" s="21" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="462" spans="1:5" s="17" customFormat="1" ht="16.5">
@@ -24117,7 +24104,7 @@
         <v>748</v>
       </c>
       <c r="E462" s="21" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="16.5">
@@ -24132,7 +24119,7 @@
         <v>748</v>
       </c>
       <c r="E463" s="21" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -24162,7 +24149,7 @@
         <v>30</v>
       </c>
       <c r="E465" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -24173,7 +24160,7 @@
         <v>11941</v>
       </c>
       <c r="C466" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D466" s="13"/>
       <c r="E466" s="32"/>
@@ -24190,7 +24177,7 @@
         <v>169</v>
       </c>
       <c r="E467" s="21" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -24205,7 +24192,7 @@
         <v>30</v>
       </c>
       <c r="E468" s="21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="469" spans="1:5" ht="16.5">
@@ -24220,7 +24207,7 @@
         <v>748</v>
       </c>
       <c r="E469" s="21" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="16.5">
@@ -24235,7 +24222,7 @@
         <v>748</v>
       </c>
       <c r="E470" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="16.5">
@@ -24250,7 +24237,7 @@
         <v>748</v>
       </c>
       <c r="E471" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -24280,7 +24267,7 @@
         <v>30</v>
       </c>
       <c r="E473" s="21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -24291,7 +24278,7 @@
         <v>11949</v>
       </c>
       <c r="C474" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D474" s="13"/>
       <c r="E474" s="32"/>
@@ -24305,10 +24292,10 @@
       </c>
       <c r="C475" s="13"/>
       <c r="D475" s="13" t="s">
+        <v>784</v>
+      </c>
+      <c r="E475" s="21" t="s">
         <v>785</v>
-      </c>
-      <c r="E475" s="21" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -24323,7 +24310,7 @@
         <v>30</v>
       </c>
       <c r="E476" s="21" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="16.5">
@@ -24338,7 +24325,7 @@
         <v>748</v>
       </c>
       <c r="E477" s="21" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="16.5">
@@ -24353,7 +24340,7 @@
         <v>748</v>
       </c>
       <c r="E478" s="21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="16.5">
@@ -24368,7 +24355,7 @@
         <v>748</v>
       </c>
       <c r="E479" s="21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -24383,7 +24370,7 @@
         <v>30</v>
       </c>
       <c r="E480" s="21" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -24398,7 +24385,7 @@
         <v>30</v>
       </c>
       <c r="E481" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -24409,7 +24396,7 @@
         <v>11957</v>
       </c>
       <c r="C482" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D482" s="13"/>
       <c r="E482" s="32"/>
@@ -24460,11 +24447,13 @@
       <c r="B486" s="13">
         <v>11961</v>
       </c>
-      <c r="C486" s="15" t="s">
-        <v>753</v>
-      </c>
-      <c r="D486" s="13"/>
-      <c r="E486" s="32"/>
+      <c r="C486" s="15"/>
+      <c r="D486" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="E486" s="32" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" s="17">
@@ -24474,7 +24463,7 @@
         <v>11962</v>
       </c>
       <c r="C487" s="15" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D487" s="13"/>
       <c r="E487" s="32"/>
@@ -24491,7 +24480,7 @@
         <v>42</v>
       </c>
       <c r="E488" s="21" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -24506,7 +24495,7 @@
         <v>161</v>
       </c>
       <c r="E489" s="21" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -24518,10 +24507,10 @@
       </c>
       <c r="C490" s="13"/>
       <c r="D490" s="15" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E490" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -24536,7 +24525,7 @@
         <v>42</v>
       </c>
       <c r="E491" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -24548,10 +24537,10 @@
       </c>
       <c r="C492" s="13"/>
       <c r="D492" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="E492" s="21" t="s">
         <v>759</v>
-      </c>
-      <c r="E492" s="21" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -24563,10 +24552,10 @@
       </c>
       <c r="C493" s="13"/>
       <c r="D493" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="E493" s="21" t="s">
         <v>761</v>
-      </c>
-      <c r="E493" s="21" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -24581,7 +24570,7 @@
         <v>30</v>
       </c>
       <c r="E494" s="21" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -24596,7 +24585,7 @@
         <v>42</v>
       </c>
       <c r="E495" s="21" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -24611,7 +24600,7 @@
         <v>161</v>
       </c>
       <c r="E496" s="21" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -24623,10 +24612,10 @@
       </c>
       <c r="C497" s="13"/>
       <c r="D497" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E497" s="21" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="498" spans="1:5">

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="817">
   <si>
     <t>id|</t>
   </si>
@@ -5173,8 +5173,173 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>新人限时福利-15元礼包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利-50元礼包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利-10元礼包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利-30元礼包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,500</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_wild</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_doubled</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_1000flq</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8888,18888</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,10</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500,1500</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_bet_3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>5000,5000</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人限时福利-优惠券礼包</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_xrxsfl_5_50box</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_5_coupon</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>obj_xrxsfl_15box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_50box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_10box</t>
+  </si>
+  <si>
+    <t>obj_xrxsfl_30box</t>
   </si>
 </sst>
 </file>
@@ -5839,11 +6004,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8305,7 +8470,119 @@
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="D83" s="18"/>
+      <c r="A83" s="18">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1615248000</v>
+      </c>
+      <c r="D83" s="13">
+        <v>2552233600</v>
+      </c>
+      <c r="E83" s="4">
+        <v>75</v>
+      </c>
+      <c r="K83" s="6">
+        <v>81</v>
+      </c>
+      <c r="L83" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="18">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C84" s="13">
+        <v>1615248000</v>
+      </c>
+      <c r="D84" s="13">
+        <v>2552233600</v>
+      </c>
+      <c r="E84" s="4">
+        <v>76</v>
+      </c>
+      <c r="K84" s="6">
+        <v>82</v>
+      </c>
+      <c r="L84" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="18">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1615248000</v>
+      </c>
+      <c r="D85" s="13">
+        <v>2552233600</v>
+      </c>
+      <c r="E85" s="4">
+        <v>77</v>
+      </c>
+      <c r="K85" s="6">
+        <v>83</v>
+      </c>
+      <c r="L85" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="18">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="C86" s="13">
+        <v>1615248000</v>
+      </c>
+      <c r="D86" s="13">
+        <v>2552233600</v>
+      </c>
+      <c r="E86" s="4">
+        <v>78</v>
+      </c>
+      <c r="K86" s="6">
+        <v>84</v>
+      </c>
+      <c r="L86" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="18">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1615248000</v>
+      </c>
+      <c r="D87" s="13">
+        <v>2552233600</v>
+      </c>
+      <c r="E87" s="4">
+        <v>79</v>
+      </c>
+      <c r="K87" s="6">
+        <v>85</v>
+      </c>
+      <c r="L87" s="6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8318,11 +8595,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9378,6 +9655,76 @@
         <v>771</v>
       </c>
       <c r="D75" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="17">
+        <v>75</v>
+      </c>
+      <c r="B76" s="17">
+        <v>75</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="D76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="17">
+        <v>76</v>
+      </c>
+      <c r="B77" s="17">
+        <v>76</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="D77" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="17">
+        <v>77</v>
+      </c>
+      <c r="B78" s="17">
+        <v>77</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="D78" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="17">
+        <v>78</v>
+      </c>
+      <c r="B79" s="17">
+        <v>78</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="D79" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="17">
+        <v>79</v>
+      </c>
+      <c r="B80" s="17">
+        <v>79</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>811</v>
+      </c>
+      <c r="D80" s="6">
         <v>1</v>
       </c>
     </row>
@@ -9433,13 +9780,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E524"/>
+  <dimension ref="A1:E529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B515" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B509" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C533" sqref="C533"/>
+      <selection pane="bottomRight" activeCell="C529" sqref="C529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -16790,6 +17137,76 @@
         <v>5</v>
       </c>
     </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="1">
+        <v>524</v>
+      </c>
+      <c r="B525" s="1">
+        <v>81</v>
+      </c>
+      <c r="C525" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D525" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="1">
+        <v>525</v>
+      </c>
+      <c r="B526" s="1">
+        <v>82</v>
+      </c>
+      <c r="C526" s="1">
+        <v>12001</v>
+      </c>
+      <c r="D526" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="1">
+        <v>526</v>
+      </c>
+      <c r="B527" s="1">
+        <v>83</v>
+      </c>
+      <c r="C527" s="1">
+        <v>12002</v>
+      </c>
+      <c r="D527" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="1">
+        <v>527</v>
+      </c>
+      <c r="B528" s="1">
+        <v>84</v>
+      </c>
+      <c r="C528" s="1">
+        <v>12003</v>
+      </c>
+      <c r="D528" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="1">
+        <v>528</v>
+      </c>
+      <c r="B529" s="1">
+        <v>85</v>
+      </c>
+      <c r="C529" s="1">
+        <v>12004</v>
+      </c>
+      <c r="D529" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16799,11 +17216,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F524"/>
+  <dimension ref="A1:F534"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A481" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G489" sqref="G489"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E534" sqref="A534:E534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -24452,7 +24869,7 @@
         <v>760</v>
       </c>
       <c r="E486" s="32" t="s">
-        <v>790</v>
+        <v>809</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -24926,7 +25343,7 @@
         <v>11993</v>
       </c>
       <c r="C518" s="55"/>
-      <c r="D518" s="55" t="s">
+      <c r="D518" s="57" t="s">
         <v>513</v>
       </c>
       <c r="E518" s="56" t="s">
@@ -25021,6 +25438,146 @@
       </c>
       <c r="E524" s="56" t="s">
         <v>724</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" s="53">
+        <v>524</v>
+      </c>
+      <c r="B525" s="13">
+        <v>12000</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="E525" s="41" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526" s="53">
+        <v>525</v>
+      </c>
+      <c r="B526" s="13">
+        <v>12000</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="E526" s="41" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" s="53">
+        <v>526</v>
+      </c>
+      <c r="B527" s="13">
+        <v>12000</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="E527" s="41" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" s="53">
+        <v>527</v>
+      </c>
+      <c r="B528" s="13">
+        <v>12001</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="E528" s="41" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" s="53">
+        <v>528</v>
+      </c>
+      <c r="B529" s="13">
+        <v>12001</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="E529" s="41" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" s="53">
+        <v>529</v>
+      </c>
+      <c r="B530" s="13">
+        <v>12002</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="E530" s="41" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531" s="53">
+        <v>530</v>
+      </c>
+      <c r="B531" s="13">
+        <v>12002</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="E531" s="41" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" s="53">
+        <v>531</v>
+      </c>
+      <c r="B532" s="13">
+        <v>12003</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="E532" s="41" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" s="53">
+        <v>532</v>
+      </c>
+      <c r="B533" s="13">
+        <v>12003</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E533" s="41" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" s="53">
+        <v>533</v>
+      </c>
+      <c r="B534" s="13">
+        <v>12004</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="E534" s="41" t="s">
+        <v>801</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="823">
   <si>
     <t>id|</t>
   </si>
@@ -5340,6 +5340,29 @@
   </si>
   <si>
     <t>obj_xrxsfl_30box</t>
+  </si>
+  <si>
+    <t>桃花礼包抽奖（转盘）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_qdlb_cjq</t>
+  </si>
+  <si>
+    <t>5,5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,50000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6004,11 +6027,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomLeft" activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8386,86 +8409,86 @@
       </c>
     </row>
     <row r="80" spans="1:12" s="18" customFormat="1">
-      <c r="A80" s="51">
+      <c r="A80" s="18">
         <v>79</v>
       </c>
-      <c r="B80" s="51" t="s">
+      <c r="B80" s="18" t="s">
         <v>766</v>
       </c>
-      <c r="C80" s="51">
+      <c r="C80" s="18">
         <v>1614643200</v>
       </c>
-      <c r="D80" s="51">
+      <c r="D80" s="18">
         <v>1615219199</v>
       </c>
-      <c r="E80" s="52">
+      <c r="E80" s="28">
         <v>72</v>
       </c>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="51">
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="18">
         <v>78</v>
       </c>
-      <c r="L80" s="51">
+      <c r="L80" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:12" s="18" customFormat="1">
-      <c r="A81" s="51">
+      <c r="A81" s="18">
         <v>80</v>
       </c>
-      <c r="B81" s="51" t="s">
+      <c r="B81" s="18" t="s">
         <v>767</v>
       </c>
-      <c r="C81" s="51">
+      <c r="C81" s="18">
         <v>1614643200</v>
       </c>
-      <c r="D81" s="51">
+      <c r="D81" s="18">
         <v>1615219199</v>
       </c>
-      <c r="E81" s="52">
+      <c r="E81" s="28">
         <v>73</v>
       </c>
-      <c r="F81" s="53"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
-      <c r="I81" s="53"/>
-      <c r="J81" s="53"/>
-      <c r="K81" s="51">
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="18">
         <v>79</v>
       </c>
-      <c r="L81" s="51">
+      <c r="L81" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:12" s="18" customFormat="1">
-      <c r="A82" s="51">
+      <c r="A82" s="18">
         <v>81</v>
       </c>
-      <c r="B82" s="51" t="s">
+      <c r="B82" s="18" t="s">
         <v>768</v>
       </c>
-      <c r="C82" s="51">
+      <c r="C82" s="18">
         <v>1614643200</v>
       </c>
-      <c r="D82" s="51">
+      <c r="D82" s="18">
         <v>1615219199</v>
       </c>
-      <c r="E82" s="52">
+      <c r="E82" s="28">
         <v>74</v>
       </c>
-      <c r="F82" s="53"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-      <c r="J82" s="53"/>
-      <c r="K82" s="51">
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="18">
         <v>80</v>
       </c>
-      <c r="L82" s="51">
+      <c r="L82" s="18">
         <v>1</v>
       </c>
     </row>
@@ -8581,6 +8604,34 @@
         <v>85</v>
       </c>
       <c r="L87" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="51" customFormat="1">
+      <c r="A88" s="18">
+        <v>87</v>
+      </c>
+      <c r="B88" s="57" t="s">
+        <v>817</v>
+      </c>
+      <c r="C88" s="55">
+        <v>1615852800</v>
+      </c>
+      <c r="D88" s="55">
+        <v>1616428799</v>
+      </c>
+      <c r="E88" s="52">
+        <v>80</v>
+      </c>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="53"/>
+      <c r="K88" s="51">
+        <v>86</v>
+      </c>
+      <c r="L88" s="51">
         <v>1</v>
       </c>
     </row>
@@ -8595,11 +8646,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9623,10 +9674,10 @@
       <c r="B73" s="17">
         <v>72</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="18" t="s">
         <v>769</v>
       </c>
-      <c r="D73" s="51">
+      <c r="D73" s="18">
         <v>1</v>
       </c>
     </row>
@@ -9637,10 +9688,10 @@
       <c r="B74" s="17">
         <v>73</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="18" t="s">
         <v>770</v>
       </c>
-      <c r="D74" s="51">
+      <c r="D74" s="18">
         <v>1</v>
       </c>
     </row>
@@ -9651,10 +9702,10 @@
       <c r="B75" s="17">
         <v>74</v>
       </c>
-      <c r="C75" s="51" t="s">
+      <c r="C75" s="18" t="s">
         <v>771</v>
       </c>
-      <c r="D75" s="51">
+      <c r="D75" s="18">
         <v>1</v>
       </c>
     </row>
@@ -9725,6 +9776,20 @@
         <v>811</v>
       </c>
       <c r="D80" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="17">
+        <v>80</v>
+      </c>
+      <c r="B81" s="17">
+        <v>80</v>
+      </c>
+      <c r="C81" s="51" t="s">
+        <v>818</v>
+      </c>
+      <c r="D81" s="51">
         <v>1</v>
       </c>
     </row>
@@ -9780,13 +9845,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E529"/>
+  <dimension ref="A1:E534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B509" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B506" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C529" sqref="C529"/>
+      <selection pane="bottomRight" activeCell="C539" sqref="C539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -16763,13 +16828,13 @@
       <c r="A498" s="13">
         <v>497</v>
       </c>
-      <c r="B498" s="55">
+      <c r="B498" s="13">
         <v>78</v>
       </c>
-      <c r="C498" s="55">
+      <c r="C498" s="13">
         <v>11973</v>
       </c>
-      <c r="D498" s="55">
+      <c r="D498" s="13">
         <v>20</v>
       </c>
     </row>
@@ -16777,13 +16842,13 @@
       <c r="A499" s="13">
         <v>498</v>
       </c>
-      <c r="B499" s="55">
+      <c r="B499" s="13">
         <v>78</v>
       </c>
-      <c r="C499" s="55">
+      <c r="C499" s="13">
         <v>11974</v>
       </c>
-      <c r="D499" s="55">
+      <c r="D499" s="13">
         <v>25</v>
       </c>
     </row>
@@ -16791,13 +16856,13 @@
       <c r="A500" s="13">
         <v>499</v>
       </c>
-      <c r="B500" s="55">
+      <c r="B500" s="13">
         <v>78</v>
       </c>
-      <c r="C500" s="55">
+      <c r="C500" s="13">
         <v>11975</v>
       </c>
-      <c r="D500" s="55">
+      <c r="D500" s="13">
         <v>5</v>
       </c>
     </row>
@@ -16805,13 +16870,13 @@
       <c r="A501" s="13">
         <v>500</v>
       </c>
-      <c r="B501" s="55">
+      <c r="B501" s="13">
         <v>78</v>
       </c>
-      <c r="C501" s="55">
+      <c r="C501" s="13">
         <v>11976</v>
       </c>
-      <c r="D501" s="55">
+      <c r="D501" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16819,13 +16884,13 @@
       <c r="A502" s="13">
         <v>501</v>
       </c>
-      <c r="B502" s="55">
+      <c r="B502" s="13">
         <v>78</v>
       </c>
-      <c r="C502" s="55">
+      <c r="C502" s="13">
         <v>11977</v>
       </c>
-      <c r="D502" s="55">
+      <c r="D502" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16833,13 +16898,13 @@
       <c r="A503" s="13">
         <v>502</v>
       </c>
-      <c r="B503" s="55">
+      <c r="B503" s="13">
         <v>78</v>
       </c>
-      <c r="C503" s="55">
+      <c r="C503" s="13">
         <v>11978</v>
       </c>
-      <c r="D503" s="55">
+      <c r="D503" s="13">
         <v>5</v>
       </c>
     </row>
@@ -16847,13 +16912,13 @@
       <c r="A504" s="13">
         <v>503</v>
       </c>
-      <c r="B504" s="55">
+      <c r="B504" s="13">
         <v>78</v>
       </c>
-      <c r="C504" s="55">
+      <c r="C504" s="13">
         <v>11979</v>
       </c>
-      <c r="D504" s="55">
+      <c r="D504" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16861,13 +16926,13 @@
       <c r="A505" s="13">
         <v>504</v>
       </c>
-      <c r="B505" s="55">
+      <c r="B505" s="13">
         <v>78</v>
       </c>
-      <c r="C505" s="55">
+      <c r="C505" s="13">
         <v>11980</v>
       </c>
-      <c r="D505" s="55">
+      <c r="D505" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16875,13 +16940,13 @@
       <c r="A506" s="13">
         <v>505</v>
       </c>
-      <c r="B506" s="55">
+      <c r="B506" s="13">
         <v>78</v>
       </c>
-      <c r="C506" s="55">
+      <c r="C506" s="13">
         <v>11981</v>
       </c>
-      <c r="D506" s="55">
+      <c r="D506" s="13">
         <v>5</v>
       </c>
     </row>
@@ -16889,13 +16954,13 @@
       <c r="A507" s="13">
         <v>506</v>
       </c>
-      <c r="B507" s="55">
+      <c r="B507" s="13">
         <v>79</v>
       </c>
-      <c r="C507" s="55">
+      <c r="C507" s="13">
         <v>11982</v>
       </c>
-      <c r="D507" s="55">
+      <c r="D507" s="13">
         <v>20</v>
       </c>
     </row>
@@ -16903,13 +16968,13 @@
       <c r="A508" s="13">
         <v>507</v>
       </c>
-      <c r="B508" s="55">
+      <c r="B508" s="13">
         <v>79</v>
       </c>
-      <c r="C508" s="55">
+      <c r="C508" s="13">
         <v>11983</v>
       </c>
-      <c r="D508" s="55">
+      <c r="D508" s="13">
         <v>25</v>
       </c>
     </row>
@@ -16917,13 +16982,13 @@
       <c r="A509" s="13">
         <v>508</v>
       </c>
-      <c r="B509" s="55">
+      <c r="B509" s="13">
         <v>79</v>
       </c>
-      <c r="C509" s="55">
+      <c r="C509" s="13">
         <v>11984</v>
       </c>
-      <c r="D509" s="55">
+      <c r="D509" s="13">
         <v>5</v>
       </c>
     </row>
@@ -16931,13 +16996,13 @@
       <c r="A510" s="13">
         <v>509</v>
       </c>
-      <c r="B510" s="55">
+      <c r="B510" s="13">
         <v>79</v>
       </c>
-      <c r="C510" s="55">
+      <c r="C510" s="13">
         <v>11985</v>
       </c>
-      <c r="D510" s="55">
+      <c r="D510" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16945,13 +17010,13 @@
       <c r="A511" s="13">
         <v>510</v>
       </c>
-      <c r="B511" s="55">
+      <c r="B511" s="13">
         <v>79</v>
       </c>
-      <c r="C511" s="55">
+      <c r="C511" s="13">
         <v>11986</v>
       </c>
-      <c r="D511" s="55">
+      <c r="D511" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16959,13 +17024,13 @@
       <c r="A512" s="13">
         <v>511</v>
       </c>
-      <c r="B512" s="55">
+      <c r="B512" s="13">
         <v>79</v>
       </c>
-      <c r="C512" s="55">
+      <c r="C512" s="13">
         <v>11987</v>
       </c>
-      <c r="D512" s="55">
+      <c r="D512" s="13">
         <v>5</v>
       </c>
     </row>
@@ -16973,13 +17038,13 @@
       <c r="A513" s="13">
         <v>512</v>
       </c>
-      <c r="B513" s="55">
+      <c r="B513" s="13">
         <v>79</v>
       </c>
-      <c r="C513" s="55">
+      <c r="C513" s="13">
         <v>11988</v>
       </c>
-      <c r="D513" s="55">
+      <c r="D513" s="13">
         <v>10</v>
       </c>
     </row>
@@ -16987,13 +17052,13 @@
       <c r="A514" s="13">
         <v>513</v>
       </c>
-      <c r="B514" s="55">
+      <c r="B514" s="13">
         <v>79</v>
       </c>
-      <c r="C514" s="55">
+      <c r="C514" s="13">
         <v>11989</v>
       </c>
-      <c r="D514" s="55">
+      <c r="D514" s="13">
         <v>10</v>
       </c>
     </row>
@@ -17001,13 +17066,13 @@
       <c r="A515" s="13">
         <v>514</v>
       </c>
-      <c r="B515" s="55">
+      <c r="B515" s="13">
         <v>79</v>
       </c>
-      <c r="C515" s="55">
+      <c r="C515" s="13">
         <v>11990</v>
       </c>
-      <c r="D515" s="55">
+      <c r="D515" s="13">
         <v>5</v>
       </c>
     </row>
@@ -17015,13 +17080,13 @@
       <c r="A516" s="13">
         <v>515</v>
       </c>
-      <c r="B516" s="55">
+      <c r="B516" s="13">
         <v>80</v>
       </c>
-      <c r="C516" s="55">
+      <c r="C516" s="13">
         <v>11991</v>
       </c>
-      <c r="D516" s="55">
+      <c r="D516" s="13">
         <v>20</v>
       </c>
     </row>
@@ -17029,13 +17094,13 @@
       <c r="A517" s="13">
         <v>516</v>
       </c>
-      <c r="B517" s="55">
+      <c r="B517" s="13">
         <v>80</v>
       </c>
-      <c r="C517" s="55">
+      <c r="C517" s="13">
         <v>11992</v>
       </c>
-      <c r="D517" s="55">
+      <c r="D517" s="13">
         <v>25</v>
       </c>
     </row>
@@ -17043,13 +17108,13 @@
       <c r="A518" s="13">
         <v>517</v>
       </c>
-      <c r="B518" s="55">
+      <c r="B518" s="13">
         <v>80</v>
       </c>
-      <c r="C518" s="55">
+      <c r="C518" s="13">
         <v>11993</v>
       </c>
-      <c r="D518" s="55">
+      <c r="D518" s="13">
         <v>5</v>
       </c>
     </row>
@@ -17057,13 +17122,13 @@
       <c r="A519" s="13">
         <v>518</v>
       </c>
-      <c r="B519" s="55">
+      <c r="B519" s="13">
         <v>80</v>
       </c>
-      <c r="C519" s="55">
+      <c r="C519" s="13">
         <v>11994</v>
       </c>
-      <c r="D519" s="55">
+      <c r="D519" s="13">
         <v>10</v>
       </c>
     </row>
@@ -17071,13 +17136,13 @@
       <c r="A520" s="13">
         <v>519</v>
       </c>
-      <c r="B520" s="55">
+      <c r="B520" s="13">
         <v>80</v>
       </c>
-      <c r="C520" s="55">
+      <c r="C520" s="13">
         <v>11995</v>
       </c>
-      <c r="D520" s="55">
+      <c r="D520" s="13">
         <v>10</v>
       </c>
     </row>
@@ -17085,13 +17150,13 @@
       <c r="A521" s="13">
         <v>520</v>
       </c>
-      <c r="B521" s="55">
+      <c r="B521" s="13">
         <v>80</v>
       </c>
-      <c r="C521" s="55">
+      <c r="C521" s="13">
         <v>11996</v>
       </c>
-      <c r="D521" s="55">
+      <c r="D521" s="13">
         <v>5</v>
       </c>
     </row>
@@ -17099,13 +17164,13 @@
       <c r="A522" s="13">
         <v>521</v>
       </c>
-      <c r="B522" s="55">
+      <c r="B522" s="13">
         <v>80</v>
       </c>
-      <c r="C522" s="55">
+      <c r="C522" s="13">
         <v>11997</v>
       </c>
-      <c r="D522" s="55">
+      <c r="D522" s="13">
         <v>10</v>
       </c>
     </row>
@@ -17113,13 +17178,13 @@
       <c r="A523" s="13">
         <v>522</v>
       </c>
-      <c r="B523" s="55">
+      <c r="B523" s="13">
         <v>80</v>
       </c>
-      <c r="C523" s="55">
+      <c r="C523" s="13">
         <v>11998</v>
       </c>
-      <c r="D523" s="55">
+      <c r="D523" s="13">
         <v>10</v>
       </c>
     </row>
@@ -17127,18 +17192,18 @@
       <c r="A524" s="13">
         <v>523</v>
       </c>
-      <c r="B524" s="55">
+      <c r="B524" s="13">
         <v>80</v>
       </c>
-      <c r="C524" s="55">
+      <c r="C524" s="13">
         <v>11999</v>
       </c>
-      <c r="D524" s="55">
+      <c r="D524" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="525" spans="1:4">
-      <c r="A525" s="1">
+      <c r="A525" s="13">
         <v>524</v>
       </c>
       <c r="B525" s="1">
@@ -17152,7 +17217,7 @@
       </c>
     </row>
     <row r="526" spans="1:4">
-      <c r="A526" s="1">
+      <c r="A526" s="13">
         <v>525</v>
       </c>
       <c r="B526" s="1">
@@ -17166,7 +17231,7 @@
       </c>
     </row>
     <row r="527" spans="1:4">
-      <c r="A527" s="1">
+      <c r="A527" s="13">
         <v>526</v>
       </c>
       <c r="B527" s="1">
@@ -17180,7 +17245,7 @@
       </c>
     </row>
     <row r="528" spans="1:4">
-      <c r="A528" s="1">
+      <c r="A528" s="13">
         <v>527</v>
       </c>
       <c r="B528" s="1">
@@ -17194,7 +17259,7 @@
       </c>
     </row>
     <row r="529" spans="1:4">
-      <c r="A529" s="1">
+      <c r="A529" s="13">
         <v>528</v>
       </c>
       <c r="B529" s="1">
@@ -17204,6 +17269,76 @@
         <v>12004</v>
       </c>
       <c r="D529" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="13">
+        <v>529</v>
+      </c>
+      <c r="B530" s="55">
+        <v>86</v>
+      </c>
+      <c r="C530" s="55">
+        <v>12005</v>
+      </c>
+      <c r="D530" s="55">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="13">
+        <v>530</v>
+      </c>
+      <c r="B531" s="55">
+        <v>86</v>
+      </c>
+      <c r="C531" s="55">
+        <v>12006</v>
+      </c>
+      <c r="D531" s="55">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="13">
+        <v>531</v>
+      </c>
+      <c r="B532" s="55">
+        <v>86</v>
+      </c>
+      <c r="C532" s="55">
+        <v>12007</v>
+      </c>
+      <c r="D532" s="55">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" s="13">
+        <v>532</v>
+      </c>
+      <c r="B533" s="55">
+        <v>86</v>
+      </c>
+      <c r="C533" s="55">
+        <v>12008</v>
+      </c>
+      <c r="D533" s="55">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="13">
+        <v>533</v>
+      </c>
+      <c r="B534" s="55">
+        <v>86</v>
+      </c>
+      <c r="C534" s="55">
+        <v>12009</v>
+      </c>
+      <c r="D534" s="55">
         <v>1</v>
       </c>
     </row>
@@ -17216,11 +17351,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F534"/>
+  <dimension ref="A1:F539"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A503" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E534" sqref="A534:E534"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E540" sqref="E540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -25036,548 +25171,633 @@
       </c>
     </row>
     <row r="498" spans="1:5">
-      <c r="A498" s="53">
+      <c r="A498" s="17">
         <v>497</v>
       </c>
-      <c r="B498" s="55">
+      <c r="B498" s="13">
         <v>11973</v>
       </c>
-      <c r="C498" s="55"/>
-      <c r="D498" s="55" t="s">
+      <c r="C498" s="13"/>
+      <c r="D498" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E498" s="56" t="s">
+      <c r="E498" s="21" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="499" spans="1:5">
-      <c r="A499" s="53">
+      <c r="A499" s="17">
         <v>498</v>
       </c>
-      <c r="B499" s="55">
+      <c r="B499" s="13">
         <v>11974</v>
       </c>
-      <c r="C499" s="55"/>
-      <c r="D499" s="55" t="s">
+      <c r="C499" s="13"/>
+      <c r="D499" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E499" s="56" t="s">
+      <c r="E499" s="21" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="500" spans="1:5">
-      <c r="A500" s="53">
+      <c r="A500" s="17">
         <v>499</v>
       </c>
-      <c r="B500" s="55">
+      <c r="B500" s="13">
         <v>11975</v>
       </c>
-      <c r="C500" s="55"/>
-      <c r="D500" s="55" t="s">
+      <c r="C500" s="13"/>
+      <c r="D500" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E500" s="56" t="s">
+      <c r="E500" s="21" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="501" spans="1:5">
-      <c r="A501" s="53">
+      <c r="A501" s="17">
         <v>500</v>
       </c>
-      <c r="B501" s="55">
+      <c r="B501" s="13">
         <v>11976</v>
       </c>
-      <c r="C501" s="55"/>
-      <c r="D501" s="57" t="s">
+      <c r="C501" s="13"/>
+      <c r="D501" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E501" s="56" t="s">
+      <c r="E501" s="21" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="502" spans="1:5">
-      <c r="A502" s="53">
+      <c r="A502" s="17">
         <v>501</v>
       </c>
-      <c r="B502" s="55">
+      <c r="B502" s="13">
         <v>11977</v>
       </c>
-      <c r="C502" s="55"/>
-      <c r="D502" s="57" t="s">
+      <c r="C502" s="13"/>
+      <c r="D502" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E502" s="56" t="s">
+      <c r="E502" s="21" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="503" spans="1:5">
-      <c r="A503" s="53">
+      <c r="A503" s="17">
         <v>502</v>
       </c>
-      <c r="B503" s="55">
+      <c r="B503" s="13">
         <v>11978</v>
       </c>
-      <c r="C503" s="55"/>
-      <c r="D503" s="57" t="s">
+      <c r="C503" s="13"/>
+      <c r="D503" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E503" s="56" t="s">
+      <c r="E503" s="21" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="504" spans="1:5">
-      <c r="A504" s="53">
+      <c r="A504" s="17">
         <v>503</v>
       </c>
-      <c r="B504" s="55">
+      <c r="B504" s="13">
         <v>11979</v>
       </c>
-      <c r="C504" s="55"/>
-      <c r="D504" s="57" t="s">
+      <c r="C504" s="13"/>
+      <c r="D504" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E504" s="56" t="s">
+      <c r="E504" s="21" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="505" spans="1:5">
-      <c r="A505" s="53">
+      <c r="A505" s="17">
         <v>504</v>
       </c>
-      <c r="B505" s="55">
+      <c r="B505" s="13">
         <v>11980</v>
       </c>
-      <c r="C505" s="55"/>
-      <c r="D505" s="57" t="s">
+      <c r="C505" s="13"/>
+      <c r="D505" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E505" s="56" t="s">
+      <c r="E505" s="21" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="506" spans="1:5">
-      <c r="A506" s="53">
+      <c r="A506" s="17">
         <v>505</v>
       </c>
-      <c r="B506" s="55">
+      <c r="B506" s="13">
         <v>11981</v>
       </c>
-      <c r="C506" s="55"/>
-      <c r="D506" s="57" t="s">
+      <c r="C506" s="13"/>
+      <c r="D506" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E506" s="56" t="s">
+      <c r="E506" s="21" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="507" spans="1:5">
-      <c r="A507" s="53">
+      <c r="A507" s="17">
         <v>506</v>
       </c>
-      <c r="B507" s="55">
+      <c r="B507" s="13">
         <v>11982</v>
       </c>
-      <c r="C507" s="55"/>
-      <c r="D507" s="55" t="s">
+      <c r="C507" s="13"/>
+      <c r="D507" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E507" s="56" t="s">
+      <c r="E507" s="21" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="508" spans="1:5">
-      <c r="A508" s="53">
+      <c r="A508" s="17">
         <v>507</v>
       </c>
-      <c r="B508" s="55">
+      <c r="B508" s="13">
         <v>11983</v>
       </c>
-      <c r="C508" s="55"/>
-      <c r="D508" s="55" t="s">
+      <c r="C508" s="13"/>
+      <c r="D508" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E508" s="56" t="s">
+      <c r="E508" s="21" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="509" spans="1:5">
-      <c r="A509" s="53">
+      <c r="A509" s="17">
         <v>508</v>
       </c>
-      <c r="B509" s="55">
+      <c r="B509" s="13">
         <v>11984</v>
       </c>
-      <c r="C509" s="55"/>
-      <c r="D509" s="55" t="s">
+      <c r="C509" s="13"/>
+      <c r="D509" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E509" s="56" t="s">
+      <c r="E509" s="21" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="510" spans="1:5">
-      <c r="A510" s="53">
+      <c r="A510" s="17">
         <v>509</v>
       </c>
-      <c r="B510" s="55">
+      <c r="B510" s="13">
         <v>11985</v>
       </c>
-      <c r="C510" s="55"/>
-      <c r="D510" s="57" t="s">
+      <c r="C510" s="13"/>
+      <c r="D510" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E510" s="56" t="s">
+      <c r="E510" s="21" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="511" spans="1:5">
-      <c r="A511" s="53">
+      <c r="A511" s="17">
         <v>510</v>
       </c>
-      <c r="B511" s="55">
+      <c r="B511" s="13">
         <v>11986</v>
       </c>
-      <c r="C511" s="55"/>
-      <c r="D511" s="57" t="s">
+      <c r="C511" s="13"/>
+      <c r="D511" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E511" s="56" t="s">
+      <c r="E511" s="21" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="512" spans="1:5">
-      <c r="A512" s="53">
+      <c r="A512" s="17">
         <v>511</v>
       </c>
-      <c r="B512" s="55">
+      <c r="B512" s="13">
         <v>11987</v>
       </c>
-      <c r="C512" s="55"/>
-      <c r="D512" s="57" t="s">
+      <c r="C512" s="13"/>
+      <c r="D512" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E512" s="56" t="s">
+      <c r="E512" s="21" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="513" spans="1:5">
-      <c r="A513" s="53">
+      <c r="A513" s="17">
         <v>512</v>
       </c>
-      <c r="B513" s="55">
+      <c r="B513" s="13">
         <v>11988</v>
       </c>
-      <c r="C513" s="55"/>
-      <c r="D513" s="57" t="s">
+      <c r="C513" s="13"/>
+      <c r="D513" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E513" s="56" t="s">
+      <c r="E513" s="21" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="514" spans="1:5">
-      <c r="A514" s="53">
+      <c r="A514" s="17">
         <v>513</v>
       </c>
-      <c r="B514" s="55">
+      <c r="B514" s="13">
         <v>11989</v>
       </c>
-      <c r="C514" s="55"/>
-      <c r="D514" s="57" t="s">
+      <c r="C514" s="13"/>
+      <c r="D514" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E514" s="56" t="s">
+      <c r="E514" s="21" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="515" spans="1:5">
-      <c r="A515" s="53">
+      <c r="A515" s="17">
         <v>514</v>
       </c>
-      <c r="B515" s="55">
+      <c r="B515" s="13">
         <v>11990</v>
       </c>
-      <c r="C515" s="55"/>
-      <c r="D515" s="57" t="s">
+      <c r="C515" s="13"/>
+      <c r="D515" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E515" s="56" t="s">
+      <c r="E515" s="21" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="516" spans="1:5">
-      <c r="A516" s="53">
+      <c r="A516" s="17">
         <v>515</v>
       </c>
-      <c r="B516" s="55">
+      <c r="B516" s="13">
         <v>11991</v>
       </c>
-      <c r="C516" s="55"/>
-      <c r="D516" s="55" t="s">
+      <c r="C516" s="13"/>
+      <c r="D516" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E516" s="56" t="s">
+      <c r="E516" s="21" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="517" spans="1:5">
-      <c r="A517" s="53">
+      <c r="A517" s="17">
         <v>516</v>
       </c>
-      <c r="B517" s="55">
+      <c r="B517" s="13">
         <v>11992</v>
       </c>
-      <c r="C517" s="55"/>
-      <c r="D517" s="55" t="s">
+      <c r="C517" s="13"/>
+      <c r="D517" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E517" s="56" t="s">
+      <c r="E517" s="21" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="518" spans="1:5">
-      <c r="A518" s="53">
+      <c r="A518" s="17">
         <v>517</v>
       </c>
-      <c r="B518" s="55">
+      <c r="B518" s="13">
         <v>11993</v>
       </c>
-      <c r="C518" s="55"/>
-      <c r="D518" s="57" t="s">
+      <c r="C518" s="13"/>
+      <c r="D518" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="E518" s="56" t="s">
+      <c r="E518" s="21" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="519" spans="1:5">
-      <c r="A519" s="53">
+      <c r="A519" s="17">
         <v>518</v>
       </c>
-      <c r="B519" s="55">
+      <c r="B519" s="13">
         <v>11994</v>
       </c>
-      <c r="C519" s="55"/>
-      <c r="D519" s="57" t="s">
+      <c r="C519" s="13"/>
+      <c r="D519" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E519" s="56" t="s">
+      <c r="E519" s="21" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="520" spans="1:5">
-      <c r="A520" s="53">
+      <c r="A520" s="17">
         <v>519</v>
       </c>
-      <c r="B520" s="55">
+      <c r="B520" s="13">
         <v>11995</v>
       </c>
-      <c r="C520" s="55"/>
-      <c r="D520" s="57" t="s">
+      <c r="C520" s="13"/>
+      <c r="D520" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E520" s="56" t="s">
+      <c r="E520" s="21" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="521" spans="1:5">
-      <c r="A521" s="53">
+      <c r="A521" s="17">
         <v>520</v>
       </c>
-      <c r="B521" s="55">
+      <c r="B521" s="13">
         <v>11996</v>
       </c>
-      <c r="C521" s="55"/>
-      <c r="D521" s="57" t="s">
+      <c r="C521" s="13"/>
+      <c r="D521" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="E521" s="56" t="s">
+      <c r="E521" s="21" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="522" spans="1:5">
-      <c r="A522" s="53">
+      <c r="A522" s="17">
         <v>521</v>
       </c>
-      <c r="B522" s="55">
+      <c r="B522" s="13">
         <v>11997</v>
       </c>
-      <c r="C522" s="55"/>
-      <c r="D522" s="57" t="s">
+      <c r="C522" s="13"/>
+      <c r="D522" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E522" s="56" t="s">
+      <c r="E522" s="21" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="523" spans="1:5">
-      <c r="A523" s="53">
+      <c r="A523" s="17">
         <v>522</v>
       </c>
-      <c r="B523" s="55">
+      <c r="B523" s="13">
         <v>11998</v>
       </c>
-      <c r="C523" s="55"/>
-      <c r="D523" s="57" t="s">
+      <c r="C523" s="13"/>
+      <c r="D523" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E523" s="56" t="s">
+      <c r="E523" s="21" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="524" spans="1:5">
-      <c r="A524" s="53">
+      <c r="A524" s="17">
         <v>523</v>
       </c>
-      <c r="B524" s="55">
+      <c r="B524" s="13">
         <v>11999</v>
       </c>
-      <c r="C524" s="55"/>
-      <c r="D524" s="57" t="s">
+      <c r="C524" s="13"/>
+      <c r="D524" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="E524" s="56" t="s">
+      <c r="E524" s="21" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="525" spans="1:5">
-      <c r="A525" s="53">
+      <c r="A525" s="17">
         <v>524</v>
       </c>
       <c r="B525" s="13">
         <v>12000</v>
       </c>
-      <c r="D525" s="3" t="s">
+      <c r="C525" s="13"/>
+      <c r="D525" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="E525" s="41" t="s">
+      <c r="E525" s="21" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="526" spans="1:5">
-      <c r="A526" s="53">
+      <c r="A526" s="17">
         <v>525</v>
       </c>
       <c r="B526" s="13">
         <v>12000</v>
       </c>
-      <c r="D526" s="3" t="s">
+      <c r="C526" s="13"/>
+      <c r="D526" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="E526" s="41" t="s">
+      <c r="E526" s="21" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="527" spans="1:5">
-      <c r="A527" s="53">
+      <c r="A527" s="17">
         <v>526</v>
       </c>
       <c r="B527" s="13">
         <v>12000</v>
       </c>
-      <c r="D527" s="3" t="s">
+      <c r="C527" s="13"/>
+      <c r="D527" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="E527" s="41" t="s">
+      <c r="E527" s="21" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="528" spans="1:5">
-      <c r="A528" s="53">
+      <c r="A528" s="17">
         <v>527</v>
       </c>
       <c r="B528" s="13">
         <v>12001</v>
       </c>
-      <c r="D528" s="3" t="s">
+      <c r="C528" s="13"/>
+      <c r="D528" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="E528" s="41" t="s">
+      <c r="E528" s="21" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="529" spans="1:5">
-      <c r="A529" s="53">
+      <c r="A529" s="17">
         <v>528</v>
       </c>
       <c r="B529" s="13">
         <v>12001</v>
       </c>
-      <c r="D529" s="3" t="s">
+      <c r="C529" s="13"/>
+      <c r="D529" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="E529" s="41" t="s">
+      <c r="E529" s="21" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="530" spans="1:5">
-      <c r="A530" s="53">
+      <c r="A530" s="17">
         <v>529</v>
       </c>
       <c r="B530" s="13">
         <v>12002</v>
       </c>
-      <c r="D530" s="3" t="s">
+      <c r="C530" s="13"/>
+      <c r="D530" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="E530" s="41" t="s">
+      <c r="E530" s="21" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="531" spans="1:5">
-      <c r="A531" s="53">
+      <c r="A531" s="17">
         <v>530</v>
       </c>
       <c r="B531" s="13">
         <v>12002</v>
       </c>
-      <c r="D531" s="3" t="s">
+      <c r="C531" s="13"/>
+      <c r="D531" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="E531" s="41" t="s">
+      <c r="E531" s="21" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="532" spans="1:5">
-      <c r="A532" s="53">
+      <c r="A532" s="17">
         <v>531</v>
       </c>
       <c r="B532" s="13">
         <v>12003</v>
       </c>
-      <c r="D532" s="3" t="s">
+      <c r="C532" s="13"/>
+      <c r="D532" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="E532" s="41" t="s">
+      <c r="E532" s="21" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="533" spans="1:5">
-      <c r="A533" s="53">
+      <c r="A533" s="17">
         <v>532</v>
       </c>
       <c r="B533" s="13">
         <v>12003</v>
       </c>
-      <c r="D533" s="3" t="s">
+      <c r="C533" s="13"/>
+      <c r="D533" s="15" t="s">
         <v>807</v>
       </c>
-      <c r="E533" s="41" t="s">
+      <c r="E533" s="21" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="534" spans="1:5">
-      <c r="A534" s="53">
+      <c r="A534" s="17">
         <v>533</v>
       </c>
       <c r="B534" s="13">
         <v>12004</v>
       </c>
-      <c r="D534" s="3" t="s">
+      <c r="C534" s="13"/>
+      <c r="D534" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="E534" s="41" t="s">
+      <c r="E534" s="21" t="s">
         <v>801</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" s="17">
+        <v>534</v>
+      </c>
+      <c r="B535" s="55">
+        <v>12005</v>
+      </c>
+      <c r="C535" s="55"/>
+      <c r="D535" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E535" s="56" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" s="17">
+        <v>535</v>
+      </c>
+      <c r="B536" s="55">
+        <v>12006</v>
+      </c>
+      <c r="C536" s="55"/>
+      <c r="D536" s="57" t="s">
+        <v>802</v>
+      </c>
+      <c r="E536" s="56" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" s="17">
+        <v>536</v>
+      </c>
+      <c r="B537" s="55">
+        <v>12007</v>
+      </c>
+      <c r="C537" s="55"/>
+      <c r="D537" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="E537" s="56" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5">
+      <c r="A538" s="17">
+        <v>537</v>
+      </c>
+      <c r="B538" s="55">
+        <v>12008</v>
+      </c>
+      <c r="C538" s="55"/>
+      <c r="D538" s="57" t="s">
+        <v>802</v>
+      </c>
+      <c r="E538" s="56" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" s="17">
+        <v>538</v>
+      </c>
+      <c r="B539" s="55">
+        <v>12009</v>
+      </c>
+      <c r="C539" s="55"/>
+      <c r="D539" s="57" t="s">
+        <v>794</v>
+      </c>
+      <c r="E539" s="56" t="s">
+        <v>822</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -482,10 +482,10 @@
     <t>欢乐礼包</t>
   </si>
   <si>
-    <t>超级夺宝银宝箱</t>
-  </si>
-  <si>
-    <t>超级夺宝金宝箱</t>
+    <t>超级夺宝普通宝箱</t>
+  </si>
+  <si>
+    <t>超级夺宝豪华宝箱</t>
   </si>
   <si>
     <t>祈福有礼</t>
@@ -5295,10 +5295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -5339,76 +5339,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -5419,25 +5355,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5460,9 +5379,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5474,8 +5461,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5488,12 +5476,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5550,7 +5550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5562,13 +5568,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5580,19 +5604,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5604,19 +5616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5634,13 +5634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5652,25 +5646,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5682,19 +5676,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5706,13 +5706,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5752,60 +5752,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -5841,6 +5787,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -5855,10 +5855,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5867,136 +5867,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6472,10 +6472,10 @@
   <sheetPr/>
   <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -19230,9 +19230,9 @@
   <dimension ref="A1:F616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A572" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F611" sqref="F611"/>
+      <selection pane="bottomLeft" activeCell="E582" sqref="E582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -30213,7 +30213,7 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -5317,15 +5317,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>prop_box_xiyou</t>
-  </si>
-  <si>
-    <t>prop_box_shishi</t>
-  </si>
-  <si>
-    <t>prop_box_chuanshuo</t>
-  </si>
-  <si>
     <t>jing_bi</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5617,10 +5608,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>prop_fish_drop_act_0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>苹果1</t>
     </r>
@@ -5795,6 +5782,22 @@
   </si>
   <si>
     <t>cyqf_qfzl_3</t>
+  </si>
+  <si>
+    <t>prop_fish_drop_act_0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_box_xiyou</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_box_shishi</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_box_chuanshuo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6411,7 +6414,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A108" sqref="A108:A110"/>
+      <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9457,7 +9460,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="38" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C108" s="38">
         <v>1633996800</v>
@@ -9480,7 +9483,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="38" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C109" s="38">
         <v>1633996800</v>
@@ -9503,7 +9506,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="38" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C110" s="38">
         <v>1633996800</v>
@@ -9533,9 +9536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10825,8 +10828,8 @@
       <c r="B92">
         <v>91</v>
       </c>
-      <c r="C92" s="38" t="s">
-        <v>766</v>
+      <c r="C92" s="4" t="s">
+        <v>819</v>
       </c>
       <c r="D92" s="38">
         <v>1</v>
@@ -10839,8 +10842,8 @@
       <c r="B93">
         <v>92</v>
       </c>
-      <c r="C93" s="38" t="s">
-        <v>767</v>
+      <c r="C93" s="4" t="s">
+        <v>820</v>
       </c>
       <c r="D93" s="38">
         <v>1</v>
@@ -10853,8 +10856,8 @@
       <c r="B94">
         <v>93</v>
       </c>
-      <c r="C94" s="38" t="s">
-        <v>768</v>
+      <c r="C94" s="4" t="s">
+        <v>821</v>
       </c>
       <c r="D94" s="38">
         <v>1</v>
@@ -10868,7 +10871,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>793</v>
+        <v>818</v>
       </c>
       <c r="D95" s="38">
         <v>300</v>
@@ -30234,10 +30237,10 @@
         <v>12115</v>
       </c>
       <c r="D644" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E644" s="9" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="645" spans="1:5">
@@ -30248,10 +30251,10 @@
         <v>12116</v>
       </c>
       <c r="D645" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E645" s="57" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -30262,10 +30265,10 @@
         <v>12117</v>
       </c>
       <c r="D646" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E646" s="57" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -30276,10 +30279,10 @@
         <v>12118</v>
       </c>
       <c r="D647" s="4" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E647" s="57" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -30290,10 +30293,10 @@
         <v>12119</v>
       </c>
       <c r="D648" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E648" s="57" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -30304,10 +30307,10 @@
         <v>12120</v>
       </c>
       <c r="D649" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E649" s="57" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -30318,10 +30321,10 @@
         <v>12121</v>
       </c>
       <c r="D650" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E650" s="57" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -30332,10 +30335,10 @@
         <v>12122</v>
       </c>
       <c r="D651" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E651" s="57" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="652" spans="1:5">
@@ -30346,10 +30349,10 @@
         <v>12123</v>
       </c>
       <c r="D652" s="4" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E652" s="57" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="653" spans="1:5">
@@ -30360,10 +30363,10 @@
         <v>12124</v>
       </c>
       <c r="D653" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E653" s="57" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -30374,10 +30377,10 @@
         <v>12125</v>
       </c>
       <c r="D654" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E654" s="57" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="655" spans="1:5">
@@ -30388,10 +30391,10 @@
         <v>12126</v>
       </c>
       <c r="D655" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E655" s="57" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -30402,10 +30405,10 @@
         <v>12127</v>
       </c>
       <c r="D656" s="4" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E656" s="57" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -30416,10 +30419,10 @@
         <v>12128</v>
       </c>
       <c r="D657" s="4" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E657" s="57" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="658" spans="1:5">
@@ -30430,10 +30433,10 @@
         <v>12129</v>
       </c>
       <c r="D658" s="4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E658" s="57" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -30444,10 +30447,10 @@
         <v>12130</v>
       </c>
       <c r="C659" s="56" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="E659" s="57" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -30458,10 +30461,10 @@
         <v>12131</v>
       </c>
       <c r="C660" s="56" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E660" s="57" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -30472,10 +30475,10 @@
         <v>12132</v>
       </c>
       <c r="C661" s="56" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E661" s="57" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -30486,10 +30489,10 @@
         <v>12133</v>
       </c>
       <c r="C662" s="56" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E662" s="57" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -30500,10 +30503,10 @@
         <v>12134</v>
       </c>
       <c r="C663" s="56" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E663" s="57" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -30514,10 +30517,10 @@
         <v>12135</v>
       </c>
       <c r="D664" s="56" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E664" s="57" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -30528,10 +30531,10 @@
         <v>12136</v>
       </c>
       <c r="D665" s="56" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E665" s="57" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -30542,10 +30545,10 @@
         <v>12137</v>
       </c>
       <c r="D666" s="56" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E666" s="57" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="667" spans="1:5">
@@ -30556,10 +30559,10 @@
         <v>12138</v>
       </c>
       <c r="D667" s="56" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="E667" s="57" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="668" spans="1:5">
@@ -30570,10 +30573,10 @@
         <v>12139</v>
       </c>
       <c r="D668" s="56" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E668" s="57" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -30584,10 +30587,10 @@
         <v>12140</v>
       </c>
       <c r="D669" s="56" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E669" s="57" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -30598,10 +30601,10 @@
         <v>12141</v>
       </c>
       <c r="D670" s="56" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E670" s="57" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -30612,10 +30615,10 @@
         <v>12142</v>
       </c>
       <c r="D671" s="56" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="E671" s="57" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -30626,10 +30629,10 @@
         <v>12143</v>
       </c>
       <c r="D672" s="56" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E672" s="57" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -30640,10 +30643,10 @@
         <v>12144</v>
       </c>
       <c r="D673" s="56" t="s">
+        <v>808</v>
+      </c>
+      <c r="E673" s="57" t="s">
         <v>812</v>
-      </c>
-      <c r="E673" s="57" t="s">
-        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -32241,7 +32244,7 @@
         <v>107</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>737</v>
@@ -32255,7 +32258,7 @@
         <v>108</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>737</v>
@@ -32269,7 +32272,7 @@
         <v>109</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>737</v>
@@ -32289,7 +32292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
@@ -32471,7 +32474,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="58" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B16" s="59">
         <v>104</v>
@@ -32482,7 +32485,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="58" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B17" s="59">
         <v>105</v>
@@ -32493,7 +32496,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="58" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B18" s="59">
         <v>106</v>
@@ -32504,7 +32507,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="58" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B19" s="59">
         <v>107</v>
@@ -32515,7 +32518,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="58" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B20" s="59">
         <v>108</v>
@@ -32526,7 +32529,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="58" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B21" s="59">
         <v>109</v>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -5633,23 +5633,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>亲嘴烧3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0片</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>抽纸5包</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -5797,6 +5780,10 @@
   </si>
   <si>
     <t>prop_box_chuanshuo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲嘴烧30袋</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -9536,7 +9523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
@@ -10829,7 +10816,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D92" s="38">
         <v>1</v>
@@ -10843,7 +10830,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D93" s="38">
         <v>1</v>
@@ -10857,7 +10844,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D94" s="38">
         <v>1</v>
@@ -10871,7 +10858,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D95" s="38">
         <v>300</v>
@@ -20311,9 +20298,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F673"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A650" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B659" sqref="B659:B673"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A659" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K653" sqref="K653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -30450,7 +30437,7 @@
         <v>790</v>
       </c>
       <c r="E659" s="57" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -30464,7 +30451,7 @@
         <v>791</v>
       </c>
       <c r="E660" s="57" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -30478,7 +30465,7 @@
         <v>792</v>
       </c>
       <c r="E661" s="57" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -30489,10 +30476,10 @@
         <v>12133</v>
       </c>
       <c r="C662" s="56" t="s">
-        <v>793</v>
+        <v>821</v>
       </c>
       <c r="E662" s="57" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -30503,10 +30490,10 @@
         <v>12134</v>
       </c>
       <c r="C663" s="56" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E663" s="57" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -30517,10 +30504,10 @@
         <v>12135</v>
       </c>
       <c r="D664" s="56" t="s">
+        <v>794</v>
+      </c>
+      <c r="E664" s="57" t="s">
         <v>795</v>
-      </c>
-      <c r="E664" s="57" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -30531,10 +30518,10 @@
         <v>12136</v>
       </c>
       <c r="D665" s="56" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E665" s="57" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -30545,10 +30532,10 @@
         <v>12137</v>
       </c>
       <c r="D666" s="56" t="s">
+        <v>798</v>
+      </c>
+      <c r="E666" s="57" t="s">
         <v>799</v>
-      </c>
-      <c r="E666" s="57" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="667" spans="1:5">
@@ -30559,10 +30546,10 @@
         <v>12138</v>
       </c>
       <c r="D667" s="56" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E667" s="57" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="668" spans="1:5">
@@ -30573,10 +30560,10 @@
         <v>12139</v>
       </c>
       <c r="D668" s="56" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E668" s="57" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -30587,10 +30574,10 @@
         <v>12140</v>
       </c>
       <c r="D669" s="56" t="s">
+        <v>804</v>
+      </c>
+      <c r="E669" s="57" t="s">
         <v>805</v>
-      </c>
-      <c r="E669" s="57" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -30601,10 +30588,10 @@
         <v>12141</v>
       </c>
       <c r="D670" s="56" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E670" s="57" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -30615,10 +30602,10 @@
         <v>12142</v>
       </c>
       <c r="D671" s="56" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E671" s="57" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -30629,10 +30616,10 @@
         <v>12143</v>
       </c>
       <c r="D672" s="56" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E672" s="57" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -30643,10 +30630,10 @@
         <v>12144</v>
       </c>
       <c r="D673" s="56" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E673" s="57" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -32244,7 +32231,7 @@
         <v>107</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>737</v>
@@ -32258,7 +32245,7 @@
         <v>108</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>737</v>
@@ -32272,7 +32259,7 @@
         <v>109</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>737</v>
@@ -32507,7 +32494,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="58" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B19" s="59">
         <v>107</v>
@@ -32518,7 +32505,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="58" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B20" s="59">
         <v>108</v>
@@ -32529,7 +32516,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="58" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B21" s="59">
         <v>109</v>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.28\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="830">
   <si>
     <t>id|</t>
   </si>
@@ -5745,10 +5745,6 @@
       </rPr>
       <t>,1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>lxjkh_024_jfphb_rank</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -6449,7 +6445,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
+      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9426,7 +9422,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C105" s="38">
         <v>1640044800</v>
@@ -9449,7 +9445,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C106" s="38">
         <v>1640044800</v>
@@ -9472,7 +9468,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C107" s="38">
         <v>1640044800</v>
@@ -9498,10 +9494,10 @@
         <v>788</v>
       </c>
       <c r="C108" s="38">
-        <v>1633996800</v>
+        <v>1640649600</v>
       </c>
       <c r="D108" s="38">
-        <v>1634572799</v>
+        <v>1641225599</v>
       </c>
       <c r="E108" s="14">
         <v>94</v>
@@ -9521,10 +9517,10 @@
         <v>788</v>
       </c>
       <c r="C109" s="38">
-        <v>1633996800</v>
+        <v>1640649600</v>
       </c>
       <c r="D109" s="38">
-        <v>1634572799</v>
+        <v>1641225599</v>
       </c>
       <c r="E109" s="14">
         <v>94</v>
@@ -9544,10 +9540,10 @@
         <v>788</v>
       </c>
       <c r="C110" s="38">
-        <v>1633996800</v>
+        <v>1640649600</v>
       </c>
       <c r="D110" s="38">
-        <v>1634572799</v>
+        <v>1641225599</v>
       </c>
       <c r="E110" s="14">
         <v>94</v>
@@ -9564,7 +9560,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="60" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C111" s="60">
         <v>1635206400</v>
@@ -9601,7 +9597,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92:C94"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10892,7 +10888,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D92" s="38">
         <v>1</v>
@@ -10906,7 +10902,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D93" s="38">
         <v>1</v>
@@ -10920,7 +10916,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D94" s="38">
         <v>1</v>
@@ -10934,7 +10930,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D95" s="38">
         <v>300</v>
@@ -10948,7 +10944,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D96" s="38">
         <v>1</v>
@@ -30622,7 +30618,7 @@
         <v>12133</v>
       </c>
       <c r="C662" s="56" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E662" s="57" t="s">
         <v>811</v>
@@ -30790,10 +30786,10 @@
         <v>12145</v>
       </c>
       <c r="D674" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E674" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -30804,10 +30800,10 @@
         <v>12146</v>
       </c>
       <c r="D675" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E675" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -30818,10 +30814,10 @@
         <v>12147</v>
       </c>
       <c r="D676" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="E676" s="9" t="s">
         <v>825</v>
-      </c>
-      <c r="E676" s="9" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -30835,7 +30831,7 @@
         <v>766</v>
       </c>
       <c r="E677" s="9" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -32247,7 +32243,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -32429,46 +32425,19 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="39">
-        <v>107</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>812</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
+      <c r="A12" s="39"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="39">
-        <v>108</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>812</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
+      <c r="A13" s="39"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="39">
-        <v>109</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>812</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
+      <c r="A14" s="39"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -32696,7 +32665,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="58" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B19" s="59">
         <v>107</v>
@@ -32707,7 +32676,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="58" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B20" s="59">
         <v>108</v>
@@ -32718,7 +32687,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="58" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B21" s="59">
         <v>109</v>

--- a/config_debug/box_exchange_server.xlsx
+++ b/config_debug/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5600,10 +5600,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>祈福赠礼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>苹果1</t>
     </r>
@@ -5816,6 +5812,10 @@
   </si>
   <si>
     <t>圣诞礼包</t>
+  </si>
+  <si>
+    <t>元旦抽大奖</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6445,7 +6445,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9422,7 +9422,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="55" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C105" s="38">
         <v>1640044800</v>
@@ -9445,7 +9445,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="55" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C106" s="38">
         <v>1640044800</v>
@@ -9468,7 +9468,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="55" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C107" s="38">
         <v>1640044800</v>
@@ -9491,7 +9491,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="38" t="s">
-        <v>788</v>
+        <v>829</v>
       </c>
       <c r="C108" s="38">
         <v>1640649600</v>
@@ -9514,7 +9514,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="38" t="s">
-        <v>788</v>
+        <v>829</v>
       </c>
       <c r="C109" s="38">
         <v>1640649600</v>
@@ -9537,7 +9537,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="38" t="s">
-        <v>788</v>
+        <v>829</v>
       </c>
       <c r="C110" s="38">
         <v>1640649600</v>
@@ -9560,7 +9560,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="60" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C111" s="60">
         <v>1635206400</v>
@@ -10888,7 +10888,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D92" s="38">
         <v>1</v>
@@ -10902,7 +10902,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D93" s="38">
         <v>1</v>
@@ -10916,7 +10916,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D94" s="38">
         <v>1</v>
@@ -10930,7 +10930,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D95" s="38">
         <v>300</v>
@@ -10944,7 +10944,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="38" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D96" s="38">
         <v>1</v>
@@ -30576,10 +30576,10 @@
         <v>12130</v>
       </c>
       <c r="C659" s="56" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E659" s="57" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -30590,10 +30590,10 @@
         <v>12131</v>
       </c>
       <c r="C660" s="56" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E660" s="57" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -30604,10 +30604,10 @@
         <v>12132</v>
       </c>
       <c r="C661" s="56" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E661" s="57" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -30618,10 +30618,10 @@
         <v>12133</v>
       </c>
       <c r="C662" s="56" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E662" s="57" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -30632,10 +30632,10 @@
         <v>12134</v>
       </c>
       <c r="C663" s="56" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E663" s="57" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -30646,10 +30646,10 @@
         <v>12135</v>
       </c>
       <c r="D664" s="56" t="s">
+        <v>792</v>
+      </c>
+      <c r="E664" s="57" t="s">
         <v>793</v>
-      </c>
-      <c r="E664" s="57" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -30660,10 +30660,10 @@
         <v>12136</v>
       </c>
       <c r="D665" s="56" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E665" s="57" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -30674,10 +30674,10 @@
         <v>12137</v>
       </c>
       <c r="D666" s="56" t="s">
+        <v>796</v>
+      </c>
+      <c r="E666" s="57" t="s">
         <v>797</v>
-      </c>
-      <c r="E666" s="57" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="667" spans="1:5">
@@ -30688,10 +30688,10 @@
         <v>12138</v>
       </c>
       <c r="D667" s="56" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E667" s="57" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="668" spans="1:5">
@@ -30702,10 +30702,10 @@
         <v>12139</v>
       </c>
       <c r="D668" s="56" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E668" s="57" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -30716,10 +30716,10 @@
         <v>12140</v>
       </c>
       <c r="D669" s="56" t="s">
+        <v>802</v>
+      </c>
+      <c r="E669" s="57" t="s">
         <v>803</v>
-      </c>
-      <c r="E669" s="57" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -30730,10 +30730,10 @@
         <v>12141</v>
       </c>
       <c r="D670" s="56" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E670" s="57" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -30744,10 +30744,10 @@
         <v>12142</v>
       </c>
       <c r="D671" s="56" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E671" s="57" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -30758,10 +30758,10 @@
         <v>12143</v>
       </c>
       <c r="D672" s="56" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E672" s="57" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -30772,10 +30772,10 @@
         <v>12144</v>
       </c>
       <c r="D673" s="56" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E673" s="57" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -30786,10 +30786,10 @@
         <v>12145</v>
       </c>
       <c r="D674" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E674" s="9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -30800,10 +30800,10 @@
         <v>12146</v>
       </c>
       <c r="D675" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E675" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -30814,10 +30814,10 @@
         <v>12147</v>
       </c>
       <c r="D676" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="E676" s="9" t="s">
         <v>824</v>
-      </c>
-      <c r="E676" s="9" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -30831,7 +30831,7 @@
         <v>766</v>
       </c>
       <c r="E677" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>
@@ -32665,7 +32665,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="58" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B19" s="59">
         <v>107</v>
@@ -32676,7 +32676,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="58" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B20" s="59">
         <v>108</v>
@@ -32687,7 +32687,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="58" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B21" s="59">
         <v>109</v>
